--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3234177</v>
+        <v>3234974</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,73 +7054,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>1.6</v>
+      </c>
+      <c r="O74">
         <v>3.6</v>
       </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>1.95</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
       <c r="P74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3234974</v>
+        <v>3234177</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,73 +7143,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="I75">
+      <c r="J75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75">
+        <v>1.85</v>
+      </c>
+      <c r="L75">
+        <v>3.6</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>1.95</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>-0.5</v>
+      </c>
+      <c r="R75">
+        <v>1.925</v>
+      </c>
+      <c r="S75">
+        <v>1.875</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.8</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>3</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
+        <v>0.875</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75">
-        <v>1.75</v>
-      </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>1.6</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>6</v>
-      </c>
-      <c r="Q75">
-        <v>-0.75</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>0.8</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>0.8</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3898957</v>
+        <v>3899778</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,55 +31440,55 @@
         <v>44534.75</v>
       </c>
       <c r="F348" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G348" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J348" t="s">
         <v>53</v>
       </c>
       <c r="K348">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="L348">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M348">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N348">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O348">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P348">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q348">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S348">
         <v>1.8</v>
       </c>
       <c r="T348">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V348">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W348">
         <v>-1</v>
@@ -31497,7 +31497,7 @@
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z348">
         <v>-1</v>
@@ -31506,7 +31506,7 @@
         <v>0.8</v>
       </c>
       <c r="AB348">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC348">
         <v>-1</v>
@@ -31517,7 +31517,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>3899778</v>
+        <v>3899774</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31529,76 +31529,76 @@
         <v>44534.75</v>
       </c>
       <c r="F349" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H349">
         <v>1</v>
       </c>
       <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349" t="s">
+        <v>52</v>
+      </c>
+      <c r="K349">
         <v>4</v>
-      </c>
-      <c r="J349" t="s">
-        <v>53</v>
-      </c>
-      <c r="K349">
-        <v>2.05</v>
       </c>
       <c r="L349">
         <v>3.4</v>
       </c>
       <c r="M349">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N349">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O349">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P349">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="Q349">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R349">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S349">
+        <v>2.025</v>
+      </c>
+      <c r="T349">
+        <v>2.5</v>
+      </c>
+      <c r="U349">
         <v>1.8</v>
       </c>
-      <c r="T349">
-        <v>2.75</v>
-      </c>
-      <c r="U349">
-        <v>1.85</v>
-      </c>
       <c r="V349">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA349">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31606,7 +31606,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>3899774</v>
+        <v>3898957</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31618,76 +31618,76 @@
         <v>44534.75</v>
       </c>
       <c r="F350" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G350" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L350">
+        <v>3.25</v>
+      </c>
+      <c r="M350">
+        <v>2.05</v>
+      </c>
+      <c r="N350">
+        <v>3.5</v>
+      </c>
+      <c r="O350">
         <v>3.4</v>
       </c>
-      <c r="M350">
+      <c r="P350">
+        <v>2.1</v>
+      </c>
+      <c r="Q350">
+        <v>0.25</v>
+      </c>
+      <c r="R350">
+        <v>2.05</v>
+      </c>
+      <c r="S350">
         <v>1.8</v>
       </c>
-      <c r="N350">
-        <v>9</v>
-      </c>
-      <c r="O350">
-        <v>4.75</v>
-      </c>
-      <c r="P350">
-        <v>1.363</v>
-      </c>
-      <c r="Q350">
-        <v>1.5</v>
-      </c>
-      <c r="R350">
-        <v>1.775</v>
-      </c>
-      <c r="S350">
+      <c r="T350">
+        <v>2.25</v>
+      </c>
+      <c r="U350">
+        <v>1.825</v>
+      </c>
+      <c r="V350">
         <v>2.025</v>
       </c>
-      <c r="T350">
-        <v>2.5</v>
-      </c>
-      <c r="U350">
-        <v>1.8</v>
-      </c>
-      <c r="V350">
-        <v>2</v>
-      </c>
       <c r="W350">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z350">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC350">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>3899436</v>
+        <v>3899777</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,76 +31796,76 @@
         <v>44535.75</v>
       </c>
       <c r="F352" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G352" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K352">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L352">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M352">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N352">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O352">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P352">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q352">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R352">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S352">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V352">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31873,7 +31873,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>3899777</v>
+        <v>3899436</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31885,76 +31885,76 @@
         <v>44535.75</v>
       </c>
       <c r="F353" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G353" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K353">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M353">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N353">
+        <v>1.444</v>
+      </c>
+      <c r="O353">
+        <v>4.75</v>
+      </c>
+      <c r="P353">
+        <v>6.5</v>
+      </c>
+      <c r="Q353">
+        <v>-1.25</v>
+      </c>
+      <c r="R353">
+        <v>2.025</v>
+      </c>
+      <c r="S353">
+        <v>1.825</v>
+      </c>
+      <c r="T353">
         <v>2.75</v>
       </c>
-      <c r="O353">
-        <v>2.75</v>
-      </c>
-      <c r="P353">
-        <v>2.7</v>
-      </c>
-      <c r="Q353">
-        <v>0</v>
-      </c>
-      <c r="R353">
-        <v>1.9</v>
-      </c>
-      <c r="S353">
-        <v>1.9</v>
-      </c>
-      <c r="T353">
-        <v>2</v>
-      </c>
       <c r="U353">
+        <v>1.975</v>
+      </c>
+      <c r="V353">
         <v>1.875</v>
       </c>
-      <c r="V353">
-        <v>1.925</v>
-      </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X353">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA353">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>4617486</v>
+        <v>4614399</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51554,40 +51554,40 @@
         <v>44857.625</v>
       </c>
       <c r="F574" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G574" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J574" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K574">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L574">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M574">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="N574">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O574">
         <v>3.8</v>
       </c>
       <c r="P574">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q574">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R574">
         <v>1.925</v>
@@ -51596,34 +51596,34 @@
         <v>1.925</v>
       </c>
       <c r="T574">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U574">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V574">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W574">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X574">
         <v>-1</v>
       </c>
       <c r="Y574">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z574">
+        <v>-1</v>
+      </c>
+      <c r="AA574">
         <v>0.925</v>
       </c>
-      <c r="AA574">
-        <v>-1</v>
-      </c>
       <c r="AB574">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC574">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51631,7 +51631,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>4614399</v>
+        <v>4617486</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51643,40 +51643,40 @@
         <v>44857.625</v>
       </c>
       <c r="F575" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G575" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H575">
+        <v>2</v>
+      </c>
+      <c r="I575">
         <v>0</v>
       </c>
-      <c r="I575">
-        <v>2</v>
-      </c>
       <c r="J575" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K575">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L575">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M575">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="N575">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="O575">
         <v>3.8</v>
       </c>
       <c r="P575">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q575">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R575">
         <v>1.925</v>
@@ -51685,34 +51685,34 @@
         <v>1.925</v>
       </c>
       <c r="T575">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U575">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V575">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W575">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X575">
         <v>-1</v>
       </c>
       <c r="Y575">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA575">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB575">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC575">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4617491</v>
+        <v>4614405</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,73 +52711,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F587" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G587" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I587">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K587">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L587">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M587">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N587">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O587">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P587">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q587">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S587">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA587">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB587">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52788,7 +52788,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4617747</v>
+        <v>4617491</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52800,76 +52800,76 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F588" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G588" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I588">
+        <v>4</v>
+      </c>
+      <c r="J588" t="s">
+        <v>53</v>
+      </c>
+      <c r="K588">
+        <v>2.7</v>
+      </c>
+      <c r="L588">
+        <v>3.3</v>
+      </c>
+      <c r="M588">
+        <v>2.45</v>
+      </c>
+      <c r="N588">
+        <v>2.7</v>
+      </c>
+      <c r="O588">
+        <v>3.4</v>
+      </c>
+      <c r="P588">
+        <v>2.6</v>
+      </c>
+      <c r="Q588">
         <v>0</v>
       </c>
-      <c r="J588" t="s">
-        <v>52</v>
-      </c>
-      <c r="K588">
-        <v>2.4</v>
-      </c>
-      <c r="L588">
-        <v>3.1</v>
-      </c>
-      <c r="M588">
-        <v>2.9</v>
-      </c>
-      <c r="N588">
-        <v>2.15</v>
-      </c>
-      <c r="O588">
-        <v>3.25</v>
-      </c>
-      <c r="P588">
-        <v>3.5</v>
-      </c>
-      <c r="Q588">
-        <v>-0.25</v>
-      </c>
       <c r="R588">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U588">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V588">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W588">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z588">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA588">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB588">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC588">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52877,7 +52877,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4614405</v>
+        <v>4617747</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52889,13 +52889,13 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F589" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G589" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H589">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I589">
         <v>0</v>
@@ -52904,43 +52904,43 @@
         <v>52</v>
       </c>
       <c r="K589">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L589">
+        <v>3.1</v>
+      </c>
+      <c r="M589">
+        <v>2.9</v>
+      </c>
+      <c r="N589">
+        <v>2.15</v>
+      </c>
+      <c r="O589">
+        <v>3.25</v>
+      </c>
+      <c r="P589">
         <v>3.5</v>
       </c>
-      <c r="M589">
-        <v>4.333</v>
-      </c>
-      <c r="N589">
-        <v>1.833</v>
-      </c>
-      <c r="O589">
-        <v>3.5</v>
-      </c>
-      <c r="P589">
-        <v>4.5</v>
-      </c>
       <c r="Q589">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R589">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S589">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T589">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W589">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X589">
         <v>-1</v>
@@ -52949,16 +52949,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -55547,7 +55547,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55559,73 +55559,73 @@
         <v>44967.875</v>
       </c>
       <c r="F619" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G619" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J619" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K619">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L619">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M619">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N619">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O619">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P619">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q619">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R619">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S619">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
         <v>2.5</v>
       </c>
       <c r="U619">
+        <v>1.925</v>
+      </c>
+      <c r="V619">
         <v>1.875</v>
       </c>
-      <c r="V619">
-        <v>1.925</v>
-      </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55636,7 +55636,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55648,73 +55648,73 @@
         <v>44967.875</v>
       </c>
       <c r="F620" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G620" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620">
         <v>3</v>
       </c>
-      <c r="I620">
-        <v>2</v>
-      </c>
       <c r="J620" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K620">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L620">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N620">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O620">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P620">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q620">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R620">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S620">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T620">
         <v>2.5</v>
       </c>
       <c r="U620">
+        <v>1.875</v>
+      </c>
+      <c r="V620">
         <v>1.925</v>
       </c>
-      <c r="V620">
-        <v>1.875</v>
-      </c>
       <c r="W620">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z620">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB620">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -57238,7 +57238,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57250,73 +57250,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F638" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G638" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H638">
+        <v>2</v>
+      </c>
+      <c r="I638">
+        <v>2</v>
+      </c>
+      <c r="J638" t="s">
+        <v>51</v>
+      </c>
+      <c r="K638">
+        <v>3.2</v>
+      </c>
+      <c r="L638">
+        <v>3.4</v>
+      </c>
+      <c r="M638">
+        <v>2.2</v>
+      </c>
+      <c r="N638">
+        <v>2.4</v>
+      </c>
+      <c r="O638">
+        <v>3.25</v>
+      </c>
+      <c r="P638">
         <v>3</v>
       </c>
-      <c r="I638">
-        <v>1</v>
-      </c>
-      <c r="J638" t="s">
-        <v>52</v>
-      </c>
-      <c r="K638">
-        <v>1.95</v>
-      </c>
-      <c r="L638">
-        <v>3.5</v>
-      </c>
-      <c r="M638">
-        <v>3.8</v>
-      </c>
-      <c r="N638">
+      <c r="Q638">
+        <v>-0.25</v>
+      </c>
+      <c r="R638">
+        <v>2.05</v>
+      </c>
+      <c r="S638">
         <v>1.75</v>
       </c>
-      <c r="O638">
-        <v>4</v>
-      </c>
-      <c r="P638">
-        <v>4.5</v>
-      </c>
-      <c r="Q638">
-        <v>-0.75</v>
-      </c>
-      <c r="R638">
-        <v>1.95</v>
-      </c>
-      <c r="S638">
-        <v>1.85</v>
-      </c>
       <c r="T638">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U638">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V638">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W638">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X638">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA638">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB638">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -57327,7 +57327,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57339,73 +57339,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F639" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G639" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I639">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J639" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K639">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L639">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M639">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N639">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O639">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P639">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q639">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R639">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S639">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T639">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U639">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V639">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W639">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X639">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y639">
         <v>-1</v>
       </c>
       <c r="Z639">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA639">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB639">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC639">
         <v>-1</v>
@@ -61866,7 +61866,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61878,58 +61878,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F690" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G690" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H690">
+        <v>2</v>
+      </c>
+      <c r="I690">
         <v>1</v>
-      </c>
-      <c r="I690">
-        <v>0</v>
       </c>
       <c r="J690" t="s">
         <v>52</v>
       </c>
       <c r="K690">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L690">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M690">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N690">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O690">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P690">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q690">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R690">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S690">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T690">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U690">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V690">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W690">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X690">
         <v>-1</v>
@@ -61938,16 +61938,16 @@
         <v>-1</v>
       </c>
       <c r="Z690">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA690">
         <v>-1</v>
       </c>
       <c r="AB690">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC690">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691" spans="1:29">
@@ -61955,7 +61955,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61967,58 +61967,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F691" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G691" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J691" t="s">
         <v>52</v>
       </c>
       <c r="K691">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L691">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M691">
+        <v>3.75</v>
+      </c>
+      <c r="N691">
+        <v>1.909</v>
+      </c>
+      <c r="O691">
+        <v>3.6</v>
+      </c>
+      <c r="P691">
+        <v>4.2</v>
+      </c>
+      <c r="Q691">
+        <v>-0.5</v>
+      </c>
+      <c r="R691">
+        <v>1.85</v>
+      </c>
+      <c r="S691">
+        <v>1.95</v>
+      </c>
+      <c r="T691">
         <v>2.5</v>
       </c>
-      <c r="N691">
-        <v>2.45</v>
-      </c>
-      <c r="O691">
-        <v>3.3</v>
-      </c>
-      <c r="P691">
-        <v>3</v>
-      </c>
-      <c r="Q691">
-        <v>-0.25</v>
-      </c>
-      <c r="R691">
-        <v>2.05</v>
-      </c>
-      <c r="S691">
-        <v>1.75</v>
-      </c>
-      <c r="T691">
-        <v>2.25</v>
-      </c>
       <c r="U691">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V691">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W691">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X691">
         <v>-1</v>
@@ -62027,16 +62027,16 @@
         <v>-1</v>
       </c>
       <c r="Z691">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA691">
         <v>-1</v>
       </c>
       <c r="AB691">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC691">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="692" spans="1:29">
@@ -69164,7 +69164,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69176,40 +69176,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F772" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G772" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I772">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J772" t="s">
         <v>51</v>
       </c>
       <c r="K772">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L772">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M772">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N772">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O772">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P772">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q772">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R772">
         <v>1.925</v>
@@ -69218,34 +69218,34 @@
         <v>1.875</v>
       </c>
       <c r="T772">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U772">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V772">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W772">
         <v>-1</v>
       </c>
       <c r="X772">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y772">
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA772">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB772">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC772">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69253,7 +69253,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69265,40 +69265,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F773" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G773" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J773" t="s">
         <v>51</v>
       </c>
       <c r="K773">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L773">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M773">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N773">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O773">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P773">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q773">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R773">
         <v>1.925</v>
@@ -69307,34 +69307,34 @@
         <v>1.875</v>
       </c>
       <c r="T773">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U773">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V773">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W773">
         <v>-1</v>
       </c>
       <c r="X773">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y773">
         <v>-1</v>
       </c>
       <c r="Z773">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA773">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB773">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC773">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G816" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H816">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J816" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K816">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L816">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M816">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N816">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O816">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P816">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q816">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R816">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S816">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T816">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U816">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V816">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W816">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z816">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA816">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB816">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,73 +73181,73 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G817" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I817">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J817" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K817">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L817">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M817">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N817">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O817">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P817">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q817">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R817">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S817">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T817">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U817">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V817">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W817">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X817">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y817">
         <v>-1</v>
       </c>
       <c r="Z817">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA817">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB817">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -73258,7 +73258,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73270,76 +73270,76 @@
         <v>45262.75</v>
       </c>
       <c r="F818" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G818" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818">
         <v>2</v>
       </c>
       <c r="J818" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K818">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L818">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M818">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N818">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O818">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P818">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q818">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R818">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S818">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T818">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U818">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V818">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W818">
         <v>-1</v>
       </c>
       <c r="X818">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y818">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z818">
         <v>-1</v>
       </c>
       <c r="AA818">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB818">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC818">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="819" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,67 +73715,67 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G823" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H823">
+        <v>0</v>
+      </c>
+      <c r="I823">
         <v>1</v>
       </c>
-      <c r="I823">
-        <v>0</v>
-      </c>
       <c r="J823" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K823">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L823">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M823">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N823">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O823">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P823">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q823">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R823">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S823">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T823">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U823">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V823">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W823">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X823">
         <v>-1</v>
       </c>
       <c r="Y823">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z823">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G824" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H824">
+        <v>1</v>
+      </c>
+      <c r="I824">
         <v>0</v>
       </c>
-      <c r="I824">
-        <v>1</v>
-      </c>
       <c r="J824" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K824">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L824">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M824">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N824">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O824">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P824">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q824">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R824">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S824">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T824">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U824">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V824">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W824">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z824">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,73 +73982,73 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G826" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H826">
+        <v>2</v>
+      </c>
+      <c r="I826">
         <v>3</v>
       </c>
-      <c r="I826">
-        <v>1</v>
-      </c>
       <c r="J826" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K826">
+        <v>1.909</v>
+      </c>
+      <c r="L826">
+        <v>3.6</v>
+      </c>
+      <c r="M826">
+        <v>3.8</v>
+      </c>
+      <c r="N826">
+        <v>2.15</v>
+      </c>
+      <c r="O826">
+        <v>3.75</v>
+      </c>
+      <c r="P826">
+        <v>3.1</v>
+      </c>
+      <c r="Q826">
+        <v>-0.25</v>
+      </c>
+      <c r="R826">
         <v>1.85</v>
       </c>
-      <c r="L826">
-        <v>3.4</v>
-      </c>
-      <c r="M826">
-        <v>4.333</v>
-      </c>
-      <c r="N826">
-        <v>1.8</v>
-      </c>
-      <c r="O826">
-        <v>3.6</v>
-      </c>
-      <c r="P826">
-        <v>4.5</v>
-      </c>
-      <c r="Q826">
-        <v>-0.75</v>
-      </c>
-      <c r="R826">
-        <v>1.925</v>
-      </c>
       <c r="S826">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T826">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U826">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V826">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W826">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z826">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA826">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB826">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC826">
         <v>-1</v>
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,76 +74071,76 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G827" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H827">
         <v>2</v>
       </c>
       <c r="I827">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J827" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K827">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L827">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M827">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N827">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O827">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P827">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q827">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R827">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S827">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T827">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U827">
         <v>1.85</v>
       </c>
       <c r="V827">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W827">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z827">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA827">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB827">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC827">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G828" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J828" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K828">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L828">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M828">
         <v>3.4</v>
       </c>
       <c r="N828">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O828">
+        <v>3.6</v>
+      </c>
+      <c r="P828">
         <v>3.4</v>
       </c>
-      <c r="P828">
-        <v>2.4</v>
-      </c>
       <c r="Q828">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R828">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S828">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T828">
         <v>2.75</v>
       </c>
       <c r="U828">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V828">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W828">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z828">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA828">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB828">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC828">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,76 +74249,76 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G829" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I829">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K829">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L829">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M829">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N829">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O829">
         <v>3.6</v>
       </c>
       <c r="P829">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q829">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R829">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S829">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T829">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U829">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V829">
         <v>1.825</v>
       </c>
       <c r="W829">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X829">
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z829">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA829">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB829">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC829">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3200931</v>
+        <v>3201281</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3201269</v>
+        <v>3201280</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,10 +6698,10 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6713,31 +6713,31 @@
         <v>51</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
         <v>2.5</v>
@@ -6758,10 +6758,10 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3201280</v>
+        <v>3200931</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,61 +6787,61 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>51</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N71">
         <v>2</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q71">
         <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>1.8</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
         <v>1.85</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.825</v>
-      </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6850,13 +6850,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3201281</v>
+        <v>3201269</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>51</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>3.6</v>
+      </c>
+      <c r="N72">
+        <v>2.3</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>2.875</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>52</v>
-      </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72">
-        <v>3.2</v>
-      </c>
-      <c r="M72">
-        <v>2.375</v>
-      </c>
-      <c r="N72">
-        <v>3.5</v>
-      </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
-      <c r="P72">
-        <v>2.15</v>
-      </c>
-      <c r="Q72">
-        <v>0.25</v>
-      </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
         <v>2.5</v>
       </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3234974</v>
+        <v>3234177</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,73 +7054,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>3</v>
       </c>
-      <c r="I74">
+      <c r="J74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74">
+        <v>1.85</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>1.95</v>
+      </c>
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>-0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.925</v>
+      </c>
+      <c r="S74">
+        <v>1.875</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.8</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.875</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74">
-        <v>1.75</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.6</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
-      </c>
-      <c r="P74">
-        <v>6</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
-      <c r="W74">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.8</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3234177</v>
+        <v>3234974</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,73 +7143,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>1.6</v>
+      </c>
+      <c r="O75">
         <v>3.6</v>
       </c>
-      <c r="M75">
-        <v>4</v>
-      </c>
-      <c r="N75">
-        <v>1.95</v>
-      </c>
-      <c r="O75">
-        <v>3.5</v>
-      </c>
       <c r="P75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -31250,7 +31250,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>4365259</v>
+        <v>3898955</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,76 +31262,76 @@
         <v>44528.75</v>
       </c>
       <c r="F346" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G346" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K346">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L346">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M346">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N346">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O346">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P346">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R346">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S346">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T346">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X346">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA346">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>3898955</v>
+        <v>4365259</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>44528.75</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M347">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N347">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.95</v>
+      </c>
+      <c r="S347">
+        <v>1.85</v>
+      </c>
+      <c r="T347">
+        <v>2.5</v>
+      </c>
+      <c r="U347">
         <v>1.925</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.875</v>
       </c>
-      <c r="T347">
-        <v>2.75</v>
-      </c>
-      <c r="U347">
-        <v>2</v>
-      </c>
-      <c r="V347">
-        <v>1.8</v>
-      </c>
       <c r="W347">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3899778</v>
+        <v>3899776</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,49 +31440,49 @@
         <v>44534.75</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G348" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K348">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L348">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M348">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N348">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O348">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P348">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R348">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U348">
         <v>1.85</v>
@@ -31494,22 +31494,22 @@
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y348">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31517,7 +31517,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>3899774</v>
+        <v>3898957</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31529,76 +31529,76 @@
         <v>44534.75</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G349" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J349" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L349">
+        <v>3.25</v>
+      </c>
+      <c r="M349">
+        <v>2.05</v>
+      </c>
+      <c r="N349">
+        <v>3.5</v>
+      </c>
+      <c r="O349">
         <v>3.4</v>
       </c>
-      <c r="M349">
+      <c r="P349">
+        <v>2.1</v>
+      </c>
+      <c r="Q349">
+        <v>0.25</v>
+      </c>
+      <c r="R349">
+        <v>2.05</v>
+      </c>
+      <c r="S349">
         <v>1.8</v>
       </c>
-      <c r="N349">
-        <v>9</v>
-      </c>
-      <c r="O349">
-        <v>4.75</v>
-      </c>
-      <c r="P349">
-        <v>1.363</v>
-      </c>
-      <c r="Q349">
-        <v>1.5</v>
-      </c>
-      <c r="R349">
-        <v>1.775</v>
-      </c>
-      <c r="S349">
+      <c r="T349">
+        <v>2.25</v>
+      </c>
+      <c r="U349">
+        <v>1.825</v>
+      </c>
+      <c r="V349">
         <v>2.025</v>
       </c>
-      <c r="T349">
-        <v>2.5</v>
-      </c>
-      <c r="U349">
-        <v>1.8</v>
-      </c>
-      <c r="V349">
-        <v>2</v>
-      </c>
       <c r="W349">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z349">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC349">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31606,7 +31606,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>3898957</v>
+        <v>3899774</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31618,76 +31618,76 @@
         <v>44534.75</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G350" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
         <v>0</v>
       </c>
-      <c r="I350">
-        <v>3</v>
-      </c>
       <c r="J350" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K350">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N350">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="O350">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P350">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R350">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S350">
+        <v>2.025</v>
+      </c>
+      <c r="T350">
+        <v>2.5</v>
+      </c>
+      <c r="U350">
         <v>1.8</v>
       </c>
-      <c r="T350">
-        <v>2.25</v>
-      </c>
-      <c r="U350">
-        <v>1.825</v>
-      </c>
       <c r="V350">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA350">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>3899776</v>
+        <v>3899778</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>44534.75</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G351" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K351">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L351">
+        <v>3.4</v>
+      </c>
+      <c r="M351">
+        <v>3.1</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351">
         <v>3.6</v>
       </c>
-      <c r="M351">
-        <v>4.5</v>
-      </c>
-      <c r="N351">
-        <v>1.333</v>
-      </c>
-      <c r="O351">
-        <v>4.75</v>
-      </c>
       <c r="P351">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q351">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
+        <v>2</v>
+      </c>
+      <c r="S351">
         <v>1.8</v>
       </c>
-      <c r="S351">
-        <v>2</v>
-      </c>
       <c r="T351">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>1.85</v>
@@ -31761,22 +31761,22 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4614405</v>
+        <v>4617491</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,73 +52711,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F587" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G587" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H587">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I587">
+        <v>4</v>
+      </c>
+      <c r="J587" t="s">
+        <v>53</v>
+      </c>
+      <c r="K587">
+        <v>2.7</v>
+      </c>
+      <c r="L587">
+        <v>3.3</v>
+      </c>
+      <c r="M587">
+        <v>2.45</v>
+      </c>
+      <c r="N587">
+        <v>2.7</v>
+      </c>
+      <c r="O587">
+        <v>3.4</v>
+      </c>
+      <c r="P587">
+        <v>2.6</v>
+      </c>
+      <c r="Q587">
         <v>0</v>
       </c>
-      <c r="J587" t="s">
-        <v>52</v>
-      </c>
-      <c r="K587">
-        <v>1.75</v>
-      </c>
-      <c r="L587">
-        <v>3.5</v>
-      </c>
-      <c r="M587">
-        <v>4.333</v>
-      </c>
-      <c r="N587">
-        <v>1.833</v>
-      </c>
-      <c r="O587">
-        <v>3.5</v>
-      </c>
-      <c r="P587">
-        <v>4.5</v>
-      </c>
-      <c r="Q587">
-        <v>-0.5</v>
-      </c>
       <c r="R587">
+        <v>2</v>
+      </c>
+      <c r="S587">
         <v>1.8</v>
-      </c>
-      <c r="S587">
-        <v>2</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W587">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z587">
+        <v>-1</v>
+      </c>
+      <c r="AA587">
         <v>0.8</v>
       </c>
-      <c r="AA587">
-        <v>-1</v>
-      </c>
       <c r="AB587">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52788,7 +52788,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4617491</v>
+        <v>4617747</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52800,76 +52800,76 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F588" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G588" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K588">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L588">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M588">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N588">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O588">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P588">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q588">
+        <v>-0.25</v>
+      </c>
+      <c r="R588">
+        <v>1.825</v>
+      </c>
+      <c r="S588">
+        <v>1.975</v>
+      </c>
+      <c r="T588">
+        <v>2</v>
+      </c>
+      <c r="U588">
+        <v>1.775</v>
+      </c>
+      <c r="V588">
+        <v>2.025</v>
+      </c>
+      <c r="W588">
+        <v>1.15</v>
+      </c>
+      <c r="X588">
+        <v>-1</v>
+      </c>
+      <c r="Y588">
+        <v>-1</v>
+      </c>
+      <c r="Z588">
+        <v>0.825</v>
+      </c>
+      <c r="AA588">
+        <v>-1</v>
+      </c>
+      <c r="AB588">
         <v>0</v>
       </c>
-      <c r="R588">
-        <v>2</v>
-      </c>
-      <c r="S588">
-        <v>1.8</v>
-      </c>
-      <c r="T588">
-        <v>2.5</v>
-      </c>
-      <c r="U588">
-        <v>1.9</v>
-      </c>
-      <c r="V588">
-        <v>1.9</v>
-      </c>
-      <c r="W588">
-        <v>-1</v>
-      </c>
-      <c r="X588">
-        <v>-1</v>
-      </c>
-      <c r="Y588">
-        <v>1.6</v>
-      </c>
-      <c r="Z588">
-        <v>-1</v>
-      </c>
-      <c r="AA588">
-        <v>0.8</v>
-      </c>
-      <c r="AB588">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52877,7 +52877,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4617747</v>
+        <v>4614405</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52889,13 +52889,13 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F589" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G589" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I589">
         <v>0</v>
@@ -52904,43 +52904,43 @@
         <v>52</v>
       </c>
       <c r="K589">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L589">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M589">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N589">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O589">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P589">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q589">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R589">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S589">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T589">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U589">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V589">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X589">
         <v>-1</v>
@@ -52949,16 +52949,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC589">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4617739</v>
+        <v>4614403</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G591" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J591" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K591">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L591">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M591">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N591">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O591">
         <v>3.5</v>
       </c>
       <c r="P591">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q591">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R591">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S591">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T591">
         <v>2.25</v>
       </c>
       <c r="U591">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V591">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W591">
         <v>-1</v>
       </c>
       <c r="X591">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z591">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB591">
         <v>-0.5</v>
       </c>
       <c r="AC591">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53144,7 +53144,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4617490</v>
+        <v>4617739</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53156,76 +53156,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F592" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G592" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H592">
+        <v>1</v>
+      </c>
+      <c r="I592">
+        <v>1</v>
+      </c>
+      <c r="J592" t="s">
+        <v>51</v>
+      </c>
+      <c r="K592">
+        <v>2.3</v>
+      </c>
+      <c r="L592">
+        <v>3.2</v>
+      </c>
+      <c r="M592">
         <v>3</v>
       </c>
-      <c r="I592">
-        <v>0</v>
-      </c>
-      <c r="J592" t="s">
-        <v>52</v>
-      </c>
-      <c r="K592">
-        <v>1.55</v>
-      </c>
-      <c r="L592">
-        <v>4</v>
-      </c>
-      <c r="M592">
-        <v>5.5</v>
-      </c>
       <c r="N592">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O592">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P592">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q592">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R592">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S592">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T592">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U592">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V592">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W592">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X592">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y592">
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA592">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB592">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC592">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53233,7 +53233,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4614403</v>
+        <v>4617490</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53245,76 +53245,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F593" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G593" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H593">
+        <v>3</v>
+      </c>
+      <c r="I593">
         <v>0</v>
       </c>
-      <c r="I593">
-        <v>2</v>
-      </c>
       <c r="J593" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K593">
+        <v>1.55</v>
+      </c>
+      <c r="L593">
+        <v>4</v>
+      </c>
+      <c r="M593">
+        <v>5.5</v>
+      </c>
+      <c r="N593">
+        <v>1.4</v>
+      </c>
+      <c r="O593">
+        <v>4.75</v>
+      </c>
+      <c r="P593">
+        <v>7.5</v>
+      </c>
+      <c r="Q593">
+        <v>-1.25</v>
+      </c>
+      <c r="R593">
+        <v>1.85</v>
+      </c>
+      <c r="S593">
+        <v>1.95</v>
+      </c>
+      <c r="T593">
         <v>3</v>
       </c>
-      <c r="L593">
-        <v>3.4</v>
-      </c>
-      <c r="M593">
-        <v>2.2</v>
-      </c>
-      <c r="N593">
-        <v>3.4</v>
-      </c>
-      <c r="O593">
-        <v>3.5</v>
-      </c>
-      <c r="P593">
-        <v>2.15</v>
-      </c>
-      <c r="Q593">
-        <v>0.25</v>
-      </c>
-      <c r="R593">
-        <v>1.975</v>
-      </c>
-      <c r="S593">
-        <v>1.825</v>
-      </c>
-      <c r="T593">
-        <v>2.25</v>
-      </c>
       <c r="U593">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V593">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W593">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA593">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB593">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC593">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -72101,7 +72101,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72113,19 +72113,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F805" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G805" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I805">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J805" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K805">
         <v>2</v>
@@ -72137,52 +72137,52 @@
         <v>3.5</v>
       </c>
       <c r="N805">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O805">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P805">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q805">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R805">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S805">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T805">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U805">
+        <v>1.95</v>
+      </c>
+      <c r="V805">
         <v>1.85</v>
       </c>
-      <c r="V805">
-        <v>1.95</v>
-      </c>
       <c r="W805">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X805">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y805">
         <v>-1</v>
       </c>
       <c r="Z805">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA805">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB805">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC805">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72190,7 +72190,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72202,19 +72202,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G806" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H806">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I806">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J806" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K806">
         <v>2</v>
@@ -72226,52 +72226,52 @@
         <v>3.5</v>
       </c>
       <c r="N806">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O806">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P806">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q806">
+        <v>-0.75</v>
+      </c>
+      <c r="R806">
+        <v>1.9</v>
+      </c>
+      <c r="S806">
+        <v>1.9</v>
+      </c>
+      <c r="T806">
+        <v>2.75</v>
+      </c>
+      <c r="U806">
+        <v>1.85</v>
+      </c>
+      <c r="V806">
+        <v>1.95</v>
+      </c>
+      <c r="W806">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X806">
+        <v>-1</v>
+      </c>
+      <c r="Y806">
+        <v>-1</v>
+      </c>
+      <c r="Z806">
+        <v>0.45</v>
+      </c>
+      <c r="AA806">
         <v>-0.5</v>
       </c>
-      <c r="R806">
-        <v>2.025</v>
-      </c>
-      <c r="S806">
-        <v>1.775</v>
-      </c>
-      <c r="T806">
-        <v>2.5</v>
-      </c>
-      <c r="U806">
-        <v>1.95</v>
-      </c>
-      <c r="V806">
-        <v>1.85</v>
-      </c>
-      <c r="W806">
-        <v>-1</v>
-      </c>
-      <c r="X806">
-        <v>2.5</v>
-      </c>
-      <c r="Y806">
-        <v>-1</v>
-      </c>
-      <c r="Z806">
-        <v>-1</v>
-      </c>
-      <c r="AA806">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB806">
+        <v>-1</v>
+      </c>
+      <c r="AC806">
         <v>0.95</v>
-      </c>
-      <c r="AC806">
-        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G816" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H816">
+        <v>4</v>
+      </c>
+      <c r="I816">
         <v>0</v>
       </c>
-      <c r="I816">
-        <v>2</v>
-      </c>
       <c r="J816" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K816">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L816">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M816">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N816">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O816">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P816">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R816">
+        <v>2.025</v>
+      </c>
+      <c r="S816">
+        <v>1.825</v>
+      </c>
+      <c r="T816">
+        <v>3</v>
+      </c>
+      <c r="U816">
+        <v>1.9</v>
+      </c>
+      <c r="V816">
         <v>1.95</v>
       </c>
-      <c r="S816">
-        <v>1.85</v>
-      </c>
-      <c r="T816">
-        <v>2.5</v>
-      </c>
-      <c r="U816">
-        <v>1.8</v>
-      </c>
-      <c r="V816">
-        <v>2</v>
-      </c>
       <c r="W816">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA816">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB816">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,73 +73181,73 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G817" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H817">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I817">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J817" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K817">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L817">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M817">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N817">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O817">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P817">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q817">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R817">
+        <v>1.85</v>
+      </c>
+      <c r="S817">
+        <v>2</v>
+      </c>
+      <c r="T817">
+        <v>2.75</v>
+      </c>
+      <c r="U817">
         <v>2.025</v>
       </c>
-      <c r="S817">
+      <c r="V817">
         <v>1.825</v>
       </c>
-      <c r="T817">
-        <v>3</v>
-      </c>
-      <c r="U817">
-        <v>1.9</v>
-      </c>
-      <c r="V817">
-        <v>1.95</v>
-      </c>
       <c r="W817">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X817">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y817">
         <v>-1</v>
       </c>
       <c r="Z817">
+        <v>-1</v>
+      </c>
+      <c r="AA817">
+        <v>1</v>
+      </c>
+      <c r="AB817">
         <v>1.025</v>
-      </c>
-      <c r="AA817">
-        <v>-1</v>
-      </c>
-      <c r="AB817">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -73258,7 +73258,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73270,76 +73270,76 @@
         <v>45262.75</v>
       </c>
       <c r="F818" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G818" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818">
         <v>2</v>
       </c>
       <c r="J818" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K818">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L818">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M818">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N818">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O818">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P818">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q818">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R818">
+        <v>1.95</v>
+      </c>
+      <c r="S818">
         <v>1.85</v>
       </c>
-      <c r="S818">
-        <v>2</v>
-      </c>
       <c r="T818">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U818">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V818">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W818">
         <v>-1</v>
       </c>
       <c r="X818">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y818">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z818">
         <v>-1</v>
       </c>
       <c r="AA818">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB818">
+        <v>-1</v>
+      </c>
+      <c r="AC818">
         <v>1</v>
-      </c>
-      <c r="AB818">
-        <v>1.025</v>
-      </c>
-      <c r="AC818">
-        <v>-1</v>
       </c>
     </row>
     <row r="819" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,73 +73982,73 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G826" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I826">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J826" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K826">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L826">
+        <v>3.4</v>
+      </c>
+      <c r="M826">
+        <v>4.333</v>
+      </c>
+      <c r="N826">
+        <v>1.8</v>
+      </c>
+      <c r="O826">
         <v>3.6</v>
       </c>
-      <c r="M826">
-        <v>3.8</v>
-      </c>
-      <c r="N826">
-        <v>2.15</v>
-      </c>
-      <c r="O826">
-        <v>3.75</v>
-      </c>
       <c r="P826">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q826">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R826">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S826">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T826">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U826">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V826">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W826">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z826">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA826">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB826">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC826">
         <v>-1</v>
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,76 +74071,76 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G827" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H827">
         <v>2</v>
       </c>
       <c r="I827">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J827" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K827">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L827">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M827">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N827">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O827">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P827">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q827">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R827">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S827">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T827">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U827">
         <v>1.85</v>
       </c>
       <c r="V827">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W827">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z827">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA827">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB827">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC827">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6077768</v>
+        <v>6077499</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G828" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H828">
+        <v>2</v>
+      </c>
+      <c r="I828">
         <v>0</v>
       </c>
-      <c r="I828">
-        <v>3</v>
-      </c>
       <c r="J828" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K828">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L828">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M828">
         <v>3.4</v>
       </c>
       <c r="N828">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O828">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P828">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q828">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R828">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S828">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T828">
         <v>2.75</v>
       </c>
       <c r="U828">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V828">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W828">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z828">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA828">
+        <v>-1</v>
+      </c>
+      <c r="AB828">
+        <v>-1</v>
+      </c>
+      <c r="AC828">
         <v>1</v>
-      </c>
-      <c r="AB828">
-        <v>0.4875</v>
-      </c>
-      <c r="AC828">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,76 +74249,76 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G829" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H829">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829">
         <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K829">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L829">
+        <v>3.3</v>
+      </c>
+      <c r="M829">
+        <v>2.3</v>
+      </c>
+      <c r="N829">
+        <v>2.9</v>
+      </c>
+      <c r="O829">
         <v>3.4</v>
       </c>
-      <c r="M829">
-        <v>4.333</v>
-      </c>
-      <c r="N829">
+      <c r="P829">
+        <v>2.375</v>
+      </c>
+      <c r="Q829">
+        <v>0.25</v>
+      </c>
+      <c r="R829">
         <v>1.8</v>
       </c>
-      <c r="O829">
-        <v>3.6</v>
-      </c>
-      <c r="P829">
-        <v>4.5</v>
-      </c>
-      <c r="Q829">
-        <v>-0.75</v>
-      </c>
-      <c r="R829">
-        <v>1.925</v>
-      </c>
       <c r="S829">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T829">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U829">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V829">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W829">
+        <v>-1</v>
+      </c>
+      <c r="X829">
+        <v>-1</v>
+      </c>
+      <c r="Y829">
+        <v>1.375</v>
+      </c>
+      <c r="Z829">
+        <v>-1</v>
+      </c>
+      <c r="AA829">
+        <v>1</v>
+      </c>
+      <c r="AB829">
+        <v>-1</v>
+      </c>
+      <c r="AC829">
         <v>0.8</v>
-      </c>
-      <c r="X829">
-        <v>-1</v>
-      </c>
-      <c r="Y829">
-        <v>-1</v>
-      </c>
-      <c r="Z829">
-        <v>0.925</v>
-      </c>
-      <c r="AA829">
-        <v>-1</v>
-      </c>
-      <c r="AB829">
-        <v>1.025</v>
-      </c>
-      <c r="AC829">
-        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,40 +74338,40 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G830" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H830">
         <v>0</v>
       </c>
       <c r="I830">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J830" t="s">
         <v>53</v>
       </c>
       <c r="K830">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L830">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M830">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N830">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O830">
+        <v>3.6</v>
+      </c>
+      <c r="P830">
         <v>3.4</v>
       </c>
-      <c r="P830">
-        <v>2.375</v>
-      </c>
       <c r="Q830">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R830">
         <v>1.8</v>
@@ -74383,10 +74383,10 @@
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V830">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W830">
         <v>-1</v>
@@ -74395,7 +74395,7 @@
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z830">
         <v>-1</v>
@@ -74404,10 +74404,10 @@
         <v>1</v>
       </c>
       <c r="AB830">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC830">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3201281</v>
+        <v>3200931</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N69">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3201280</v>
+        <v>3201269</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,10 +6698,10 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6713,31 +6713,31 @@
         <v>51</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
         <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
         <v>2.5</v>
@@ -6758,10 +6758,10 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3200931</v>
+        <v>3201280</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,61 +6787,61 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>51</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N71">
         <v>2</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q71">
         <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6850,13 +6850,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3201269</v>
+        <v>3201281</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72">
+        <v>3.2</v>
+      </c>
+      <c r="M72">
+        <v>2.375</v>
+      </c>
+      <c r="N72">
         <v>3.5</v>
       </c>
-      <c r="M72">
-        <v>3.6</v>
-      </c>
-      <c r="N72">
-        <v>2.3</v>
-      </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
+        <v>2.25</v>
+      </c>
+      <c r="U72">
+        <v>1.8</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
         <v>2.5</v>
       </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3234177</v>
+        <v>3234974</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,73 +7054,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>1.6</v>
+      </c>
+      <c r="O74">
         <v>3.6</v>
       </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>1.95</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
       <c r="P74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3234974</v>
+        <v>3234177</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,73 +7143,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="I75">
+      <c r="J75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75">
+        <v>1.85</v>
+      </c>
+      <c r="L75">
+        <v>3.6</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>1.95</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>-0.5</v>
+      </c>
+      <c r="R75">
+        <v>1.925</v>
+      </c>
+      <c r="S75">
+        <v>1.875</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.8</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>3</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
+        <v>0.875</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75">
-        <v>1.75</v>
-      </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>1.6</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>6</v>
-      </c>
-      <c r="Q75">
-        <v>-0.75</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>0.8</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>0.8</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -31250,7 +31250,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>3898955</v>
+        <v>4365259</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,76 +31262,76 @@
         <v>44528.75</v>
       </c>
       <c r="F346" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G346" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M346">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N346">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O346">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P346">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q346">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.95</v>
+      </c>
+      <c r="S346">
+        <v>1.85</v>
+      </c>
+      <c r="T346">
+        <v>2.5</v>
+      </c>
+      <c r="U346">
         <v>1.925</v>
       </c>
-      <c r="S346">
+      <c r="V346">
         <v>1.875</v>
       </c>
-      <c r="T346">
-        <v>2.75</v>
-      </c>
-      <c r="U346">
-        <v>2</v>
-      </c>
-      <c r="V346">
-        <v>1.8</v>
-      </c>
       <c r="W346">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>4365259</v>
+        <v>3898955</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>44528.75</v>
       </c>
       <c r="F347" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K347">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L347">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N347">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O347">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P347">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S347">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T347">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X347">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA347">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3899776</v>
+        <v>3899778</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,49 +31440,49 @@
         <v>44534.75</v>
       </c>
       <c r="F348" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J348" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K348">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L348">
+        <v>3.4</v>
+      </c>
+      <c r="M348">
+        <v>3.1</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348">
         <v>3.6</v>
       </c>
-      <c r="M348">
-        <v>4.5</v>
-      </c>
-      <c r="N348">
-        <v>1.333</v>
-      </c>
-      <c r="O348">
-        <v>4.75</v>
-      </c>
       <c r="P348">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q348">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
+        <v>2</v>
+      </c>
+      <c r="S348">
         <v>1.8</v>
       </c>
-      <c r="S348">
-        <v>2</v>
-      </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
         <v>1.85</v>
@@ -31494,22 +31494,22 @@
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31517,7 +31517,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>3898957</v>
+        <v>3899774</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31529,76 +31529,76 @@
         <v>44534.75</v>
       </c>
       <c r="F349" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G349" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
         <v>0</v>
       </c>
-      <c r="I349">
-        <v>3</v>
-      </c>
       <c r="J349" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K349">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L349">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M349">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N349">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="O349">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P349">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R349">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S349">
+        <v>2.025</v>
+      </c>
+      <c r="T349">
+        <v>2.5</v>
+      </c>
+      <c r="U349">
         <v>1.8</v>
       </c>
-      <c r="T349">
-        <v>2.25</v>
-      </c>
-      <c r="U349">
-        <v>1.825</v>
-      </c>
       <c r="V349">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA349">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31606,7 +31606,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>3899774</v>
+        <v>3898957</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31618,76 +31618,76 @@
         <v>44534.75</v>
       </c>
       <c r="F350" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G350" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L350">
+        <v>3.25</v>
+      </c>
+      <c r="M350">
+        <v>2.05</v>
+      </c>
+      <c r="N350">
+        <v>3.5</v>
+      </c>
+      <c r="O350">
         <v>3.4</v>
       </c>
-      <c r="M350">
+      <c r="P350">
+        <v>2.1</v>
+      </c>
+      <c r="Q350">
+        <v>0.25</v>
+      </c>
+      <c r="R350">
+        <v>2.05</v>
+      </c>
+      <c r="S350">
         <v>1.8</v>
       </c>
-      <c r="N350">
-        <v>9</v>
-      </c>
-      <c r="O350">
-        <v>4.75</v>
-      </c>
-      <c r="P350">
-        <v>1.363</v>
-      </c>
-      <c r="Q350">
-        <v>1.5</v>
-      </c>
-      <c r="R350">
-        <v>1.775</v>
-      </c>
-      <c r="S350">
+      <c r="T350">
+        <v>2.25</v>
+      </c>
+      <c r="U350">
+        <v>1.825</v>
+      </c>
+      <c r="V350">
         <v>2.025</v>
       </c>
-      <c r="T350">
-        <v>2.5</v>
-      </c>
-      <c r="U350">
-        <v>1.8</v>
-      </c>
-      <c r="V350">
-        <v>2</v>
-      </c>
       <c r="W350">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z350">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC350">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>3899778</v>
+        <v>3899776</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>44534.75</v>
       </c>
       <c r="F351" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K351">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L351">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N351">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O351">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P351">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R351">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S351">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T351">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U351">
         <v>1.85</v>
@@ -31761,22 +31761,22 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y351">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4617491</v>
+        <v>4614405</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,73 +52711,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F587" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G587" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I587">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K587">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L587">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M587">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N587">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O587">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P587">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q587">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S587">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA587">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB587">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52788,7 +52788,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4617747</v>
+        <v>4617491</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52800,76 +52800,76 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F588" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G588" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I588">
+        <v>4</v>
+      </c>
+      <c r="J588" t="s">
+        <v>53</v>
+      </c>
+      <c r="K588">
+        <v>2.7</v>
+      </c>
+      <c r="L588">
+        <v>3.3</v>
+      </c>
+      <c r="M588">
+        <v>2.45</v>
+      </c>
+      <c r="N588">
+        <v>2.7</v>
+      </c>
+      <c r="O588">
+        <v>3.4</v>
+      </c>
+      <c r="P588">
+        <v>2.6</v>
+      </c>
+      <c r="Q588">
         <v>0</v>
       </c>
-      <c r="J588" t="s">
-        <v>52</v>
-      </c>
-      <c r="K588">
-        <v>2.4</v>
-      </c>
-      <c r="L588">
-        <v>3.1</v>
-      </c>
-      <c r="M588">
-        <v>2.9</v>
-      </c>
-      <c r="N588">
-        <v>2.15</v>
-      </c>
-      <c r="O588">
-        <v>3.25</v>
-      </c>
-      <c r="P588">
-        <v>3.5</v>
-      </c>
-      <c r="Q588">
-        <v>-0.25</v>
-      </c>
       <c r="R588">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U588">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V588">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W588">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z588">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA588">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB588">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC588">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52877,7 +52877,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4614405</v>
+        <v>4617747</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52889,13 +52889,13 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F589" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G589" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H589">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I589">
         <v>0</v>
@@ -52904,43 +52904,43 @@
         <v>52</v>
       </c>
       <c r="K589">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L589">
+        <v>3.1</v>
+      </c>
+      <c r="M589">
+        <v>2.9</v>
+      </c>
+      <c r="N589">
+        <v>2.15</v>
+      </c>
+      <c r="O589">
+        <v>3.25</v>
+      </c>
+      <c r="P589">
         <v>3.5</v>
       </c>
-      <c r="M589">
-        <v>4.333</v>
-      </c>
-      <c r="N589">
-        <v>1.833</v>
-      </c>
-      <c r="O589">
-        <v>3.5</v>
-      </c>
-      <c r="P589">
-        <v>4.5</v>
-      </c>
       <c r="Q589">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R589">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S589">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T589">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W589">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X589">
         <v>-1</v>
@@ -52949,16 +52949,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4614403</v>
+        <v>4617739</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G591" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J591" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K591">
+        <v>2.3</v>
+      </c>
+      <c r="L591">
+        <v>3.2</v>
+      </c>
+      <c r="M591">
         <v>3</v>
       </c>
-      <c r="L591">
-        <v>3.4</v>
-      </c>
-      <c r="M591">
-        <v>2.2</v>
-      </c>
       <c r="N591">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O591">
         <v>3.5</v>
       </c>
       <c r="P591">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q591">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S591">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T591">
         <v>2.25</v>
       </c>
       <c r="U591">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V591">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W591">
         <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y591">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z591">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA591">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB591">
         <v>-0.5</v>
       </c>
       <c r="AC591">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53144,7 +53144,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4617739</v>
+        <v>4617490</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53156,76 +53156,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F592" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G592" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K592">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L592">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M592">
+        <v>5.5</v>
+      </c>
+      <c r="N592">
+        <v>1.4</v>
+      </c>
+      <c r="O592">
+        <v>4.75</v>
+      </c>
+      <c r="P592">
+        <v>7.5</v>
+      </c>
+      <c r="Q592">
+        <v>-1.25</v>
+      </c>
+      <c r="R592">
+        <v>1.85</v>
+      </c>
+      <c r="S592">
+        <v>1.95</v>
+      </c>
+      <c r="T592">
         <v>3</v>
       </c>
-      <c r="N592">
-        <v>2.1</v>
-      </c>
-      <c r="O592">
-        <v>3.5</v>
-      </c>
-      <c r="P592">
-        <v>3.4</v>
-      </c>
-      <c r="Q592">
-        <v>-0.25</v>
-      </c>
-      <c r="R592">
+      <c r="U592">
+        <v>2</v>
+      </c>
+      <c r="V592">
         <v>1.8</v>
       </c>
-      <c r="S592">
-        <v>2</v>
-      </c>
-      <c r="T592">
-        <v>2.25</v>
-      </c>
-      <c r="U592">
-        <v>1.8</v>
-      </c>
-      <c r="V592">
-        <v>2</v>
-      </c>
       <c r="W592">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X592">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y592">
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA592">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB592">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC592">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53233,7 +53233,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4617490</v>
+        <v>4614403</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53245,76 +53245,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F593" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G593" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H593">
+        <v>0</v>
+      </c>
+      <c r="I593">
+        <v>2</v>
+      </c>
+      <c r="J593" t="s">
+        <v>53</v>
+      </c>
+      <c r="K593">
         <v>3</v>
       </c>
-      <c r="I593">
-        <v>0</v>
-      </c>
-      <c r="J593" t="s">
-        <v>52</v>
-      </c>
-      <c r="K593">
-        <v>1.55</v>
-      </c>
       <c r="L593">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M593">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N593">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="O593">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P593">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q593">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R593">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S593">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T593">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U593">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V593">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W593">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z593">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA593">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB593">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC593">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -72101,7 +72101,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72113,19 +72113,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F805" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G805" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H805">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I805">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J805" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K805">
         <v>2</v>
@@ -72137,52 +72137,52 @@
         <v>3.5</v>
       </c>
       <c r="N805">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O805">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P805">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q805">
+        <v>-0.75</v>
+      </c>
+      <c r="R805">
+        <v>1.9</v>
+      </c>
+      <c r="S805">
+        <v>1.9</v>
+      </c>
+      <c r="T805">
+        <v>2.75</v>
+      </c>
+      <c r="U805">
+        <v>1.85</v>
+      </c>
+      <c r="V805">
+        <v>1.95</v>
+      </c>
+      <c r="W805">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X805">
+        <v>-1</v>
+      </c>
+      <c r="Y805">
+        <v>-1</v>
+      </c>
+      <c r="Z805">
+        <v>0.45</v>
+      </c>
+      <c r="AA805">
         <v>-0.5</v>
       </c>
-      <c r="R805">
-        <v>2.025</v>
-      </c>
-      <c r="S805">
-        <v>1.775</v>
-      </c>
-      <c r="T805">
-        <v>2.5</v>
-      </c>
-      <c r="U805">
-        <v>1.95</v>
-      </c>
-      <c r="V805">
-        <v>1.85</v>
-      </c>
-      <c r="W805">
-        <v>-1</v>
-      </c>
-      <c r="X805">
-        <v>2.5</v>
-      </c>
-      <c r="Y805">
-        <v>-1</v>
-      </c>
-      <c r="Z805">
-        <v>-1</v>
-      </c>
-      <c r="AA805">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB805">
+        <v>-1</v>
+      </c>
+      <c r="AC805">
         <v>0.95</v>
-      </c>
-      <c r="AC805">
-        <v>-1</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72190,7 +72190,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72202,19 +72202,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G806" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I806">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J806" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K806">
         <v>2</v>
@@ -72226,52 +72226,52 @@
         <v>3.5</v>
       </c>
       <c r="N806">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O806">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P806">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q806">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R806">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S806">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T806">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U806">
+        <v>1.95</v>
+      </c>
+      <c r="V806">
         <v>1.85</v>
       </c>
-      <c r="V806">
-        <v>1.95</v>
-      </c>
       <c r="W806">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X806">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y806">
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA806">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB806">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC806">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G816" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H816">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J816" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K816">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L816">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M816">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N816">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O816">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P816">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q816">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R816">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S816">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T816">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U816">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V816">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W816">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z816">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA816">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB816">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,73 +73181,73 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G817" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I817">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J817" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K817">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L817">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M817">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N817">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O817">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P817">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q817">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R817">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S817">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T817">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U817">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V817">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W817">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X817">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y817">
         <v>-1</v>
       </c>
       <c r="Z817">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA817">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB817">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -73258,7 +73258,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73270,76 +73270,76 @@
         <v>45262.75</v>
       </c>
       <c r="F818" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G818" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818">
         <v>2</v>
       </c>
       <c r="J818" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K818">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L818">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M818">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N818">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O818">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P818">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q818">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R818">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S818">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T818">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U818">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V818">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W818">
         <v>-1</v>
       </c>
       <c r="X818">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y818">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z818">
         <v>-1</v>
       </c>
       <c r="AA818">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB818">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC818">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="819" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,67 +73715,67 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G823" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H823">
+        <v>1</v>
+      </c>
+      <c r="I823">
         <v>0</v>
       </c>
-      <c r="I823">
-        <v>1</v>
-      </c>
       <c r="J823" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K823">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L823">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M823">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N823">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O823">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P823">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q823">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R823">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S823">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T823">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U823">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V823">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W823">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X823">
         <v>-1</v>
       </c>
       <c r="Y823">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z823">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,13 +73804,13 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G824" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I824">
         <v>0</v>
@@ -73819,28 +73819,28 @@
         <v>52</v>
       </c>
       <c r="K824">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L824">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M824">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N824">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O824">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P824">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q824">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R824">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S824">
         <v>1.825</v>
@@ -73849,13 +73849,13 @@
         <v>2.75</v>
       </c>
       <c r="U824">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V824">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W824">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X824">
         <v>-1</v>
@@ -73864,7 +73864,7 @@
         <v>-1</v>
       </c>
       <c r="Z824">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,67 +73893,67 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G825" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J825" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K825">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L825">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M825">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N825">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O825">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P825">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q825">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R825">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S825">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T825">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U825">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V825">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W825">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X825">
         <v>-1</v>
       </c>
       <c r="Y825">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z825">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,73 +73982,73 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G826" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H826">
+        <v>2</v>
+      </c>
+      <c r="I826">
         <v>3</v>
       </c>
-      <c r="I826">
-        <v>1</v>
-      </c>
       <c r="J826" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K826">
+        <v>1.909</v>
+      </c>
+      <c r="L826">
+        <v>3.6</v>
+      </c>
+      <c r="M826">
+        <v>3.8</v>
+      </c>
+      <c r="N826">
+        <v>2.15</v>
+      </c>
+      <c r="O826">
+        <v>3.75</v>
+      </c>
+      <c r="P826">
+        <v>3.1</v>
+      </c>
+      <c r="Q826">
+        <v>-0.25</v>
+      </c>
+      <c r="R826">
         <v>1.85</v>
       </c>
-      <c r="L826">
-        <v>3.4</v>
-      </c>
-      <c r="M826">
-        <v>4.333</v>
-      </c>
-      <c r="N826">
-        <v>1.8</v>
-      </c>
-      <c r="O826">
-        <v>3.6</v>
-      </c>
-      <c r="P826">
-        <v>4.5</v>
-      </c>
-      <c r="Q826">
-        <v>-0.75</v>
-      </c>
-      <c r="R826">
-        <v>1.925</v>
-      </c>
       <c r="S826">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T826">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U826">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V826">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W826">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z826">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA826">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB826">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC826">
         <v>-1</v>
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,76 +74071,76 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G827" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H827">
         <v>2</v>
       </c>
       <c r="I827">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J827" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K827">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L827">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M827">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N827">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O827">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P827">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q827">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R827">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S827">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T827">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U827">
         <v>1.85</v>
       </c>
       <c r="V827">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W827">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z827">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA827">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB827">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC827">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G828" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J828" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K828">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L828">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M828">
         <v>3.4</v>
       </c>
       <c r="N828">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O828">
+        <v>3.6</v>
+      </c>
+      <c r="P828">
         <v>3.4</v>
       </c>
-      <c r="P828">
-        <v>2.4</v>
-      </c>
       <c r="Q828">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R828">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S828">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T828">
         <v>2.75</v>
       </c>
       <c r="U828">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V828">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W828">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z828">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA828">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB828">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC828">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,76 +74249,76 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G829" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I829">
         <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K829">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L829">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M829">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N829">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O829">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P829">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q829">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R829">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S829">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T829">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U829">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V829">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W829">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X829">
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z829">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA829">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB829">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC829">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,40 +74338,40 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G830" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H830">
         <v>0</v>
       </c>
       <c r="I830">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J830" t="s">
         <v>53</v>
       </c>
       <c r="K830">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L830">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M830">
+        <v>2.3</v>
+      </c>
+      <c r="N830">
+        <v>2.9</v>
+      </c>
+      <c r="O830">
         <v>3.4</v>
       </c>
-      <c r="N830">
-        <v>2.05</v>
-      </c>
-      <c r="O830">
-        <v>3.6</v>
-      </c>
       <c r="P830">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q830">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R830">
         <v>1.8</v>
@@ -74383,10 +74383,10 @@
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V830">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W830">
         <v>-1</v>
@@ -74395,7 +74395,7 @@
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z830">
         <v>-1</v>
@@ -74404,10 +74404,10 @@
         <v>1</v>
       </c>
       <c r="AB830">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC830">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3200931</v>
+        <v>3201280</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,61 +6609,61 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>51</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N69">
         <v>2</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
@@ -6672,13 +6672,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3201280</v>
+        <v>3201281</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,76 +6787,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
+        <v>1.8</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
         <v>2.5</v>
       </c>
-      <c r="U71">
-        <v>1.825</v>
-      </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
       <c r="X71">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3201281</v>
+        <v>3200931</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3234976</v>
+        <v>3234178</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>44241.75</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="N78">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3234175</v>
+        <v>3234976</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>44241.75</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K79">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N79">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3234178</v>
+        <v>3234175</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>44241.75</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
         <v>3.25</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
         <v>1.85</v>
       </c>
-      <c r="S81">
-        <v>1.95</v>
-      </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -30716,7 +30716,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>3899770</v>
+        <v>3899769</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30728,76 +30728,76 @@
         <v>44527.75</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G340" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340">
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K340">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L340">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M340">
         <v>3.1</v>
       </c>
       <c r="N340">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O340">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P340">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R340">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S340">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T340">
         <v>2.25</v>
       </c>
       <c r="U340">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V340">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W340">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB340">
         <v>-1</v>
       </c>
       <c r="AC340">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30805,7 +30805,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>3899769</v>
+        <v>3899770</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30817,76 +30817,76 @@
         <v>44527.75</v>
       </c>
       <c r="F341" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G341" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341">
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K341">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L341">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M341">
         <v>3.1</v>
       </c>
       <c r="N341">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O341">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P341">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q341">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S341">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T341">
         <v>2.25</v>
       </c>
       <c r="U341">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V341">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W341">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X341">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA341">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
         <v>-1</v>
       </c>
       <c r="AC341">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31161,7 +31161,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>3899772</v>
+        <v>3898955</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31173,76 +31173,76 @@
         <v>44528.75</v>
       </c>
       <c r="F345" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345">
         <v>0</v>
       </c>
-      <c r="I345">
-        <v>1</v>
-      </c>
       <c r="J345" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K345">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L345">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M345">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N345">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="O345">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q345">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R345">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T345">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
+        <v>2</v>
+      </c>
+      <c r="V345">
         <v>1.8</v>
       </c>
-      <c r="V345">
-        <v>2</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA345">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
         <v>-1</v>
       </c>
       <c r="AC345">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>3898955</v>
+        <v>3899772</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>44528.75</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K347">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M347">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N347">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S347">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W347">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z347">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3899778</v>
+        <v>3899776</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,49 +31440,49 @@
         <v>44534.75</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G348" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K348">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L348">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M348">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N348">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O348">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P348">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R348">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U348">
         <v>1.85</v>
@@ -31494,22 +31494,22 @@
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y348">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>3899776</v>
+        <v>3899778</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>44534.75</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G351" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K351">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L351">
+        <v>3.4</v>
+      </c>
+      <c r="M351">
+        <v>3.1</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351">
         <v>3.6</v>
       </c>
-      <c r="M351">
-        <v>4.5</v>
-      </c>
-      <c r="N351">
-        <v>1.333</v>
-      </c>
-      <c r="O351">
-        <v>4.75</v>
-      </c>
       <c r="P351">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q351">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
+        <v>2</v>
+      </c>
+      <c r="S351">
         <v>1.8</v>
       </c>
-      <c r="S351">
-        <v>2</v>
-      </c>
       <c r="T351">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>1.85</v>
@@ -31761,22 +31761,22 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>3899777</v>
+        <v>3898958</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,76 +31796,76 @@
         <v>44535.75</v>
       </c>
       <c r="F352" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G352" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K352">
+        <v>2.1</v>
+      </c>
+      <c r="L352">
+        <v>3.3</v>
+      </c>
+      <c r="M352">
+        <v>3.1</v>
+      </c>
+      <c r="N352">
+        <v>2.1</v>
+      </c>
+      <c r="O352">
+        <v>3.6</v>
+      </c>
+      <c r="P352">
+        <v>3.4</v>
+      </c>
+      <c r="Q352">
+        <v>-0.25</v>
+      </c>
+      <c r="R352">
+        <v>1.775</v>
+      </c>
+      <c r="S352">
+        <v>2.025</v>
+      </c>
+      <c r="T352">
         <v>2.25</v>
       </c>
-      <c r="L352">
-        <v>3.1</v>
-      </c>
-      <c r="M352">
-        <v>3</v>
-      </c>
-      <c r="N352">
-        <v>2.75</v>
-      </c>
-      <c r="O352">
-        <v>2.75</v>
-      </c>
-      <c r="P352">
-        <v>2.7</v>
-      </c>
-      <c r="Q352">
-        <v>0</v>
-      </c>
-      <c r="R352">
-        <v>1.9</v>
-      </c>
-      <c r="S352">
-        <v>1.9</v>
-      </c>
-      <c r="T352">
-        <v>2</v>
-      </c>
       <c r="U352">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V352">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W352">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X352">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA352">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC352">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31962,7 +31962,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>3898958</v>
+        <v>3899777</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31974,76 +31974,76 @@
         <v>44535.75</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G354" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>51</v>
+      </c>
+      <c r="K354">
+        <v>2.25</v>
+      </c>
+      <c r="L354">
+        <v>3.1</v>
+      </c>
+      <c r="M354">
         <v>3</v>
       </c>
-      <c r="I354">
-        <v>2</v>
-      </c>
-      <c r="J354" t="s">
-        <v>52</v>
-      </c>
-      <c r="K354">
-        <v>2.1</v>
-      </c>
-      <c r="L354">
-        <v>3.3</v>
-      </c>
-      <c r="M354">
-        <v>3.1</v>
-      </c>
       <c r="N354">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O354">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P354">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q354">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R354">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S354">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U354">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V354">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W354">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA354">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB354">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC354">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -41485,7 +41485,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>5034214</v>
+        <v>4614316</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41497,73 +41497,73 @@
         <v>44702.66666666666</v>
       </c>
       <c r="F461" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G461" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I461">
         <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K461">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L461">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M461">
         <v>2.45</v>
       </c>
       <c r="N461">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O461">
         <v>3.1</v>
       </c>
       <c r="P461">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q461">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R461">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S461">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T461">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U461">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V461">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X461">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y461">
         <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA461">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC461">
         <v>-1</v>
@@ -41574,7 +41574,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4614316</v>
+        <v>5034214</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41586,73 +41586,73 @@
         <v>44702.66666666666</v>
       </c>
       <c r="F462" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G462" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H462">
+        <v>2</v>
+      </c>
+      <c r="I462">
+        <v>2</v>
+      </c>
+      <c r="J462" t="s">
+        <v>51</v>
+      </c>
+      <c r="K462">
         <v>3</v>
       </c>
-      <c r="I462">
-        <v>2</v>
-      </c>
-      <c r="J462" t="s">
-        <v>52</v>
-      </c>
-      <c r="K462">
-        <v>3.1</v>
-      </c>
       <c r="L462">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M462">
         <v>2.45</v>
       </c>
       <c r="N462">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O462">
         <v>3.1</v>
       </c>
       <c r="P462">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q462">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R462">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S462">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T462">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U462">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V462">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W462">
+        <v>-1</v>
+      </c>
+      <c r="X462">
         <v>2.1</v>
       </c>
-      <c r="X462">
-        <v>-1</v>
-      </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC462">
         <v>-1</v>
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>4614399</v>
+        <v>4617486</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51554,40 +51554,40 @@
         <v>44857.625</v>
       </c>
       <c r="F574" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G574" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H574">
+        <v>2</v>
+      </c>
+      <c r="I574">
         <v>0</v>
       </c>
-      <c r="I574">
-        <v>2</v>
-      </c>
       <c r="J574" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K574">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L574">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M574">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="N574">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="O574">
         <v>3.8</v>
       </c>
       <c r="P574">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q574">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R574">
         <v>1.925</v>
@@ -51596,34 +51596,34 @@
         <v>1.925</v>
       </c>
       <c r="T574">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U574">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V574">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W574">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X574">
         <v>-1</v>
       </c>
       <c r="Y574">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z574">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA574">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB574">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC574">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51631,7 +51631,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>4617486</v>
+        <v>4614399</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51643,40 +51643,40 @@
         <v>44857.625</v>
       </c>
       <c r="F575" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G575" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J575" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K575">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L575">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M575">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="N575">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O575">
         <v>3.8</v>
       </c>
       <c r="P575">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q575">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R575">
         <v>1.925</v>
@@ -51685,34 +51685,34 @@
         <v>1.925</v>
       </c>
       <c r="T575">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U575">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V575">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W575">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X575">
         <v>-1</v>
       </c>
       <c r="Y575">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z575">
+        <v>-1</v>
+      </c>
+      <c r="AA575">
         <v>0.925</v>
       </c>
-      <c r="AA575">
-        <v>-1</v>
-      </c>
       <c r="AB575">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC575">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -52165,7 +52165,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>4653847</v>
+        <v>4617488</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52177,58 +52177,58 @@
         <v>44864.625</v>
       </c>
       <c r="F581" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G581" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J581" t="s">
         <v>52</v>
       </c>
       <c r="K581">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L581">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M581">
+        <v>2</v>
+      </c>
+      <c r="N581">
         <v>4.75</v>
       </c>
-      <c r="N581">
-        <v>1.615</v>
-      </c>
       <c r="O581">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P581">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q581">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R581">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S581">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T581">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U581">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V581">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W581">
-        <v>0.615</v>
+        <v>3.75</v>
       </c>
       <c r="X581">
         <v>-1</v>
@@ -52237,16 +52237,16 @@
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC581">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52343,7 +52343,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>4617488</v>
+        <v>4653847</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52355,58 +52355,58 @@
         <v>44864.625</v>
       </c>
       <c r="F583" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G583" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J583" t="s">
         <v>52</v>
       </c>
       <c r="K583">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L583">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M583">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N583">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="O583">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P583">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q583">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R583">
+        <v>2.025</v>
+      </c>
+      <c r="S583">
+        <v>1.775</v>
+      </c>
+      <c r="T583">
+        <v>2.5</v>
+      </c>
+      <c r="U583">
+        <v>1.95</v>
+      </c>
+      <c r="V583">
         <v>1.85</v>
       </c>
-      <c r="S583">
-        <v>1.95</v>
-      </c>
-      <c r="T583">
-        <v>2.75</v>
-      </c>
-      <c r="U583">
-        <v>1.925</v>
-      </c>
-      <c r="V583">
-        <v>1.875</v>
-      </c>
       <c r="W583">
-        <v>3.75</v>
+        <v>0.615</v>
       </c>
       <c r="X583">
         <v>-1</v>
@@ -52415,16 +52415,16 @@
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA583">
         <v>-1</v>
       </c>
       <c r="AB583">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC583">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4614405</v>
+        <v>4617491</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,73 +52711,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F587" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G587" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H587">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I587">
+        <v>4</v>
+      </c>
+      <c r="J587" t="s">
+        <v>53</v>
+      </c>
+      <c r="K587">
+        <v>2.7</v>
+      </c>
+      <c r="L587">
+        <v>3.3</v>
+      </c>
+      <c r="M587">
+        <v>2.45</v>
+      </c>
+      <c r="N587">
+        <v>2.7</v>
+      </c>
+      <c r="O587">
+        <v>3.4</v>
+      </c>
+      <c r="P587">
+        <v>2.6</v>
+      </c>
+      <c r="Q587">
         <v>0</v>
       </c>
-      <c r="J587" t="s">
-        <v>52</v>
-      </c>
-      <c r="K587">
-        <v>1.75</v>
-      </c>
-      <c r="L587">
-        <v>3.5</v>
-      </c>
-      <c r="M587">
-        <v>4.333</v>
-      </c>
-      <c r="N587">
-        <v>1.833</v>
-      </c>
-      <c r="O587">
-        <v>3.5</v>
-      </c>
-      <c r="P587">
-        <v>4.5</v>
-      </c>
-      <c r="Q587">
-        <v>-0.5</v>
-      </c>
       <c r="R587">
+        <v>2</v>
+      </c>
+      <c r="S587">
         <v>1.8</v>
-      </c>
-      <c r="S587">
-        <v>2</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W587">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z587">
+        <v>-1</v>
+      </c>
+      <c r="AA587">
         <v>0.8</v>
       </c>
-      <c r="AA587">
-        <v>-1</v>
-      </c>
       <c r="AB587">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52788,7 +52788,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4617491</v>
+        <v>4617747</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52800,76 +52800,76 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F588" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G588" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K588">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L588">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M588">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N588">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O588">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P588">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q588">
+        <v>-0.25</v>
+      </c>
+      <c r="R588">
+        <v>1.825</v>
+      </c>
+      <c r="S588">
+        <v>1.975</v>
+      </c>
+      <c r="T588">
+        <v>2</v>
+      </c>
+      <c r="U588">
+        <v>1.775</v>
+      </c>
+      <c r="V588">
+        <v>2.025</v>
+      </c>
+      <c r="W588">
+        <v>1.15</v>
+      </c>
+      <c r="X588">
+        <v>-1</v>
+      </c>
+      <c r="Y588">
+        <v>-1</v>
+      </c>
+      <c r="Z588">
+        <v>0.825</v>
+      </c>
+      <c r="AA588">
+        <v>-1</v>
+      </c>
+      <c r="AB588">
         <v>0</v>
       </c>
-      <c r="R588">
-        <v>2</v>
-      </c>
-      <c r="S588">
-        <v>1.8</v>
-      </c>
-      <c r="T588">
-        <v>2.5</v>
-      </c>
-      <c r="U588">
-        <v>1.9</v>
-      </c>
-      <c r="V588">
-        <v>1.9</v>
-      </c>
-      <c r="W588">
-        <v>-1</v>
-      </c>
-      <c r="X588">
-        <v>-1</v>
-      </c>
-      <c r="Y588">
-        <v>1.6</v>
-      </c>
-      <c r="Z588">
-        <v>-1</v>
-      </c>
-      <c r="AA588">
-        <v>0.8</v>
-      </c>
-      <c r="AB588">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52877,7 +52877,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4617747</v>
+        <v>4614405</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52889,13 +52889,13 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F589" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G589" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I589">
         <v>0</v>
@@ -52904,43 +52904,43 @@
         <v>52</v>
       </c>
       <c r="K589">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L589">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M589">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N589">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O589">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P589">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q589">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R589">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S589">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T589">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U589">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V589">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X589">
         <v>-1</v>
@@ -52949,16 +52949,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC589">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -52966,7 +52966,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4614404</v>
+        <v>4617739</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52978,10 +52978,10 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F590" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G590" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H590">
         <v>1</v>
@@ -52993,46 +52993,46 @@
         <v>51</v>
       </c>
       <c r="K590">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L590">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M590">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N590">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O590">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P590">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q590">
         <v>-0.25</v>
       </c>
       <c r="R590">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S590">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T590">
         <v>2.25</v>
       </c>
       <c r="U590">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V590">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W590">
         <v>-1</v>
       </c>
       <c r="X590">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y590">
         <v>-1</v>
@@ -53041,13 +53041,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA590">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AB590">
         <v>-0.5</v>
       </c>
       <c r="AC590">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4617739</v>
+        <v>4617490</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G591" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K591">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L591">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M591">
+        <v>5.5</v>
+      </c>
+      <c r="N591">
+        <v>1.4</v>
+      </c>
+      <c r="O591">
+        <v>4.75</v>
+      </c>
+      <c r="P591">
+        <v>7.5</v>
+      </c>
+      <c r="Q591">
+        <v>-1.25</v>
+      </c>
+      <c r="R591">
+        <v>1.85</v>
+      </c>
+      <c r="S591">
+        <v>1.95</v>
+      </c>
+      <c r="T591">
         <v>3</v>
       </c>
-      <c r="N591">
-        <v>2.1</v>
-      </c>
-      <c r="O591">
-        <v>3.5</v>
-      </c>
-      <c r="P591">
-        <v>3.4</v>
-      </c>
-      <c r="Q591">
-        <v>-0.25</v>
-      </c>
-      <c r="R591">
+      <c r="U591">
+        <v>2</v>
+      </c>
+      <c r="V591">
         <v>1.8</v>
       </c>
-      <c r="S591">
-        <v>2</v>
-      </c>
-      <c r="T591">
-        <v>2.25</v>
-      </c>
-      <c r="U591">
-        <v>1.8</v>
-      </c>
-      <c r="V591">
-        <v>2</v>
-      </c>
       <c r="W591">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X591">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA591">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB591">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC591">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53144,7 +53144,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4617490</v>
+        <v>4614403</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53156,76 +53156,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F592" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G592" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H592">
+        <v>0</v>
+      </c>
+      <c r="I592">
+        <v>2</v>
+      </c>
+      <c r="J592" t="s">
+        <v>53</v>
+      </c>
+      <c r="K592">
         <v>3</v>
       </c>
-      <c r="I592">
-        <v>0</v>
-      </c>
-      <c r="J592" t="s">
-        <v>52</v>
-      </c>
-      <c r="K592">
-        <v>1.55</v>
-      </c>
       <c r="L592">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M592">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N592">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="O592">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P592">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q592">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R592">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S592">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T592">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U592">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V592">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W592">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z592">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA592">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB592">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC592">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53233,7 +53233,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4614403</v>
+        <v>4614404</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53245,76 +53245,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F593" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G593" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K593">
+        <v>2.75</v>
+      </c>
+      <c r="L593">
+        <v>3.1</v>
+      </c>
+      <c r="M593">
+        <v>2.5</v>
+      </c>
+      <c r="N593">
+        <v>2.4</v>
+      </c>
+      <c r="O593">
+        <v>3.25</v>
+      </c>
+      <c r="P593">
         <v>3</v>
       </c>
-      <c r="L593">
-        <v>3.4</v>
-      </c>
-      <c r="M593">
-        <v>2.2</v>
-      </c>
-      <c r="N593">
-        <v>3.4</v>
-      </c>
-      <c r="O593">
-        <v>3.5</v>
-      </c>
-      <c r="P593">
-        <v>2.15</v>
-      </c>
       <c r="Q593">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R593">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S593">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T593">
         <v>2.25</v>
       </c>
       <c r="U593">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V593">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W593">
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y593">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA593">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB593">
         <v>-0.5</v>
       </c>
       <c r="AC593">
-        <v>0.5125</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -55547,7 +55547,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55559,73 +55559,73 @@
         <v>44967.875</v>
       </c>
       <c r="F619" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G619" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619">
         <v>3</v>
       </c>
-      <c r="I619">
-        <v>2</v>
-      </c>
       <c r="J619" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K619">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L619">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M619">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N619">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O619">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P619">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q619">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R619">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S619">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T619">
         <v>2.5</v>
       </c>
       <c r="U619">
+        <v>1.875</v>
+      </c>
+      <c r="V619">
         <v>1.925</v>
       </c>
-      <c r="V619">
-        <v>1.875</v>
-      </c>
       <c r="W619">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z619">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB619">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55636,7 +55636,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55648,73 +55648,73 @@
         <v>44967.875</v>
       </c>
       <c r="F620" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G620" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J620" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K620">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L620">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M620">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N620">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O620">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P620">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q620">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R620">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S620">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T620">
         <v>2.5</v>
       </c>
       <c r="U620">
+        <v>1.925</v>
+      </c>
+      <c r="V620">
         <v>1.875</v>
       </c>
-      <c r="V620">
-        <v>1.925</v>
-      </c>
       <c r="W620">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z620">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA620">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB620">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G641" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N641">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O641">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P641">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q641">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R641">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S641">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T641">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V641">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W641">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB641">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N642">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O642">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P642">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q642">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R642">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S642">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T642">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U642">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V642">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W642">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB642">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -58751,7 +58751,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58763,76 +58763,76 @@
         <v>45003.75</v>
       </c>
       <c r="F655" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G655" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I655">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J655" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K655">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L655">
         <v>3.25</v>
       </c>
       <c r="M655">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N655">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O655">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P655">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q655">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R655">
+        <v>1.875</v>
+      </c>
+      <c r="S655">
+        <v>1.925</v>
+      </c>
+      <c r="T655">
+        <v>2.5</v>
+      </c>
+      <c r="U655">
+        <v>2</v>
+      </c>
+      <c r="V655">
         <v>1.8</v>
       </c>
-      <c r="S655">
-        <v>2</v>
-      </c>
-      <c r="T655">
-        <v>2.25</v>
-      </c>
-      <c r="U655">
-        <v>1.85</v>
-      </c>
-      <c r="V655">
-        <v>1.95</v>
-      </c>
       <c r="W655">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA655">
+        <v>-1</v>
+      </c>
+      <c r="AB655">
         <v>1</v>
       </c>
-      <c r="AB655">
-        <v>-0.5</v>
-      </c>
       <c r="AC655">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58840,7 +58840,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58852,76 +58852,76 @@
         <v>45003.75</v>
       </c>
       <c r="F656" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G656" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H656">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J656" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K656">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L656">
         <v>3.25</v>
       </c>
       <c r="M656">
+        <v>3.4</v>
+      </c>
+      <c r="N656">
+        <v>2.15</v>
+      </c>
+      <c r="O656">
+        <v>3.25</v>
+      </c>
+      <c r="P656">
+        <v>3.6</v>
+      </c>
+      <c r="Q656">
+        <v>-0.25</v>
+      </c>
+      <c r="R656">
+        <v>1.8</v>
+      </c>
+      <c r="S656">
+        <v>2</v>
+      </c>
+      <c r="T656">
         <v>2.25</v>
       </c>
-      <c r="N656">
-        <v>3.3</v>
-      </c>
-      <c r="O656">
-        <v>3.3</v>
-      </c>
-      <c r="P656">
-        <v>2.25</v>
-      </c>
-      <c r="Q656">
-        <v>0.25</v>
-      </c>
-      <c r="R656">
-        <v>1.875</v>
-      </c>
-      <c r="S656">
-        <v>1.925</v>
-      </c>
-      <c r="T656">
-        <v>2.5</v>
-      </c>
       <c r="U656">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V656">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W656">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X656">
         <v>-1</v>
       </c>
       <c r="Y656">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z656">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA656">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB656">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC656">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,70 +59119,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F659" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G659" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J659" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K659">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L659">
         <v>3.3</v>
       </c>
       <c r="M659">
+        <v>2.375</v>
+      </c>
+      <c r="N659">
+        <v>3.3</v>
+      </c>
+      <c r="O659">
+        <v>3.5</v>
+      </c>
+      <c r="P659">
         <v>2.15</v>
-      </c>
-      <c r="N659">
-        <v>3.4</v>
-      </c>
-      <c r="O659">
-        <v>3.6</v>
-      </c>
-      <c r="P659">
-        <v>2.05</v>
       </c>
       <c r="Q659">
         <v>0.25</v>
       </c>
       <c r="R659">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S659">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U659">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V659">
         <v>1.925</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X659">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA659">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB659">
         <v>-1</v>
@@ -59196,7 +59196,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59208,70 +59208,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F660" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G660" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J660" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K660">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L660">
         <v>3.3</v>
       </c>
       <c r="M660">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N660">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O660">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P660">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q660">
         <v>0.25</v>
       </c>
       <c r="R660">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S660">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T660">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U660">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V660">
         <v>1.925</v>
       </c>
       <c r="W660">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X660">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y660">
         <v>-1</v>
       </c>
       <c r="Z660">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA660">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB660">
         <v>-1</v>
@@ -61599,7 +61599,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61611,58 +61611,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F687" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G687" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I687">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J687" t="s">
         <v>52</v>
       </c>
       <c r="K687">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L687">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M687">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N687">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O687">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P687">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q687">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R687">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S687">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V687">
         <v>1.875</v>
       </c>
       <c r="W687">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61671,16 +61671,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC687">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61688,7 +61688,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61700,58 +61700,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F688" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G688" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H688">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I688">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>52</v>
       </c>
       <c r="K688">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L688">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M688">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N688">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O688">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P688">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q688">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R688">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T688">
         <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V688">
         <v>1.875</v>
       </c>
       <c r="W688">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61760,16 +61760,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA688">
         <v>-1</v>
       </c>
       <c r="AB688">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61866,7 +61866,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61878,58 +61878,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F690" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G690" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J690" t="s">
         <v>52</v>
       </c>
       <c r="K690">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L690">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M690">
+        <v>3.75</v>
+      </c>
+      <c r="N690">
+        <v>1.909</v>
+      </c>
+      <c r="O690">
+        <v>3.6</v>
+      </c>
+      <c r="P690">
+        <v>4.2</v>
+      </c>
+      <c r="Q690">
+        <v>-0.5</v>
+      </c>
+      <c r="R690">
+        <v>1.85</v>
+      </c>
+      <c r="S690">
+        <v>1.95</v>
+      </c>
+      <c r="T690">
         <v>2.5</v>
       </c>
-      <c r="N690">
-        <v>2.45</v>
-      </c>
-      <c r="O690">
-        <v>3.3</v>
-      </c>
-      <c r="P690">
-        <v>3</v>
-      </c>
-      <c r="Q690">
-        <v>-0.25</v>
-      </c>
-      <c r="R690">
-        <v>2.05</v>
-      </c>
-      <c r="S690">
-        <v>1.75</v>
-      </c>
-      <c r="T690">
-        <v>2.25</v>
-      </c>
       <c r="U690">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V690">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W690">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X690">
         <v>-1</v>
@@ -61938,16 +61938,16 @@
         <v>-1</v>
       </c>
       <c r="Z690">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA690">
         <v>-1</v>
       </c>
       <c r="AB690">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC690">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="691" spans="1:29">
@@ -61955,7 +61955,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61967,58 +61967,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F691" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G691" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H691">
+        <v>2</v>
+      </c>
+      <c r="I691">
         <v>1</v>
-      </c>
-      <c r="I691">
-        <v>0</v>
       </c>
       <c r="J691" t="s">
         <v>52</v>
       </c>
       <c r="K691">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L691">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M691">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N691">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O691">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P691">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q691">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R691">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S691">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T691">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U691">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V691">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W691">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X691">
         <v>-1</v>
@@ -62027,16 +62027,16 @@
         <v>-1</v>
       </c>
       <c r="Z691">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA691">
         <v>-1</v>
       </c>
       <c r="AB691">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC691">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="692" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,13 +73715,13 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G823" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I823">
         <v>0</v>
@@ -73730,28 +73730,28 @@
         <v>52</v>
       </c>
       <c r="K823">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L823">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M823">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N823">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O823">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P823">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q823">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R823">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S823">
         <v>1.825</v>
@@ -73760,13 +73760,13 @@
         <v>2.75</v>
       </c>
       <c r="U823">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V823">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W823">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X823">
         <v>-1</v>
@@ -73775,7 +73775,7 @@
         <v>-1</v>
       </c>
       <c r="Z823">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G824" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J824" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K824">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L824">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M824">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N824">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O824">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P824">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q824">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R824">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S824">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T824">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U824">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V824">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W824">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z824">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,67 +73893,67 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G825" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H825">
+        <v>1</v>
+      </c>
+      <c r="I825">
         <v>0</v>
       </c>
-      <c r="I825">
-        <v>1</v>
-      </c>
       <c r="J825" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K825">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L825">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M825">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N825">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O825">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P825">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q825">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R825">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S825">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T825">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U825">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V825">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W825">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X825">
         <v>-1</v>
       </c>
       <c r="Y825">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z825">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078998</v>
+        <v>6078268</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,55 +73982,55 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G826" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J826" t="s">
         <v>53</v>
       </c>
       <c r="K826">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L826">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M826">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N826">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O826">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P826">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q826">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R826">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S826">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T826">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U826">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V826">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W826">
         <v>-1</v>
@@ -74039,19 +74039,19 @@
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Z826">
         <v>-1</v>
       </c>
       <c r="AA826">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB826">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC826">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G828" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I828">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J828" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K828">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L828">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M828">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N828">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O828">
         <v>3.6</v>
       </c>
       <c r="P828">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q828">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R828">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S828">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T828">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U828">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V828">
         <v>1.825</v>
       </c>
       <c r="W828">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z828">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA828">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB828">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC828">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,73 +74249,73 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G829" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H829">
+        <v>2</v>
+      </c>
+      <c r="I829">
         <v>3</v>
       </c>
-      <c r="I829">
-        <v>1</v>
-      </c>
       <c r="J829" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K829">
+        <v>1.909</v>
+      </c>
+      <c r="L829">
+        <v>3.6</v>
+      </c>
+      <c r="M829">
+        <v>3.8</v>
+      </c>
+      <c r="N829">
+        <v>2.15</v>
+      </c>
+      <c r="O829">
+        <v>3.75</v>
+      </c>
+      <c r="P829">
+        <v>3.1</v>
+      </c>
+      <c r="Q829">
+        <v>-0.25</v>
+      </c>
+      <c r="R829">
         <v>1.85</v>
       </c>
-      <c r="L829">
-        <v>3.4</v>
-      </c>
-      <c r="M829">
-        <v>4.333</v>
-      </c>
-      <c r="N829">
-        <v>1.8</v>
-      </c>
-      <c r="O829">
-        <v>3.6</v>
-      </c>
-      <c r="P829">
-        <v>4.5</v>
-      </c>
-      <c r="Q829">
-        <v>-0.75</v>
-      </c>
-      <c r="R829">
-        <v>1.925</v>
-      </c>
       <c r="S829">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T829">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U829">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V829">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W829">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X829">
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z829">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA829">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB829">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC829">
         <v>-1</v>
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,40 +74338,40 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G830" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H830">
         <v>0</v>
       </c>
       <c r="I830">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J830" t="s">
         <v>53</v>
       </c>
       <c r="K830">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L830">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M830">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N830">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O830">
+        <v>3.6</v>
+      </c>
+      <c r="P830">
         <v>3.4</v>
       </c>
-      <c r="P830">
-        <v>2.375</v>
-      </c>
       <c r="Q830">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R830">
         <v>1.8</v>
@@ -74383,10 +74383,10 @@
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V830">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W830">
         <v>-1</v>
@@ -74395,7 +74395,7 @@
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z830">
         <v>-1</v>
@@ -74404,10 +74404,10 @@
         <v>1</v>
       </c>
       <c r="AB830">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC830">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3899776</v>
+        <v>3899778</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,49 +31440,49 @@
         <v>44534.75</v>
       </c>
       <c r="F348" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J348" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K348">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L348">
+        <v>3.4</v>
+      </c>
+      <c r="M348">
+        <v>3.1</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348">
         <v>3.6</v>
       </c>
-      <c r="M348">
-        <v>4.5</v>
-      </c>
-      <c r="N348">
-        <v>1.333</v>
-      </c>
-      <c r="O348">
-        <v>4.75</v>
-      </c>
       <c r="P348">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q348">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
+        <v>2</v>
+      </c>
+      <c r="S348">
         <v>1.8</v>
       </c>
-      <c r="S348">
-        <v>2</v>
-      </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
         <v>1.85</v>
@@ -31494,22 +31494,22 @@
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31517,7 +31517,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>3899774</v>
+        <v>3898957</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31529,76 +31529,76 @@
         <v>44534.75</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G349" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J349" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L349">
+        <v>3.25</v>
+      </c>
+      <c r="M349">
+        <v>2.05</v>
+      </c>
+      <c r="N349">
+        <v>3.5</v>
+      </c>
+      <c r="O349">
         <v>3.4</v>
       </c>
-      <c r="M349">
+      <c r="P349">
+        <v>2.1</v>
+      </c>
+      <c r="Q349">
+        <v>0.25</v>
+      </c>
+      <c r="R349">
+        <v>2.05</v>
+      </c>
+      <c r="S349">
         <v>1.8</v>
       </c>
-      <c r="N349">
-        <v>9</v>
-      </c>
-      <c r="O349">
-        <v>4.75</v>
-      </c>
-      <c r="P349">
-        <v>1.363</v>
-      </c>
-      <c r="Q349">
-        <v>1.5</v>
-      </c>
-      <c r="R349">
-        <v>1.775</v>
-      </c>
-      <c r="S349">
+      <c r="T349">
+        <v>2.25</v>
+      </c>
+      <c r="U349">
+        <v>1.825</v>
+      </c>
+      <c r="V349">
         <v>2.025</v>
       </c>
-      <c r="T349">
-        <v>2.5</v>
-      </c>
-      <c r="U349">
-        <v>1.8</v>
-      </c>
-      <c r="V349">
-        <v>2</v>
-      </c>
       <c r="W349">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z349">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC349">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31606,7 +31606,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>3898957</v>
+        <v>3899774</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31618,76 +31618,76 @@
         <v>44534.75</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G350" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
         <v>0</v>
       </c>
-      <c r="I350">
-        <v>3</v>
-      </c>
       <c r="J350" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K350">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N350">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="O350">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P350">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R350">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S350">
+        <v>2.025</v>
+      </c>
+      <c r="T350">
+        <v>2.5</v>
+      </c>
+      <c r="U350">
         <v>1.8</v>
       </c>
-      <c r="T350">
-        <v>2.25</v>
-      </c>
-      <c r="U350">
-        <v>1.825</v>
-      </c>
       <c r="V350">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA350">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>3899778</v>
+        <v>3899776</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>44534.75</v>
       </c>
       <c r="F351" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K351">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L351">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N351">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O351">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P351">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R351">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S351">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T351">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U351">
         <v>1.85</v>
@@ -31761,22 +31761,22 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y351">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -51631,7 +51631,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>4614399</v>
+        <v>4617485</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51643,76 +51643,76 @@
         <v>44857.625</v>
       </c>
       <c r="F575" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G575" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H575">
+        <v>5</v>
+      </c>
+      <c r="I575">
         <v>0</v>
       </c>
-      <c r="I575">
-        <v>2</v>
-      </c>
       <c r="J575" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K575">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="L575">
         <v>4</v>
       </c>
       <c r="M575">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N575">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O575">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P575">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q575">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R575">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S575">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T575">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U575">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V575">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W575">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X575">
         <v>-1</v>
       </c>
       <c r="Y575">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA575">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB575">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC575">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>4617485</v>
+        <v>4614399</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,76 +51732,76 @@
         <v>44857.625</v>
       </c>
       <c r="F576" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G576" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H576">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I576">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J576" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K576">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="L576">
         <v>4</v>
       </c>
       <c r="M576">
+        <v>1.615</v>
+      </c>
+      <c r="N576">
         <v>5</v>
       </c>
-      <c r="N576">
-        <v>1.5</v>
-      </c>
       <c r="O576">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P576">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q576">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R576">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S576">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T576">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U576">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V576">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W576">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X576">
         <v>-1</v>
       </c>
       <c r="Y576">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z576">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA576">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB576">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC576">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -56971,7 +56971,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56983,76 +56983,76 @@
         <v>44983.75</v>
       </c>
       <c r="F635" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G635" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635">
         <v>1</v>
       </c>
       <c r="J635" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K635">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L635">
         <v>3.4</v>
       </c>
       <c r="M635">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N635">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O635">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P635">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q635">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R635">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S635">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T635">
         <v>2.5</v>
       </c>
       <c r="U635">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V635">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W635">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X635">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
+        <v>-1</v>
+      </c>
+      <c r="AA635">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB635">
+        <v>-1</v>
+      </c>
+      <c r="AC635">
         <v>0.875</v>
-      </c>
-      <c r="AA635">
-        <v>-1</v>
-      </c>
-      <c r="AB635">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC635">
-        <v>-1</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57060,7 +57060,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57072,76 +57072,76 @@
         <v>44983.75</v>
       </c>
       <c r="F636" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G636" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I636">
         <v>1</v>
       </c>
       <c r="J636" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K636">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L636">
         <v>3.4</v>
       </c>
       <c r="M636">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N636">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O636">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P636">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q636">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R636">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S636">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T636">
         <v>2.5</v>
       </c>
       <c r="U636">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V636">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W636">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X636">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y636">
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA636">
+        <v>-1</v>
+      </c>
+      <c r="AB636">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB636">
-        <v>-1</v>
-      </c>
       <c r="AC636">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57238,7 +57238,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57250,73 +57250,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F638" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G638" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I638">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J638" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K638">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L638">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M638">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N638">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O638">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P638">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q638">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R638">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S638">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T638">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U638">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V638">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W638">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X638">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA638">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB638">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -57327,7 +57327,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57339,73 +57339,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F639" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G639" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H639">
+        <v>2</v>
+      </c>
+      <c r="I639">
+        <v>2</v>
+      </c>
+      <c r="J639" t="s">
+        <v>51</v>
+      </c>
+      <c r="K639">
+        <v>3.2</v>
+      </c>
+      <c r="L639">
+        <v>3.4</v>
+      </c>
+      <c r="M639">
+        <v>2.2</v>
+      </c>
+      <c r="N639">
+        <v>2.4</v>
+      </c>
+      <c r="O639">
+        <v>3.25</v>
+      </c>
+      <c r="P639">
         <v>3</v>
       </c>
-      <c r="I639">
-        <v>1</v>
-      </c>
-      <c r="J639" t="s">
-        <v>52</v>
-      </c>
-      <c r="K639">
-        <v>1.95</v>
-      </c>
-      <c r="L639">
-        <v>3.5</v>
-      </c>
-      <c r="M639">
-        <v>3.8</v>
-      </c>
-      <c r="N639">
+      <c r="Q639">
+        <v>-0.25</v>
+      </c>
+      <c r="R639">
+        <v>2.05</v>
+      </c>
+      <c r="S639">
         <v>1.75</v>
       </c>
-      <c r="O639">
-        <v>4</v>
-      </c>
-      <c r="P639">
-        <v>4.5</v>
-      </c>
-      <c r="Q639">
-        <v>-0.75</v>
-      </c>
-      <c r="R639">
-        <v>1.95</v>
-      </c>
-      <c r="S639">
-        <v>1.85</v>
-      </c>
       <c r="T639">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U639">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V639">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W639">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X639">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y639">
         <v>-1</v>
       </c>
       <c r="Z639">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA639">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB639">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC639">
         <v>-1</v>
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G641" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H641">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N641">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O641">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P641">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q641">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R641">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S641">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T641">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U641">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V641">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W641">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB641">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G642" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N642">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O642">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P642">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q642">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R642">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S642">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T642">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U642">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V642">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W642">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB642">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -61599,7 +61599,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61611,58 +61611,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F687" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G687" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H687">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I687">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J687" t="s">
         <v>52</v>
       </c>
       <c r="K687">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L687">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M687">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N687">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O687">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P687">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q687">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R687">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S687">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V687">
         <v>1.875</v>
       </c>
       <c r="W687">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61671,16 +61671,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC687">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61688,7 +61688,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61700,58 +61700,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F688" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G688" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I688">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J688" t="s">
         <v>52</v>
       </c>
       <c r="K688">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L688">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M688">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N688">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O688">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P688">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q688">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R688">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S688">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T688">
         <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V688">
         <v>1.875</v>
       </c>
       <c r="W688">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61760,16 +61760,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA688">
         <v>-1</v>
       </c>
       <c r="AB688">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC688">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -72813,7 +72813,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72825,37 +72825,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F813" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G813" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H813">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I813">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J813" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K813">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L813">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M813">
+        <v>2.6</v>
+      </c>
+      <c r="N813">
+        <v>2.8</v>
+      </c>
+      <c r="O813">
         <v>3.2</v>
       </c>
-      <c r="N813">
-        <v>2.625</v>
-      </c>
-      <c r="O813">
-        <v>3.5</v>
-      </c>
       <c r="P813">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q813">
         <v>0</v>
@@ -72867,34 +72867,34 @@
         <v>1.9</v>
       </c>
       <c r="T813">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U813">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V813">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W813">
         <v>-1</v>
       </c>
       <c r="X813">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y813">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z813">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA813">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB813">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC813">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72902,7 +72902,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72914,37 +72914,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F814" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G814" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J814" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K814">
+        <v>2.15</v>
+      </c>
+      <c r="L814">
+        <v>3.5</v>
+      </c>
+      <c r="M814">
+        <v>3.2</v>
+      </c>
+      <c r="N814">
+        <v>2.625</v>
+      </c>
+      <c r="O814">
+        <v>3.5</v>
+      </c>
+      <c r="P814">
         <v>2.6</v>
-      </c>
-      <c r="L814">
-        <v>3.4</v>
-      </c>
-      <c r="M814">
-        <v>2.6</v>
-      </c>
-      <c r="N814">
-        <v>2.8</v>
-      </c>
-      <c r="O814">
-        <v>3.2</v>
-      </c>
-      <c r="P814">
-        <v>2.7</v>
       </c>
       <c r="Q814">
         <v>0</v>
@@ -72956,34 +72956,34 @@
         <v>1.9</v>
       </c>
       <c r="T814">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U814">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V814">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W814">
         <v>-1</v>
       </c>
       <c r="X814">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y814">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z814">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA814">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB814">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC814">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G816" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H816">
+        <v>4</v>
+      </c>
+      <c r="I816">
         <v>0</v>
       </c>
-      <c r="I816">
-        <v>2</v>
-      </c>
       <c r="J816" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K816">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L816">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M816">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N816">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O816">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P816">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R816">
+        <v>2.025</v>
+      </c>
+      <c r="S816">
+        <v>1.825</v>
+      </c>
+      <c r="T816">
+        <v>3</v>
+      </c>
+      <c r="U816">
+        <v>1.9</v>
+      </c>
+      <c r="V816">
         <v>1.95</v>
       </c>
-      <c r="S816">
-        <v>1.85</v>
-      </c>
-      <c r="T816">
-        <v>2.5</v>
-      </c>
-      <c r="U816">
-        <v>1.8</v>
-      </c>
-      <c r="V816">
-        <v>2</v>
-      </c>
       <c r="W816">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA816">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB816">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,76 +73181,76 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G817" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H817">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I817">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J817" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K817">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L817">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M817">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N817">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O817">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P817">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q817">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R817">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S817">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T817">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U817">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V817">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W817">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X817">
         <v>-1</v>
       </c>
       <c r="Y817">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z817">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA817">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB817">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC817">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:29">
@@ -73436,7 +73436,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73448,55 +73448,55 @@
         <v>45263.75</v>
       </c>
       <c r="F820" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G820" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H820">
         <v>0</v>
       </c>
       <c r="I820">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J820" t="s">
         <v>53</v>
       </c>
       <c r="K820">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L820">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M820">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N820">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O820">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P820">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q820">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R820">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S820">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T820">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U820">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V820">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W820">
         <v>-1</v>
@@ -73505,19 +73505,19 @@
         <v>-1</v>
       </c>
       <c r="Y820">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z820">
         <v>-1</v>
       </c>
       <c r="AA820">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB820">
         <v>-1</v>
       </c>
       <c r="AC820">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,55 +73626,55 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G822" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H822">
         <v>0</v>
       </c>
       <c r="I822">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J822" t="s">
         <v>53</v>
       </c>
       <c r="K822">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L822">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M822">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N822">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O822">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P822">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q822">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R822">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S822">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T822">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U822">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V822">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W822">
         <v>-1</v>
@@ -73683,19 +73683,19 @@
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z822">
         <v>-1</v>
       </c>
       <c r="AA822">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB822">
         <v>-1</v>
       </c>
       <c r="AC822">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,67 +73715,67 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G823" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J823" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K823">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L823">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M823">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N823">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O823">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P823">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q823">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R823">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S823">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T823">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U823">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V823">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W823">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X823">
         <v>-1</v>
       </c>
       <c r="Y823">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z823">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G824" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H824">
+        <v>1</v>
+      </c>
+      <c r="I824">
         <v>0</v>
       </c>
-      <c r="I824">
-        <v>1</v>
-      </c>
       <c r="J824" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K824">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L824">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M824">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N824">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O824">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P824">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q824">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R824">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S824">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T824">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U824">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V824">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W824">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z824">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,13 +73893,13 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G825" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I825">
         <v>0</v>
@@ -73908,28 +73908,28 @@
         <v>52</v>
       </c>
       <c r="K825">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L825">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M825">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N825">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O825">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P825">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q825">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R825">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S825">
         <v>1.825</v>
@@ -73938,13 +73938,13 @@
         <v>2.75</v>
       </c>
       <c r="U825">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V825">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W825">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X825">
         <v>-1</v>
@@ -73953,7 +73953,7 @@
         <v>-1</v>
       </c>
       <c r="Z825">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078268</v>
+        <v>6077499</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,28 +73982,28 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G826" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H826">
+        <v>2</v>
+      </c>
+      <c r="I826">
         <v>0</v>
       </c>
-      <c r="I826">
-        <v>1</v>
-      </c>
       <c r="J826" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K826">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L826">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M826">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N826">
         <v>2.9</v>
@@ -74012,46 +74012,46 @@
         <v>3.4</v>
       </c>
       <c r="P826">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q826">
         <v>0.25</v>
       </c>
       <c r="R826">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S826">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T826">
         <v>2.75</v>
       </c>
       <c r="U826">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V826">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W826">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z826">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA826">
+        <v>-1</v>
+      </c>
+      <c r="AB826">
+        <v>-1</v>
+      </c>
+      <c r="AC826">
         <v>1</v>
-      </c>
-      <c r="AB826">
-        <v>-1</v>
-      </c>
-      <c r="AC826">
-        <v>0.8</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,76 +74071,76 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G827" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H827">
         <v>2</v>
       </c>
       <c r="I827">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J827" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K827">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L827">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M827">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N827">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O827">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P827">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q827">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R827">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S827">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T827">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U827">
         <v>1.85</v>
       </c>
       <c r="V827">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W827">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z827">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA827">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB827">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC827">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6078269</v>
+        <v>6077768</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G828" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H828">
+        <v>0</v>
+      </c>
+      <c r="I828">
         <v>3</v>
       </c>
-      <c r="I828">
-        <v>1</v>
-      </c>
       <c r="J828" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K828">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L828">
+        <v>3.5</v>
+      </c>
+      <c r="M828">
         <v>3.4</v>
       </c>
-      <c r="M828">
-        <v>4.333</v>
-      </c>
       <c r="N828">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O828">
         <v>3.6</v>
       </c>
       <c r="P828">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q828">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R828">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S828">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T828">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U828">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V828">
         <v>1.825</v>
       </c>
       <c r="W828">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z828">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA828">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB828">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC828">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,73 +74249,73 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G829" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I829">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K829">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L829">
+        <v>3.4</v>
+      </c>
+      <c r="M829">
+        <v>4.333</v>
+      </c>
+      <c r="N829">
+        <v>1.8</v>
+      </c>
+      <c r="O829">
         <v>3.6</v>
       </c>
-      <c r="M829">
-        <v>3.8</v>
-      </c>
-      <c r="N829">
-        <v>2.15</v>
-      </c>
-      <c r="O829">
-        <v>3.75</v>
-      </c>
       <c r="P829">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q829">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R829">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S829">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T829">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U829">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V829">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W829">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X829">
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z829">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA829">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB829">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC829">
         <v>-1</v>
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,40 +74338,40 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G830" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H830">
         <v>0</v>
       </c>
       <c r="I830">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J830" t="s">
         <v>53</v>
       </c>
       <c r="K830">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L830">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M830">
+        <v>2.3</v>
+      </c>
+      <c r="N830">
+        <v>2.9</v>
+      </c>
+      <c r="O830">
         <v>3.4</v>
       </c>
-      <c r="N830">
-        <v>2.05</v>
-      </c>
-      <c r="O830">
-        <v>3.6</v>
-      </c>
       <c r="P830">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q830">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R830">
         <v>1.8</v>
@@ -74383,10 +74383,10 @@
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V830">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W830">
         <v>-1</v>
@@ -74395,7 +74395,7 @@
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z830">
         <v>-1</v>
@@ -74404,10 +74404,10 @@
         <v>1</v>
       </c>
       <c r="AB830">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC830">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>4617486</v>
+        <v>4617485</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51554,13 +51554,13 @@
         <v>44857.625</v>
       </c>
       <c r="F574" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G574" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I574">
         <v>0</v>
@@ -51569,43 +51569,43 @@
         <v>52</v>
       </c>
       <c r="K574">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L574">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M574">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N574">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O574">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P574">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q574">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R574">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S574">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T574">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U574">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V574">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W574">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X574">
         <v>-1</v>
@@ -51614,16 +51614,16 @@
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA574">
         <v>-1</v>
       </c>
       <c r="AB574">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC574">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51631,7 +51631,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>4617485</v>
+        <v>4614399</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51643,76 +51643,76 @@
         <v>44857.625</v>
       </c>
       <c r="F575" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G575" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H575">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I575">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J575" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K575">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="L575">
         <v>4</v>
       </c>
       <c r="M575">
+        <v>1.615</v>
+      </c>
+      <c r="N575">
         <v>5</v>
       </c>
-      <c r="N575">
-        <v>1.5</v>
-      </c>
       <c r="O575">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P575">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q575">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R575">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S575">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T575">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U575">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V575">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W575">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X575">
         <v>-1</v>
       </c>
       <c r="Y575">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z575">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA575">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB575">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC575">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>4614399</v>
+        <v>4617486</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,40 +51732,40 @@
         <v>44857.625</v>
       </c>
       <c r="F576" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G576" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H576">
+        <v>2</v>
+      </c>
+      <c r="I576">
         <v>0</v>
       </c>
-      <c r="I576">
-        <v>2</v>
-      </c>
       <c r="J576" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K576">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L576">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M576">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="N576">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="O576">
         <v>3.8</v>
       </c>
       <c r="P576">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q576">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R576">
         <v>1.925</v>
@@ -51774,34 +51774,34 @@
         <v>1.925</v>
       </c>
       <c r="T576">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U576">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V576">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W576">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X576">
         <v>-1</v>
       </c>
       <c r="Y576">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z576">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA576">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB576">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC576">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G641" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N641">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O641">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P641">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q641">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R641">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S641">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T641">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V641">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W641">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB641">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N642">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O642">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P642">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q642">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R642">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S642">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T642">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U642">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V642">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W642">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB642">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G816" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H816">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J816" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K816">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L816">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M816">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N816">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O816">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P816">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q816">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R816">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S816">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T816">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U816">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V816">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W816">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z816">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA816">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB816">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,76 +73181,76 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G817" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H817">
+        <v>4</v>
+      </c>
+      <c r="I817">
         <v>0</v>
       </c>
-      <c r="I817">
-        <v>2</v>
-      </c>
       <c r="J817" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K817">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L817">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M817">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N817">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O817">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P817">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q817">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R817">
+        <v>2.025</v>
+      </c>
+      <c r="S817">
+        <v>1.825</v>
+      </c>
+      <c r="T817">
+        <v>3</v>
+      </c>
+      <c r="U817">
+        <v>1.9</v>
+      </c>
+      <c r="V817">
         <v>1.95</v>
       </c>
-      <c r="S817">
-        <v>1.85</v>
-      </c>
-      <c r="T817">
-        <v>2.5</v>
-      </c>
-      <c r="U817">
-        <v>1.8</v>
-      </c>
-      <c r="V817">
-        <v>2</v>
-      </c>
       <c r="W817">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X817">
         <v>-1</v>
       </c>
       <c r="Y817">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z817">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA817">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB817">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC817">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="818" spans="1:29">
@@ -73436,7 +73436,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73448,55 +73448,55 @@
         <v>45263.75</v>
       </c>
       <c r="F820" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G820" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H820">
         <v>0</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J820" t="s">
         <v>53</v>
       </c>
       <c r="K820">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L820">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M820">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N820">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O820">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P820">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q820">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R820">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S820">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T820">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U820">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V820">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W820">
         <v>-1</v>
@@ -73505,19 +73505,19 @@
         <v>-1</v>
       </c>
       <c r="Y820">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z820">
         <v>-1</v>
       </c>
       <c r="AA820">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB820">
         <v>-1</v>
       </c>
       <c r="AC820">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,55 +73626,55 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G822" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H822">
         <v>0</v>
       </c>
       <c r="I822">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J822" t="s">
         <v>53</v>
       </c>
       <c r="K822">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L822">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M822">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N822">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O822">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P822">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q822">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R822">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S822">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T822">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U822">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V822">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W822">
         <v>-1</v>
@@ -73683,19 +73683,19 @@
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z822">
         <v>-1</v>
       </c>
       <c r="AA822">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB822">
         <v>-1</v>
       </c>
       <c r="AC822">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,67 +73715,67 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G823" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H823">
+        <v>1</v>
+      </c>
+      <c r="I823">
         <v>0</v>
       </c>
-      <c r="I823">
-        <v>1</v>
-      </c>
       <c r="J823" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K823">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L823">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M823">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N823">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O823">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P823">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q823">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R823">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S823">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T823">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U823">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V823">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W823">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X823">
         <v>-1</v>
       </c>
       <c r="Y823">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z823">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G824" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H824">
+        <v>0</v>
+      </c>
+      <c r="I824">
         <v>1</v>
       </c>
-      <c r="I824">
-        <v>0</v>
-      </c>
       <c r="J824" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K824">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L824">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M824">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N824">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O824">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P824">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q824">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R824">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S824">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T824">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U824">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V824">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W824">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z824">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="825" spans="1:29">

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>4617485</v>
+        <v>4617486</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51554,13 +51554,13 @@
         <v>44857.625</v>
       </c>
       <c r="F574" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G574" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H574">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I574">
         <v>0</v>
@@ -51569,43 +51569,43 @@
         <v>52</v>
       </c>
       <c r="K574">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L574">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M574">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N574">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O574">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P574">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q574">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R574">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S574">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T574">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U574">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V574">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W574">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X574">
         <v>-1</v>
@@ -51614,16 +51614,16 @@
         <v>-1</v>
       </c>
       <c r="Z574">
+        <v>0.925</v>
+      </c>
+      <c r="AA574">
+        <v>-1</v>
+      </c>
+      <c r="AB574">
+        <v>-1</v>
+      </c>
+      <c r="AC574">
         <v>1</v>
-      </c>
-      <c r="AA574">
-        <v>-1</v>
-      </c>
-      <c r="AB574">
-        <v>1</v>
-      </c>
-      <c r="AC574">
-        <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>4617486</v>
+        <v>4617485</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,13 +51732,13 @@
         <v>44857.625</v>
       </c>
       <c r="F576" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G576" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I576">
         <v>0</v>
@@ -51747,43 +51747,43 @@
         <v>52</v>
       </c>
       <c r="K576">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L576">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M576">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N576">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O576">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P576">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q576">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R576">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S576">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T576">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U576">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V576">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W576">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51792,16 +51792,16 @@
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA576">
         <v>-1</v>
       </c>
       <c r="AB576">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC576">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -52966,7 +52966,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4617739</v>
+        <v>4617490</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52978,76 +52978,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F590" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G590" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K590">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L590">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M590">
+        <v>5.5</v>
+      </c>
+      <c r="N590">
+        <v>1.4</v>
+      </c>
+      <c r="O590">
+        <v>4.75</v>
+      </c>
+      <c r="P590">
+        <v>7.5</v>
+      </c>
+      <c r="Q590">
+        <v>-1.25</v>
+      </c>
+      <c r="R590">
+        <v>1.85</v>
+      </c>
+      <c r="S590">
+        <v>1.95</v>
+      </c>
+      <c r="T590">
         <v>3</v>
       </c>
-      <c r="N590">
-        <v>2.1</v>
-      </c>
-      <c r="O590">
-        <v>3.5</v>
-      </c>
-      <c r="P590">
-        <v>3.4</v>
-      </c>
-      <c r="Q590">
-        <v>-0.25</v>
-      </c>
-      <c r="R590">
+      <c r="U590">
+        <v>2</v>
+      </c>
+      <c r="V590">
         <v>1.8</v>
       </c>
-      <c r="S590">
-        <v>2</v>
-      </c>
-      <c r="T590">
-        <v>2.25</v>
-      </c>
-      <c r="U590">
-        <v>1.8</v>
-      </c>
-      <c r="V590">
-        <v>2</v>
-      </c>
       <c r="W590">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X590">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y590">
         <v>-1</v>
       </c>
       <c r="Z590">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA590">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB590">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC590">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4617490</v>
+        <v>4617739</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G591" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591" t="s">
+        <v>51</v>
+      </c>
+      <c r="K591">
+        <v>2.3</v>
+      </c>
+      <c r="L591">
+        <v>3.2</v>
+      </c>
+      <c r="M591">
         <v>3</v>
       </c>
-      <c r="I591">
-        <v>0</v>
-      </c>
-      <c r="J591" t="s">
-        <v>52</v>
-      </c>
-      <c r="K591">
-        <v>1.55</v>
-      </c>
-      <c r="L591">
-        <v>4</v>
-      </c>
-      <c r="M591">
-        <v>5.5</v>
-      </c>
       <c r="N591">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O591">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P591">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q591">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S591">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T591">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U591">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V591">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W591">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB591">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC591">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G641" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H641">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N641">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O641">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P641">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q641">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R641">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S641">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T641">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U641">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V641">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W641">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB641">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G642" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N642">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O642">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P642">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q642">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R642">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S642">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T642">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U642">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V642">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W642">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB642">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -72101,7 +72101,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72113,19 +72113,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F805" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G805" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I805">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J805" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K805">
         <v>2</v>
@@ -72137,52 +72137,52 @@
         <v>3.5</v>
       </c>
       <c r="N805">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O805">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P805">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q805">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R805">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S805">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T805">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U805">
+        <v>1.95</v>
+      </c>
+      <c r="V805">
         <v>1.85</v>
       </c>
-      <c r="V805">
-        <v>1.95</v>
-      </c>
       <c r="W805">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X805">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y805">
         <v>-1</v>
       </c>
       <c r="Z805">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA805">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB805">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC805">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72190,7 +72190,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72202,19 +72202,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G806" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H806">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I806">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J806" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K806">
         <v>2</v>
@@ -72226,52 +72226,52 @@
         <v>3.5</v>
       </c>
       <c r="N806">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O806">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P806">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q806">
+        <v>-0.75</v>
+      </c>
+      <c r="R806">
+        <v>1.9</v>
+      </c>
+      <c r="S806">
+        <v>1.9</v>
+      </c>
+      <c r="T806">
+        <v>2.75</v>
+      </c>
+      <c r="U806">
+        <v>1.85</v>
+      </c>
+      <c r="V806">
+        <v>1.95</v>
+      </c>
+      <c r="W806">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X806">
+        <v>-1</v>
+      </c>
+      <c r="Y806">
+        <v>-1</v>
+      </c>
+      <c r="Z806">
+        <v>0.45</v>
+      </c>
+      <c r="AA806">
         <v>-0.5</v>
       </c>
-      <c r="R806">
-        <v>2.025</v>
-      </c>
-      <c r="S806">
-        <v>1.775</v>
-      </c>
-      <c r="T806">
-        <v>2.5</v>
-      </c>
-      <c r="U806">
-        <v>1.95</v>
-      </c>
-      <c r="V806">
-        <v>1.85</v>
-      </c>
-      <c r="W806">
-        <v>-1</v>
-      </c>
-      <c r="X806">
-        <v>2.5</v>
-      </c>
-      <c r="Y806">
-        <v>-1</v>
-      </c>
-      <c r="Z806">
-        <v>-1</v>
-      </c>
-      <c r="AA806">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB806">
+        <v>-1</v>
+      </c>
+      <c r="AC806">
         <v>0.95</v>
-      </c>
-      <c r="AC806">
-        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G816" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H816">
+        <v>4</v>
+      </c>
+      <c r="I816">
         <v>0</v>
       </c>
-      <c r="I816">
-        <v>2</v>
-      </c>
       <c r="J816" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K816">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L816">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M816">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N816">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O816">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P816">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R816">
+        <v>2.025</v>
+      </c>
+      <c r="S816">
+        <v>1.825</v>
+      </c>
+      <c r="T816">
+        <v>3</v>
+      </c>
+      <c r="U816">
+        <v>1.9</v>
+      </c>
+      <c r="V816">
         <v>1.95</v>
       </c>
-      <c r="S816">
-        <v>1.85</v>
-      </c>
-      <c r="T816">
-        <v>2.5</v>
-      </c>
-      <c r="U816">
-        <v>1.8</v>
-      </c>
-      <c r="V816">
-        <v>2</v>
-      </c>
       <c r="W816">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA816">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB816">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,76 +73181,76 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G817" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H817">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I817">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J817" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K817">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L817">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M817">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N817">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O817">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P817">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q817">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R817">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S817">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T817">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U817">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V817">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W817">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X817">
         <v>-1</v>
       </c>
       <c r="Y817">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z817">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA817">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB817">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC817">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:29">
@@ -73525,7 +73525,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73537,76 +73537,76 @@
         <v>45263.75</v>
       </c>
       <c r="F821" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G821" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H821">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I821">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J821" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K821">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L821">
         <v>3.4</v>
       </c>
       <c r="M821">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N821">
+        <v>2.875</v>
+      </c>
+      <c r="O821">
+        <v>3.3</v>
+      </c>
+      <c r="P821">
+        <v>2.5</v>
+      </c>
+      <c r="Q821">
+        <v>0</v>
+      </c>
+      <c r="R821">
         <v>2.05</v>
-      </c>
-      <c r="O821">
-        <v>3.6</v>
-      </c>
-      <c r="P821">
-        <v>3.5</v>
-      </c>
-      <c r="Q821">
-        <v>-0.5</v>
-      </c>
-      <c r="R821">
-        <v>2</v>
       </c>
       <c r="S821">
         <v>1.8</v>
       </c>
       <c r="T821">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U821">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V821">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W821">
+        <v>-1</v>
+      </c>
+      <c r="X821">
+        <v>-1</v>
+      </c>
+      <c r="Y821">
+        <v>1.5</v>
+      </c>
+      <c r="Z821">
+        <v>-1</v>
+      </c>
+      <c r="AA821">
+        <v>0.8</v>
+      </c>
+      <c r="AB821">
+        <v>-1</v>
+      </c>
+      <c r="AC821">
         <v>1.05</v>
-      </c>
-      <c r="X821">
-        <v>-1</v>
-      </c>
-      <c r="Y821">
-        <v>-1</v>
-      </c>
-      <c r="Z821">
-        <v>1</v>
-      </c>
-      <c r="AA821">
-        <v>-1</v>
-      </c>
-      <c r="AB821">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC821">
-        <v>-1</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,76 +73626,76 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G822" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I822">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J822" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K822">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L822">
         <v>3.4</v>
       </c>
       <c r="M822">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N822">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O822">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P822">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q822">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R822">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S822">
         <v>1.8</v>
       </c>
       <c r="T822">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U822">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V822">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W822">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X822">
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z822">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA822">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB822">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC822">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G824" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H824">
+        <v>2</v>
+      </c>
+      <c r="I824">
         <v>0</v>
       </c>
-      <c r="I824">
-        <v>1</v>
-      </c>
       <c r="J824" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K824">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L824">
+        <v>4.333</v>
+      </c>
+      <c r="M824">
+        <v>6</v>
+      </c>
+      <c r="N824">
+        <v>1.444</v>
+      </c>
+      <c r="O824">
         <v>4.75</v>
       </c>
-      <c r="M824">
-        <v>1.4</v>
-      </c>
-      <c r="N824">
-        <v>12</v>
-      </c>
-      <c r="O824">
-        <v>8.5</v>
-      </c>
       <c r="P824">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q824">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R824">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S824">
+        <v>1.825</v>
+      </c>
+      <c r="T824">
+        <v>2.75</v>
+      </c>
+      <c r="U824">
         <v>1.8</v>
       </c>
-      <c r="T824">
-        <v>3.25</v>
-      </c>
-      <c r="U824">
-        <v>1.875</v>
-      </c>
       <c r="V824">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W824">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z824">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,67 +73893,67 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G825" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J825" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K825">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L825">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M825">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N825">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O825">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P825">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q825">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R825">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S825">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T825">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U825">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V825">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W825">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X825">
         <v>-1</v>
       </c>
       <c r="Y825">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z825">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,76 +73982,76 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G826" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H826">
         <v>2</v>
       </c>
       <c r="I826">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J826" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K826">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L826">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M826">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N826">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O826">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P826">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q826">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R826">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S826">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T826">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U826">
         <v>1.85</v>
       </c>
       <c r="V826">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W826">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z826">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA826">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB826">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC826">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,73 +74071,73 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G827" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I827">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J827" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K827">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L827">
+        <v>3.4</v>
+      </c>
+      <c r="M827">
+        <v>4.333</v>
+      </c>
+      <c r="N827">
+        <v>1.8</v>
+      </c>
+      <c r="O827">
         <v>3.6</v>
       </c>
-      <c r="M827">
-        <v>3.8</v>
-      </c>
-      <c r="N827">
-        <v>2.15</v>
-      </c>
-      <c r="O827">
-        <v>3.75</v>
-      </c>
       <c r="P827">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q827">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R827">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S827">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T827">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U827">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V827">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W827">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z827">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA827">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB827">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC827">
         <v>-1</v>
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,76 +74249,76 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G829" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H829">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829">
         <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K829">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L829">
+        <v>3.3</v>
+      </c>
+      <c r="M829">
+        <v>2.3</v>
+      </c>
+      <c r="N829">
+        <v>2.9</v>
+      </c>
+      <c r="O829">
         <v>3.4</v>
       </c>
-      <c r="M829">
-        <v>4.333</v>
-      </c>
-      <c r="N829">
+      <c r="P829">
+        <v>2.375</v>
+      </c>
+      <c r="Q829">
+        <v>0.25</v>
+      </c>
+      <c r="R829">
         <v>1.8</v>
       </c>
-      <c r="O829">
-        <v>3.6</v>
-      </c>
-      <c r="P829">
-        <v>4.5</v>
-      </c>
-      <c r="Q829">
-        <v>-0.75</v>
-      </c>
-      <c r="R829">
-        <v>1.925</v>
-      </c>
       <c r="S829">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T829">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U829">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V829">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W829">
+        <v>-1</v>
+      </c>
+      <c r="X829">
+        <v>-1</v>
+      </c>
+      <c r="Y829">
+        <v>1.375</v>
+      </c>
+      <c r="Z829">
+        <v>-1</v>
+      </c>
+      <c r="AA829">
+        <v>1</v>
+      </c>
+      <c r="AB829">
+        <v>-1</v>
+      </c>
+      <c r="AC829">
         <v>0.8</v>
-      </c>
-      <c r="X829">
-        <v>-1</v>
-      </c>
-      <c r="Y829">
-        <v>-1</v>
-      </c>
-      <c r="Z829">
-        <v>0.925</v>
-      </c>
-      <c r="AA829">
-        <v>-1</v>
-      </c>
-      <c r="AB829">
-        <v>1.025</v>
-      </c>
-      <c r="AC829">
-        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6078268</v>
+        <v>6077499</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,28 +74338,28 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G830" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H830">
+        <v>2</v>
+      </c>
+      <c r="I830">
         <v>0</v>
       </c>
-      <c r="I830">
-        <v>1</v>
-      </c>
       <c r="J830" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K830">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L830">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M830">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N830">
         <v>2.9</v>
@@ -74368,46 +74368,46 @@
         <v>3.4</v>
       </c>
       <c r="P830">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q830">
         <v>0.25</v>
       </c>
       <c r="R830">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S830">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T830">
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V830">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W830">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X830">
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z830">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA830">
+        <v>-1</v>
+      </c>
+      <c r="AB830">
+        <v>-1</v>
+      </c>
+      <c r="AC830">
         <v>1</v>
-      </c>
-      <c r="AB830">
-        <v>-1</v>
-      </c>
-      <c r="AC830">
-        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -52966,7 +52966,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4617490</v>
+        <v>4617739</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52978,76 +52978,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F590" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G590" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H590">
+        <v>1</v>
+      </c>
+      <c r="I590">
+        <v>1</v>
+      </c>
+      <c r="J590" t="s">
+        <v>51</v>
+      </c>
+      <c r="K590">
+        <v>2.3</v>
+      </c>
+      <c r="L590">
+        <v>3.2</v>
+      </c>
+      <c r="M590">
         <v>3</v>
       </c>
-      <c r="I590">
-        <v>0</v>
-      </c>
-      <c r="J590" t="s">
-        <v>52</v>
-      </c>
-      <c r="K590">
-        <v>1.55</v>
-      </c>
-      <c r="L590">
-        <v>4</v>
-      </c>
-      <c r="M590">
-        <v>5.5</v>
-      </c>
       <c r="N590">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O590">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P590">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q590">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R590">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S590">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T590">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U590">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V590">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W590">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X590">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y590">
         <v>-1</v>
       </c>
       <c r="Z590">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA590">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB590">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC590">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4617739</v>
+        <v>4617490</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G591" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K591">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L591">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M591">
+        <v>5.5</v>
+      </c>
+      <c r="N591">
+        <v>1.4</v>
+      </c>
+      <c r="O591">
+        <v>4.75</v>
+      </c>
+      <c r="P591">
+        <v>7.5</v>
+      </c>
+      <c r="Q591">
+        <v>-1.25</v>
+      </c>
+      <c r="R591">
+        <v>1.85</v>
+      </c>
+      <c r="S591">
+        <v>1.95</v>
+      </c>
+      <c r="T591">
         <v>3</v>
       </c>
-      <c r="N591">
-        <v>2.1</v>
-      </c>
-      <c r="O591">
-        <v>3.5</v>
-      </c>
-      <c r="P591">
-        <v>3.4</v>
-      </c>
-      <c r="Q591">
-        <v>-0.25</v>
-      </c>
-      <c r="R591">
+      <c r="U591">
+        <v>2</v>
+      </c>
+      <c r="V591">
         <v>1.8</v>
       </c>
-      <c r="S591">
-        <v>2</v>
-      </c>
-      <c r="T591">
-        <v>2.25</v>
-      </c>
-      <c r="U591">
-        <v>1.8</v>
-      </c>
-      <c r="V591">
-        <v>2</v>
-      </c>
       <c r="W591">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X591">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA591">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB591">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC591">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -55547,7 +55547,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55559,73 +55559,73 @@
         <v>44967.875</v>
       </c>
       <c r="F619" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G619" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J619" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K619">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L619">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M619">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N619">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O619">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P619">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q619">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R619">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S619">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
         <v>2.5</v>
       </c>
       <c r="U619">
+        <v>1.925</v>
+      </c>
+      <c r="V619">
         <v>1.875</v>
       </c>
-      <c r="V619">
-        <v>1.925</v>
-      </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55636,7 +55636,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55648,73 +55648,73 @@
         <v>44967.875</v>
       </c>
       <c r="F620" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G620" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620">
         <v>3</v>
       </c>
-      <c r="I620">
-        <v>2</v>
-      </c>
       <c r="J620" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K620">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L620">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N620">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O620">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P620">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q620">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R620">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S620">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T620">
         <v>2.5</v>
       </c>
       <c r="U620">
+        <v>1.875</v>
+      </c>
+      <c r="V620">
         <v>1.925</v>
       </c>
-      <c r="V620">
-        <v>1.875</v>
-      </c>
       <c r="W620">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z620">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB620">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -72101,7 +72101,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72113,19 +72113,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F805" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G805" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H805">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I805">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J805" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K805">
         <v>2</v>
@@ -72137,52 +72137,52 @@
         <v>3.5</v>
       </c>
       <c r="N805">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O805">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P805">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q805">
+        <v>-0.75</v>
+      </c>
+      <c r="R805">
+        <v>1.9</v>
+      </c>
+      <c r="S805">
+        <v>1.9</v>
+      </c>
+      <c r="T805">
+        <v>2.75</v>
+      </c>
+      <c r="U805">
+        <v>1.85</v>
+      </c>
+      <c r="V805">
+        <v>1.95</v>
+      </c>
+      <c r="W805">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X805">
+        <v>-1</v>
+      </c>
+      <c r="Y805">
+        <v>-1</v>
+      </c>
+      <c r="Z805">
+        <v>0.45</v>
+      </c>
+      <c r="AA805">
         <v>-0.5</v>
       </c>
-      <c r="R805">
-        <v>2.025</v>
-      </c>
-      <c r="S805">
-        <v>1.775</v>
-      </c>
-      <c r="T805">
-        <v>2.5</v>
-      </c>
-      <c r="U805">
-        <v>1.95</v>
-      </c>
-      <c r="V805">
-        <v>1.85</v>
-      </c>
-      <c r="W805">
-        <v>-1</v>
-      </c>
-      <c r="X805">
-        <v>2.5</v>
-      </c>
-      <c r="Y805">
-        <v>-1</v>
-      </c>
-      <c r="Z805">
-        <v>-1</v>
-      </c>
-      <c r="AA805">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB805">
+        <v>-1</v>
+      </c>
+      <c r="AC805">
         <v>0.95</v>
-      </c>
-      <c r="AC805">
-        <v>-1</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72190,7 +72190,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72202,19 +72202,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G806" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I806">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J806" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K806">
         <v>2</v>
@@ -72226,52 +72226,52 @@
         <v>3.5</v>
       </c>
       <c r="N806">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O806">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P806">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q806">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R806">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S806">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T806">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U806">
+        <v>1.95</v>
+      </c>
+      <c r="V806">
         <v>1.85</v>
       </c>
-      <c r="V806">
-        <v>1.95</v>
-      </c>
       <c r="W806">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X806">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y806">
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA806">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB806">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC806">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72813,7 +72813,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72825,37 +72825,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F813" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G813" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I813">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J813" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K813">
+        <v>2.15</v>
+      </c>
+      <c r="L813">
+        <v>3.5</v>
+      </c>
+      <c r="M813">
+        <v>3.2</v>
+      </c>
+      <c r="N813">
+        <v>2.625</v>
+      </c>
+      <c r="O813">
+        <v>3.5</v>
+      </c>
+      <c r="P813">
         <v>2.6</v>
-      </c>
-      <c r="L813">
-        <v>3.4</v>
-      </c>
-      <c r="M813">
-        <v>2.6</v>
-      </c>
-      <c r="N813">
-        <v>2.8</v>
-      </c>
-      <c r="O813">
-        <v>3.2</v>
-      </c>
-      <c r="P813">
-        <v>2.7</v>
       </c>
       <c r="Q813">
         <v>0</v>
@@ -72867,34 +72867,34 @@
         <v>1.9</v>
       </c>
       <c r="T813">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U813">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V813">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W813">
         <v>-1</v>
       </c>
       <c r="X813">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y813">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z813">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA813">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB813">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC813">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72902,7 +72902,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72914,37 +72914,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F814" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G814" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H814">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I814">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J814" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K814">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L814">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M814">
+        <v>2.6</v>
+      </c>
+      <c r="N814">
+        <v>2.8</v>
+      </c>
+      <c r="O814">
         <v>3.2</v>
       </c>
-      <c r="N814">
-        <v>2.625</v>
-      </c>
-      <c r="O814">
-        <v>3.5</v>
-      </c>
       <c r="P814">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q814">
         <v>0</v>
@@ -72956,34 +72956,34 @@
         <v>1.9</v>
       </c>
       <c r="T814">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U814">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V814">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W814">
         <v>-1</v>
       </c>
       <c r="X814">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y814">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z814">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA814">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB814">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC814">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="815" spans="1:29">

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -61599,7 +61599,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61611,58 +61611,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F687" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G687" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I687">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J687" t="s">
         <v>52</v>
       </c>
       <c r="K687">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L687">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M687">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N687">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O687">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P687">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q687">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R687">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S687">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V687">
         <v>1.875</v>
       </c>
       <c r="W687">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61671,16 +61671,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC687">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61688,7 +61688,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61700,58 +61700,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F688" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G688" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H688">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I688">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>52</v>
       </c>
       <c r="K688">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L688">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M688">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N688">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O688">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P688">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q688">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R688">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T688">
         <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V688">
         <v>1.875</v>
       </c>
       <c r="W688">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61760,16 +61760,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA688">
         <v>-1</v>
       </c>
       <c r="AB688">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="689" spans="1:29">

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -31873,7 +31873,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>3899436</v>
+        <v>3899777</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31885,76 +31885,76 @@
         <v>44535.75</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G353" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K353">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L353">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M353">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N353">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O353">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P353">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q353">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R353">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S353">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T353">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V353">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W353">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB353">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31962,7 +31962,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>3899777</v>
+        <v>4396881</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31974,76 +31974,76 @@
         <v>44535.75</v>
       </c>
       <c r="F354" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G354" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354">
         <v>1</v>
       </c>
       <c r="J354" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K354">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="L354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M354">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N354">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O354">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P354">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q354">
         <v>0</v>
       </c>
       <c r="R354">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S354">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U354">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V354">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W354">
         <v>-1</v>
       </c>
       <c r="X354">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC354">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32051,7 +32051,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4396881</v>
+        <v>3899436</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32063,76 +32063,76 @@
         <v>44535.75</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G355" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I355">
         <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K355">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L355">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M355">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="N355">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O355">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P355">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q355">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R355">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S355">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T355">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA355">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC355">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -55547,7 +55547,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55559,73 +55559,73 @@
         <v>44967.875</v>
       </c>
       <c r="F619" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G619" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619">
         <v>3</v>
       </c>
-      <c r="I619">
-        <v>2</v>
-      </c>
       <c r="J619" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K619">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L619">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M619">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N619">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O619">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P619">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q619">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R619">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S619">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T619">
         <v>2.5</v>
       </c>
       <c r="U619">
+        <v>1.875</v>
+      </c>
+      <c r="V619">
         <v>1.925</v>
       </c>
-      <c r="V619">
-        <v>1.875</v>
-      </c>
       <c r="W619">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z619">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB619">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55636,7 +55636,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55648,73 +55648,73 @@
         <v>44967.875</v>
       </c>
       <c r="F620" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G620" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J620" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K620">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L620">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M620">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N620">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O620">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P620">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q620">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R620">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S620">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T620">
         <v>2.5</v>
       </c>
       <c r="U620">
+        <v>1.925</v>
+      </c>
+      <c r="V620">
         <v>1.875</v>
       </c>
-      <c r="V620">
-        <v>1.925</v>
-      </c>
       <c r="W620">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z620">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA620">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB620">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G641" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N641">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O641">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P641">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q641">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R641">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S641">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T641">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V641">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W641">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB641">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N642">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O642">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P642">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q642">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R642">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S642">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T642">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U642">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V642">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W642">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB642">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -61599,7 +61599,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61611,58 +61611,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F687" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G687" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H687">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I687">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J687" t="s">
         <v>52</v>
       </c>
       <c r="K687">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L687">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M687">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N687">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O687">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P687">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q687">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R687">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S687">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V687">
         <v>1.875</v>
       </c>
       <c r="W687">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61671,16 +61671,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC687">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61688,7 +61688,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61700,58 +61700,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F688" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G688" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I688">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J688" t="s">
         <v>52</v>
       </c>
       <c r="K688">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L688">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M688">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N688">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O688">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P688">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q688">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R688">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S688">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T688">
         <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V688">
         <v>1.875</v>
       </c>
       <c r="W688">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61760,16 +61760,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA688">
         <v>-1</v>
       </c>
       <c r="AB688">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC688">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -72813,7 +72813,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72825,37 +72825,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F813" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G813" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H813">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I813">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J813" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K813">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L813">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M813">
+        <v>2.6</v>
+      </c>
+      <c r="N813">
+        <v>2.8</v>
+      </c>
+      <c r="O813">
         <v>3.2</v>
       </c>
-      <c r="N813">
-        <v>2.625</v>
-      </c>
-      <c r="O813">
-        <v>3.5</v>
-      </c>
       <c r="P813">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q813">
         <v>0</v>
@@ -72867,34 +72867,34 @@
         <v>1.9</v>
       </c>
       <c r="T813">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U813">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V813">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W813">
         <v>-1</v>
       </c>
       <c r="X813">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y813">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z813">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA813">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB813">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC813">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72902,7 +72902,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72914,37 +72914,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F814" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G814" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J814" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K814">
+        <v>2.15</v>
+      </c>
+      <c r="L814">
+        <v>3.5</v>
+      </c>
+      <c r="M814">
+        <v>3.2</v>
+      </c>
+      <c r="N814">
+        <v>2.625</v>
+      </c>
+      <c r="O814">
+        <v>3.5</v>
+      </c>
+      <c r="P814">
         <v>2.6</v>
-      </c>
-      <c r="L814">
-        <v>3.4</v>
-      </c>
-      <c r="M814">
-        <v>2.6</v>
-      </c>
-      <c r="N814">
-        <v>2.8</v>
-      </c>
-      <c r="O814">
-        <v>3.2</v>
-      </c>
-      <c r="P814">
-        <v>2.7</v>
       </c>
       <c r="Q814">
         <v>0</v>
@@ -72956,34 +72956,34 @@
         <v>1.9</v>
       </c>
       <c r="T814">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U814">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V814">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W814">
         <v>-1</v>
       </c>
       <c r="X814">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y814">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z814">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA814">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB814">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC814">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,73 +73092,73 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G816" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H816">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I816">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J816" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K816">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L816">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M816">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N816">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O816">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P816">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q816">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R816">
+        <v>1.85</v>
+      </c>
+      <c r="S816">
+        <v>2</v>
+      </c>
+      <c r="T816">
+        <v>2.75</v>
+      </c>
+      <c r="U816">
         <v>2.025</v>
       </c>
-      <c r="S816">
+      <c r="V816">
         <v>1.825</v>
       </c>
-      <c r="T816">
-        <v>3</v>
-      </c>
-      <c r="U816">
-        <v>1.9</v>
-      </c>
-      <c r="V816">
-        <v>1.95</v>
-      </c>
       <c r="W816">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X816">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y816">
         <v>-1</v>
       </c>
       <c r="Z816">
+        <v>-1</v>
+      </c>
+      <c r="AA816">
+        <v>1</v>
+      </c>
+      <c r="AB816">
         <v>1.025</v>
-      </c>
-      <c r="AA816">
-        <v>-1</v>
-      </c>
-      <c r="AB816">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
         <v>-1</v>
@@ -73258,7 +73258,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73270,73 +73270,73 @@
         <v>45262.75</v>
       </c>
       <c r="F818" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G818" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I818">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J818" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K818">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L818">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M818">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N818">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O818">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P818">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q818">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R818">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S818">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T818">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U818">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V818">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W818">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X818">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y818">
         <v>-1</v>
       </c>
       <c r="Z818">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA818">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB818">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC818">
         <v>-1</v>
@@ -73436,7 +73436,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73448,55 +73448,55 @@
         <v>45263.75</v>
       </c>
       <c r="F820" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G820" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H820">
         <v>0</v>
       </c>
       <c r="I820">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J820" t="s">
         <v>53</v>
       </c>
       <c r="K820">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L820">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M820">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N820">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O820">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P820">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q820">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R820">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S820">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T820">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U820">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V820">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W820">
         <v>-1</v>
@@ -73505,19 +73505,19 @@
         <v>-1</v>
       </c>
       <c r="Y820">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z820">
         <v>-1</v>
       </c>
       <c r="AA820">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB820">
         <v>-1</v>
       </c>
       <c r="AC820">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73525,7 +73525,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73537,76 +73537,76 @@
         <v>45263.75</v>
       </c>
       <c r="F821" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G821" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I821">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J821" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K821">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L821">
         <v>3.4</v>
       </c>
       <c r="M821">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N821">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O821">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P821">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q821">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R821">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S821">
         <v>1.8</v>
       </c>
       <c r="T821">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U821">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V821">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W821">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X821">
         <v>-1</v>
       </c>
       <c r="Y821">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z821">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA821">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB821">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC821">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6078263</v>
+        <v>6078996</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,76 +73626,76 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G822" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H822">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I822">
+        <v>2</v>
+      </c>
+      <c r="J822" t="s">
+        <v>53</v>
+      </c>
+      <c r="K822">
+        <v>1.4</v>
+      </c>
+      <c r="L822">
+        <v>4.333</v>
+      </c>
+      <c r="M822">
+        <v>7</v>
+      </c>
+      <c r="N822">
+        <v>1.285</v>
+      </c>
+      <c r="O822">
+        <v>5.5</v>
+      </c>
+      <c r="P822">
+        <v>11</v>
+      </c>
+      <c r="Q822">
+        <v>-1.5</v>
+      </c>
+      <c r="R822">
+        <v>1.9</v>
+      </c>
+      <c r="S822">
+        <v>1.95</v>
+      </c>
+      <c r="T822">
         <v>3</v>
       </c>
-      <c r="J822" t="s">
-        <v>52</v>
-      </c>
-      <c r="K822">
-        <v>2.05</v>
-      </c>
-      <c r="L822">
-        <v>3.4</v>
-      </c>
-      <c r="M822">
-        <v>3.5</v>
-      </c>
-      <c r="N822">
-        <v>2.05</v>
-      </c>
-      <c r="O822">
-        <v>3.6</v>
-      </c>
-      <c r="P822">
-        <v>3.5</v>
-      </c>
-      <c r="Q822">
-        <v>-0.5</v>
-      </c>
-      <c r="R822">
-        <v>2</v>
-      </c>
-      <c r="S822">
-        <v>1.8</v>
-      </c>
-      <c r="T822">
-        <v>2.75</v>
-      </c>
       <c r="U822">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V822">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W822">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X822">
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z822">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA822">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB822">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC822">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,13 +73715,13 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G823" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I823">
         <v>0</v>
@@ -73730,28 +73730,28 @@
         <v>52</v>
       </c>
       <c r="K823">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L823">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M823">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N823">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O823">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P823">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q823">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R823">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S823">
         <v>1.825</v>
@@ -73760,13 +73760,13 @@
         <v>2.75</v>
       </c>
       <c r="U823">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V823">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W823">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X823">
         <v>-1</v>
@@ -73775,7 +73775,7 @@
         <v>-1</v>
       </c>
       <c r="Z823">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G824" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J824" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K824">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L824">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M824">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N824">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O824">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P824">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q824">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R824">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S824">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T824">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U824">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V824">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W824">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z824">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,67 +73893,67 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G825" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H825">
+        <v>1</v>
+      </c>
+      <c r="I825">
         <v>0</v>
       </c>
-      <c r="I825">
-        <v>1</v>
-      </c>
       <c r="J825" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K825">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L825">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M825">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N825">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O825">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P825">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q825">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R825">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S825">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T825">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U825">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V825">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W825">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X825">
         <v>-1</v>
       </c>
       <c r="Y825">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z825">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,76 +73982,76 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G826" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H826">
         <v>2</v>
       </c>
       <c r="I826">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J826" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K826">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L826">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M826">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N826">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O826">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P826">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q826">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R826">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S826">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T826">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U826">
         <v>1.85</v>
       </c>
       <c r="V826">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W826">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z826">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA826">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB826">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC826">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6078269</v>
+        <v>6077768</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,76 +74071,76 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G827" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H827">
+        <v>0</v>
+      </c>
+      <c r="I827">
         <v>3</v>
       </c>
-      <c r="I827">
-        <v>1</v>
-      </c>
       <c r="J827" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K827">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L827">
+        <v>3.5</v>
+      </c>
+      <c r="M827">
         <v>3.4</v>
       </c>
-      <c r="M827">
-        <v>4.333</v>
-      </c>
       <c r="N827">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O827">
         <v>3.6</v>
       </c>
       <c r="P827">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q827">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R827">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S827">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T827">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U827">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V827">
         <v>1.825</v>
       </c>
       <c r="W827">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z827">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA827">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB827">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC827">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="828" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G828" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I828">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J828" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K828">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L828">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M828">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N828">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O828">
         <v>3.6</v>
       </c>
       <c r="P828">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q828">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R828">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S828">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T828">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U828">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V828">
         <v>1.825</v>
       </c>
       <c r="W828">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z828">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA828">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB828">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC828">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078268</v>
+        <v>6078998</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,55 +74249,55 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G829" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J829" t="s">
         <v>53</v>
       </c>
       <c r="K829">
+        <v>1.909</v>
+      </c>
+      <c r="L829">
+        <v>3.6</v>
+      </c>
+      <c r="M829">
+        <v>3.8</v>
+      </c>
+      <c r="N829">
+        <v>2.15</v>
+      </c>
+      <c r="O829">
+        <v>3.75</v>
+      </c>
+      <c r="P829">
         <v>3.1</v>
       </c>
-      <c r="L829">
-        <v>3.3</v>
-      </c>
-      <c r="M829">
-        <v>2.3</v>
-      </c>
-      <c r="N829">
-        <v>2.9</v>
-      </c>
-      <c r="O829">
-        <v>3.4</v>
-      </c>
-      <c r="P829">
-        <v>2.375</v>
-      </c>
       <c r="Q829">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R829">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S829">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T829">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U829">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V829">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W829">
         <v>-1</v>
@@ -74306,19 +74306,19 @@
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>1.375</v>
+        <v>2.1</v>
       </c>
       <c r="Z829">
         <v>-1</v>
       </c>
       <c r="AA829">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB829">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC829">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6077499</v>
+        <v>6078268</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,28 +74338,28 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G830" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J830" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K830">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L830">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M830">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N830">
         <v>2.9</v>
@@ -74368,46 +74368,46 @@
         <v>3.4</v>
       </c>
       <c r="P830">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q830">
         <v>0.25</v>
       </c>
       <c r="R830">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S830">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T830">
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V830">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W830">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X830">
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z830">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA830">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB830">
         <v>-1</v>
       </c>
       <c r="AC830">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,73 +73092,73 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G816" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I816">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J816" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K816">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L816">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M816">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N816">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O816">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P816">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q816">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R816">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S816">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T816">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U816">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V816">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W816">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X816">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y816">
         <v>-1</v>
       </c>
       <c r="Z816">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA816">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB816">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
         <v>-1</v>
@@ -73258,7 +73258,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73270,73 +73270,73 @@
         <v>45262.75</v>
       </c>
       <c r="F818" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G818" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H818">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I818">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J818" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K818">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L818">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M818">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N818">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O818">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P818">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q818">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R818">
+        <v>1.85</v>
+      </c>
+      <c r="S818">
+        <v>2</v>
+      </c>
+      <c r="T818">
+        <v>2.75</v>
+      </c>
+      <c r="U818">
         <v>2.025</v>
       </c>
-      <c r="S818">
+      <c r="V818">
         <v>1.825</v>
       </c>
-      <c r="T818">
-        <v>3</v>
-      </c>
-      <c r="U818">
-        <v>1.9</v>
-      </c>
-      <c r="V818">
-        <v>1.95</v>
-      </c>
       <c r="W818">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X818">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y818">
         <v>-1</v>
       </c>
       <c r="Z818">
+        <v>-1</v>
+      </c>
+      <c r="AA818">
+        <v>1</v>
+      </c>
+      <c r="AB818">
         <v>1.025</v>
-      </c>
-      <c r="AA818">
-        <v>-1</v>
-      </c>
-      <c r="AB818">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC818">
         <v>-1</v>
@@ -73436,7 +73436,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73448,55 +73448,55 @@
         <v>45263.75</v>
       </c>
       <c r="F820" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G820" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H820">
         <v>0</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J820" t="s">
         <v>53</v>
       </c>
       <c r="K820">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L820">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M820">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N820">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O820">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P820">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q820">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R820">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S820">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T820">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U820">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V820">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W820">
         <v>-1</v>
@@ -73505,19 +73505,19 @@
         <v>-1</v>
       </c>
       <c r="Y820">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z820">
         <v>-1</v>
       </c>
       <c r="AA820">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB820">
         <v>-1</v>
       </c>
       <c r="AC820">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,55 +73626,55 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G822" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H822">
         <v>0</v>
       </c>
       <c r="I822">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J822" t="s">
         <v>53</v>
       </c>
       <c r="K822">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L822">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M822">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N822">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O822">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P822">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q822">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R822">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S822">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T822">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U822">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V822">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W822">
         <v>-1</v>
@@ -73683,19 +73683,19 @@
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z822">
         <v>-1</v>
       </c>
       <c r="AA822">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB822">
         <v>-1</v>
       </c>
       <c r="AC822">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,13 +73715,13 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G823" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823">
         <v>0</v>
@@ -73730,28 +73730,28 @@
         <v>52</v>
       </c>
       <c r="K823">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L823">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M823">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N823">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O823">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P823">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q823">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R823">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S823">
         <v>1.825</v>
@@ -73760,13 +73760,13 @@
         <v>2.75</v>
       </c>
       <c r="U823">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V823">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W823">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X823">
         <v>-1</v>
@@ -73775,16 +73775,16 @@
         <v>-1</v>
       </c>
       <c r="Z823">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA823">
+        <v>-1</v>
+      </c>
+      <c r="AB823">
+        <v>-1</v>
+      </c>
+      <c r="AC823">
         <v>1.025</v>
-      </c>
-      <c r="AA823">
-        <v>-1</v>
-      </c>
-      <c r="AB823">
-        <v>-1</v>
-      </c>
-      <c r="AC823">
-        <v>1.05</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,13 +73893,13 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G825" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I825">
         <v>0</v>
@@ -73908,28 +73908,28 @@
         <v>52</v>
       </c>
       <c r="K825">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L825">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M825">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N825">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O825">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P825">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q825">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R825">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S825">
         <v>1.825</v>
@@ -73938,13 +73938,13 @@
         <v>2.75</v>
       </c>
       <c r="U825">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V825">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W825">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X825">
         <v>-1</v>
@@ -73953,7 +73953,7 @@
         <v>-1</v>
       </c>
       <c r="Z825">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,13 +74071,13 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G827" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827">
         <v>3</v>
@@ -74086,40 +74086,40 @@
         <v>53</v>
       </c>
       <c r="K827">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L827">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M827">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N827">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O827">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P827">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q827">
         <v>-0.25</v>
       </c>
       <c r="R827">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S827">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T827">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U827">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V827">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W827">
         <v>-1</v>
@@ -74128,19 +74128,19 @@
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z827">
         <v>-1</v>
       </c>
       <c r="AA827">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB827">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC827">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828" spans="1:29">
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6078269</v>
+        <v>6077768</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G828" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H828">
+        <v>0</v>
+      </c>
+      <c r="I828">
         <v>3</v>
       </c>
-      <c r="I828">
-        <v>1</v>
-      </c>
       <c r="J828" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K828">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L828">
+        <v>3.5</v>
+      </c>
+      <c r="M828">
         <v>3.4</v>
       </c>
-      <c r="M828">
-        <v>4.333</v>
-      </c>
       <c r="N828">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O828">
         <v>3.6</v>
       </c>
       <c r="P828">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q828">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R828">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S828">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T828">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U828">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V828">
         <v>1.825</v>
       </c>
       <c r="W828">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z828">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA828">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB828">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC828">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,73 +74249,73 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G829" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I829">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K829">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L829">
+        <v>3.4</v>
+      </c>
+      <c r="M829">
+        <v>4.333</v>
+      </c>
+      <c r="N829">
+        <v>1.8</v>
+      </c>
+      <c r="O829">
         <v>3.6</v>
       </c>
-      <c r="M829">
-        <v>3.8</v>
-      </c>
-      <c r="N829">
-        <v>2.15</v>
-      </c>
-      <c r="O829">
-        <v>3.75</v>
-      </c>
       <c r="P829">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q829">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R829">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S829">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T829">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U829">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V829">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W829">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X829">
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z829">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA829">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB829">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC829">
         <v>-1</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3201278</v>
+        <v>3201279</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>44237.77083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>51</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N66">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q66">
+        <v>0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.875</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
+        <v>1.825</v>
+      </c>
+      <c r="V66">
+        <v>1.975</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>2.2</v>
+      </c>
+      <c r="Y66">
+        <v>-1</v>
+      </c>
+      <c r="Z66">
+        <v>0.4375</v>
+      </c>
+      <c r="AA66">
         <v>-0.5</v>
       </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>1.8</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2.6</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
-      <c r="AA66">
-        <v>0.8</v>
-      </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3201279</v>
+        <v>3201278</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,76 +6431,76 @@
         <v>44237.77083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>51</v>
       </c>
       <c r="K67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3201280</v>
+        <v>3201281</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>1.8</v>
+      </c>
+      <c r="V69">
+        <v>2</v>
+      </c>
+      <c r="W69">
         <v>2.5</v>
       </c>
-      <c r="U69">
-        <v>1.825</v>
-      </c>
-      <c r="V69">
-        <v>1.975</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3201269</v>
+        <v>3200931</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>51</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
+        <v>3.3</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
         <v>3.6</v>
       </c>
-      <c r="N70">
-        <v>2.3</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>2.875</v>
-      </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3201281</v>
+        <v>3201269</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,76 +6787,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>51</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>3.6</v>
+      </c>
+      <c r="N71">
+        <v>2.3</v>
+      </c>
+      <c r="O71">
+        <v>3.5</v>
+      </c>
+      <c r="P71">
+        <v>2.875</v>
+      </c>
+      <c r="Q71">
         <v>0</v>
       </c>
-      <c r="J71" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71">
-        <v>3</v>
-      </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>2.375</v>
-      </c>
-      <c r="N71">
-        <v>3.5</v>
-      </c>
-      <c r="O71">
-        <v>3.2</v>
-      </c>
-      <c r="P71">
-        <v>2.15</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>2.5</v>
       </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3200931</v>
+        <v>3201280</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,61 +6876,61 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>51</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
         <v>-1</v>
@@ -6939,13 +6939,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3234974</v>
+        <v>3234177</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,73 +7054,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>3</v>
       </c>
-      <c r="I74">
+      <c r="J74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74">
+        <v>1.85</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>1.95</v>
+      </c>
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>-0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.925</v>
+      </c>
+      <c r="S74">
+        <v>1.875</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.8</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.875</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74">
-        <v>1.75</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.6</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
-      </c>
-      <c r="P74">
-        <v>6</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
-      <c r="W74">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.8</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3234177</v>
+        <v>3234974</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,73 +7143,73 @@
         <v>44240.77083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>1.6</v>
+      </c>
+      <c r="O75">
         <v>3.6</v>
       </c>
-      <c r="M75">
-        <v>4</v>
-      </c>
-      <c r="N75">
-        <v>1.95</v>
-      </c>
-      <c r="O75">
-        <v>3.5</v>
-      </c>
       <c r="P75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3234176</v>
+        <v>3234179</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,76 +7232,76 @@
         <v>44241.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N76">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3234179</v>
+        <v>3234176</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>44241.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K77">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="L77">
         <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
+        <v>1.95</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-0.5</v>
+      </c>
+      <c r="AA77">
+        <v>0.425</v>
+      </c>
+      <c r="AB77">
         <v>0</v>
       </c>
-      <c r="R77">
-        <v>1.975</v>
-      </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
-      <c r="W77">
-        <v>1.7</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>-1</v>
-      </c>
-      <c r="Z77">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>-1</v>
-      </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3234178</v>
+        <v>3234175</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>44241.75</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3235156</v>
+        <v>3234178</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,49 +7588,49 @@
         <v>44241.75</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P80">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q80">
         <v>-0.25</v>
       </c>
       <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
         <v>1.95</v>
       </c>
-      <c r="S80">
-        <v>1.85</v>
-      </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.875</v>
@@ -7642,22 +7642,22 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3234175</v>
+        <v>3235156</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,40 +7677,40 @@
         <v>44241.75</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L81">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
         <v>1.95</v>
@@ -7719,34 +7719,34 @@
         <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -31161,7 +31161,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>3898955</v>
+        <v>3899772</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31173,76 +31173,76 @@
         <v>44528.75</v>
       </c>
       <c r="F345" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G345" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K345">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M345">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N345">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O345">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P345">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q345">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R345">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S345">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T345">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U345">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V345">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W345">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z345">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB345">
         <v>-1</v>
       </c>
       <c r="AC345">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>3899772</v>
+        <v>3898955</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>44528.75</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>0</v>
       </c>
-      <c r="I347">
-        <v>1</v>
-      </c>
       <c r="J347" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K347">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L347">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N347">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="O347">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P347">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q347">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S347">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
+        <v>2</v>
+      </c>
+      <c r="V347">
         <v>1.8</v>
       </c>
-      <c r="V347">
-        <v>2</v>
-      </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA347">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>3898958</v>
+        <v>3899777</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,76 +31796,76 @@
         <v>44535.75</v>
       </c>
       <c r="F352" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G352" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352" t="s">
+        <v>51</v>
+      </c>
+      <c r="K352">
+        <v>2.25</v>
+      </c>
+      <c r="L352">
+        <v>3.1</v>
+      </c>
+      <c r="M352">
         <v>3</v>
       </c>
-      <c r="I352">
-        <v>2</v>
-      </c>
-      <c r="J352" t="s">
-        <v>52</v>
-      </c>
-      <c r="K352">
-        <v>2.1</v>
-      </c>
-      <c r="L352">
-        <v>3.3</v>
-      </c>
-      <c r="M352">
-        <v>3.1</v>
-      </c>
       <c r="N352">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O352">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P352">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q352">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R352">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S352">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U352">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V352">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB352">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31873,7 +31873,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>3899777</v>
+        <v>4396881</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31885,76 +31885,76 @@
         <v>44535.75</v>
       </c>
       <c r="F353" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G353" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K353">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M353">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N353">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O353">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P353">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q353">
         <v>0</v>
       </c>
       <c r="R353">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S353">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U353">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V353">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31962,7 +31962,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>4396881</v>
+        <v>3898958</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31974,76 +31974,76 @@
         <v>44535.75</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J354" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K354">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L354">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M354">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N354">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O354">
         <v>3.6</v>
       </c>
       <c r="P354">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q354">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R354">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T354">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V354">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W354">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA354">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC354">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>4617486</v>
+        <v>4617485</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51554,13 +51554,13 @@
         <v>44857.625</v>
       </c>
       <c r="F574" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G574" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I574">
         <v>0</v>
@@ -51569,43 +51569,43 @@
         <v>52</v>
       </c>
       <c r="K574">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L574">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M574">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N574">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O574">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P574">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q574">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R574">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S574">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T574">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U574">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V574">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W574">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X574">
         <v>-1</v>
@@ -51614,16 +51614,16 @@
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA574">
         <v>-1</v>
       </c>
       <c r="AB574">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC574">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>4617485</v>
+        <v>4617486</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,13 +51732,13 @@
         <v>44857.625</v>
       </c>
       <c r="F576" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G576" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H576">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I576">
         <v>0</v>
@@ -51747,43 +51747,43 @@
         <v>52</v>
       </c>
       <c r="K576">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L576">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M576">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N576">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O576">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P576">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q576">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R576">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S576">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T576">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U576">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V576">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W576">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51792,16 +51792,16 @@
         <v>-1</v>
       </c>
       <c r="Z576">
+        <v>0.925</v>
+      </c>
+      <c r="AA576">
+        <v>-1</v>
+      </c>
+      <c r="AB576">
+        <v>-1</v>
+      </c>
+      <c r="AC576">
         <v>1</v>
-      </c>
-      <c r="AA576">
-        <v>-1</v>
-      </c>
-      <c r="AB576">
-        <v>1</v>
-      </c>
-      <c r="AC576">
-        <v>-1</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4617491</v>
+        <v>4614405</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,73 +52711,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F587" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G587" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I587">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K587">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L587">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M587">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N587">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O587">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P587">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q587">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S587">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA587">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB587">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52877,7 +52877,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4614405</v>
+        <v>4617491</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52889,73 +52889,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F589" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G589" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H589">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I589">
+        <v>4</v>
+      </c>
+      <c r="J589" t="s">
+        <v>53</v>
+      </c>
+      <c r="K589">
+        <v>2.7</v>
+      </c>
+      <c r="L589">
+        <v>3.3</v>
+      </c>
+      <c r="M589">
+        <v>2.45</v>
+      </c>
+      <c r="N589">
+        <v>2.7</v>
+      </c>
+      <c r="O589">
+        <v>3.4</v>
+      </c>
+      <c r="P589">
+        <v>2.6</v>
+      </c>
+      <c r="Q589">
         <v>0</v>
       </c>
-      <c r="J589" t="s">
-        <v>52</v>
-      </c>
-      <c r="K589">
-        <v>1.75</v>
-      </c>
-      <c r="L589">
-        <v>3.5</v>
-      </c>
-      <c r="M589">
-        <v>4.333</v>
-      </c>
-      <c r="N589">
-        <v>1.833</v>
-      </c>
-      <c r="O589">
-        <v>3.5</v>
-      </c>
-      <c r="P589">
-        <v>4.5</v>
-      </c>
-      <c r="Q589">
-        <v>-0.5</v>
-      </c>
       <c r="R589">
+        <v>2</v>
+      </c>
+      <c r="S589">
         <v>1.8</v>
-      </c>
-      <c r="S589">
-        <v>2</v>
       </c>
       <c r="T589">
         <v>2.5</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W589">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z589">
+        <v>-1</v>
+      </c>
+      <c r="AA589">
         <v>0.8</v>
       </c>
-      <c r="AA589">
-        <v>-1</v>
-      </c>
       <c r="AB589">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC589">
         <v>-1</v>
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4617490</v>
+        <v>4614404</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G591" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591" t="s">
+        <v>51</v>
+      </c>
+      <c r="K591">
+        <v>2.75</v>
+      </c>
+      <c r="L591">
+        <v>3.1</v>
+      </c>
+      <c r="M591">
+        <v>2.5</v>
+      </c>
+      <c r="N591">
+        <v>2.4</v>
+      </c>
+      <c r="O591">
+        <v>3.25</v>
+      </c>
+      <c r="P591">
         <v>3</v>
       </c>
-      <c r="I591">
-        <v>0</v>
-      </c>
-      <c r="J591" t="s">
-        <v>52</v>
-      </c>
-      <c r="K591">
-        <v>1.55</v>
-      </c>
-      <c r="L591">
-        <v>4</v>
-      </c>
-      <c r="M591">
-        <v>5.5</v>
-      </c>
-      <c r="N591">
-        <v>1.4</v>
-      </c>
-      <c r="O591">
-        <v>4.75</v>
-      </c>
-      <c r="P591">
-        <v>7.5</v>
-      </c>
       <c r="Q591">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S591">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T591">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U591">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V591">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W591">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB591">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC591">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53144,7 +53144,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4614403</v>
+        <v>4617490</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53156,76 +53156,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F592" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G592" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H592">
+        <v>3</v>
+      </c>
+      <c r="I592">
         <v>0</v>
       </c>
-      <c r="I592">
-        <v>2</v>
-      </c>
       <c r="J592" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K592">
+        <v>1.55</v>
+      </c>
+      <c r="L592">
+        <v>4</v>
+      </c>
+      <c r="M592">
+        <v>5.5</v>
+      </c>
+      <c r="N592">
+        <v>1.4</v>
+      </c>
+      <c r="O592">
+        <v>4.75</v>
+      </c>
+      <c r="P592">
+        <v>7.5</v>
+      </c>
+      <c r="Q592">
+        <v>-1.25</v>
+      </c>
+      <c r="R592">
+        <v>1.85</v>
+      </c>
+      <c r="S592">
+        <v>1.95</v>
+      </c>
+      <c r="T592">
         <v>3</v>
       </c>
-      <c r="L592">
-        <v>3.4</v>
-      </c>
-      <c r="M592">
-        <v>2.2</v>
-      </c>
-      <c r="N592">
-        <v>3.4</v>
-      </c>
-      <c r="O592">
-        <v>3.5</v>
-      </c>
-      <c r="P592">
-        <v>2.15</v>
-      </c>
-      <c r="Q592">
-        <v>0.25</v>
-      </c>
-      <c r="R592">
-        <v>1.975</v>
-      </c>
-      <c r="S592">
-        <v>1.825</v>
-      </c>
-      <c r="T592">
-        <v>2.25</v>
-      </c>
       <c r="U592">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V592">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W592">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z592">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA592">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB592">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC592">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53233,7 +53233,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4614404</v>
+        <v>4614403</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53245,76 +53245,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F593" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G593" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J593" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K593">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L593">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M593">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N593">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O593">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P593">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q593">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R593">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S593">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T593">
         <v>2.25</v>
       </c>
       <c r="U593">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V593">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W593">
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y593">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z593">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA593">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB593">
         <v>-0.5</v>
       </c>
       <c r="AC593">
-        <v>0.4375</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -57238,7 +57238,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57250,73 +57250,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F638" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G638" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H638">
+        <v>2</v>
+      </c>
+      <c r="I638">
+        <v>2</v>
+      </c>
+      <c r="J638" t="s">
+        <v>51</v>
+      </c>
+      <c r="K638">
+        <v>3.2</v>
+      </c>
+      <c r="L638">
+        <v>3.4</v>
+      </c>
+      <c r="M638">
+        <v>2.2</v>
+      </c>
+      <c r="N638">
+        <v>2.4</v>
+      </c>
+      <c r="O638">
+        <v>3.25</v>
+      </c>
+      <c r="P638">
         <v>3</v>
       </c>
-      <c r="I638">
-        <v>1</v>
-      </c>
-      <c r="J638" t="s">
-        <v>52</v>
-      </c>
-      <c r="K638">
-        <v>1.95</v>
-      </c>
-      <c r="L638">
-        <v>3.5</v>
-      </c>
-      <c r="M638">
-        <v>3.8</v>
-      </c>
-      <c r="N638">
+      <c r="Q638">
+        <v>-0.25</v>
+      </c>
+      <c r="R638">
+        <v>2.05</v>
+      </c>
+      <c r="S638">
         <v>1.75</v>
       </c>
-      <c r="O638">
-        <v>4</v>
-      </c>
-      <c r="P638">
-        <v>4.5</v>
-      </c>
-      <c r="Q638">
-        <v>-0.75</v>
-      </c>
-      <c r="R638">
-        <v>1.95</v>
-      </c>
-      <c r="S638">
-        <v>1.85</v>
-      </c>
       <c r="T638">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U638">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V638">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W638">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X638">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA638">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB638">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -57327,7 +57327,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57339,73 +57339,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F639" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G639" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I639">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J639" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K639">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L639">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M639">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N639">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O639">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P639">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q639">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R639">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S639">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T639">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U639">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V639">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W639">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X639">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y639">
         <v>-1</v>
       </c>
       <c r="Z639">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA639">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB639">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC639">
         <v>-1</v>
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G641" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H641">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N641">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O641">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P641">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q641">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R641">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S641">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T641">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U641">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V641">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W641">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB641">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G642" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N642">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O642">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P642">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q642">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R642">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S642">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T642">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U642">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V642">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W642">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB642">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -58751,7 +58751,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58763,76 +58763,76 @@
         <v>45003.75</v>
       </c>
       <c r="F655" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G655" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H655">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J655" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K655">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L655">
         <v>3.25</v>
       </c>
       <c r="M655">
+        <v>3.4</v>
+      </c>
+      <c r="N655">
+        <v>2.15</v>
+      </c>
+      <c r="O655">
+        <v>3.25</v>
+      </c>
+      <c r="P655">
+        <v>3.6</v>
+      </c>
+      <c r="Q655">
+        <v>-0.25</v>
+      </c>
+      <c r="R655">
+        <v>1.8</v>
+      </c>
+      <c r="S655">
+        <v>2</v>
+      </c>
+      <c r="T655">
         <v>2.25</v>
       </c>
-      <c r="N655">
-        <v>3.3</v>
-      </c>
-      <c r="O655">
-        <v>3.3</v>
-      </c>
-      <c r="P655">
-        <v>2.25</v>
-      </c>
-      <c r="Q655">
-        <v>0.25</v>
-      </c>
-      <c r="R655">
-        <v>1.875</v>
-      </c>
-      <c r="S655">
-        <v>1.925</v>
-      </c>
-      <c r="T655">
-        <v>2.5</v>
-      </c>
       <c r="U655">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V655">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W655">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z655">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB655">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC655">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58840,7 +58840,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58852,76 +58852,76 @@
         <v>45003.75</v>
       </c>
       <c r="F656" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G656" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I656">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J656" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K656">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L656">
         <v>3.25</v>
       </c>
       <c r="M656">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N656">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O656">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P656">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q656">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R656">
+        <v>1.875</v>
+      </c>
+      <c r="S656">
+        <v>1.925</v>
+      </c>
+      <c r="T656">
+        <v>2.5</v>
+      </c>
+      <c r="U656">
+        <v>2</v>
+      </c>
+      <c r="V656">
         <v>1.8</v>
       </c>
-      <c r="S656">
-        <v>2</v>
-      </c>
-      <c r="T656">
-        <v>2.25</v>
-      </c>
-      <c r="U656">
-        <v>1.85</v>
-      </c>
-      <c r="V656">
-        <v>1.95</v>
-      </c>
       <c r="W656">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X656">
         <v>-1</v>
       </c>
       <c r="Y656">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z656">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA656">
+        <v>-1</v>
+      </c>
+      <c r="AB656">
         <v>1</v>
       </c>
-      <c r="AB656">
-        <v>-0.5</v>
-      </c>
       <c r="AC656">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,70 +59119,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F659" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G659" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J659" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K659">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L659">
         <v>3.3</v>
       </c>
       <c r="M659">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N659">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O659">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P659">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q659">
         <v>0.25</v>
       </c>
       <c r="R659">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S659">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T659">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U659">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V659">
         <v>1.925</v>
       </c>
       <c r="W659">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X659">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA659">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB659">
         <v>-1</v>
@@ -59196,7 +59196,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59208,70 +59208,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F660" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G660" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J660" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K660">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L660">
         <v>3.3</v>
       </c>
       <c r="M660">
+        <v>2.375</v>
+      </c>
+      <c r="N660">
+        <v>3.3</v>
+      </c>
+      <c r="O660">
+        <v>3.5</v>
+      </c>
+      <c r="P660">
         <v>2.15</v>
-      </c>
-      <c r="N660">
-        <v>3.4</v>
-      </c>
-      <c r="O660">
-        <v>3.6</v>
-      </c>
-      <c r="P660">
-        <v>2.05</v>
       </c>
       <c r="Q660">
         <v>0.25</v>
       </c>
       <c r="R660">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S660">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T660">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U660">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V660">
         <v>1.925</v>
       </c>
       <c r="W660">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X660">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y660">
         <v>-1</v>
       </c>
       <c r="Z660">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA660">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB660">
         <v>-1</v>
@@ -60531,7 +60531,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60543,70 +60543,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F675" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G675" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J675" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K675">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L675">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M675">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N675">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O675">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P675">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q675">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R675">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S675">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T675">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U675">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V675">
         <v>1.975</v>
       </c>
       <c r="W675">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X675">
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z675">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA675">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB675">
         <v>-1</v>
@@ -60620,7 +60620,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60632,70 +60632,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G676" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H676">
+        <v>2</v>
+      </c>
+      <c r="I676">
         <v>0</v>
       </c>
-      <c r="I676">
-        <v>2</v>
-      </c>
       <c r="J676" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K676">
+        <v>1.75</v>
+      </c>
+      <c r="L676">
+        <v>3.6</v>
+      </c>
+      <c r="M676">
+        <v>4.2</v>
+      </c>
+      <c r="N676">
+        <v>1.444</v>
+      </c>
+      <c r="O676">
+        <v>4.75</v>
+      </c>
+      <c r="P676">
+        <v>7</v>
+      </c>
+      <c r="Q676">
+        <v>-1.25</v>
+      </c>
+      <c r="R676">
         <v>1.95</v>
       </c>
-      <c r="L676">
-        <v>3.4</v>
-      </c>
-      <c r="M676">
-        <v>3.5</v>
-      </c>
-      <c r="N676">
-        <v>2</v>
-      </c>
-      <c r="O676">
-        <v>3.5</v>
-      </c>
-      <c r="P676">
-        <v>3.75</v>
-      </c>
-      <c r="Q676">
-        <v>-0.5</v>
-      </c>
-      <c r="R676">
-        <v>2.025</v>
-      </c>
       <c r="S676">
+        <v>1.85</v>
+      </c>
+      <c r="T676">
+        <v>3</v>
+      </c>
+      <c r="U676">
         <v>1.825</v>
-      </c>
-      <c r="T676">
-        <v>2.5</v>
-      </c>
-      <c r="U676">
-        <v>1.875</v>
       </c>
       <c r="V676">
         <v>1.975</v>
       </c>
       <c r="W676">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z676">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA676">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
         <v>-1</v>
@@ -72101,7 +72101,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72113,19 +72113,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F805" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G805" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I805">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J805" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K805">
         <v>2</v>
@@ -72137,52 +72137,52 @@
         <v>3.5</v>
       </c>
       <c r="N805">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O805">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P805">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q805">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R805">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S805">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T805">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U805">
+        <v>1.95</v>
+      </c>
+      <c r="V805">
         <v>1.85</v>
       </c>
-      <c r="V805">
-        <v>1.95</v>
-      </c>
       <c r="W805">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X805">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y805">
         <v>-1</v>
       </c>
       <c r="Z805">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA805">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB805">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC805">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72190,7 +72190,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72202,19 +72202,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G806" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H806">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I806">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J806" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K806">
         <v>2</v>
@@ -72226,52 +72226,52 @@
         <v>3.5</v>
       </c>
       <c r="N806">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O806">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P806">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q806">
+        <v>-0.75</v>
+      </c>
+      <c r="R806">
+        <v>1.9</v>
+      </c>
+      <c r="S806">
+        <v>1.9</v>
+      </c>
+      <c r="T806">
+        <v>2.75</v>
+      </c>
+      <c r="U806">
+        <v>1.85</v>
+      </c>
+      <c r="V806">
+        <v>1.95</v>
+      </c>
+      <c r="W806">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X806">
+        <v>-1</v>
+      </c>
+      <c r="Y806">
+        <v>-1</v>
+      </c>
+      <c r="Z806">
+        <v>0.45</v>
+      </c>
+      <c r="AA806">
         <v>-0.5</v>
       </c>
-      <c r="R806">
-        <v>2.025</v>
-      </c>
-      <c r="S806">
-        <v>1.775</v>
-      </c>
-      <c r="T806">
-        <v>2.5</v>
-      </c>
-      <c r="U806">
-        <v>1.95</v>
-      </c>
-      <c r="V806">
-        <v>1.85</v>
-      </c>
-      <c r="W806">
-        <v>-1</v>
-      </c>
-      <c r="X806">
-        <v>2.5</v>
-      </c>
-      <c r="Y806">
-        <v>-1</v>
-      </c>
-      <c r="Z806">
-        <v>-1</v>
-      </c>
-      <c r="AA806">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB806">
+        <v>-1</v>
+      </c>
+      <c r="AC806">
         <v>0.95</v>
-      </c>
-      <c r="AC806">
-        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72546,7 +72546,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72558,46 +72558,46 @@
         <v>45255.75</v>
       </c>
       <c r="F810" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G810" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J810" t="s">
         <v>51</v>
       </c>
       <c r="K810">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L810">
         <v>3.4</v>
       </c>
       <c r="M810">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N810">
+        <v>2.1</v>
+      </c>
+      <c r="O810">
+        <v>3.5</v>
+      </c>
+      <c r="P810">
+        <v>3.5</v>
+      </c>
+      <c r="Q810">
+        <v>-0.25</v>
+      </c>
+      <c r="R810">
         <v>1.8</v>
       </c>
-      <c r="O810">
-        <v>3.6</v>
-      </c>
-      <c r="P810">
-        <v>4.333</v>
-      </c>
-      <c r="Q810">
-        <v>-0.75</v>
-      </c>
-      <c r="R810">
-        <v>1.975</v>
-      </c>
       <c r="S810">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T810">
         <v>2.75</v>
@@ -72612,16 +72612,16 @@
         <v>-1</v>
       </c>
       <c r="X810">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y810">
         <v>-1</v>
       </c>
       <c r="Z810">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA810">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB810">
         <v>-1</v>
@@ -72635,7 +72635,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72647,46 +72647,46 @@
         <v>45255.75</v>
       </c>
       <c r="F811" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G811" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="s">
         <v>51</v>
       </c>
       <c r="K811">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L811">
         <v>3.4</v>
       </c>
       <c r="M811">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N811">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O811">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P811">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q811">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R811">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S811">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T811">
         <v>2.75</v>
@@ -72701,16 +72701,16 @@
         <v>-1</v>
       </c>
       <c r="X811">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y811">
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA811">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB811">
         <v>-1</v>
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G816" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H816">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J816" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K816">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L816">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M816">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N816">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O816">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P816">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q816">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R816">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S816">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T816">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U816">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V816">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W816">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z816">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA816">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB816">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,76 +73181,76 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G817" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H817">
+        <v>4</v>
+      </c>
+      <c r="I817">
         <v>0</v>
       </c>
-      <c r="I817">
-        <v>2</v>
-      </c>
       <c r="J817" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K817">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L817">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M817">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N817">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O817">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P817">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q817">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R817">
+        <v>2.025</v>
+      </c>
+      <c r="S817">
+        <v>1.825</v>
+      </c>
+      <c r="T817">
+        <v>3</v>
+      </c>
+      <c r="U817">
+        <v>1.9</v>
+      </c>
+      <c r="V817">
         <v>1.95</v>
       </c>
-      <c r="S817">
-        <v>1.85</v>
-      </c>
-      <c r="T817">
-        <v>2.5</v>
-      </c>
-      <c r="U817">
-        <v>1.8</v>
-      </c>
-      <c r="V817">
-        <v>2</v>
-      </c>
       <c r="W817">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X817">
         <v>-1</v>
       </c>
       <c r="Y817">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z817">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA817">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB817">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC817">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="818" spans="1:29">
@@ -73436,7 +73436,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73448,55 +73448,55 @@
         <v>45263.75</v>
       </c>
       <c r="F820" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G820" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H820">
         <v>0</v>
       </c>
       <c r="I820">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J820" t="s">
         <v>53</v>
       </c>
       <c r="K820">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L820">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M820">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N820">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O820">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P820">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q820">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R820">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S820">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T820">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U820">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V820">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W820">
         <v>-1</v>
@@ -73505,19 +73505,19 @@
         <v>-1</v>
       </c>
       <c r="Y820">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z820">
         <v>-1</v>
       </c>
       <c r="AA820">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB820">
         <v>-1</v>
       </c>
       <c r="AC820">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,55 +73626,55 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G822" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H822">
         <v>0</v>
       </c>
       <c r="I822">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J822" t="s">
         <v>53</v>
       </c>
       <c r="K822">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L822">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M822">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N822">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O822">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P822">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q822">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R822">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S822">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T822">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U822">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V822">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W822">
         <v>-1</v>
@@ -73683,19 +73683,19 @@
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z822">
         <v>-1</v>
       </c>
       <c r="AA822">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB822">
         <v>-1</v>
       </c>
       <c r="AC822">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73703,7 +73703,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -73715,13 +73715,13 @@
         <v>45268.75</v>
       </c>
       <c r="F823" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G823" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I823">
         <v>0</v>
@@ -73730,28 +73730,28 @@
         <v>52</v>
       </c>
       <c r="K823">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L823">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M823">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N823">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O823">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P823">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q823">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R823">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S823">
         <v>1.825</v>
@@ -73760,13 +73760,13 @@
         <v>2.75</v>
       </c>
       <c r="U823">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V823">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W823">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X823">
         <v>-1</v>
@@ -73775,7 +73775,7 @@
         <v>-1</v>
       </c>
       <c r="Z823">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA823">
         <v>-1</v>
@@ -73784,7 +73784,7 @@
         <v>-1</v>
       </c>
       <c r="AC823">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="824" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G824" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H824">
+        <v>1</v>
+      </c>
+      <c r="I824">
         <v>0</v>
       </c>
-      <c r="I824">
-        <v>1</v>
-      </c>
       <c r="J824" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K824">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L824">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M824">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N824">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O824">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P824">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q824">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R824">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S824">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T824">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U824">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V824">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W824">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z824">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,67 +73893,67 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G825" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J825" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K825">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L825">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M825">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N825">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O825">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P825">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q825">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R825">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S825">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T825">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U825">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V825">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W825">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X825">
         <v>-1</v>
       </c>
       <c r="Y825">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z825">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,76 +73982,76 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G826" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H826">
         <v>2</v>
       </c>
       <c r="I826">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J826" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K826">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L826">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M826">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N826">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O826">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P826">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q826">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R826">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S826">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T826">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U826">
         <v>1.85</v>
       </c>
       <c r="V826">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W826">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X826">
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z826">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA826">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB826">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC826">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,73 +74071,73 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G827" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I827">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J827" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K827">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L827">
+        <v>3.4</v>
+      </c>
+      <c r="M827">
+        <v>4.333</v>
+      </c>
+      <c r="N827">
+        <v>1.8</v>
+      </c>
+      <c r="O827">
         <v>3.6</v>
       </c>
-      <c r="M827">
-        <v>3.8</v>
-      </c>
-      <c r="N827">
-        <v>2.15</v>
-      </c>
-      <c r="O827">
-        <v>3.75</v>
-      </c>
       <c r="P827">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q827">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R827">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S827">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T827">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U827">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V827">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W827">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z827">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA827">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB827">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC827">
         <v>-1</v>
@@ -74237,7 +74237,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74249,76 +74249,76 @@
         <v>45269.75</v>
       </c>
       <c r="F829" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G829" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H829">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829">
         <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K829">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L829">
+        <v>3.3</v>
+      </c>
+      <c r="M829">
+        <v>2.3</v>
+      </c>
+      <c r="N829">
+        <v>2.9</v>
+      </c>
+      <c r="O829">
         <v>3.4</v>
       </c>
-      <c r="M829">
-        <v>4.333</v>
-      </c>
-      <c r="N829">
+      <c r="P829">
+        <v>2.375</v>
+      </c>
+      <c r="Q829">
+        <v>0.25</v>
+      </c>
+      <c r="R829">
         <v>1.8</v>
       </c>
-      <c r="O829">
-        <v>3.6</v>
-      </c>
-      <c r="P829">
-        <v>4.5</v>
-      </c>
-      <c r="Q829">
-        <v>-0.75</v>
-      </c>
-      <c r="R829">
-        <v>1.925</v>
-      </c>
       <c r="S829">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T829">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U829">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V829">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W829">
+        <v>-1</v>
+      </c>
+      <c r="X829">
+        <v>-1</v>
+      </c>
+      <c r="Y829">
+        <v>1.375</v>
+      </c>
+      <c r="Z829">
+        <v>-1</v>
+      </c>
+      <c r="AA829">
+        <v>1</v>
+      </c>
+      <c r="AB829">
+        <v>-1</v>
+      </c>
+      <c r="AC829">
         <v>0.8</v>
-      </c>
-      <c r="X829">
-        <v>-1</v>
-      </c>
-      <c r="Y829">
-        <v>-1</v>
-      </c>
-      <c r="Z829">
-        <v>0.925</v>
-      </c>
-      <c r="AA829">
-        <v>-1</v>
-      </c>
-      <c r="AB829">
-        <v>1.025</v>
-      </c>
-      <c r="AC829">
-        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74326,7 +74326,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6078268</v>
+        <v>6077499</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74338,28 +74338,28 @@
         <v>45269.75</v>
       </c>
       <c r="F830" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G830" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H830">
+        <v>2</v>
+      </c>
+      <c r="I830">
         <v>0</v>
       </c>
-      <c r="I830">
-        <v>1</v>
-      </c>
       <c r="J830" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K830">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L830">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M830">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N830">
         <v>2.9</v>
@@ -74368,46 +74368,46 @@
         <v>3.4</v>
       </c>
       <c r="P830">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q830">
         <v>0.25</v>
       </c>
       <c r="R830">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S830">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T830">
         <v>2.75</v>
       </c>
       <c r="U830">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V830">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W830">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X830">
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z830">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA830">
+        <v>-1</v>
+      </c>
+      <c r="AB830">
+        <v>-1</v>
+      </c>
+      <c r="AC830">
         <v>1</v>
-      </c>
-      <c r="AB830">
-        <v>-1</v>
-      </c>
-      <c r="AC830">
-        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3201281</v>
+        <v>3201269</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>3.5</v>
+      </c>
+      <c r="M69">
+        <v>3.6</v>
+      </c>
+      <c r="N69">
+        <v>2.3</v>
+      </c>
+      <c r="O69">
+        <v>3.5</v>
+      </c>
+      <c r="P69">
+        <v>2.875</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69">
-        <v>3</v>
-      </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>2.375</v>
-      </c>
-      <c r="N69">
-        <v>3.5</v>
-      </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>2.15</v>
-      </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.5</v>
       </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3200931</v>
+        <v>3201281</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3201269</v>
+        <v>3201280</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,10 +6787,10 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6802,31 +6802,31 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O71">
         <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
         <v>2.5</v>
@@ -6847,10 +6847,10 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3201280</v>
+        <v>3200931</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,61 +6876,61 @@
         <v>44238.77083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>51</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>2.25</v>
+      </c>
+      <c r="U72">
         <v>1.85</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y72">
         <v>-1</v>
@@ -6939,13 +6939,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3234175</v>
+        <v>3234178</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>44241.75</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
+        <v>3.25</v>
+      </c>
+      <c r="N78">
+        <v>2.05</v>
+      </c>
+      <c r="O78">
+        <v>3.3</v>
+      </c>
+      <c r="P78">
+        <v>3.6</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
+        <v>1.95</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
       </c>
-      <c r="N78">
-        <v>3.2</v>
-      </c>
-      <c r="O78">
-        <v>3.5</v>
-      </c>
-      <c r="P78">
-        <v>2.15</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.95</v>
       </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3234976</v>
+        <v>3234175</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>44241.75</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q79">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X79">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3234178</v>
+        <v>3234976</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>44241.75</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -31161,7 +31161,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>3899772</v>
+        <v>3898955</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31173,76 +31173,76 @@
         <v>44528.75</v>
       </c>
       <c r="F345" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345">
         <v>0</v>
       </c>
-      <c r="I345">
-        <v>1</v>
-      </c>
       <c r="J345" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K345">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L345">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M345">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N345">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="O345">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q345">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R345">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T345">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
+        <v>2</v>
+      </c>
+      <c r="V345">
         <v>1.8</v>
       </c>
-      <c r="V345">
-        <v>2</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA345">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
         <v>-1</v>
       </c>
       <c r="AC345">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31250,7 +31250,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>4365259</v>
+        <v>3899772</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,76 +31262,76 @@
         <v>44528.75</v>
       </c>
       <c r="F346" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G346" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346">
         <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K346">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="L346">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M346">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N346">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O346">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P346">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R346">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S346">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T346">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U346">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W346">
         <v>-1</v>
       </c>
       <c r="X346">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31339,7 +31339,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>3898955</v>
+        <v>4365259</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31351,76 +31351,76 @@
         <v>44528.75</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M347">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N347">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.95</v>
+      </c>
+      <c r="S347">
+        <v>1.85</v>
+      </c>
+      <c r="T347">
+        <v>2.5</v>
+      </c>
+      <c r="U347">
         <v>1.925</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.875</v>
       </c>
-      <c r="T347">
-        <v>2.75</v>
-      </c>
-      <c r="U347">
-        <v>2</v>
-      </c>
-      <c r="V347">
-        <v>1.8</v>
-      </c>
       <c r="W347">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31428,7 +31428,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3899778</v>
+        <v>3899776</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31440,49 +31440,49 @@
         <v>44534.75</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G348" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K348">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L348">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M348">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N348">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O348">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P348">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R348">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U348">
         <v>1.85</v>
@@ -31494,22 +31494,22 @@
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y348">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>3899776</v>
+        <v>3899778</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,49 +31707,49 @@
         <v>44534.75</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G351" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K351">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L351">
+        <v>3.4</v>
+      </c>
+      <c r="M351">
+        <v>3.1</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351">
         <v>3.6</v>
       </c>
-      <c r="M351">
-        <v>4.5</v>
-      </c>
-      <c r="N351">
-        <v>1.333</v>
-      </c>
-      <c r="O351">
-        <v>4.75</v>
-      </c>
       <c r="P351">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q351">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
+        <v>2</v>
+      </c>
+      <c r="S351">
         <v>1.8</v>
       </c>
-      <c r="S351">
-        <v>2</v>
-      </c>
       <c r="T351">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>1.85</v>
@@ -31761,22 +31761,22 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>3899777</v>
+        <v>3899436</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,76 +31796,76 @@
         <v>44535.75</v>
       </c>
       <c r="F352" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G352" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I352">
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K352">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L352">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M352">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N352">
+        <v>1.444</v>
+      </c>
+      <c r="O352">
+        <v>4.75</v>
+      </c>
+      <c r="P352">
+        <v>6.5</v>
+      </c>
+      <c r="Q352">
+        <v>-1.25</v>
+      </c>
+      <c r="R352">
+        <v>2.025</v>
+      </c>
+      <c r="S352">
+        <v>1.825</v>
+      </c>
+      <c r="T352">
         <v>2.75</v>
       </c>
-      <c r="O352">
-        <v>2.75</v>
-      </c>
-      <c r="P352">
-        <v>2.7</v>
-      </c>
-      <c r="Q352">
-        <v>0</v>
-      </c>
-      <c r="R352">
-        <v>1.9</v>
-      </c>
-      <c r="S352">
-        <v>1.9</v>
-      </c>
-      <c r="T352">
-        <v>2</v>
-      </c>
       <c r="U352">
+        <v>1.975</v>
+      </c>
+      <c r="V352">
         <v>1.875</v>
       </c>
-      <c r="V352">
-        <v>1.925</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X352">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA352">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC352">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31873,7 +31873,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4396881</v>
+        <v>3899777</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31885,76 +31885,76 @@
         <v>44535.75</v>
       </c>
       <c r="F353" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G353" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353">
         <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K353">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L353">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M353">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N353">
+        <v>2.75</v>
+      </c>
+      <c r="O353">
+        <v>2.75</v>
+      </c>
+      <c r="P353">
         <v>2.7</v>
-      </c>
-      <c r="O353">
-        <v>3.6</v>
-      </c>
-      <c r="P353">
-        <v>2.5</v>
       </c>
       <c r="Q353">
         <v>0</v>
       </c>
       <c r="R353">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S353">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V353">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y353">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA353">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32051,7 +32051,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>3899436</v>
+        <v>4396881</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32063,76 +32063,76 @@
         <v>44535.75</v>
       </c>
       <c r="F355" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355">
         <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K355">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L355">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M355">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N355">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O355">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P355">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q355">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R355">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S355">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U355">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V355">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z355">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC355">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -41485,7 +41485,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>4614316</v>
+        <v>5034214</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41497,73 +41497,73 @@
         <v>44702.66666666666</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G461" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H461">
+        <v>2</v>
+      </c>
+      <c r="I461">
+        <v>2</v>
+      </c>
+      <c r="J461" t="s">
+        <v>51</v>
+      </c>
+      <c r="K461">
         <v>3</v>
       </c>
-      <c r="I461">
-        <v>2</v>
-      </c>
-      <c r="J461" t="s">
-        <v>52</v>
-      </c>
-      <c r="K461">
-        <v>3.1</v>
-      </c>
       <c r="L461">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M461">
         <v>2.45</v>
       </c>
       <c r="N461">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O461">
         <v>3.1</v>
       </c>
       <c r="P461">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q461">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R461">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S461">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T461">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U461">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V461">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W461">
+        <v>-1</v>
+      </c>
+      <c r="X461">
         <v>2.1</v>
       </c>
-      <c r="X461">
-        <v>-1</v>
-      </c>
       <c r="Y461">
         <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA461">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB461">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC461">
         <v>-1</v>
@@ -41574,7 +41574,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>5034214</v>
+        <v>4614316</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41586,73 +41586,73 @@
         <v>44702.66666666666</v>
       </c>
       <c r="F462" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G462" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I462">
         <v>2</v>
       </c>
       <c r="J462" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K462">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L462">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M462">
         <v>2.45</v>
       </c>
       <c r="N462">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O462">
         <v>3.1</v>
       </c>
       <c r="P462">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q462">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R462">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S462">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T462">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U462">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V462">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W462">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X462">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA462">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB462">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC462">
         <v>-1</v>
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>4617485</v>
+        <v>4617486</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51554,13 +51554,13 @@
         <v>44857.625</v>
       </c>
       <c r="F574" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G574" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H574">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I574">
         <v>0</v>
@@ -51569,43 +51569,43 @@
         <v>52</v>
       </c>
       <c r="K574">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L574">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M574">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N574">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O574">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P574">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q574">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R574">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S574">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T574">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U574">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V574">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W574">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X574">
         <v>-1</v>
@@ -51614,16 +51614,16 @@
         <v>-1</v>
       </c>
       <c r="Z574">
+        <v>0.925</v>
+      </c>
+      <c r="AA574">
+        <v>-1</v>
+      </c>
+      <c r="AB574">
+        <v>-1</v>
+      </c>
+      <c r="AC574">
         <v>1</v>
-      </c>
-      <c r="AA574">
-        <v>-1</v>
-      </c>
-      <c r="AB574">
-        <v>1</v>
-      </c>
-      <c r="AC574">
-        <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51631,7 +51631,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>4614399</v>
+        <v>4617485</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51643,76 +51643,76 @@
         <v>44857.625</v>
       </c>
       <c r="F575" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G575" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H575">
+        <v>5</v>
+      </c>
+      <c r="I575">
         <v>0</v>
       </c>
-      <c r="I575">
-        <v>2</v>
-      </c>
       <c r="J575" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K575">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="L575">
         <v>4</v>
       </c>
       <c r="M575">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N575">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O575">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P575">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q575">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R575">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S575">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T575">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U575">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V575">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W575">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X575">
         <v>-1</v>
       </c>
       <c r="Y575">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA575">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB575">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC575">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>4617486</v>
+        <v>4614399</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,40 +51732,40 @@
         <v>44857.625</v>
       </c>
       <c r="F576" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G576" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J576" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K576">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L576">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M576">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="N576">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O576">
         <v>3.8</v>
       </c>
       <c r="P576">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q576">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R576">
         <v>1.925</v>
@@ -51774,34 +51774,34 @@
         <v>1.925</v>
       </c>
       <c r="T576">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U576">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V576">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W576">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X576">
         <v>-1</v>
       </c>
       <c r="Y576">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z576">
+        <v>-1</v>
+      </c>
+      <c r="AA576">
         <v>0.925</v>
       </c>
-      <c r="AA576">
-        <v>-1</v>
-      </c>
       <c r="AB576">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC576">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -52165,7 +52165,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>4617488</v>
+        <v>4618523</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52177,76 +52177,76 @@
         <v>44864.625</v>
       </c>
       <c r="F581" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G581" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J581" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K581">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L581">
         <v>3.3</v>
       </c>
       <c r="M581">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N581">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="O581">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P581">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="Q581">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R581">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S581">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T581">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U581">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V581">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W581">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X581">
         <v>-1</v>
       </c>
       <c r="Y581">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z581">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA581">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB581">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC581">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52254,7 +52254,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>4618523</v>
+        <v>4617488</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52266,76 +52266,76 @@
         <v>44864.625</v>
       </c>
       <c r="F582" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G582" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H582">
+        <v>2</v>
+      </c>
+      <c r="I582">
         <v>1</v>
       </c>
-      <c r="I582">
-        <v>3</v>
-      </c>
       <c r="J582" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K582">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L582">
         <v>3.3</v>
       </c>
       <c r="M582">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N582">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="O582">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P582">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="Q582">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R582">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S582">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T582">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U582">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V582">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W582">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X582">
         <v>-1</v>
       </c>
       <c r="Y582">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z582">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA582">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB582">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC582">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4614405</v>
+        <v>4617491</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,73 +52711,73 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F587" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G587" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H587">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I587">
+        <v>4</v>
+      </c>
+      <c r="J587" t="s">
+        <v>53</v>
+      </c>
+      <c r="K587">
+        <v>2.7</v>
+      </c>
+      <c r="L587">
+        <v>3.3</v>
+      </c>
+      <c r="M587">
+        <v>2.45</v>
+      </c>
+      <c r="N587">
+        <v>2.7</v>
+      </c>
+      <c r="O587">
+        <v>3.4</v>
+      </c>
+      <c r="P587">
+        <v>2.6</v>
+      </c>
+      <c r="Q587">
         <v>0</v>
       </c>
-      <c r="J587" t="s">
-        <v>52</v>
-      </c>
-      <c r="K587">
-        <v>1.75</v>
-      </c>
-      <c r="L587">
-        <v>3.5</v>
-      </c>
-      <c r="M587">
-        <v>4.333</v>
-      </c>
-      <c r="N587">
-        <v>1.833</v>
-      </c>
-      <c r="O587">
-        <v>3.5</v>
-      </c>
-      <c r="P587">
-        <v>4.5</v>
-      </c>
-      <c r="Q587">
-        <v>-0.5</v>
-      </c>
       <c r="R587">
+        <v>2</v>
+      </c>
+      <c r="S587">
         <v>1.8</v>
-      </c>
-      <c r="S587">
-        <v>2</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W587">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z587">
+        <v>-1</v>
+      </c>
+      <c r="AA587">
         <v>0.8</v>
       </c>
-      <c r="AA587">
-        <v>-1</v>
-      </c>
       <c r="AB587">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52788,7 +52788,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4617747</v>
+        <v>4614405</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52800,13 +52800,13 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F588" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G588" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I588">
         <v>0</v>
@@ -52815,43 +52815,43 @@
         <v>52</v>
       </c>
       <c r="K588">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L588">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M588">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N588">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O588">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P588">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q588">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R588">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S588">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T588">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U588">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W588">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X588">
         <v>-1</v>
@@ -52860,16 +52860,16 @@
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA588">
         <v>-1</v>
       </c>
       <c r="AB588">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC588">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52877,7 +52877,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4617491</v>
+        <v>4617747</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52889,76 +52889,76 @@
         <v>44870.52083333334</v>
       </c>
       <c r="F589" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G589" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H589">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J589" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K589">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L589">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M589">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N589">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O589">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P589">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q589">
+        <v>-0.25</v>
+      </c>
+      <c r="R589">
+        <v>1.825</v>
+      </c>
+      <c r="S589">
+        <v>1.975</v>
+      </c>
+      <c r="T589">
+        <v>2</v>
+      </c>
+      <c r="U589">
+        <v>1.775</v>
+      </c>
+      <c r="V589">
+        <v>2.025</v>
+      </c>
+      <c r="W589">
+        <v>1.15</v>
+      </c>
+      <c r="X589">
+        <v>-1</v>
+      </c>
+      <c r="Y589">
+        <v>-1</v>
+      </c>
+      <c r="Z589">
+        <v>0.825</v>
+      </c>
+      <c r="AA589">
+        <v>-1</v>
+      </c>
+      <c r="AB589">
         <v>0</v>
       </c>
-      <c r="R589">
-        <v>2</v>
-      </c>
-      <c r="S589">
-        <v>1.8</v>
-      </c>
-      <c r="T589">
-        <v>2.5</v>
-      </c>
-      <c r="U589">
-        <v>1.9</v>
-      </c>
-      <c r="V589">
-        <v>1.9</v>
-      </c>
-      <c r="W589">
-        <v>-1</v>
-      </c>
-      <c r="X589">
-        <v>-1</v>
-      </c>
-      <c r="Y589">
-        <v>1.6</v>
-      </c>
-      <c r="Z589">
-        <v>-1</v>
-      </c>
-      <c r="AA589">
-        <v>0.8</v>
-      </c>
-      <c r="AB589">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -52966,7 +52966,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4617739</v>
+        <v>4617490</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52978,76 +52978,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F590" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G590" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K590">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L590">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M590">
+        <v>5.5</v>
+      </c>
+      <c r="N590">
+        <v>1.4</v>
+      </c>
+      <c r="O590">
+        <v>4.75</v>
+      </c>
+      <c r="P590">
+        <v>7.5</v>
+      </c>
+      <c r="Q590">
+        <v>-1.25</v>
+      </c>
+      <c r="R590">
+        <v>1.85</v>
+      </c>
+      <c r="S590">
+        <v>1.95</v>
+      </c>
+      <c r="T590">
         <v>3</v>
       </c>
-      <c r="N590">
-        <v>2.1</v>
-      </c>
-      <c r="O590">
-        <v>3.5</v>
-      </c>
-      <c r="P590">
-        <v>3.4</v>
-      </c>
-      <c r="Q590">
-        <v>-0.25</v>
-      </c>
-      <c r="R590">
+      <c r="U590">
+        <v>2</v>
+      </c>
+      <c r="V590">
         <v>1.8</v>
       </c>
-      <c r="S590">
-        <v>2</v>
-      </c>
-      <c r="T590">
-        <v>2.25</v>
-      </c>
-      <c r="U590">
-        <v>1.8</v>
-      </c>
-      <c r="V590">
-        <v>2</v>
-      </c>
       <c r="W590">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X590">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y590">
         <v>-1</v>
       </c>
       <c r="Z590">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA590">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB590">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC590">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53055,7 +53055,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4614404</v>
+        <v>4614403</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53067,76 +53067,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F591" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G591" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J591" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K591">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L591">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M591">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N591">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O591">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P591">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q591">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R591">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S591">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T591">
         <v>2.25</v>
       </c>
       <c r="U591">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V591">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W591">
         <v>-1</v>
       </c>
       <c r="X591">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z591">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB591">
         <v>-0.5</v>
       </c>
       <c r="AC591">
-        <v>0.4375</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53144,7 +53144,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4617490</v>
+        <v>4617739</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53156,76 +53156,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F592" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G592" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H592">
+        <v>1</v>
+      </c>
+      <c r="I592">
+        <v>1</v>
+      </c>
+      <c r="J592" t="s">
+        <v>51</v>
+      </c>
+      <c r="K592">
+        <v>2.3</v>
+      </c>
+      <c r="L592">
+        <v>3.2</v>
+      </c>
+      <c r="M592">
         <v>3</v>
       </c>
-      <c r="I592">
-        <v>0</v>
-      </c>
-      <c r="J592" t="s">
-        <v>52</v>
-      </c>
-      <c r="K592">
-        <v>1.55</v>
-      </c>
-      <c r="L592">
-        <v>4</v>
-      </c>
-      <c r="M592">
-        <v>5.5</v>
-      </c>
       <c r="N592">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O592">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P592">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q592">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R592">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S592">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T592">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U592">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V592">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W592">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X592">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y592">
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA592">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB592">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC592">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53233,7 +53233,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4614403</v>
+        <v>4614404</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53245,76 +53245,76 @@
         <v>44871.66666666666</v>
       </c>
       <c r="F593" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G593" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K593">
+        <v>2.75</v>
+      </c>
+      <c r="L593">
+        <v>3.1</v>
+      </c>
+      <c r="M593">
+        <v>2.5</v>
+      </c>
+      <c r="N593">
+        <v>2.4</v>
+      </c>
+      <c r="O593">
+        <v>3.25</v>
+      </c>
+      <c r="P593">
         <v>3</v>
       </c>
-      <c r="L593">
-        <v>3.4</v>
-      </c>
-      <c r="M593">
-        <v>2.2</v>
-      </c>
-      <c r="N593">
-        <v>3.4</v>
-      </c>
-      <c r="O593">
-        <v>3.5</v>
-      </c>
-      <c r="P593">
-        <v>2.15</v>
-      </c>
       <c r="Q593">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R593">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S593">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T593">
         <v>2.25</v>
       </c>
       <c r="U593">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V593">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W593">
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y593">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA593">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB593">
         <v>-0.5</v>
       </c>
       <c r="AC593">
-        <v>0.5125</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -55547,7 +55547,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55559,73 +55559,73 @@
         <v>44967.875</v>
       </c>
       <c r="F619" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G619" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J619" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K619">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L619">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M619">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N619">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O619">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P619">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q619">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R619">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S619">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
         <v>2.5</v>
       </c>
       <c r="U619">
+        <v>1.925</v>
+      </c>
+      <c r="V619">
         <v>1.875</v>
       </c>
-      <c r="V619">
-        <v>1.925</v>
-      </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55636,7 +55636,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55648,73 +55648,73 @@
         <v>44967.875</v>
       </c>
       <c r="F620" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G620" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620">
         <v>3</v>
       </c>
-      <c r="I620">
-        <v>2</v>
-      </c>
       <c r="J620" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K620">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L620">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N620">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O620">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P620">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q620">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R620">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S620">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T620">
         <v>2.5</v>
       </c>
       <c r="U620">
+        <v>1.875</v>
+      </c>
+      <c r="V620">
         <v>1.925</v>
       </c>
-      <c r="V620">
-        <v>1.875</v>
-      </c>
       <c r="W620">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z620">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB620">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -56971,7 +56971,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56983,76 +56983,76 @@
         <v>44983.75</v>
       </c>
       <c r="F635" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G635" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I635">
         <v>1</v>
       </c>
       <c r="J635" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K635">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L635">
         <v>3.4</v>
       </c>
       <c r="M635">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N635">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O635">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P635">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q635">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R635">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S635">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T635">
         <v>2.5</v>
       </c>
       <c r="U635">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V635">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W635">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X635">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA635">
+        <v>-1</v>
+      </c>
+      <c r="AB635">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB635">
-        <v>-1</v>
-      </c>
       <c r="AC635">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57060,7 +57060,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57072,76 +57072,76 @@
         <v>44983.75</v>
       </c>
       <c r="F636" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G636" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636">
         <v>1</v>
       </c>
       <c r="J636" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K636">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L636">
         <v>3.4</v>
       </c>
       <c r="M636">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N636">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O636">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P636">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q636">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R636">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S636">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T636">
         <v>2.5</v>
       </c>
       <c r="U636">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V636">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W636">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X636">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y636">
         <v>-1</v>
       </c>
       <c r="Z636">
+        <v>-1</v>
+      </c>
+      <c r="AA636">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB636">
+        <v>-1</v>
+      </c>
+      <c r="AC636">
         <v>0.875</v>
-      </c>
-      <c r="AA636">
-        <v>-1</v>
-      </c>
-      <c r="AB636">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC636">
-        <v>-1</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57238,7 +57238,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57250,73 +57250,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F638" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G638" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I638">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J638" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K638">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L638">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M638">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N638">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O638">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P638">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q638">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R638">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S638">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T638">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U638">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V638">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W638">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X638">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA638">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB638">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -57327,7 +57327,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57339,73 +57339,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F639" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G639" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H639">
+        <v>2</v>
+      </c>
+      <c r="I639">
+        <v>2</v>
+      </c>
+      <c r="J639" t="s">
+        <v>51</v>
+      </c>
+      <c r="K639">
+        <v>3.2</v>
+      </c>
+      <c r="L639">
+        <v>3.4</v>
+      </c>
+      <c r="M639">
+        <v>2.2</v>
+      </c>
+      <c r="N639">
+        <v>2.4</v>
+      </c>
+      <c r="O639">
+        <v>3.25</v>
+      </c>
+      <c r="P639">
         <v>3</v>
       </c>
-      <c r="I639">
-        <v>1</v>
-      </c>
-      <c r="J639" t="s">
-        <v>52</v>
-      </c>
-      <c r="K639">
-        <v>1.95</v>
-      </c>
-      <c r="L639">
-        <v>3.5</v>
-      </c>
-      <c r="M639">
-        <v>3.8</v>
-      </c>
-      <c r="N639">
+      <c r="Q639">
+        <v>-0.25</v>
+      </c>
+      <c r="R639">
+        <v>2.05</v>
+      </c>
+      <c r="S639">
         <v>1.75</v>
       </c>
-      <c r="O639">
-        <v>4</v>
-      </c>
-      <c r="P639">
-        <v>4.5</v>
-      </c>
-      <c r="Q639">
-        <v>-0.75</v>
-      </c>
-      <c r="R639">
-        <v>1.95</v>
-      </c>
-      <c r="S639">
-        <v>1.85</v>
-      </c>
       <c r="T639">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U639">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V639">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W639">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X639">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y639">
         <v>-1</v>
       </c>
       <c r="Z639">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA639">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB639">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC639">
         <v>-1</v>
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,13 +57517,13 @@
         <v>44988.75</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G641" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -57532,43 +57532,43 @@
         <v>52</v>
       </c>
       <c r="K641">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L641">
         <v>3.3</v>
       </c>
       <c r="M641">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N641">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O641">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P641">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q641">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R641">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S641">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T641">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V641">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W641">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57577,16 +57577,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB641">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC641">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,13 +57606,13 @@
         <v>44988.75</v>
       </c>
       <c r="F642" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -57621,43 +57621,43 @@
         <v>52</v>
       </c>
       <c r="K642">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L642">
         <v>3.3</v>
       </c>
       <c r="M642">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N642">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O642">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P642">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q642">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R642">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S642">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T642">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U642">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V642">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W642">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57666,16 +57666,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB642">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC642">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -58751,7 +58751,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58763,76 +58763,76 @@
         <v>45003.75</v>
       </c>
       <c r="F655" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G655" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I655">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J655" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K655">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L655">
         <v>3.25</v>
       </c>
       <c r="M655">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N655">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O655">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P655">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q655">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R655">
+        <v>1.875</v>
+      </c>
+      <c r="S655">
+        <v>1.925</v>
+      </c>
+      <c r="T655">
+        <v>2.5</v>
+      </c>
+      <c r="U655">
+        <v>2</v>
+      </c>
+      <c r="V655">
         <v>1.8</v>
       </c>
-      <c r="S655">
-        <v>2</v>
-      </c>
-      <c r="T655">
-        <v>2.25</v>
-      </c>
-      <c r="U655">
-        <v>1.85</v>
-      </c>
-      <c r="V655">
-        <v>1.95</v>
-      </c>
       <c r="W655">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA655">
+        <v>-1</v>
+      </c>
+      <c r="AB655">
         <v>1</v>
       </c>
-      <c r="AB655">
-        <v>-0.5</v>
-      </c>
       <c r="AC655">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58840,7 +58840,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58852,76 +58852,76 @@
         <v>45003.75</v>
       </c>
       <c r="F656" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G656" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H656">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J656" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K656">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L656">
         <v>3.25</v>
       </c>
       <c r="M656">
+        <v>3.4</v>
+      </c>
+      <c r="N656">
+        <v>2.15</v>
+      </c>
+      <c r="O656">
+        <v>3.25</v>
+      </c>
+      <c r="P656">
+        <v>3.6</v>
+      </c>
+      <c r="Q656">
+        <v>-0.25</v>
+      </c>
+      <c r="R656">
+        <v>1.8</v>
+      </c>
+      <c r="S656">
+        <v>2</v>
+      </c>
+      <c r="T656">
         <v>2.25</v>
       </c>
-      <c r="N656">
-        <v>3.3</v>
-      </c>
-      <c r="O656">
-        <v>3.3</v>
-      </c>
-      <c r="P656">
-        <v>2.25</v>
-      </c>
-      <c r="Q656">
-        <v>0.25</v>
-      </c>
-      <c r="R656">
-        <v>1.875</v>
-      </c>
-      <c r="S656">
-        <v>1.925</v>
-      </c>
-      <c r="T656">
-        <v>2.5</v>
-      </c>
       <c r="U656">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V656">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W656">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X656">
         <v>-1</v>
       </c>
       <c r="Y656">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z656">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA656">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB656">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC656">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,70 +59119,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F659" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G659" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J659" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K659">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L659">
         <v>3.3</v>
       </c>
       <c r="M659">
+        <v>2.375</v>
+      </c>
+      <c r="N659">
+        <v>3.3</v>
+      </c>
+      <c r="O659">
+        <v>3.5</v>
+      </c>
+      <c r="P659">
         <v>2.15</v>
-      </c>
-      <c r="N659">
-        <v>3.4</v>
-      </c>
-      <c r="O659">
-        <v>3.6</v>
-      </c>
-      <c r="P659">
-        <v>2.05</v>
       </c>
       <c r="Q659">
         <v>0.25</v>
       </c>
       <c r="R659">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S659">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U659">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V659">
         <v>1.925</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X659">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA659">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB659">
         <v>-1</v>
@@ -59196,7 +59196,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59208,70 +59208,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F660" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G660" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J660" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K660">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L660">
         <v>3.3</v>
       </c>
       <c r="M660">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N660">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O660">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P660">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q660">
         <v>0.25</v>
       </c>
       <c r="R660">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S660">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T660">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U660">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V660">
         <v>1.925</v>
       </c>
       <c r="W660">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X660">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y660">
         <v>-1</v>
       </c>
       <c r="Z660">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA660">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB660">
         <v>-1</v>
@@ -60531,7 +60531,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60543,70 +60543,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F675" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G675" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H675">
+        <v>2</v>
+      </c>
+      <c r="I675">
         <v>0</v>
       </c>
-      <c r="I675">
-        <v>2</v>
-      </c>
       <c r="J675" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K675">
+        <v>1.75</v>
+      </c>
+      <c r="L675">
+        <v>3.6</v>
+      </c>
+      <c r="M675">
+        <v>4.2</v>
+      </c>
+      <c r="N675">
+        <v>1.444</v>
+      </c>
+      <c r="O675">
+        <v>4.75</v>
+      </c>
+      <c r="P675">
+        <v>7</v>
+      </c>
+      <c r="Q675">
+        <v>-1.25</v>
+      </c>
+      <c r="R675">
         <v>1.95</v>
       </c>
-      <c r="L675">
-        <v>3.4</v>
-      </c>
-      <c r="M675">
-        <v>3.5</v>
-      </c>
-      <c r="N675">
-        <v>2</v>
-      </c>
-      <c r="O675">
-        <v>3.5</v>
-      </c>
-      <c r="P675">
-        <v>3.75</v>
-      </c>
-      <c r="Q675">
-        <v>-0.5</v>
-      </c>
-      <c r="R675">
-        <v>2.025</v>
-      </c>
       <c r="S675">
+        <v>1.85</v>
+      </c>
+      <c r="T675">
+        <v>3</v>
+      </c>
+      <c r="U675">
         <v>1.825</v>
-      </c>
-      <c r="T675">
-        <v>2.5</v>
-      </c>
-      <c r="U675">
-        <v>1.875</v>
       </c>
       <c r="V675">
         <v>1.975</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X675">
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z675">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA675">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
         <v>-1</v>
@@ -60620,7 +60620,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60632,70 +60632,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G676" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J676" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K676">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L676">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M676">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N676">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O676">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P676">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q676">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R676">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S676">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T676">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U676">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V676">
         <v>1.975</v>
       </c>
       <c r="W676">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z676">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB676">
         <v>-1</v>
@@ -61599,7 +61599,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61611,58 +61611,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F687" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G687" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I687">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J687" t="s">
         <v>52</v>
       </c>
       <c r="K687">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L687">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M687">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N687">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O687">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P687">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q687">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R687">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S687">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V687">
         <v>1.875</v>
       </c>
       <c r="W687">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61671,16 +61671,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC687">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61688,7 +61688,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61700,58 +61700,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F688" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G688" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H688">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I688">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>52</v>
       </c>
       <c r="K688">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L688">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M688">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N688">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O688">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P688">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q688">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R688">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T688">
         <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V688">
         <v>1.875</v>
       </c>
       <c r="W688">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61760,16 +61760,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA688">
         <v>-1</v>
       </c>
       <c r="AB688">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61866,7 +61866,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61878,58 +61878,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F690" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G690" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H690">
+        <v>2</v>
+      </c>
+      <c r="I690">
         <v>1</v>
-      </c>
-      <c r="I690">
-        <v>0</v>
       </c>
       <c r="J690" t="s">
         <v>52</v>
       </c>
       <c r="K690">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L690">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M690">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N690">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O690">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P690">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q690">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R690">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S690">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T690">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U690">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V690">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W690">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X690">
         <v>-1</v>
@@ -61938,16 +61938,16 @@
         <v>-1</v>
       </c>
       <c r="Z690">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA690">
         <v>-1</v>
       </c>
       <c r="AB690">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC690">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691" spans="1:29">
@@ -61955,7 +61955,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61967,58 +61967,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F691" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G691" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J691" t="s">
         <v>52</v>
       </c>
       <c r="K691">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L691">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M691">
+        <v>3.75</v>
+      </c>
+      <c r="N691">
+        <v>1.909</v>
+      </c>
+      <c r="O691">
+        <v>3.6</v>
+      </c>
+      <c r="P691">
+        <v>4.2</v>
+      </c>
+      <c r="Q691">
+        <v>-0.5</v>
+      </c>
+      <c r="R691">
+        <v>1.85</v>
+      </c>
+      <c r="S691">
+        <v>1.95</v>
+      </c>
+      <c r="T691">
         <v>2.5</v>
       </c>
-      <c r="N691">
-        <v>2.45</v>
-      </c>
-      <c r="O691">
-        <v>3.3</v>
-      </c>
-      <c r="P691">
-        <v>3</v>
-      </c>
-      <c r="Q691">
-        <v>-0.25</v>
-      </c>
-      <c r="R691">
-        <v>2.05</v>
-      </c>
-      <c r="S691">
-        <v>1.75</v>
-      </c>
-      <c r="T691">
-        <v>2.25</v>
-      </c>
       <c r="U691">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V691">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W691">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X691">
         <v>-1</v>
@@ -62027,16 +62027,16 @@
         <v>-1</v>
       </c>
       <c r="Z691">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA691">
         <v>-1</v>
       </c>
       <c r="AB691">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC691">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="692" spans="1:29">
@@ -72813,7 +72813,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72825,37 +72825,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F813" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G813" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I813">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J813" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K813">
+        <v>2.15</v>
+      </c>
+      <c r="L813">
+        <v>3.5</v>
+      </c>
+      <c r="M813">
+        <v>3.2</v>
+      </c>
+      <c r="N813">
+        <v>2.625</v>
+      </c>
+      <c r="O813">
+        <v>3.5</v>
+      </c>
+      <c r="P813">
         <v>2.6</v>
-      </c>
-      <c r="L813">
-        <v>3.4</v>
-      </c>
-      <c r="M813">
-        <v>2.6</v>
-      </c>
-      <c r="N813">
-        <v>2.8</v>
-      </c>
-      <c r="O813">
-        <v>3.2</v>
-      </c>
-      <c r="P813">
-        <v>2.7</v>
       </c>
       <c r="Q813">
         <v>0</v>
@@ -72867,34 +72867,34 @@
         <v>1.9</v>
       </c>
       <c r="T813">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U813">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V813">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W813">
         <v>-1</v>
       </c>
       <c r="X813">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y813">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z813">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA813">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB813">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC813">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72902,7 +72902,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72914,37 +72914,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F814" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G814" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H814">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I814">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J814" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K814">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L814">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M814">
+        <v>2.6</v>
+      </c>
+      <c r="N814">
+        <v>2.8</v>
+      </c>
+      <c r="O814">
         <v>3.2</v>
       </c>
-      <c r="N814">
-        <v>2.625</v>
-      </c>
-      <c r="O814">
-        <v>3.5</v>
-      </c>
       <c r="P814">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q814">
         <v>0</v>
@@ -72956,34 +72956,34 @@
         <v>1.9</v>
       </c>
       <c r="T814">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U814">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V814">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W814">
         <v>-1</v>
       </c>
       <c r="X814">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y814">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z814">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA814">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB814">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC814">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -73080,7 +73080,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73092,76 +73092,76 @@
         <v>45262.75</v>
       </c>
       <c r="F816" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G816" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H816">
+        <v>4</v>
+      </c>
+      <c r="I816">
         <v>0</v>
       </c>
-      <c r="I816">
-        <v>2</v>
-      </c>
       <c r="J816" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K816">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L816">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M816">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N816">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O816">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P816">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R816">
+        <v>2.025</v>
+      </c>
+      <c r="S816">
+        <v>1.825</v>
+      </c>
+      <c r="T816">
+        <v>3</v>
+      </c>
+      <c r="U816">
+        <v>1.9</v>
+      </c>
+      <c r="V816">
         <v>1.95</v>
       </c>
-      <c r="S816">
-        <v>1.85</v>
-      </c>
-      <c r="T816">
-        <v>2.5</v>
-      </c>
-      <c r="U816">
-        <v>1.8</v>
-      </c>
-      <c r="V816">
-        <v>2</v>
-      </c>
       <c r="W816">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA816">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB816">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC816">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73169,7 +73169,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73181,76 +73181,76 @@
         <v>45262.75</v>
       </c>
       <c r="F817" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G817" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H817">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I817">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J817" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K817">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L817">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M817">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N817">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O817">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P817">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q817">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R817">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S817">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T817">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U817">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V817">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W817">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X817">
         <v>-1</v>
       </c>
       <c r="Y817">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z817">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA817">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB817">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC817">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:29">
@@ -73436,7 +73436,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73448,55 +73448,55 @@
         <v>45263.75</v>
       </c>
       <c r="F820" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G820" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H820">
         <v>0</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J820" t="s">
         <v>53</v>
       </c>
       <c r="K820">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L820">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M820">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N820">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O820">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P820">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q820">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R820">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S820">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T820">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U820">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V820">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W820">
         <v>-1</v>
@@ -73505,19 +73505,19 @@
         <v>-1</v>
       </c>
       <c r="Y820">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z820">
         <v>-1</v>
       </c>
       <c r="AA820">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB820">
         <v>-1</v>
       </c>
       <c r="AC820">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73614,7 +73614,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73626,55 +73626,55 @@
         <v>45263.75</v>
       </c>
       <c r="F822" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G822" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H822">
         <v>0</v>
       </c>
       <c r="I822">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J822" t="s">
         <v>53</v>
       </c>
       <c r="K822">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L822">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M822">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N822">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O822">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P822">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q822">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R822">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S822">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T822">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U822">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V822">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W822">
         <v>-1</v>
@@ -73683,19 +73683,19 @@
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z822">
         <v>-1</v>
       </c>
       <c r="AA822">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB822">
         <v>-1</v>
       </c>
       <c r="AC822">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="823" spans="1:29">
@@ -73792,7 +73792,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73804,67 +73804,67 @@
         <v>45268.75</v>
       </c>
       <c r="F824" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G824" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H824">
+        <v>0</v>
+      </c>
+      <c r="I824">
         <v>1</v>
       </c>
-      <c r="I824">
-        <v>0</v>
-      </c>
       <c r="J824" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K824">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L824">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M824">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N824">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O824">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P824">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q824">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R824">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S824">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T824">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U824">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V824">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W824">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X824">
         <v>-1</v>
       </c>
       <c r="Y824">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z824">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA824">
         <v>-1</v>
@@ -73873,7 +73873,7 @@
         <v>-1</v>
       </c>
       <c r="AC824">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -73881,7 +73881,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73893,67 +73893,67 @@
         <v>45268.75</v>
       </c>
       <c r="F825" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G825" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H825">
+        <v>1</v>
+      </c>
+      <c r="I825">
         <v>0</v>
       </c>
-      <c r="I825">
-        <v>1</v>
-      </c>
       <c r="J825" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K825">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L825">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M825">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N825">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O825">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P825">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q825">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R825">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S825">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T825">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U825">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V825">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W825">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X825">
         <v>-1</v>
       </c>
       <c r="Y825">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z825">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA825">
         <v>-1</v>
@@ -73962,7 +73962,7 @@
         <v>-1</v>
       </c>
       <c r="AC825">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -73970,7 +73970,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>6078998</v>
+        <v>6077768</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -73982,13 +73982,13 @@
         <v>45269.75</v>
       </c>
       <c r="F826" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G826" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826">
         <v>3</v>
@@ -73997,40 +73997,40 @@
         <v>53</v>
       </c>
       <c r="K826">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L826">
+        <v>3.5</v>
+      </c>
+      <c r="M826">
+        <v>3.4</v>
+      </c>
+      <c r="N826">
+        <v>2.05</v>
+      </c>
+      <c r="O826">
         <v>3.6</v>
       </c>
-      <c r="M826">
-        <v>3.8</v>
-      </c>
-      <c r="N826">
-        <v>2.15</v>
-      </c>
-      <c r="O826">
-        <v>3.75</v>
-      </c>
       <c r="P826">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q826">
         <v>-0.25</v>
       </c>
       <c r="R826">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S826">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T826">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U826">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V826">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W826">
         <v>-1</v>
@@ -74039,19 +74039,19 @@
         <v>-1</v>
       </c>
       <c r="Y826">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z826">
         <v>-1</v>
       </c>
       <c r="AA826">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB826">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC826">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74059,7 +74059,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C827" t="s">
         <v>28</v>
@@ -74071,73 +74071,73 @@
         <v>45269.75</v>
       </c>
       <c r="F827" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G827" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H827">
+        <v>2</v>
+      </c>
+      <c r="I827">
         <v>3</v>
       </c>
-      <c r="I827">
-        <v>1</v>
-      </c>
       <c r="J827" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K827">
+        <v>1.909</v>
+      </c>
+      <c r="L827">
+        <v>3.6</v>
+      </c>
+      <c r="M827">
+        <v>3.8</v>
+      </c>
+      <c r="N827">
+        <v>2.15</v>
+      </c>
+      <c r="O827">
+        <v>3.75</v>
+      </c>
+      <c r="P827">
+        <v>3.1</v>
+      </c>
+      <c r="Q827">
+        <v>-0.25</v>
+      </c>
+      <c r="R827">
         <v>1.85</v>
       </c>
-      <c r="L827">
-        <v>3.4</v>
-      </c>
-      <c r="M827">
-        <v>4.333</v>
-      </c>
-      <c r="N827">
-        <v>1.8</v>
-      </c>
-      <c r="O827">
-        <v>3.6</v>
-      </c>
-      <c r="P827">
-        <v>4.5</v>
-      </c>
-      <c r="Q827">
-        <v>-0.75</v>
-      </c>
-      <c r="R827">
-        <v>1.925</v>
-      </c>
       <c r="S827">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T827">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U827">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V827">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W827">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X827">
         <v>-1</v>
       </c>
       <c r="Y827">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z827">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA827">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB827">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC827">
         <v>-1</v>
@@ -74148,7 +74148,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74160,76 +74160,76 @@
         <v>45269.75</v>
       </c>
       <c r="F828" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G828" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I828">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J828" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K828">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L828">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M828">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N828">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O828">
         <v>3.6</v>
       </c>
       <c r="P828">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q828">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R828">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S828">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T828">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U828">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V828">
         <v>1.825</v>
       </c>
       <c r="W828">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X828">
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z828">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA828">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB828">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC828">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829" spans="1:29">

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,73 +2764,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,73 +2853,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45">
+        <v>3.2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>2.2</v>
+      </c>
+      <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45">
-        <v>1.95</v>
-      </c>
-      <c r="L45">
-        <v>3.5</v>
-      </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
         <v>1.75</v>
       </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>4.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.75</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4737,43 +4737,43 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4782,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,13 +4811,13 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4826,43 +4826,43 @@
         <v>47</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,16 +4871,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,70 +7748,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N82">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,70 +7837,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83">
+        <v>1.75</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>4.2</v>
+      </c>
+      <c r="N83">
+        <v>1.444</v>
+      </c>
+      <c r="O83">
+        <v>4.75</v>
+      </c>
+      <c r="P83">
+        <v>7</v>
+      </c>
+      <c r="Q83">
+        <v>-1.25</v>
+      </c>
+      <c r="R83">
         <v>1.95</v>
       </c>
-      <c r="L83">
-        <v>3.4</v>
-      </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>3.75</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>2.025</v>
-      </c>
       <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8816,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>47</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8905,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,19 +19318,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19342,52 +19342,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.45</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.775</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.95</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,19 +19407,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19431,52 +19431,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K223">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N223">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O223">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q223">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z223">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20386,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N224">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20463,7 +20463,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20475,73 +20475,73 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P225">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K228">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L228">
         <v>3.4</v>
       </c>
       <c r="M228">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N228">
+        <v>2.875</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>2.5</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
         <v>2.05</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>3.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>2</v>
       </c>
       <c r="S228">
         <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>1.5</v>
+      </c>
+      <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
+        <v>0.8</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
         <v>1.05</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>-1</v>
-      </c>
-      <c r="Z228">
-        <v>1</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
-      </c>
-      <c r="AB228">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC228">
-        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20831,76 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S229">
         <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,67 +20920,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M230">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P230">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z230">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20989,7 +20989,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,67 +21009,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
       <c r="J231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L231">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N231">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21078,7 +21078,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,13 +21098,13 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21113,28 +21113,28 @@
         <v>47</v>
       </c>
       <c r="K232">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N232">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P232">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
         <v>1.825</v>
@@ -21143,13 +21143,13 @@
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W232">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21158,7 +21158,7 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21167,7 +21167,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N233">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O233">
         <v>3.6</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
         <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>2</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O234">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
         <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6078269</v>
+        <v>6077768</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L235">
+        <v>3.5</v>
+      </c>
+      <c r="M235">
         <v>3.4</v>
       </c>
-      <c r="M235">
-        <v>4.333</v>
-      </c>
       <c r="N235">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
         <v>3.6</v>
       </c>
       <c r="P235">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
         <v>1.825</v>
       </c>
       <c r="W235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z235">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB235">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N237">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U237">
         <v>1.85</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z237">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44983.75</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.875</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,76 +4277,76 @@
         <v>44983.75</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N43">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46">
+        <v>3.2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>2.2</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>3.25</v>
+      </c>
+      <c r="P46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46">
-        <v>1.95</v>
-      </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
         <v>1.75</v>
       </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>4.5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.75</v>
-      </c>
-      <c r="R46">
-        <v>1.95</v>
-      </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,70 +6324,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,70 +6413,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
+        <v>2.375</v>
+      </c>
+      <c r="N67">
+        <v>3.3</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
         <v>2.15</v>
-      </c>
-      <c r="N67">
-        <v>3.4</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,70 +7748,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82">
+        <v>1.75</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>4.2</v>
+      </c>
+      <c r="N82">
+        <v>1.444</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>-1.25</v>
+      </c>
+      <c r="R82">
         <v>1.95</v>
       </c>
-      <c r="L82">
-        <v>3.4</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>3.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>2.025</v>
-      </c>
       <c r="S82">
+        <v>1.85</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
         <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
       </c>
       <c r="V82">
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,70 +7837,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,46 +19763,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>46</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19817,16 +19817,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19840,7 +19840,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19852,46 +19852,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>46</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
+        <v>2.1</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
         <v>1.8</v>
       </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>4.333</v>
-      </c>
-      <c r="Q218">
-        <v>-0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19906,16 +19906,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,37 +20030,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
+        <v>2.6</v>
+      </c>
+      <c r="N220">
+        <v>2.8</v>
+      </c>
+      <c r="O220">
         <v>3.2</v>
       </c>
-      <c r="N220">
-        <v>2.625</v>
-      </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
       <c r="P220">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20072,34 +20072,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y220">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,37 +20119,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K221">
+        <v>2.15</v>
+      </c>
+      <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>3.2</v>
+      </c>
+      <c r="N221">
+        <v>2.625</v>
+      </c>
+      <c r="O221">
+        <v>3.5</v>
+      </c>
+      <c r="P221">
         <v>2.6</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.6</v>
-      </c>
-      <c r="N221">
-        <v>2.8</v>
-      </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20161,34 +20161,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L223">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M223">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,73 +20386,73 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L224">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N224">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P224">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20463,7 +20463,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20475,76 +20475,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K225">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N225">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O225">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,67 +20920,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
+        <v>4.333</v>
+      </c>
+      <c r="M230">
+        <v>6</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
         <v>4.75</v>
       </c>
-      <c r="M230">
-        <v>1.4</v>
-      </c>
-      <c r="N230">
-        <v>12</v>
-      </c>
-      <c r="O230">
-        <v>8.5</v>
-      </c>
       <c r="P230">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
+        <v>1.825</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
         <v>1.8</v>
       </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.875</v>
-      </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20989,7 +20989,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,67 +21009,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K231">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M231">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P231">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W231">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21078,7 +21078,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,13 +21098,13 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21113,28 +21113,28 @@
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O232">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
         <v>1.825</v>
@@ -21143,13 +21143,13 @@
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21158,16 +21158,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA232">
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>1.025</v>
-      </c>
-      <c r="AA232">
-        <v>-1</v>
-      </c>
-      <c r="AB232">
-        <v>-1</v>
-      </c>
-      <c r="AC232">
-        <v>1.05</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078269</v>
+        <v>6077499</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,58 +21187,58 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L233">
         <v>3.4</v>
       </c>
       <c r="M233">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N233">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21247,16 +21247,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6077499</v>
+        <v>6078269</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,58 +21276,58 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>47</v>
       </c>
       <c r="K234">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L234">
         <v>3.4</v>
       </c>
       <c r="M234">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P234">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21336,16 +21336,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,40 +21365,40 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>45</v>
       </c>
       <c r="K235">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
+        <v>2.3</v>
+      </c>
+      <c r="N235">
+        <v>2.9</v>
+      </c>
+      <c r="O235">
         <v>3.4</v>
       </c>
-      <c r="N235">
-        <v>2.05</v>
-      </c>
-      <c r="O235">
-        <v>3.6</v>
-      </c>
       <c r="P235">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
         <v>1.8</v>
@@ -21410,10 +21410,10 @@
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21422,7 +21422,7 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z235">
         <v>-1</v>
@@ -21431,10 +21431,10 @@
         <v>1</v>
       </c>
       <c r="AB235">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21454,40 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
         <v>45</v>
       </c>
       <c r="K236">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N236">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
         <v>3.4</v>
       </c>
-      <c r="P236">
-        <v>2.375</v>
-      </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
         <v>1.8</v>
@@ -21499,10 +21499,10 @@
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21511,7 +21511,7 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z236">
         <v>-1</v>
@@ -21520,10 +21520,10 @@
         <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="237" spans="1:29">

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,73 +2764,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N26">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,73 +2853,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45">
+        <v>3.2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>2.2</v>
+      </c>
+      <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45">
-        <v>1.95</v>
-      </c>
-      <c r="L45">
-        <v>3.5</v>
-      </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
         <v>1.75</v>
       </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>4.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.75</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,70 +6324,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
         <v>2.15</v>
-      </c>
-      <c r="N66">
-        <v>3.4</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,70 +6413,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8816,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>47</v>
       </c>
       <c r="K94">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8905,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,58 +9083,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>47</v>
       </c>
       <c r="K97">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
+        <v>3.75</v>
+      </c>
+      <c r="N97">
+        <v>1.909</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.2</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
         <v>2.5</v>
       </c>
-      <c r="N97">
-        <v>2.45</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>2.05</v>
-      </c>
-      <c r="S97">
-        <v>1.75</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,58 +9172,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,19 +19318,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19342,52 +19342,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,19 +19407,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19431,52 +19431,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.45</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>2.025</v>
-      </c>
-      <c r="S213">
-        <v>1.775</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.5</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.95</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,37 +20030,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>3.2</v>
+      </c>
+      <c r="N220">
+        <v>2.625</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
         <v>2.6</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>2.6</v>
-      </c>
-      <c r="N220">
-        <v>2.8</v>
-      </c>
-      <c r="O220">
-        <v>3.2</v>
-      </c>
-      <c r="P220">
-        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20072,34 +20072,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,37 +20119,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
+        <v>2.6</v>
+      </c>
+      <c r="N221">
+        <v>2.8</v>
+      </c>
+      <c r="O221">
         <v>3.2</v>
       </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20161,34 +20161,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y221">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L228">
         <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S228">
         <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20831,76 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K229">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N229">
+        <v>2.875</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>2.5</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
         <v>2.05</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>3.5</v>
-      </c>
-      <c r="Q229">
-        <v>-0.5</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
       </c>
       <c r="S229">
         <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>1.5</v>
+      </c>
+      <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
+        <v>0.8</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>1.05</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>1</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
-      </c>
-      <c r="AB229">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,13 +20920,13 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -20935,28 +20935,28 @@
         <v>47</v>
       </c>
       <c r="K230">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
         <v>1.825</v>
@@ -20965,13 +20965,13 @@
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20980,16 +20980,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
         <v>1.025</v>
-      </c>
-      <c r="AA230">
-        <v>-1</v>
-      </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
-      <c r="AC230">
-        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,67 +21009,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
       <c r="J231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
+        <v>4.333</v>
+      </c>
+      <c r="M231">
+        <v>6</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
         <v>4.75</v>
       </c>
-      <c r="M231">
-        <v>1.4</v>
-      </c>
-      <c r="N231">
-        <v>12</v>
-      </c>
-      <c r="O231">
-        <v>8.5</v>
-      </c>
       <c r="P231">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q231">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
         <v>1.8</v>
       </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.875</v>
-      </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21078,7 +21078,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,67 +21098,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N232">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P232">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z232">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21167,7 +21167,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
         <v>3.4</v>
       </c>
       <c r="N233">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O233">
+        <v>3.6</v>
+      </c>
+      <c r="P233">
         <v>3.4</v>
       </c>
-      <c r="P233">
-        <v>2.4</v>
-      </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T233">
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC233">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6078269</v>
+        <v>6077499</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,58 +21276,58 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>47</v>
       </c>
       <c r="K234">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L234">
         <v>3.4</v>
       </c>
       <c r="M234">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21336,16 +21336,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6078268</v>
+        <v>6078998</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,55 +21365,55 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
         <v>45</v>
       </c>
       <c r="K235">
+        <v>1.909</v>
+      </c>
+      <c r="L235">
+        <v>3.6</v>
+      </c>
+      <c r="M235">
+        <v>3.8</v>
+      </c>
+      <c r="N235">
+        <v>2.15</v>
+      </c>
+      <c r="O235">
+        <v>3.75</v>
+      </c>
+      <c r="P235">
         <v>3.1</v>
       </c>
-      <c r="L235">
-        <v>3.3</v>
-      </c>
-      <c r="M235">
-        <v>2.3</v>
-      </c>
-      <c r="N235">
-        <v>2.9</v>
-      </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>2.375</v>
-      </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21422,19 +21422,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.375</v>
+        <v>2.1</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21454,40 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>45</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
+        <v>2.3</v>
+      </c>
+      <c r="N236">
+        <v>2.9</v>
+      </c>
+      <c r="O236">
         <v>3.4</v>
       </c>
-      <c r="N236">
-        <v>2.05</v>
-      </c>
-      <c r="O236">
-        <v>3.6</v>
-      </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
         <v>1.8</v>
@@ -21499,10 +21499,10 @@
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21511,7 +21511,7 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z236">
         <v>-1</v>
@@ -21520,10 +21520,10 @@
         <v>1</v>
       </c>
       <c r="AB236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,73 +21543,73 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>4.333</v>
+      </c>
+      <c r="N237">
+        <v>1.8</v>
+      </c>
+      <c r="O237">
         <v>3.6</v>
       </c>
-      <c r="M237">
-        <v>3.8</v>
-      </c>
-      <c r="N237">
-        <v>2.15</v>
-      </c>
-      <c r="O237">
-        <v>3.75</v>
-      </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC237">
         <v>-1</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Colo Colo</t>
+  </si>
+  <si>
+    <t>Cobreloa</t>
   </si>
   <si>
     <t>A</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC237"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>2.8</v>
@@ -729,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>2.875</v>
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1.909</v>
@@ -996,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1085,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.7</v>
@@ -1263,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>2.15</v>
@@ -1352,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.533</v>
@@ -1441,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1530,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1619,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1708,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>1.7</v>
@@ -1797,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>2.55</v>
@@ -1886,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>3.6</v>
@@ -1975,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2064,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2153,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>1.8</v>
@@ -2242,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2331,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2.7</v>
@@ -2420,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2509,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>1.65</v>
@@ -2598,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>2.05</v>
@@ -2687,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>2.3</v>
@@ -2776,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -2865,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.7</v>
@@ -2954,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3043,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3132,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3221,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3310,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.5</v>
@@ -3399,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3488,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3577,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>1.95</v>
@@ -3666,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>2.625</v>
@@ -3755,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.05</v>
@@ -3844,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3933,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.909</v>
@@ -4022,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4111,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.85</v>
@@ -4176,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4191,76 @@
         <v>44983.75</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,13 +4280,13 @@
         <v>44983.75</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4292,61 +4295,61 @@
         <v>47</v>
       </c>
       <c r="K43">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.875</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.4</v>
@@ -4467,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>3.2</v>
@@ -4556,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.95</v>
@@ -4645,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4710,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,58 +4725,58 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4785,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,58 +4814,58 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,16 +4874,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4912,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>2.4</v>
@@ -5001,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5090,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5179,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>2.15</v>
@@ -5268,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5357,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5446,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>2.3</v>
@@ -5535,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>1.615</v>
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>1.7</v>
@@ -5713,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.375</v>
@@ -5802,7 +5805,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>1.75</v>
@@ -5891,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5980,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.875</v>
@@ -6069,7 +6072,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6247,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>1.533</v>
@@ -6336,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>2.625</v>
@@ -6425,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6514,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2.05</v>
@@ -6603,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6692,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>1.85</v>
@@ -6781,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6870,7 +6873,7 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6959,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7048,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.625</v>
@@ -7137,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7226,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.5</v>
@@ -7315,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7404,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7493,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7582,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -7760,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>1.75</v>
@@ -7849,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>1.95</v>
@@ -7938,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8027,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>2.4</v>
@@ -8116,7 +8119,7 @@
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8205,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>3.3</v>
@@ -8294,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>1.833</v>
@@ -8383,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8472,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.45</v>
@@ -8561,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>2.2</v>
@@ -8650,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>2.3</v>
@@ -8739,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.85</v>
@@ -8804,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8819,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8879,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8908,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2.2</v>
+      </c>
+      <c r="L95">
+        <v>3.25</v>
+      </c>
+      <c r="M95">
+        <v>3.1</v>
+      </c>
+      <c r="N95">
+        <v>2.55</v>
+      </c>
+      <c r="O95">
+        <v>3.2</v>
+      </c>
+      <c r="P95">
+        <v>2.875</v>
+      </c>
+      <c r="Q95">
         <v>0</v>
       </c>
-      <c r="J95" t="s">
-        <v>47</v>
-      </c>
-      <c r="K95">
-        <v>1.85</v>
-      </c>
-      <c r="L95">
-        <v>3.5</v>
-      </c>
-      <c r="M95">
-        <v>3.6</v>
-      </c>
-      <c r="N95">
-        <v>1.95</v>
-      </c>
-      <c r="O95">
-        <v>3.5</v>
-      </c>
-      <c r="P95">
-        <v>4</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8968,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>1.65</v>
@@ -9095,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>1.85</v>
@@ -9184,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>2.55</v>
@@ -9273,7 +9276,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9362,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>1.85</v>
@@ -9451,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>2.375</v>
@@ -9540,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.9</v>
@@ -9629,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.1</v>
@@ -9718,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.3</v>
@@ -9807,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.75</v>
@@ -9896,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.75</v>
@@ -9985,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.1</v>
@@ -10074,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>2.5</v>
@@ -10163,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.5</v>
@@ -10252,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>2.05</v>
@@ -10341,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10430,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10519,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.5</v>
@@ -10608,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>1.7</v>
@@ -10697,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10786,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10875,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>1.75</v>
@@ -10964,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>2.1</v>
@@ -11053,7 +11056,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>2.2</v>
@@ -11142,7 +11145,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>2.45</v>
@@ -11231,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>2.05</v>
@@ -11320,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.3</v>
@@ -11409,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11498,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>1.85</v>
@@ -11587,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>1.95</v>
@@ -11676,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.666</v>
@@ -11765,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.45</v>
@@ -11854,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>2.375</v>
@@ -11943,7 +11946,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>1.833</v>
@@ -12032,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>2.875</v>
@@ -12121,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2.05</v>
@@ -12210,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2.5</v>
@@ -12299,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>1.85</v>
@@ -12388,7 +12391,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>2.7</v>
@@ -12477,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12566,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12655,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
         <v>1.833</v>
@@ -12744,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12833,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>1.909</v>
@@ -12922,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
         <v>3.25</v>
@@ -13011,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13100,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13189,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.666</v>
@@ -13278,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13367,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2.625</v>
@@ -13456,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>1.666</v>
@@ -13545,7 +13548,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.4</v>
@@ -13634,7 +13637,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13723,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>2.3</v>
@@ -13812,7 +13815,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13901,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
         <v>1.909</v>
@@ -13990,7 +13993,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14079,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14168,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14257,7 +14260,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14346,7 +14349,7 @@
         <v>5</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -14435,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>1.65</v>
@@ -14524,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
         <v>3.4</v>
@@ -14613,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -14702,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>2.05</v>
@@ -14791,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2.1</v>
@@ -14880,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14969,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>1.7</v>
@@ -15058,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K164">
         <v>2.4</v>
@@ -15147,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15236,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15325,7 +15328,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15414,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15503,7 +15506,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15592,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>2.1</v>
@@ -15681,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>1.75</v>
@@ -15770,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>3.25</v>
@@ -15859,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>1.615</v>
@@ -15948,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16037,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>1.615</v>
@@ -16126,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16215,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16304,7 +16307,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K178">
         <v>2.6</v>
@@ -16369,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,40 +16384,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16423,34 +16426,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,40 +16473,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P180">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16512,34 +16515,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -16660,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16749,7 +16752,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K183">
         <v>2.5</v>
@@ -16838,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>1.727</v>
@@ -16927,7 +16930,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>2.1</v>
@@ -17016,7 +17019,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17105,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>1.8</v>
@@ -17194,7 +17197,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17283,7 +17286,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>1.909</v>
@@ -17372,7 +17375,7 @@
         <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K190">
         <v>2.6</v>
@@ -17461,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>1.615</v>
@@ -17550,7 +17553,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>1.833</v>
@@ -17639,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17728,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>1.615</v>
@@ -17817,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17906,7 +17909,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -17995,7 +17998,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K197">
         <v>2.375</v>
@@ -18084,7 +18087,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18173,7 +18176,7 @@
         <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
         <v>2.5</v>
@@ -18262,7 +18265,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18351,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18440,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K202">
         <v>2.75</v>
@@ -18529,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>2.375</v>
@@ -18618,7 +18621,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K204">
         <v>2.2</v>
@@ -18707,7 +18710,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K205">
         <v>3.75</v>
@@ -18796,7 +18799,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18885,7 +18888,7 @@
         <v>4</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K207">
         <v>1.5</v>
@@ -18974,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>3</v>
@@ -19063,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>3.2</v>
@@ -19152,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.333</v>
@@ -19241,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>1.533</v>
@@ -19306,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,19 +19321,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19342,52 +19345,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.45</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.775</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.95</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,16 +19410,16 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>47</v>
@@ -19431,52 +19434,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19511,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K214">
         <v>2.35</v>
@@ -19597,7 +19600,7 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K215">
         <v>2.2</v>
@@ -19686,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19751,7 +19754,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,46 +19766,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
+        <v>2.1</v>
+      </c>
+      <c r="O217">
+        <v>3.5</v>
+      </c>
+      <c r="P217">
+        <v>3.5</v>
+      </c>
+      <c r="Q217">
+        <v>-0.25</v>
+      </c>
+      <c r="R217">
         <v>1.8</v>
       </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>4.333</v>
-      </c>
-      <c r="Q217">
-        <v>-0.75</v>
-      </c>
-      <c r="R217">
-        <v>1.975</v>
-      </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19817,16 +19820,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19840,7 +19843,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19852,46 +19855,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19906,16 +19909,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -19953,7 +19956,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K219">
         <v>3.5</v>
@@ -20042,7 +20045,7 @@
         <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K220">
         <v>2.15</v>
@@ -20131,7 +20134,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K221">
         <v>2.6</v>
@@ -20220,7 +20223,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K222">
         <v>2.15</v>
@@ -20309,7 +20312,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K223">
         <v>1.65</v>
@@ -20374,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20389,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K224">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O224">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20463,7 +20466,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20475,76 +20478,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H225">
+        <v>4</v>
+      </c>
+      <c r="I225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>2</v>
-      </c>
       <c r="J225" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R225">
+        <v>2.025</v>
+      </c>
+      <c r="S225">
+        <v>1.825</v>
+      </c>
+      <c r="T225">
+        <v>3</v>
+      </c>
+      <c r="U225">
+        <v>1.9</v>
+      </c>
+      <c r="V225">
         <v>1.95</v>
       </c>
-      <c r="S225">
-        <v>1.85</v>
-      </c>
-      <c r="T225">
-        <v>2.5</v>
-      </c>
-      <c r="U225">
-        <v>1.8</v>
-      </c>
-      <c r="V225">
-        <v>2</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20576,7 +20579,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K226">
         <v>1.8</v>
@@ -20641,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,55 +20656,55 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N227">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q227">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20710,19 +20713,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078263</v>
+        <v>6078996</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20745,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>46</v>
+      </c>
+      <c r="K228">
+        <v>1.4</v>
+      </c>
+      <c r="L228">
+        <v>4.333</v>
+      </c>
+      <c r="M228">
+        <v>7</v>
+      </c>
+      <c r="N228">
+        <v>1.285</v>
+      </c>
+      <c r="O228">
+        <v>5.5</v>
+      </c>
+      <c r="P228">
+        <v>11</v>
+      </c>
+      <c r="Q228">
+        <v>-1.5</v>
+      </c>
+      <c r="R228">
+        <v>1.9</v>
+      </c>
+      <c r="S228">
+        <v>1.95</v>
+      </c>
+      <c r="T228">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>47</v>
-      </c>
-      <c r="K228">
-        <v>2.05</v>
-      </c>
-      <c r="L228">
-        <v>3.4</v>
-      </c>
-      <c r="M228">
-        <v>3.5</v>
-      </c>
-      <c r="N228">
-        <v>2.05</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>3.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>2</v>
-      </c>
-      <c r="S228">
-        <v>1.8</v>
-      </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20819,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20834,76 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S229">
         <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,67 +20923,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M230">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20989,7 +20992,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,43 +21012,43 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N231">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
         <v>1.825</v>
@@ -21054,13 +21057,13 @@
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21069,16 +21072,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>1.025</v>
-      </c>
-      <c r="AA231">
-        <v>-1</v>
-      </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
-      <c r="AC231">
-        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,67 +21101,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
       <c r="J232" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K232">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
+        <v>4.333</v>
+      </c>
+      <c r="M232">
+        <v>6</v>
+      </c>
+      <c r="N232">
+        <v>1.444</v>
+      </c>
+      <c r="O232">
         <v>4.75</v>
       </c>
-      <c r="M232">
-        <v>1.4</v>
-      </c>
-      <c r="N232">
-        <v>12</v>
-      </c>
-      <c r="O232">
-        <v>8.5</v>
-      </c>
       <c r="P232">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
+        <v>1.825</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
         <v>1.8</v>
       </c>
-      <c r="T232">
-        <v>3.25</v>
-      </c>
-      <c r="U232">
-        <v>1.875</v>
-      </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21167,7 +21170,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,55 +21190,55 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M233">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N233">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
         <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21244,19 +21247,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21288,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>2.1</v>
@@ -21353,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6078998</v>
+        <v>6077768</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,55 +21368,55 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L235">
+        <v>3.5</v>
+      </c>
+      <c r="M235">
+        <v>3.4</v>
+      </c>
+      <c r="N235">
+        <v>2.05</v>
+      </c>
+      <c r="O235">
         <v>3.6</v>
       </c>
-      <c r="M235">
-        <v>3.8</v>
-      </c>
-      <c r="N235">
-        <v>2.15</v>
-      </c>
-      <c r="O235">
-        <v>3.75</v>
-      </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q235">
         <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21422,19 +21425,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB235">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21466,7 +21469,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
         <v>3.1</v>
@@ -21555,7 +21558,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
         <v>1.85</v>
@@ -21613,6 +21616,524 @@
       </c>
       <c r="AC237">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7723517</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45338.79166666666</v>
+      </c>
+      <c r="F238" t="s">
+        <v>33</v>
+      </c>
+      <c r="G238" t="s">
+        <v>31</v>
+      </c>
+      <c r="K238">
+        <v>2.3</v>
+      </c>
+      <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>3.1</v>
+      </c>
+      <c r="N238">
+        <v>2.4</v>
+      </c>
+      <c r="O238">
+        <v>3.3</v>
+      </c>
+      <c r="P238">
+        <v>2.9</v>
+      </c>
+      <c r="Q238">
+        <v>-0.25</v>
+      </c>
+      <c r="R238">
+        <v>2.1</v>
+      </c>
+      <c r="S238">
+        <v>1.775</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
+        <v>1.975</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7723516</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45338.89583333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G239" t="s">
+        <v>39</v>
+      </c>
+      <c r="K239">
+        <v>2.4</v>
+      </c>
+      <c r="L239">
+        <v>3.25</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>2.25</v>
+      </c>
+      <c r="O239">
+        <v>3.3</v>
+      </c>
+      <c r="P239">
+        <v>3.25</v>
+      </c>
+      <c r="Q239">
+        <v>-0.25</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.85</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>2.025</v>
+      </c>
+      <c r="V239">
+        <v>1.825</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7723350</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45339.75</v>
+      </c>
+      <c r="F240" t="s">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>44</v>
+      </c>
+      <c r="K240">
+        <v>3.75</v>
+      </c>
+      <c r="L240">
+        <v>3.6</v>
+      </c>
+      <c r="M240">
+        <v>1.909</v>
+      </c>
+      <c r="N240">
+        <v>3.8</v>
+      </c>
+      <c r="O240">
+        <v>3.6</v>
+      </c>
+      <c r="P240">
+        <v>1.909</v>
+      </c>
+      <c r="Q240">
+        <v>0.5</v>
+      </c>
+      <c r="R240">
+        <v>1.925</v>
+      </c>
+      <c r="S240">
+        <v>1.925</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.925</v>
+      </c>
+      <c r="V240">
+        <v>1.925</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7723518</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45339.85416666666</v>
+      </c>
+      <c r="F241" t="s">
+        <v>34</v>
+      </c>
+      <c r="G241" t="s">
+        <v>42</v>
+      </c>
+      <c r="K241">
+        <v>2.5</v>
+      </c>
+      <c r="L241">
+        <v>3.2</v>
+      </c>
+      <c r="M241">
+        <v>2.875</v>
+      </c>
+      <c r="N241">
+        <v>2.5</v>
+      </c>
+      <c r="O241">
+        <v>3.2</v>
+      </c>
+      <c r="P241">
+        <v>2.9</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>1.775</v>
+      </c>
+      <c r="S241">
+        <v>2.1</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>1.8</v>
+      </c>
+      <c r="V241">
+        <v>2.05</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7723513</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45339.85416666666</v>
+      </c>
+      <c r="F242" t="s">
+        <v>38</v>
+      </c>
+      <c r="G242" t="s">
+        <v>40</v>
+      </c>
+      <c r="K242">
+        <v>2.75</v>
+      </c>
+      <c r="L242">
+        <v>3.25</v>
+      </c>
+      <c r="M242">
+        <v>2.6</v>
+      </c>
+      <c r="N242">
+        <v>2.5</v>
+      </c>
+      <c r="O242">
+        <v>3.25</v>
+      </c>
+      <c r="P242">
+        <v>2.9</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>1.775</v>
+      </c>
+      <c r="S242">
+        <v>2.1</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.95</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7723515</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45340.75</v>
+      </c>
+      <c r="F243" t="s">
+        <v>36</v>
+      </c>
+      <c r="G243" t="s">
+        <v>32</v>
+      </c>
+      <c r="K243">
+        <v>2.05</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3.6</v>
+      </c>
+      <c r="N243">
+        <v>1.909</v>
+      </c>
+      <c r="O243">
+        <v>3.6</v>
+      </c>
+      <c r="P243">
+        <v>3.8</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.875</v>
+      </c>
+      <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.875</v>
+      </c>
+      <c r="V243">
+        <v>1.975</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7723519</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45340.85416666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>45</v>
+      </c>
+      <c r="G244" t="s">
+        <v>41</v>
+      </c>
+      <c r="K244">
+        <v>2.2</v>
+      </c>
+      <c r="L244">
+        <v>3.25</v>
+      </c>
+      <c r="M244">
+        <v>3.4</v>
+      </c>
+      <c r="N244">
+        <v>2.6</v>
+      </c>
+      <c r="O244">
+        <v>3.2</v>
+      </c>
+      <c r="P244">
+        <v>2.8</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>1.85</v>
+      </c>
+      <c r="S244">
+        <v>2</v>
+      </c>
+      <c r="T244">
+        <v>2.5</v>
+      </c>
+      <c r="U244">
+        <v>1.975</v>
+      </c>
+      <c r="V244">
+        <v>1.875</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
+        <v>3.4</v>
+      </c>
+      <c r="N62">
+        <v>2.15</v>
+      </c>
+      <c r="O62">
+        <v>3.25</v>
+      </c>
+      <c r="P62">
+        <v>3.6</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
         <v>2.25</v>
       </c>
-      <c r="N62">
-        <v>3.3</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>2.25</v>
-      </c>
-      <c r="Q62">
-        <v>0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N63">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.8</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,70 +7751,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N82">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,70 +7840,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K83">
+        <v>1.75</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>4.2</v>
+      </c>
+      <c r="N83">
+        <v>1.444</v>
+      </c>
+      <c r="O83">
+        <v>4.75</v>
+      </c>
+      <c r="P83">
+        <v>7</v>
+      </c>
+      <c r="Q83">
+        <v>-1.25</v>
+      </c>
+      <c r="R83">
         <v>1.95</v>
       </c>
-      <c r="L83">
-        <v>3.4</v>
-      </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>3.75</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>2.025</v>
-      </c>
       <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,58 +8819,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8879,16 +8879,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8896,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8908,58 +8908,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8968,16 +8968,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9074,7 +9074,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9086,58 +9086,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>48</v>
       </c>
       <c r="K97">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9146,16 +9146,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,58 +9175,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>48</v>
       </c>
       <c r="K98">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
+        <v>3.75</v>
+      </c>
+      <c r="N98">
+        <v>1.909</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>4.2</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.5</v>
       </c>
-      <c r="N98">
-        <v>2.45</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2.05</v>
-      </c>
-      <c r="S98">
-        <v>1.75</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9235,16 +9235,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,19 +19321,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19345,52 +19345,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,19 +19410,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19434,52 +19434,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.45</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>2.025</v>
-      </c>
-      <c r="S213">
-        <v>1.775</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.5</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.95</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19754,7 +19754,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19766,46 +19766,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19820,16 +19820,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19843,7 +19843,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19855,46 +19855,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>47</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
+        <v>2.1</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
         <v>1.8</v>
       </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>4.333</v>
-      </c>
-      <c r="Q218">
-        <v>-0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19909,16 +19909,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L227">
         <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N227">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S227">
         <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20822,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,76 +20834,76 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K229">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N229">
+        <v>2.875</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>2.5</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
         <v>2.05</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>3.5</v>
-      </c>
-      <c r="Q229">
-        <v>-0.5</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
       </c>
       <c r="S229">
         <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>1.5</v>
+      </c>
+      <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
+        <v>0.8</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>1.05</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>1</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
-      </c>
-      <c r="AB229">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,67 +20923,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
       <c r="J230" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N230">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20992,7 +20992,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,13 +21012,13 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21027,28 +21027,28 @@
         <v>48</v>
       </c>
       <c r="K231">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P231">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
         <v>1.825</v>
@@ -21057,13 +21057,13 @@
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21072,7 +21072,7 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21081,7 +21081,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,67 +21101,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O232">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P232">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R232">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z232">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21170,7 +21170,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,73 +21190,73 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>4.333</v>
+      </c>
+      <c r="N233">
+        <v>1.8</v>
+      </c>
+      <c r="O233">
         <v>3.6</v>
       </c>
-      <c r="M233">
-        <v>3.8</v>
-      </c>
-      <c r="N233">
-        <v>2.15</v>
-      </c>
-      <c r="O233">
-        <v>3.75</v>
-      </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21267,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,76 +21279,76 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K234">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
         <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
         <v>3.4</v>
       </c>
-      <c r="P234">
-        <v>2.4</v>
-      </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z234">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,40 +21368,40 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>46</v>
       </c>
       <c r="K235">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
+        <v>2.3</v>
+      </c>
+      <c r="N235">
+        <v>2.9</v>
+      </c>
+      <c r="O235">
         <v>3.4</v>
       </c>
-      <c r="N235">
-        <v>2.05</v>
-      </c>
-      <c r="O235">
-        <v>3.6</v>
-      </c>
       <c r="P235">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
         <v>1.8</v>
@@ -21413,10 +21413,10 @@
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21425,7 +21425,7 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z235">
         <v>-1</v>
@@ -21434,10 +21434,10 @@
         <v>1</v>
       </c>
       <c r="AB235">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078268</v>
+        <v>6078998</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,55 +21457,55 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
         <v>46</v>
       </c>
       <c r="K236">
+        <v>1.909</v>
+      </c>
+      <c r="L236">
+        <v>3.6</v>
+      </c>
+      <c r="M236">
+        <v>3.8</v>
+      </c>
+      <c r="N236">
+        <v>2.15</v>
+      </c>
+      <c r="O236">
+        <v>3.75</v>
+      </c>
+      <c r="P236">
         <v>3.1</v>
       </c>
-      <c r="L236">
-        <v>3.3</v>
-      </c>
-      <c r="M236">
-        <v>2.3</v>
-      </c>
-      <c r="N236">
-        <v>2.9</v>
-      </c>
-      <c r="O236">
-        <v>3.4</v>
-      </c>
-      <c r="P236">
-        <v>2.375</v>
-      </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21514,19 +21514,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.375</v>
+        <v>2.1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078269</v>
+        <v>6077499</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,58 +21546,58 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>48</v>
       </c>
       <c r="K237">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L237">
         <v>3.4</v>
       </c>
       <c r="M237">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W237">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21606,16 +21606,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21650,10 +21650,10 @@
         <v>3.1</v>
       </c>
       <c r="N238">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O238">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P238">
         <v>2.9</v>
@@ -21724,7 +21724,7 @@
         <v>3</v>
       </c>
       <c r="N239">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O239">
         <v>3.3</v>
@@ -21736,19 +21736,19 @@
         <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21798,31 +21798,31 @@
         <v>1.909</v>
       </c>
       <c r="N240">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q240">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21845,7 +21845,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7723518</v>
+        <v>7723513</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21857,46 +21857,46 @@
         <v>45339.85416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K241">
+        <v>2.75</v>
+      </c>
+      <c r="L241">
+        <v>3.25</v>
+      </c>
+      <c r="M241">
+        <v>2.6</v>
+      </c>
+      <c r="N241">
+        <v>2.4</v>
+      </c>
+      <c r="O241">
+        <v>3.25</v>
+      </c>
+      <c r="P241">
+        <v>3.1</v>
+      </c>
+      <c r="Q241">
+        <v>-0.25</v>
+      </c>
+      <c r="R241">
+        <v>2.05</v>
+      </c>
+      <c r="S241">
+        <v>1.8</v>
+      </c>
+      <c r="T241">
         <v>2.5</v>
       </c>
-      <c r="L241">
-        <v>3.2</v>
-      </c>
-      <c r="M241">
-        <v>2.875</v>
-      </c>
-      <c r="N241">
-        <v>2.5</v>
-      </c>
-      <c r="O241">
-        <v>3.2</v>
-      </c>
-      <c r="P241">
-        <v>2.9</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241">
-        <v>1.775</v>
-      </c>
-      <c r="S241">
-        <v>2.1</v>
-      </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21919,7 +21919,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7723513</v>
+        <v>7723518</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21931,22 +21931,22 @@
         <v>45339.85416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G242" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L242">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="N242">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O242">
         <v>3.25</v>
@@ -21955,22 +21955,22 @@
         <v>2.9</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="S242">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22020,13 +22020,13 @@
         <v>3.6</v>
       </c>
       <c r="N243">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O243">
         <v>3.6</v>
       </c>
       <c r="P243">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q243">
         <v>-0.5</v>
@@ -22100,25 +22100,25 @@
         <v>3.2</v>
       </c>
       <c r="P244">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T244">
         <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
         <v>0</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC244"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,73 +2767,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,73 +2856,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,73 +4458,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,73 +4547,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46">
+        <v>3.2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>2.2</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>3.25</v>
+      </c>
+      <c r="P46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>48</v>
-      </c>
-      <c r="K46">
-        <v>1.95</v>
-      </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
         <v>1.75</v>
       </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>4.5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.75</v>
-      </c>
-      <c r="R46">
-        <v>1.95</v>
-      </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,13 +4725,13 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4740,43 +4740,43 @@
         <v>48</v>
       </c>
       <c r="K48">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4785,16 +4785,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,13 +4814,13 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4829,43 +4829,43 @@
         <v>48</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4874,16 +4874,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N62">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.8</v>
       </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
+        <v>3.4</v>
+      </c>
+      <c r="N63">
+        <v>2.15</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
+        <v>3.6</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
         <v>2.25</v>
       </c>
-      <c r="N63">
-        <v>3.3</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>2.25</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,70 +6327,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6404,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6416,70 +6416,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
+        <v>2.375</v>
+      </c>
+      <c r="N67">
+        <v>3.3</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
         <v>2.15</v>
-      </c>
-      <c r="N67">
-        <v>3.4</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,40 +16384,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>47</v>
       </c>
       <c r="K179">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N179">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16426,34 +16426,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16461,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16473,40 +16473,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>47</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O180">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16515,34 +16515,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,19 +19321,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19345,52 +19345,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.45</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.775</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.95</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,19 +19410,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19434,52 +19434,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078263</v>
+        <v>6078996</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>46</v>
+      </c>
+      <c r="K227">
+        <v>1.4</v>
+      </c>
+      <c r="L227">
+        <v>4.333</v>
+      </c>
+      <c r="M227">
+        <v>7</v>
+      </c>
+      <c r="N227">
+        <v>1.285</v>
+      </c>
+      <c r="O227">
+        <v>5.5</v>
+      </c>
+      <c r="P227">
+        <v>11</v>
+      </c>
+      <c r="Q227">
+        <v>-1.5</v>
+      </c>
+      <c r="R227">
+        <v>1.9</v>
+      </c>
+      <c r="S227">
+        <v>1.95</v>
+      </c>
+      <c r="T227">
         <v>3</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
-        <v>2.05</v>
-      </c>
-      <c r="L227">
-        <v>3.4</v>
-      </c>
-      <c r="M227">
-        <v>3.5</v>
-      </c>
-      <c r="N227">
-        <v>2.05</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>3.5</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>2</v>
-      </c>
-      <c r="S227">
-        <v>1.8</v>
-      </c>
-      <c r="T227">
-        <v>2.75</v>
-      </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078996</v>
+        <v>6078263</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,76 +20745,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K228">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L228">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.8</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
         <v>1.9</v>
       </c>
-      <c r="S228">
-        <v>1.95</v>
-      </c>
-      <c r="T228">
-        <v>3</v>
-      </c>
-      <c r="U228">
-        <v>2</v>
-      </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,67 +20923,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M230">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20992,7 +20992,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,67 +21101,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K232">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N232">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O232">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21170,7 +21170,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,73 +21190,73 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
         <v>3</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K233">
+        <v>1.909</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>3.8</v>
+      </c>
+      <c r="N233">
+        <v>2.15</v>
+      </c>
+      <c r="O233">
+        <v>3.75</v>
+      </c>
+      <c r="P233">
+        <v>3.1</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
         <v>1.85</v>
       </c>
-      <c r="L233">
-        <v>3.4</v>
-      </c>
-      <c r="M233">
-        <v>4.333</v>
-      </c>
-      <c r="N233">
-        <v>1.8</v>
-      </c>
-      <c r="O233">
-        <v>3.6</v>
-      </c>
-      <c r="P233">
-        <v>4.5</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
-        <v>1.925</v>
-      </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21267,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,40 +21279,40 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>46</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
+        <v>2.3</v>
+      </c>
+      <c r="N234">
+        <v>2.9</v>
+      </c>
+      <c r="O234">
         <v>3.4</v>
       </c>
-      <c r="N234">
-        <v>2.05</v>
-      </c>
-      <c r="O234">
-        <v>3.6</v>
-      </c>
       <c r="P234">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
         <v>1.8</v>
@@ -21324,10 +21324,10 @@
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21336,7 +21336,7 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z234">
         <v>-1</v>
@@ -21345,10 +21345,10 @@
         <v>1</v>
       </c>
       <c r="AB234">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,40 +21368,40 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
         <v>46</v>
       </c>
       <c r="K235">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N235">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
+        <v>3.6</v>
+      </c>
+      <c r="P235">
         <v>3.4</v>
       </c>
-      <c r="P235">
-        <v>2.375</v>
-      </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
         <v>1.8</v>
@@ -21413,10 +21413,10 @@
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21425,7 +21425,7 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z235">
         <v>-1</v>
@@ -21434,10 +21434,10 @@
         <v>1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,73 +21457,73 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K236">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
+        <v>4.333</v>
+      </c>
+      <c r="N236">
+        <v>1.8</v>
+      </c>
+      <c r="O236">
         <v>3.6</v>
       </c>
-      <c r="M236">
-        <v>3.8</v>
-      </c>
-      <c r="N236">
-        <v>2.15</v>
-      </c>
-      <c r="O236">
-        <v>3.75</v>
-      </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7723517</v>
+        <v>7723516</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,49 +21632,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45338.79166666666</v>
+        <v>45338.89583333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K238">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L238">
         <v>3.25</v>
       </c>
       <c r="M238">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O238">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P238">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q238">
         <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21697,7 +21697,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7723516</v>
+        <v>7723350</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21706,49 +21706,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45338.89583333334</v>
+        <v>45339.75</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K239">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S239">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21771,7 +21771,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7723350</v>
+        <v>7723518</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21780,49 +21780,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45339.75</v>
+        <v>45339.85416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K240">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N240">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P240">
+        <v>3</v>
+      </c>
+      <c r="Q240">
+        <v>-0.25</v>
+      </c>
+      <c r="R240">
+        <v>2.05</v>
+      </c>
+      <c r="S240">
         <v>1.8</v>
-      </c>
-      <c r="Q240">
-        <v>0.75</v>
-      </c>
-      <c r="R240">
-        <v>1.825</v>
-      </c>
-      <c r="S240">
-        <v>2.025</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21845,7 +21845,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7723513</v>
+        <v>7723515</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21854,49 +21854,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45339.85416666666</v>
+        <v>45340.75</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L241">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N241">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
+        <v>1.875</v>
+      </c>
+      <c r="V241">
         <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21919,7 +21919,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7723518</v>
+        <v>7723519</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21928,49 +21928,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45339.85416666666</v>
+        <v>45340.85416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K242">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L242">
+        <v>3.25</v>
+      </c>
+      <c r="M242">
+        <v>3.4</v>
+      </c>
+      <c r="N242">
+        <v>2.6</v>
+      </c>
+      <c r="O242">
         <v>3.2</v>
       </c>
-      <c r="M242">
+      <c r="P242">
         <v>2.875</v>
       </c>
-      <c r="N242">
-        <v>2.45</v>
-      </c>
-      <c r="O242">
-        <v>3.25</v>
-      </c>
-      <c r="P242">
-        <v>2.9</v>
-      </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -21985,154 +21985,6 @@
         <v>0</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>7723515</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45340.75</v>
-      </c>
-      <c r="F243" t="s">
-        <v>36</v>
-      </c>
-      <c r="G243" t="s">
-        <v>32</v>
-      </c>
-      <c r="K243">
-        <v>2.05</v>
-      </c>
-      <c r="L243">
-        <v>3.4</v>
-      </c>
-      <c r="M243">
-        <v>3.6</v>
-      </c>
-      <c r="N243">
-        <v>1.85</v>
-      </c>
-      <c r="O243">
-        <v>3.6</v>
-      </c>
-      <c r="P243">
-        <v>4.333</v>
-      </c>
-      <c r="Q243">
-        <v>-0.5</v>
-      </c>
-      <c r="R243">
-        <v>1.875</v>
-      </c>
-      <c r="S243">
-        <v>1.975</v>
-      </c>
-      <c r="T243">
-        <v>2.5</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>7723519</v>
-      </c>
-      <c r="C244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45340.85416666666</v>
-      </c>
-      <c r="F244" t="s">
-        <v>45</v>
-      </c>
-      <c r="G244" t="s">
-        <v>41</v>
-      </c>
-      <c r="K244">
-        <v>2.2</v>
-      </c>
-      <c r="L244">
-        <v>3.25</v>
-      </c>
-      <c r="M244">
-        <v>3.4</v>
-      </c>
-      <c r="N244">
-        <v>2.6</v>
-      </c>
-      <c r="O244">
-        <v>3.2</v>
-      </c>
-      <c r="P244">
-        <v>2.875</v>
-      </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244">
-        <v>1.875</v>
-      </c>
-      <c r="S244">
-        <v>1.975</v>
-      </c>
-      <c r="T244">
-        <v>2.5</v>
-      </c>
-      <c r="U244">
-        <v>2</v>
-      </c>
-      <c r="V244">
-        <v>1.85</v>
-      </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-      <c r="X244">
-        <v>0</v>
-      </c>
-      <c r="Y244">
-        <v>0</v>
-      </c>
-      <c r="Z244">
-        <v>0</v>
-      </c>
-      <c r="AA244">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Cobreloa</t>
+  </si>
+  <si>
+    <t>Deportes Iquique</t>
   </si>
   <si>
     <t>A</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>2.8</v>
@@ -732,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>2.875</v>
@@ -821,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -910,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>1.909</v>
@@ -999,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1088,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.7</v>
@@ -1266,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>2.15</v>
@@ -1355,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>1.533</v>
@@ -1444,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1533,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.7</v>
@@ -1800,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2.55</v>
@@ -1889,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>3.6</v>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2067,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2156,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>1.8</v>
@@ -2245,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2334,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>2.7</v>
@@ -2423,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>1.65</v>
@@ -2601,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>2.05</v>
@@ -2690,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.3</v>
@@ -2779,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>2.7</v>
@@ -2868,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.625</v>
@@ -2957,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3046,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3135,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3224,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3313,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1.5</v>
@@ -3402,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3491,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3580,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>1.95</v>
@@ -3669,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>2.625</v>
@@ -3758,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.05</v>
@@ -3847,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3936,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>1.909</v>
@@ -4025,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4114,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>1.85</v>
@@ -4203,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>2.8</v>
@@ -4292,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>2.55</v>
@@ -4381,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.4</v>
@@ -4470,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>1.95</v>
@@ -4559,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>3.2</v>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4713,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,58 +4728,58 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4785,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,58 +4817,58 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4874,16 +4877,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4915,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.4</v>
@@ -5004,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5093,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5182,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>2.15</v>
@@ -5271,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5360,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5449,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>2.3</v>
@@ -5538,7 +5541,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.615</v>
@@ -5627,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>1.7</v>
@@ -5716,7 +5719,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.375</v>
@@ -5805,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>1.75</v>
@@ -5894,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5983,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2.875</v>
@@ -6072,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6161,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6250,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.533</v>
@@ -6315,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,70 +6330,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
         <v>2.15</v>
-      </c>
-      <c r="N66">
-        <v>3.4</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6404,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6416,70 +6419,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6517,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>2.05</v>
@@ -6606,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6695,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.85</v>
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6873,7 +6876,7 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6962,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7051,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.625</v>
@@ -7140,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7229,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>2.5</v>
@@ -7318,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7407,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7496,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7585,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7674,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -7763,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7852,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>1.75</v>
@@ -7941,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8030,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>2.4</v>
@@ -8119,7 +8122,7 @@
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8208,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>3.3</v>
@@ -8297,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>1.833</v>
@@ -8386,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8475,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.45</v>
@@ -8564,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>2.2</v>
@@ -8653,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>2.3</v>
@@ -8742,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>1.85</v>
@@ -8831,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
         <v>2.2</v>
@@ -8920,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>1.85</v>
@@ -9009,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>1.65</v>
@@ -9098,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.55</v>
@@ -9187,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>1.85</v>
@@ -9276,7 +9279,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9365,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>1.85</v>
@@ -9454,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>2.375</v>
@@ -9543,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.9</v>
@@ -9632,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.1</v>
@@ -9721,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.3</v>
@@ -9810,7 +9813,7 @@
         <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>2.75</v>
@@ -9899,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.75</v>
@@ -9988,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>2.1</v>
@@ -10077,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.5</v>
@@ -10166,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.5</v>
@@ -10255,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.05</v>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10433,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10522,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.5</v>
@@ -10611,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.7</v>
@@ -10700,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10789,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10878,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.75</v>
@@ -10967,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>2.1</v>
@@ -11056,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>2.2</v>
@@ -11145,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>2.45</v>
@@ -11234,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.05</v>
@@ -11323,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>2.3</v>
@@ -11412,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11501,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>1.85</v>
@@ -11590,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>1.95</v>
@@ -11679,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>1.666</v>
@@ -11768,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.45</v>
@@ -11857,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.375</v>
@@ -11946,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>1.833</v>
@@ -12035,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>2.875</v>
@@ -12124,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>2.05</v>
@@ -12213,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2.5</v>
@@ -12302,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.85</v>
@@ -12391,7 +12394,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>2.7</v>
@@ -12480,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12569,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12658,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>1.833</v>
@@ -12747,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12836,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>1.909</v>
@@ -12925,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>3.25</v>
@@ -13014,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13103,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13192,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>1.666</v>
@@ -13281,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13370,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.625</v>
@@ -13459,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>1.666</v>
@@ -13548,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.4</v>
@@ -13637,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13726,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>2.3</v>
@@ -13815,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13904,7 +13907,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>1.909</v>
@@ -13993,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14082,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14171,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14260,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14349,7 +14352,7 @@
         <v>5</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -14438,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>1.65</v>
@@ -14527,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>3.4</v>
@@ -14616,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -14705,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K160">
         <v>2.05</v>
@@ -14794,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>2.1</v>
@@ -14883,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14972,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>1.7</v>
@@ -15061,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>2.4</v>
@@ -15150,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15239,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15328,7 +15331,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15417,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15506,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15595,7 +15598,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>2.1</v>
@@ -15684,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>1.75</v>
@@ -15773,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>3.25</v>
@@ -15862,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.615</v>
@@ -15951,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16040,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>1.615</v>
@@ -16129,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16218,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16307,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K178">
         <v>2.6</v>
@@ -16372,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,40 +16387,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16426,34 +16429,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16461,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16473,40 +16476,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P180">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16515,34 +16518,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16574,7 +16577,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -16663,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16752,7 +16755,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>2.5</v>
@@ -16841,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>1.727</v>
@@ -16930,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.1</v>
@@ -17019,7 +17022,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17108,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>1.8</v>
@@ -17197,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17286,7 +17289,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>1.909</v>
@@ -17375,7 +17378,7 @@
         <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>2.6</v>
@@ -17464,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>1.615</v>
@@ -17553,7 +17556,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>1.833</v>
@@ -17642,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17731,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.615</v>
@@ -17820,7 +17823,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17909,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -17998,7 +18001,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>2.375</v>
@@ -18087,7 +18090,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18176,7 +18179,7 @@
         <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>2.5</v>
@@ -18265,7 +18268,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18354,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18443,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>2.75</v>
@@ -18532,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2.375</v>
@@ -18621,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>2.2</v>
@@ -18710,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>3.75</v>
@@ -18799,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18888,7 +18891,7 @@
         <v>4</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>1.5</v>
@@ -18977,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K208">
         <v>3</v>
@@ -19066,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>3.2</v>
@@ -19155,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.333</v>
@@ -19244,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.533</v>
@@ -19333,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19422,7 +19425,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19511,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.35</v>
@@ -19600,7 +19603,7 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K215">
         <v>2.2</v>
@@ -19689,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19754,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19766,46 +19769,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
+        <v>2.1</v>
+      </c>
+      <c r="O217">
+        <v>3.5</v>
+      </c>
+      <c r="P217">
+        <v>3.5</v>
+      </c>
+      <c r="Q217">
+        <v>-0.25</v>
+      </c>
+      <c r="R217">
         <v>1.8</v>
       </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>4.333</v>
-      </c>
-      <c r="Q217">
-        <v>-0.75</v>
-      </c>
-      <c r="R217">
-        <v>1.975</v>
-      </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19820,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19843,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19855,46 +19858,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19909,16 +19912,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -19956,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K219">
         <v>3.5</v>
@@ -20045,7 +20048,7 @@
         <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>2.15</v>
@@ -20134,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
         <v>2.6</v>
@@ -20223,7 +20226,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K222">
         <v>2.15</v>
@@ -20288,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,73 +20303,73 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X223">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20401,7 +20404,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K224">
         <v>1.666</v>
@@ -20466,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,73 +20481,73 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>48</v>
       </c>
       <c r="K225">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N225">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q225">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>2</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
         <v>2.025</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.825</v>
       </c>
-      <c r="T225">
-        <v>3</v>
-      </c>
-      <c r="U225">
-        <v>1.9</v>
-      </c>
-      <c r="V225">
-        <v>1.95</v>
-      </c>
       <c r="W225">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
         <v>1.025</v>
-      </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
-      <c r="AB225">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20579,7 +20582,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>1.8</v>
@@ -20644,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078996</v>
+        <v>6078263</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20659,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L227">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N227">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q227">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
         <v>1.9</v>
       </c>
-      <c r="S227">
-        <v>1.95</v>
-      </c>
-      <c r="T227">
-        <v>3</v>
-      </c>
-      <c r="U227">
-        <v>2</v>
-      </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20733,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,76 +20748,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L228">
         <v>3.4</v>
       </c>
       <c r="M228">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N228">
+        <v>2.875</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>2.5</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
         <v>2.05</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>3.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>2</v>
       </c>
       <c r="S228">
         <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>1.5</v>
+      </c>
+      <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
+        <v>0.8</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
         <v>1.05</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>-1</v>
-      </c>
-      <c r="Z228">
-        <v>1</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
-      </c>
-      <c r="AB228">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC228">
-        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20822,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,55 +20837,55 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P229">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20891,19 +20894,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20935,7 +20938,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K230">
         <v>6.5</v>
@@ -21024,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
         <v>1.5</v>
@@ -21113,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>3.8</v>
@@ -21202,7 +21205,7 @@
         <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>1.909</v>
@@ -21291,7 +21294,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21380,7 +21383,7 @@
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K235">
         <v>2.05</v>
@@ -21469,7 +21472,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>1.85</v>
@@ -21558,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K237">
         <v>2.1</v>
@@ -21623,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7723516</v>
+        <v>7723350</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,49 +21635,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45338.89583333334</v>
+        <v>45339.75</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K238">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21697,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7723350</v>
+        <v>7723518</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21706,49 +21709,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45339.75</v>
+        <v>45339.85416666666</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N239">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P239">
+        <v>3</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>1.75</v>
+      </c>
+      <c r="S239">
+        <v>2.125</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
         <v>1.8</v>
       </c>
-      <c r="Q239">
-        <v>0.5</v>
-      </c>
-      <c r="R239">
-        <v>2.025</v>
-      </c>
-      <c r="S239">
-        <v>1.825</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21771,7 +21774,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7723518</v>
+        <v>7723515</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21780,49 +21783,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45339.85416666666</v>
+        <v>45340.75</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K240">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N240">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21845,7 +21848,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7723515</v>
+        <v>7723519</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21854,49 +21857,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45340.75</v>
+        <v>45340.85416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K241">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
+        <v>3.25</v>
+      </c>
+      <c r="M241">
         <v>3.4</v>
       </c>
-      <c r="M241">
-        <v>3.6</v>
-      </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21919,7 +21922,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7723519</v>
+        <v>7723514</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21928,40 +21931,40 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45340.85416666666</v>
+        <v>45341.83333333334</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K242">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L242">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M242">
+        <v>3.5</v>
+      </c>
+      <c r="N242">
+        <v>2.05</v>
+      </c>
+      <c r="O242">
         <v>3.4</v>
       </c>
-      <c r="N242">
-        <v>2.6</v>
-      </c>
-      <c r="O242">
-        <v>3.2</v>
-      </c>
       <c r="P242">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T242">
         <v>2.5</v>
@@ -21985,6 +21988,80 @@
         <v>0</v>
       </c>
       <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7723526</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45345.79166666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>40</v>
+      </c>
+      <c r="G243" t="s">
+        <v>37</v>
+      </c>
+      <c r="K243">
+        <v>1.8</v>
+      </c>
+      <c r="L243">
+        <v>3.6</v>
+      </c>
+      <c r="M243">
+        <v>4.333</v>
+      </c>
+      <c r="N243">
+        <v>2.1</v>
+      </c>
+      <c r="O243">
+        <v>3.5</v>
+      </c>
+      <c r="P243">
+        <v>3.6</v>
+      </c>
+      <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.8</v>
+      </c>
+      <c r="S243">
+        <v>2.05</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>1.825</v>
+      </c>
+      <c r="V243">
+        <v>2.025</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,70 +6330,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,70 +6419,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
+        <v>2.375</v>
+      </c>
+      <c r="N67">
+        <v>3.3</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
         <v>2.15</v>
-      </c>
-      <c r="N67">
-        <v>3.4</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,58 +9089,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>49</v>
       </c>
       <c r="K97">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
+        <v>3.75</v>
+      </c>
+      <c r="N97">
+        <v>1.909</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.2</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
         <v>2.5</v>
       </c>
-      <c r="N97">
-        <v>2.45</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>2.05</v>
-      </c>
-      <c r="S97">
-        <v>1.75</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9149,16 +9149,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,16 +9238,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,40 +16387,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>48</v>
       </c>
       <c r="K179">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N179">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16429,34 +16429,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,40 +16476,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>48</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O180">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16518,34 +16518,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,19 +19324,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19348,52 +19348,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,19 +19413,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19437,52 +19437,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.45</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>2.025</v>
-      </c>
-      <c r="S213">
-        <v>1.775</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.5</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.95</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M223">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N223">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q223">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
         <v>2.025</v>
       </c>
-      <c r="S223">
+      <c r="V223">
         <v>1.825</v>
       </c>
-      <c r="T223">
-        <v>3</v>
-      </c>
-      <c r="U223">
-        <v>1.9</v>
-      </c>
-      <c r="V223">
-        <v>1.95</v>
-      </c>
       <c r="W223">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
         <v>1.025</v>
-      </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
-      <c r="AB223">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,73 +20481,73 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K225">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P225">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,67 +20926,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N230">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20995,7 +20995,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,67 +21015,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M231">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N231">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O231">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P231">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z231">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21084,7 +21084,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,13 +21104,13 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21119,28 +21119,28 @@
         <v>49</v>
       </c>
       <c r="K232">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N232">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P232">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
         <v>1.825</v>
@@ -21149,13 +21149,13 @@
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W232">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21164,7 +21164,7 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21173,7 +21173,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7723350</v>
+        <v>7723515</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,49 +21635,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45339.75</v>
+        <v>45340.75</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="L238">
+        <v>3.4</v>
+      </c>
+      <c r="M238">
         <v>3.6</v>
       </c>
-      <c r="M238">
+      <c r="N238">
         <v>1.909</v>
       </c>
-      <c r="N238">
-        <v>4.333</v>
-      </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21700,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7723518</v>
+        <v>7723519</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21709,49 +21709,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45339.85416666666</v>
+        <v>45340.85416666666</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K239">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
+        <v>3.25</v>
+      </c>
+      <c r="M239">
+        <v>3.4</v>
+      </c>
+      <c r="N239">
+        <v>2.6</v>
+      </c>
+      <c r="O239">
         <v>3.2</v>
       </c>
-      <c r="M239">
+      <c r="P239">
         <v>2.875</v>
-      </c>
-      <c r="N239">
-        <v>2.45</v>
-      </c>
-      <c r="O239">
-        <v>3.25</v>
-      </c>
-      <c r="P239">
-        <v>3</v>
       </c>
       <c r="Q239">
         <v>0</v>
       </c>
       <c r="R239">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21774,7 +21774,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7723515</v>
+        <v>7723514</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21783,49 +21783,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45340.75</v>
+        <v>45341.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L240">
         <v>3.4</v>
       </c>
       <c r="M240">
+        <v>3.5</v>
+      </c>
+      <c r="N240">
+        <v>2.05</v>
+      </c>
+      <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
         <v>3.6</v>
       </c>
-      <c r="N240">
-        <v>1.909</v>
-      </c>
-      <c r="O240">
-        <v>3.5</v>
-      </c>
-      <c r="P240">
-        <v>4</v>
-      </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21848,7 +21848,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7723519</v>
+        <v>7723526</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21857,49 +21857,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45340.85416666666</v>
+        <v>45345.79166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N241">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21914,154 +21914,6 @@
         <v>0</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>7723514</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45341.83333333334</v>
-      </c>
-      <c r="F242" t="s">
-        <v>43</v>
-      </c>
-      <c r="G242" t="s">
-        <v>46</v>
-      </c>
-      <c r="K242">
-        <v>2.1</v>
-      </c>
-      <c r="L242">
-        <v>3.4</v>
-      </c>
-      <c r="M242">
-        <v>3.5</v>
-      </c>
-      <c r="N242">
-        <v>2.05</v>
-      </c>
-      <c r="O242">
-        <v>3.4</v>
-      </c>
-      <c r="P242">
-        <v>3.6</v>
-      </c>
-      <c r="Q242">
-        <v>-0.25</v>
-      </c>
-      <c r="R242">
-        <v>1.775</v>
-      </c>
-      <c r="S242">
-        <v>2.1</v>
-      </c>
-      <c r="T242">
-        <v>2.5</v>
-      </c>
-      <c r="U242">
-        <v>2</v>
-      </c>
-      <c r="V242">
-        <v>1.85</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>7723526</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45345.79166666666</v>
-      </c>
-      <c r="F243" t="s">
-        <v>40</v>
-      </c>
-      <c r="G243" t="s">
-        <v>37</v>
-      </c>
-      <c r="K243">
-        <v>1.8</v>
-      </c>
-      <c r="L243">
-        <v>3.6</v>
-      </c>
-      <c r="M243">
-        <v>4.333</v>
-      </c>
-      <c r="N243">
-        <v>2.1</v>
-      </c>
-      <c r="O243">
-        <v>3.5</v>
-      </c>
-      <c r="P243">
-        <v>3.6</v>
-      </c>
-      <c r="Q243">
-        <v>-0.25</v>
-      </c>
-      <c r="R243">
-        <v>1.8</v>
-      </c>
-      <c r="S243">
-        <v>2.05</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.825</v>
-      </c>
-      <c r="V243">
-        <v>2.025</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Colo Colo</t>
-  </si>
-  <si>
-    <t>Cobreloa</t>
   </si>
   <si>
     <t>Deportes Iquique</t>
@@ -525,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>2.8</v>
@@ -735,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>2.875</v>
@@ -824,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1.909</v>
@@ -1002,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1091,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.7</v>
@@ -1269,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>2.15</v>
@@ -1358,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.533</v>
@@ -1447,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1536,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1714,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>1.7</v>
@@ -1803,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>2.55</v>
@@ -1892,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>3.6</v>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2070,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2159,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>1.8</v>
@@ -2248,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2337,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2.7</v>
@@ -2426,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2515,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>1.65</v>
@@ -2604,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>2.05</v>
@@ -2693,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>2.3</v>
@@ -2782,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>2.7</v>
@@ -2871,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>2.625</v>
@@ -2960,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3049,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3138,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3227,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3316,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.5</v>
@@ -3405,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3494,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3583,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>1.95</v>
@@ -3672,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>2.625</v>
@@ -3761,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.05</v>
@@ -3850,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3939,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.909</v>
@@ -4028,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4117,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.85</v>
@@ -4182,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4191,76 @@
         <v>44983.75</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.875</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,13 +4280,13 @@
         <v>44983.75</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4298,61 +4295,61 @@
         <v>48</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N43">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4384,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.4</v>
@@ -4449,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,73 +4458,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45">
+        <v>3.2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>2.2</v>
+      </c>
+      <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45">
-        <v>1.95</v>
-      </c>
-      <c r="L45">
-        <v>3.5</v>
-      </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
         <v>1.75</v>
       </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>4.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.75</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,73 +4547,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>48</v>
       </c>
       <c r="K46">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4651,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4740,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>2.6</v>
@@ -4829,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4918,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>2.4</v>
@@ -5007,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5096,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5185,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>2.15</v>
@@ -5274,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5363,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5452,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>2.3</v>
@@ -5541,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>1.615</v>
@@ -5630,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>1.7</v>
@@ -5719,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.375</v>
@@ -5808,7 +5805,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>1.75</v>
@@ -5897,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5962,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5971,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
+        <v>3.4</v>
+      </c>
+      <c r="N62">
+        <v>2.15</v>
+      </c>
+      <c r="O62">
+        <v>3.25</v>
+      </c>
+      <c r="P62">
+        <v>3.6</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
         <v>2.25</v>
       </c>
-      <c r="N62">
-        <v>3.3</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>2.25</v>
-      </c>
-      <c r="Q62">
-        <v>0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6060,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N63">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.8</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6164,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6253,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>1.533</v>
@@ -6318,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,70 +6327,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>48</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
         <v>2.15</v>
-      </c>
-      <c r="N66">
-        <v>3.4</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6407,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,70 +6416,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6520,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2.05</v>
@@ -6609,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6698,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>1.85</v>
@@ -6787,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6876,7 +6873,7 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6965,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7054,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.625</v>
@@ -7143,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7232,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.5</v>
@@ -7321,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7410,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7499,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7588,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7677,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -7742,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,70 +7751,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
+        <v>1.75</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>4.2</v>
+      </c>
+      <c r="N82">
+        <v>1.444</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>-1.25</v>
+      </c>
+      <c r="R82">
         <v>1.95</v>
       </c>
-      <c r="L82">
-        <v>3.4</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>3.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>2.025</v>
-      </c>
       <c r="S82">
+        <v>1.85</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
         <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
       </c>
       <c r="V82">
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7831,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,70 +7840,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7944,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8033,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>2.4</v>
@@ -8122,7 +8119,7 @@
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8211,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>3.3</v>
@@ -8300,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>1.833</v>
@@ -8389,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8478,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.45</v>
@@ -8567,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>2.2</v>
@@ -8656,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>2.3</v>
@@ -8745,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.85</v>
@@ -8810,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,58 +8819,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8882,16 +8879,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,58 +8908,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2.2</v>
+      </c>
+      <c r="L95">
+        <v>3.25</v>
+      </c>
+      <c r="M95">
+        <v>3.1</v>
+      </c>
+      <c r="N95">
+        <v>2.55</v>
+      </c>
+      <c r="O95">
+        <v>3.2</v>
+      </c>
+      <c r="P95">
+        <v>2.875</v>
+      </c>
+      <c r="Q95">
         <v>0</v>
       </c>
-      <c r="J95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K95">
-        <v>1.85</v>
-      </c>
-      <c r="L95">
-        <v>3.5</v>
-      </c>
-      <c r="M95">
-        <v>3.6</v>
-      </c>
-      <c r="N95">
-        <v>1.95</v>
-      </c>
-      <c r="O95">
-        <v>3.5</v>
-      </c>
-      <c r="P95">
-        <v>4</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8971,16 +8968,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9012,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>1.65</v>
@@ -9077,7 +9074,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,58 +9086,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9149,16 +9146,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9175,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
+        <v>3.75</v>
+      </c>
+      <c r="N98">
+        <v>1.909</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>4.2</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.5</v>
       </c>
-      <c r="N98">
-        <v>2.45</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2.05</v>
-      </c>
-      <c r="S98">
-        <v>1.75</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,16 +9235,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9279,7 +9276,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9368,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>1.85</v>
@@ -9457,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>2.375</v>
@@ -9546,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.9</v>
@@ -9635,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.1</v>
@@ -9724,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.3</v>
@@ -9813,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.75</v>
@@ -9902,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.75</v>
@@ -9991,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.1</v>
@@ -10080,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>2.5</v>
@@ -10169,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.5</v>
@@ -10258,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>2.05</v>
@@ -10347,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10436,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10525,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.5</v>
@@ -10614,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>1.7</v>
@@ -10703,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10792,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10881,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>1.75</v>
@@ -10970,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>2.1</v>
@@ -11059,7 +11056,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>2.2</v>
@@ -11148,7 +11145,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>2.45</v>
@@ -11237,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>2.05</v>
@@ -11326,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.3</v>
@@ -11415,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11504,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>1.85</v>
@@ -11593,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>1.95</v>
@@ -11682,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.666</v>
@@ -11771,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.45</v>
@@ -11860,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>2.375</v>
@@ -11949,7 +11946,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>1.833</v>
@@ -12038,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>2.875</v>
@@ -12127,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2.05</v>
@@ -12216,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2.5</v>
@@ -12305,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>1.85</v>
@@ -12394,7 +12391,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>2.7</v>
@@ -12483,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12572,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12661,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
         <v>1.833</v>
@@ -12750,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12839,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>1.909</v>
@@ -12928,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
         <v>3.25</v>
@@ -13017,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13106,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13195,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.666</v>
@@ -13284,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13373,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2.625</v>
@@ -13462,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>1.666</v>
@@ -13551,7 +13548,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.4</v>
@@ -13640,7 +13637,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13729,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>2.3</v>
@@ -13818,7 +13815,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13907,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K151">
         <v>1.909</v>
@@ -13996,7 +13993,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14085,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14174,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14263,7 +14260,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14352,7 +14349,7 @@
         <v>5</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -14441,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>1.65</v>
@@ -14530,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K158">
         <v>3.4</v>
@@ -14619,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -14708,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>2.05</v>
@@ -14797,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2.1</v>
@@ -14886,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14975,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>1.7</v>
@@ -15064,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K164">
         <v>2.4</v>
@@ -15153,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15242,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15331,7 +15328,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15420,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15509,7 +15506,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15598,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>2.1</v>
@@ -15687,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>1.75</v>
@@ -15776,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>3.25</v>
@@ -15865,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>1.615</v>
@@ -15954,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16043,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>1.615</v>
@@ -16132,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16221,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16310,7 +16307,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K178">
         <v>2.6</v>
@@ -16375,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,40 +16384,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16429,34 +16426,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,40 +16473,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P180">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16518,34 +16515,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16577,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -16666,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16755,7 +16752,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K183">
         <v>2.5</v>
@@ -16844,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>1.727</v>
@@ -16933,7 +16930,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>2.1</v>
@@ -17022,7 +17019,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17111,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>1.8</v>
@@ -17200,7 +17197,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17289,7 +17286,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>1.909</v>
@@ -17378,7 +17375,7 @@
         <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
         <v>2.6</v>
@@ -17467,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>1.615</v>
@@ -17556,7 +17553,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>1.833</v>
@@ -17645,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17734,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>1.615</v>
@@ -17823,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17912,7 +17909,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -18001,7 +17998,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
         <v>2.375</v>
@@ -18090,7 +18087,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18179,7 +18176,7 @@
         <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K199">
         <v>2.5</v>
@@ -18268,7 +18265,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18357,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18446,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
         <v>2.75</v>
@@ -18535,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>2.375</v>
@@ -18624,7 +18621,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
         <v>2.2</v>
@@ -18713,7 +18710,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K205">
         <v>3.75</v>
@@ -18802,7 +18799,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18891,7 +18888,7 @@
         <v>4</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
         <v>1.5</v>
@@ -18980,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>3</v>
@@ -19069,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>3.2</v>
@@ -19158,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.333</v>
@@ -19247,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>1.533</v>
@@ -19336,7 +19333,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19425,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19514,7 +19511,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
         <v>2.35</v>
@@ -19603,7 +19600,7 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K215">
         <v>2.2</v>
@@ -19692,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19781,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>3</v>
@@ -19870,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>2.2</v>
@@ -19959,7 +19956,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K219">
         <v>3.5</v>
@@ -20024,7 +20021,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,37 +20033,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
+        <v>2.6</v>
+      </c>
+      <c r="N220">
+        <v>2.8</v>
+      </c>
+      <c r="O220">
         <v>3.2</v>
       </c>
-      <c r="N220">
-        <v>2.625</v>
-      </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
       <c r="P220">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20078,34 +20075,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y220">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,37 +20122,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K221">
+        <v>2.15</v>
+      </c>
+      <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>3.2</v>
+      </c>
+      <c r="N221">
+        <v>2.625</v>
+      </c>
+      <c r="O221">
+        <v>3.5</v>
+      </c>
+      <c r="P221">
         <v>2.6</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.6</v>
-      </c>
-      <c r="N221">
-        <v>2.8</v>
-      </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20167,34 +20164,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20226,7 +20223,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K222">
         <v>2.15</v>
@@ -20315,7 +20312,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K223">
         <v>1.65</v>
@@ -20404,7 +20401,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K224">
         <v>1.666</v>
@@ -20493,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>1.533</v>
@@ -20582,7 +20579,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K226">
         <v>1.8</v>
@@ -20647,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20656,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K227">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
         <v>3.4</v>
       </c>
       <c r="M227">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N227">
+        <v>2.875</v>
+      </c>
+      <c r="O227">
+        <v>3.3</v>
+      </c>
+      <c r="P227">
+        <v>2.5</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
         <v>2.05</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>3.5</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>2</v>
       </c>
       <c r="S227">
         <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>1.5</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.8</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
         <v>1.05</v>
-      </c>
-      <c r="X227">
-        <v>-1</v>
-      </c>
-      <c r="Y227">
-        <v>-1</v>
-      </c>
-      <c r="Z227">
-        <v>1</v>
-      </c>
-      <c r="AA227">
-        <v>-1</v>
-      </c>
-      <c r="AB227">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC227">
-        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,76 +20745,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L228">
         <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S228">
         <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20846,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K229">
         <v>1.4</v>
@@ -20938,7 +20935,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K230">
         <v>3.8</v>
@@ -21027,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
         <v>6.5</v>
@@ -21116,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K232">
         <v>1.5</v>
@@ -21181,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21190,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>2</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N233">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O233">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
         <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21279,76 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P234">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21383,7 +21380,7 @@
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
         <v>2.05</v>
@@ -21448,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21457,76 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L236">
+        <v>3.3</v>
+      </c>
+      <c r="M236">
+        <v>2.3</v>
+      </c>
+      <c r="N236">
+        <v>2.9</v>
+      </c>
+      <c r="O236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>4.333</v>
-      </c>
-      <c r="N236">
+      <c r="P236">
+        <v>2.375</v>
+      </c>
+      <c r="Q236">
+        <v>0.25</v>
+      </c>
+      <c r="R236">
         <v>1.8</v>
       </c>
-      <c r="O236">
-        <v>3.6</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.75</v>
-      </c>
-      <c r="R236">
-        <v>1.925</v>
-      </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>1.375</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>1</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.8</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
-      <c r="Z236">
-        <v>0.925</v>
-      </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
-      <c r="AB236">
-        <v>1.025</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21546,76 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N237">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U237">
         <v>1.85</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z237">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7723515</v>
+        <v>7723516</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,64 +21632,79 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45340.75</v>
+        <v>45338.89583333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>47</v>
       </c>
       <c r="K238">
+        <v>2.4</v>
+      </c>
+      <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>3</v>
+      </c>
+      <c r="N238">
         <v>2.05</v>
       </c>
-      <c r="L238">
+      <c r="O238">
         <v>3.4</v>
       </c>
-      <c r="M238">
-        <v>3.6</v>
-      </c>
-      <c r="N238">
-        <v>1.909</v>
-      </c>
-      <c r="O238">
-        <v>3.5</v>
-      </c>
       <c r="P238">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q238">
         <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21700,7 +21712,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7723519</v>
+        <v>7723350</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21709,64 +21721,79 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45340.85416666666</v>
+        <v>45339.75</v>
       </c>
       <c r="F239" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>3</v>
+      </c>
+      <c r="J239" t="s">
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
         <v>1.875</v>
-      </c>
-      <c r="S239">
-        <v>1.975</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB239">
+        <v>1.025</v>
+      </c>
+      <c r="AC239">
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21774,7 +21801,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7723514</v>
+        <v>7723518</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21783,64 +21810,79 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45341.83333333334</v>
+        <v>45339.85416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
+        <v>42</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>3</v>
+      </c>
+      <c r="J240" t="s">
         <v>46</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N240">
+        <v>2.5</v>
+      </c>
+      <c r="O240">
+        <v>3.3</v>
+      </c>
+      <c r="P240">
+        <v>2.875</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>1.8</v>
+      </c>
+      <c r="S240">
         <v>2.05</v>
       </c>
-      <c r="O240">
-        <v>3.4</v>
-      </c>
-      <c r="P240">
-        <v>3.6</v>
-      </c>
-      <c r="Q240">
-        <v>-0.25</v>
-      </c>
-      <c r="R240">
-        <v>1.775</v>
-      </c>
-      <c r="S240">
-        <v>2.1</v>
-      </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB240">
+        <v>0.8</v>
+      </c>
+      <c r="AC240">
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:27">
@@ -21848,7 +21890,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7723526</v>
+        <v>7723514</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21857,49 +21899,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45345.79166666666</v>
+        <v>45341.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K241">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L241">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N241">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
         <v>3.6</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
+        <v>2.05</v>
+      </c>
+      <c r="S241">
         <v>1.8</v>
       </c>
-      <c r="S241">
-        <v>2.05</v>
-      </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V241">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21914,6 +21956,154 @@
         <v>0</v>
       </c>
       <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7723526</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45345.79166666666</v>
+      </c>
+      <c r="F242" t="s">
+        <v>40</v>
+      </c>
+      <c r="G242" t="s">
+        <v>37</v>
+      </c>
+      <c r="K242">
+        <v>1.8</v>
+      </c>
+      <c r="L242">
+        <v>3.6</v>
+      </c>
+      <c r="M242">
+        <v>4.333</v>
+      </c>
+      <c r="N242">
+        <v>2.1</v>
+      </c>
+      <c r="O242">
+        <v>3.5</v>
+      </c>
+      <c r="P242">
+        <v>3.6</v>
+      </c>
+      <c r="Q242">
+        <v>-0.25</v>
+      </c>
+      <c r="R242">
+        <v>1.8</v>
+      </c>
+      <c r="S242">
+        <v>2.05</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
+        <v>1.825</v>
+      </c>
+      <c r="V242">
+        <v>2.025</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7723521</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45345.89583333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>39</v>
+      </c>
+      <c r="G243" t="s">
+        <v>34</v>
+      </c>
+      <c r="K243">
+        <v>2.1</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3.5</v>
+      </c>
+      <c r="N243">
+        <v>2.05</v>
+      </c>
+      <c r="O243">
+        <v>3.4</v>
+      </c>
+      <c r="P243">
+        <v>3.75</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>2.05</v>
+      </c>
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>1.9</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Colo Colo</t>
+  </si>
+  <si>
+    <t>Cobreloa</t>
   </si>
   <si>
     <t>Deportes Iquique</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>2.8</v>
@@ -732,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>2.875</v>
@@ -821,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -910,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>1.909</v>
@@ -999,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1088,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.7</v>
@@ -1266,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>2.15</v>
@@ -1355,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>1.533</v>
@@ -1444,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1533,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.7</v>
@@ -1800,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2.55</v>
@@ -1889,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>3.6</v>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2067,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2156,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>1.8</v>
@@ -2245,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2334,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>2.7</v>
@@ -2423,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>1.65</v>
@@ -2601,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>2.05</v>
@@ -2690,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.3</v>
@@ -2779,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>2.7</v>
@@ -2868,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.625</v>
@@ -2957,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3046,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3135,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3224,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3313,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1.5</v>
@@ -3402,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3491,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3580,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>1.95</v>
@@ -3669,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>2.625</v>
@@ -3758,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.05</v>
@@ -3847,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3936,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>1.909</v>
@@ -4025,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4114,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>1.85</v>
@@ -4203,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>2.55</v>
@@ -4292,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.8</v>
@@ -4381,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.4</v>
@@ -4470,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>3.2</v>
@@ -4559,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.95</v>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4713,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,58 +4728,58 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4785,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,58 +4817,58 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4874,16 +4877,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4915,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.4</v>
@@ -5004,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5093,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5182,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>2.15</v>
@@ -5271,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5360,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5449,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>2.3</v>
@@ -5538,7 +5541,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.615</v>
@@ -5627,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>1.7</v>
@@ -5716,7 +5719,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.375</v>
@@ -5805,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>1.75</v>
@@ -5894,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5959,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5974,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N62">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.8</v>
       </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6063,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
+        <v>3.4</v>
+      </c>
+      <c r="N63">
+        <v>2.15</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
+        <v>3.6</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
         <v>2.25</v>
       </c>
-      <c r="N63">
-        <v>3.3</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>2.25</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6161,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6250,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.533</v>
@@ -6339,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.625</v>
@@ -6428,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6517,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>2.05</v>
@@ -6606,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6695,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.85</v>
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6873,7 +6876,7 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6962,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7051,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.625</v>
@@ -7140,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7229,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>2.5</v>
@@ -7318,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7407,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7496,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7585,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7674,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -7763,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>1.75</v>
@@ -7852,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>1.95</v>
@@ -7941,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8030,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>2.4</v>
@@ -8119,7 +8122,7 @@
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8208,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>3.3</v>
@@ -8297,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>1.833</v>
@@ -8386,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8475,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.45</v>
@@ -8564,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>2.2</v>
@@ -8653,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>2.3</v>
@@ -8742,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>1.85</v>
@@ -8831,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
         <v>1.85</v>
@@ -8920,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>2.2</v>
@@ -9009,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>1.65</v>
@@ -9074,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9086,58 +9089,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
+        <v>3.75</v>
+      </c>
+      <c r="N97">
+        <v>1.909</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.2</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
         <v>2.5</v>
       </c>
-      <c r="N97">
-        <v>2.45</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>2.05</v>
-      </c>
-      <c r="S97">
-        <v>1.75</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9146,16 +9149,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9163,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,58 +9178,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9235,16 +9238,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9276,7 +9279,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9365,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>1.85</v>
@@ -9454,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>2.375</v>
@@ -9543,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.9</v>
@@ -9632,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.1</v>
@@ -9721,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.3</v>
@@ -9810,7 +9813,7 @@
         <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>2.75</v>
@@ -9899,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.75</v>
@@ -9988,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>2.1</v>
@@ -10077,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.5</v>
@@ -10166,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.5</v>
@@ -10255,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.05</v>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10433,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10522,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.5</v>
@@ -10611,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.7</v>
@@ -10700,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10789,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10878,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.75</v>
@@ -10967,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>2.1</v>
@@ -11056,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>2.2</v>
@@ -11145,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>2.45</v>
@@ -11234,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.05</v>
@@ -11323,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>2.3</v>
@@ -11412,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11501,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>1.85</v>
@@ -11590,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>1.95</v>
@@ -11679,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>1.666</v>
@@ -11768,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.45</v>
@@ -11857,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.375</v>
@@ -11946,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>1.833</v>
@@ -12035,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>2.875</v>
@@ -12124,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>2.05</v>
@@ -12213,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2.5</v>
@@ -12302,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.85</v>
@@ -12391,7 +12394,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>2.7</v>
@@ -12480,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12569,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12658,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>1.833</v>
@@ -12747,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12836,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>1.909</v>
@@ -12925,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>3.25</v>
@@ -13014,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13103,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13192,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>1.666</v>
@@ -13281,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13370,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.625</v>
@@ -13459,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>1.666</v>
@@ -13548,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.4</v>
@@ -13637,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13726,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>2.3</v>
@@ -13815,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13904,7 +13907,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>1.909</v>
@@ -13993,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.5</v>
@@ -14082,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14171,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14260,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14349,7 +14352,7 @@
         <v>5</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -14438,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>1.65</v>
@@ -14527,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>3.4</v>
@@ -14616,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -14705,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K160">
         <v>2.05</v>
@@ -14794,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>2.1</v>
@@ -14883,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14972,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>1.7</v>
@@ -15061,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>2.4</v>
@@ -15150,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15239,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15328,7 +15331,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15417,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15506,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15595,7 +15598,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>2.1</v>
@@ -15684,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>1.75</v>
@@ -15773,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>3.25</v>
@@ -15862,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.615</v>
@@ -15951,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16040,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>1.615</v>
@@ -16129,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16218,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16307,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K178">
         <v>2.6</v>
@@ -16396,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>2.375</v>
@@ -16485,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.333</v>
@@ -16574,7 +16577,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -16663,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16752,7 +16755,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>2.5</v>
@@ -16841,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>1.727</v>
@@ -16930,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.1</v>
@@ -17019,7 +17022,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17108,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>1.8</v>
@@ -17197,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17286,7 +17289,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>1.909</v>
@@ -17375,7 +17378,7 @@
         <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>2.6</v>
@@ -17464,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>1.615</v>
@@ -17553,7 +17556,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>1.833</v>
@@ -17642,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17731,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.615</v>
@@ -17820,7 +17823,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17909,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -17998,7 +18001,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>2.375</v>
@@ -18087,7 +18090,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18176,7 +18179,7 @@
         <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>2.5</v>
@@ -18265,7 +18268,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18354,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18443,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>2.75</v>
@@ -18532,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2.375</v>
@@ -18621,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>2.2</v>
@@ -18710,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>3.75</v>
@@ -18799,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18888,7 +18891,7 @@
         <v>4</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>1.5</v>
@@ -18977,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K208">
         <v>3</v>
@@ -19066,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>3.2</v>
@@ -19155,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.333</v>
@@ -19244,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.533</v>
@@ -19333,7 +19336,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19422,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19511,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.35</v>
@@ -19600,7 +19603,7 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K215">
         <v>2.2</v>
@@ -19689,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>2.15</v>
@@ -19754,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19766,46 +19769,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19820,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19843,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19855,46 +19858,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
+        <v>2.1</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
         <v>1.8</v>
       </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>4.333</v>
-      </c>
-      <c r="Q218">
-        <v>-0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19909,16 +19912,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -19956,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K219">
         <v>3.5</v>
@@ -20021,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20033,37 +20036,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>3.2</v>
+      </c>
+      <c r="N220">
+        <v>2.625</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
         <v>2.6</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>2.6</v>
-      </c>
-      <c r="N220">
-        <v>2.8</v>
-      </c>
-      <c r="O220">
-        <v>3.2</v>
-      </c>
-      <c r="P220">
-        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20075,34 +20078,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20110,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,37 +20125,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
+        <v>2.6</v>
+      </c>
+      <c r="N221">
+        <v>2.8</v>
+      </c>
+      <c r="O221">
         <v>3.2</v>
       </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20164,34 +20167,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y221">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20223,7 +20226,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K222">
         <v>2.15</v>
@@ -20288,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,73 +20303,73 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X223">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20377,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,76 +20392,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N224">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,76 +20481,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N225">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O225">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20579,7 +20582,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>1.8</v>
@@ -20644,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20659,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L227">
         <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N227">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S227">
         <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20733,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078263</v>
+        <v>6078996</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,76 +20748,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>47</v>
+      </c>
+      <c r="K228">
+        <v>1.4</v>
+      </c>
+      <c r="L228">
+        <v>4.333</v>
+      </c>
+      <c r="M228">
+        <v>7</v>
+      </c>
+      <c r="N228">
+        <v>1.285</v>
+      </c>
+      <c r="O228">
+        <v>5.5</v>
+      </c>
+      <c r="P228">
+        <v>11</v>
+      </c>
+      <c r="Q228">
+        <v>-1.5</v>
+      </c>
+      <c r="R228">
+        <v>1.9</v>
+      </c>
+      <c r="S228">
+        <v>1.95</v>
+      </c>
+      <c r="T228">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>48</v>
-      </c>
-      <c r="K228">
-        <v>2.05</v>
-      </c>
-      <c r="L228">
-        <v>3.4</v>
-      </c>
-      <c r="M228">
-        <v>3.5</v>
-      </c>
-      <c r="N228">
-        <v>2.05</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>3.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>2</v>
-      </c>
-      <c r="S228">
-        <v>1.8</v>
-      </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20822,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,55 +20837,55 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N229">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q229">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20891,19 +20894,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20911,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,67 +20926,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M230">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20992,7 +20995,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21000,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,67 +21015,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
       <c r="J231" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L231">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N231">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21081,7 +21084,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21113,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>1.5</v>
@@ -21178,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,76 +21193,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
         <v>3.4</v>
       </c>
       <c r="N233">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O233">
+        <v>3.6</v>
+      </c>
+      <c r="P233">
         <v>3.4</v>
       </c>
-      <c r="P233">
-        <v>2.4</v>
-      </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T233">
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC233">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21267,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6078269</v>
+        <v>6077499</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,58 +21282,58 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L234">
         <v>3.4</v>
       </c>
       <c r="M234">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21339,16 +21342,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,55 +21371,55 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235">
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N235">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P235">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
         <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21425,19 +21428,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,76 +21460,76 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N236">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P236">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078998</v>
+        <v>6078268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,55 +21549,55 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M237">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N237">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O237">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21603,19 +21606,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21647,7 +21650,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
         <v>2.4</v>
@@ -21736,7 +21739,7 @@
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K239">
         <v>3.75</v>
@@ -21825,7 +21828,7 @@
         <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>2.5</v>
@@ -21885,12 +21888,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7723514</v>
+        <v>7723519</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,37 +21902,46 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45341.83333333334</v>
+        <v>45340.85416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>48</v>
       </c>
       <c r="K241">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
+        <v>3.25</v>
+      </c>
+      <c r="M241">
         <v>3.4</v>
       </c>
-      <c r="M241">
-        <v>3.5</v>
-      </c>
       <c r="N241">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S241">
         <v>1.8</v>
@@ -21938,28 +21950,34 @@
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>0.4</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -21997,7 +22015,7 @@
         <v>3.5</v>
       </c>
       <c r="P242">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q242">
         <v>-0.25</v>
@@ -22033,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:29">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -22065,31 +22083,31 @@
         <v>3.5</v>
       </c>
       <c r="N243">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O243">
         <v>3.4</v>
       </c>
       <c r="P243">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q243">
         <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T243">
         <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22104,6 +22122,450 @@
         <v>0</v>
       </c>
       <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7723520</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45346.75</v>
+      </c>
+      <c r="F244" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" t="s">
+        <v>45</v>
+      </c>
+      <c r="K244">
+        <v>1.727</v>
+      </c>
+      <c r="L244">
+        <v>3.75</v>
+      </c>
+      <c r="M244">
+        <v>4.5</v>
+      </c>
+      <c r="N244">
+        <v>1.666</v>
+      </c>
+      <c r="O244">
+        <v>3.8</v>
+      </c>
+      <c r="P244">
+        <v>4.75</v>
+      </c>
+      <c r="Q244">
+        <v>-0.75</v>
+      </c>
+      <c r="R244">
+        <v>1.85</v>
+      </c>
+      <c r="S244">
+        <v>2</v>
+      </c>
+      <c r="T244">
+        <v>2.5</v>
+      </c>
+      <c r="U244">
+        <v>1.9</v>
+      </c>
+      <c r="V244">
+        <v>1.95</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7723524</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45346.85416666666</v>
+      </c>
+      <c r="F245" t="s">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>43</v>
+      </c>
+      <c r="K245">
+        <v>1.909</v>
+      </c>
+      <c r="L245">
+        <v>3.5</v>
+      </c>
+      <c r="M245">
+        <v>4</v>
+      </c>
+      <c r="N245">
+        <v>1.75</v>
+      </c>
+      <c r="O245">
+        <v>3.6</v>
+      </c>
+      <c r="P245">
+        <v>4.75</v>
+      </c>
+      <c r="Q245">
+        <v>-0.75</v>
+      </c>
+      <c r="R245">
+        <v>2.025</v>
+      </c>
+      <c r="S245">
+        <v>1.825</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
+        <v>1.9</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7723522</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F246" t="s">
+        <v>41</v>
+      </c>
+      <c r="G246" t="s">
+        <v>38</v>
+      </c>
+      <c r="K246">
+        <v>2.1</v>
+      </c>
+      <c r="L246">
+        <v>3.4</v>
+      </c>
+      <c r="M246">
+        <v>3.5</v>
+      </c>
+      <c r="N246">
+        <v>1.909</v>
+      </c>
+      <c r="O246">
+        <v>3.5</v>
+      </c>
+      <c r="P246">
+        <v>4</v>
+      </c>
+      <c r="Q246">
+        <v>-0.5</v>
+      </c>
+      <c r="R246">
+        <v>1.9</v>
+      </c>
+      <c r="S246">
+        <v>1.95</v>
+      </c>
+      <c r="T246">
+        <v>2.5</v>
+      </c>
+      <c r="U246">
+        <v>1.9</v>
+      </c>
+      <c r="V246">
+        <v>1.95</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7723523</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F247" t="s">
+        <v>46</v>
+      </c>
+      <c r="G247" t="s">
+        <v>33</v>
+      </c>
+      <c r="K247">
+        <v>3.3</v>
+      </c>
+      <c r="L247">
+        <v>3.3</v>
+      </c>
+      <c r="M247">
+        <v>2.2</v>
+      </c>
+      <c r="N247">
+        <v>3.1</v>
+      </c>
+      <c r="O247">
+        <v>3.3</v>
+      </c>
+      <c r="P247">
+        <v>2.3</v>
+      </c>
+      <c r="Q247">
+        <v>0.25</v>
+      </c>
+      <c r="R247">
+        <v>1.825</v>
+      </c>
+      <c r="S247">
+        <v>2.025</v>
+      </c>
+      <c r="T247">
+        <v>2.5</v>
+      </c>
+      <c r="U247">
+        <v>1.975</v>
+      </c>
+      <c r="V247">
+        <v>1.875</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7723351</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45347.75</v>
+      </c>
+      <c r="F248" t="s">
+        <v>42</v>
+      </c>
+      <c r="G248" t="s">
+        <v>44</v>
+      </c>
+      <c r="K248">
+        <v>4.5</v>
+      </c>
+      <c r="L248">
+        <v>3.75</v>
+      </c>
+      <c r="M248">
+        <v>1.727</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248">
+        <v>3.6</v>
+      </c>
+      <c r="P248">
+        <v>1.85</v>
+      </c>
+      <c r="Q248">
+        <v>0.5</v>
+      </c>
+      <c r="R248">
+        <v>1.95</v>
+      </c>
+      <c r="S248">
+        <v>1.9</v>
+      </c>
+      <c r="T248">
+        <v>2.25</v>
+      </c>
+      <c r="U248">
+        <v>1.9</v>
+      </c>
+      <c r="V248">
+        <v>1.95</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>7723525</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F249" t="s">
+        <v>32</v>
+      </c>
+      <c r="G249" t="s">
+        <v>30</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>3.5</v>
+      </c>
+      <c r="M249">
+        <v>3.5</v>
+      </c>
+      <c r="N249">
+        <v>1.833</v>
+      </c>
+      <c r="O249">
+        <v>3.6</v>
+      </c>
+      <c r="P249">
+        <v>4</v>
+      </c>
+      <c r="Q249">
+        <v>-0.5</v>
+      </c>
+      <c r="R249">
+        <v>1.875</v>
+      </c>
+      <c r="S249">
+        <v>1.975</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>1.825</v>
+      </c>
+      <c r="V249">
+        <v>2.025</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,73 +2770,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N26">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,73 +2859,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>44983.75</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>44983.75</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.875</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
+        <v>3.4</v>
+      </c>
+      <c r="N62">
+        <v>2.15</v>
+      </c>
+      <c r="O62">
+        <v>3.25</v>
+      </c>
+      <c r="P62">
+        <v>3.6</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
         <v>2.25</v>
       </c>
-      <c r="N62">
-        <v>3.3</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>2.25</v>
-      </c>
-      <c r="Q62">
-        <v>0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N63">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.8</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,70 +6330,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,70 +6419,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
+        <v>2.375</v>
+      </c>
+      <c r="N67">
+        <v>3.3</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
         <v>2.15</v>
-      </c>
-      <c r="N67">
-        <v>3.4</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,58 +8822,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8882,16 +8882,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,58 +8911,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8971,16 +8971,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,37 +20036,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
+        <v>2.6</v>
+      </c>
+      <c r="N220">
+        <v>2.8</v>
+      </c>
+      <c r="O220">
         <v>3.2</v>
       </c>
-      <c r="N220">
-        <v>2.625</v>
-      </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
       <c r="P220">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20078,34 +20078,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y220">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,37 +20125,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K221">
+        <v>2.15</v>
+      </c>
+      <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>3.2</v>
+      </c>
+      <c r="N221">
+        <v>2.625</v>
+      </c>
+      <c r="O221">
+        <v>3.5</v>
+      </c>
+      <c r="P221">
         <v>2.6</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.6</v>
-      </c>
-      <c r="N221">
-        <v>2.8</v>
-      </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20167,34 +20167,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L224">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
+        <v>1.95</v>
+      </c>
+      <c r="S224">
         <v>1.85</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N225">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078263</v>
+        <v>6078996</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>47</v>
+      </c>
+      <c r="K227">
+        <v>1.4</v>
+      </c>
+      <c r="L227">
+        <v>4.333</v>
+      </c>
+      <c r="M227">
+        <v>7</v>
+      </c>
+      <c r="N227">
+        <v>1.285</v>
+      </c>
+      <c r="O227">
+        <v>5.5</v>
+      </c>
+      <c r="P227">
+        <v>11</v>
+      </c>
+      <c r="Q227">
+        <v>-1.5</v>
+      </c>
+      <c r="R227">
+        <v>1.9</v>
+      </c>
+      <c r="S227">
+        <v>1.95</v>
+      </c>
+      <c r="T227">
         <v>3</v>
       </c>
-      <c r="J227" t="s">
-        <v>49</v>
-      </c>
-      <c r="K227">
-        <v>2.05</v>
-      </c>
-      <c r="L227">
-        <v>3.4</v>
-      </c>
-      <c r="M227">
-        <v>3.5</v>
-      </c>
-      <c r="N227">
-        <v>2.05</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>3.5</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>2</v>
-      </c>
-      <c r="S227">
-        <v>1.8</v>
-      </c>
-      <c r="T227">
-        <v>2.75</v>
-      </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,55 +20748,55 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>47</v>
       </c>
       <c r="K228">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L228">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N228">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O228">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q228">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20805,19 +20805,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,76 +20837,76 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S229">
         <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,67 +20926,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
+        <v>4.333</v>
+      </c>
+      <c r="M230">
+        <v>6</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
         <v>4.75</v>
       </c>
-      <c r="M230">
-        <v>1.4</v>
-      </c>
-      <c r="N230">
-        <v>12</v>
-      </c>
-      <c r="O230">
-        <v>8.5</v>
-      </c>
       <c r="P230">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
+        <v>1.825</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
         <v>1.8</v>
       </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.875</v>
-      </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20995,7 +20995,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,67 +21104,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O232">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P232">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R232">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z232">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21173,7 +21173,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,40 +21193,40 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
+        <v>2.3</v>
+      </c>
+      <c r="N233">
+        <v>2.9</v>
+      </c>
+      <c r="O233">
         <v>3.4</v>
       </c>
-      <c r="N233">
-        <v>2.05</v>
-      </c>
-      <c r="O233">
-        <v>3.6</v>
-      </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
         <v>1.8</v>
@@ -21238,10 +21238,10 @@
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,7 +21250,7 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z233">
         <v>-1</v>
@@ -21259,10 +21259,10 @@
         <v>1</v>
       </c>
       <c r="AB233">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,73 +21371,73 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K235">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L235">
+        <v>3.4</v>
+      </c>
+      <c r="M235">
+        <v>4.333</v>
+      </c>
+      <c r="N235">
+        <v>1.8</v>
+      </c>
+      <c r="O235">
         <v>3.6</v>
       </c>
-      <c r="M235">
-        <v>3.8</v>
-      </c>
-      <c r="N235">
-        <v>2.15</v>
-      </c>
-      <c r="O235">
-        <v>3.75</v>
-      </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,73 +21460,73 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
         <v>3</v>
       </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K236">
+        <v>1.909</v>
+      </c>
+      <c r="L236">
+        <v>3.6</v>
+      </c>
+      <c r="M236">
+        <v>3.8</v>
+      </c>
+      <c r="N236">
+        <v>2.15</v>
+      </c>
+      <c r="O236">
+        <v>3.75</v>
+      </c>
+      <c r="P236">
+        <v>3.1</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
         <v>1.85</v>
       </c>
-      <c r="L236">
-        <v>3.4</v>
-      </c>
-      <c r="M236">
-        <v>4.333</v>
-      </c>
-      <c r="N236">
-        <v>1.8</v>
-      </c>
-      <c r="O236">
-        <v>3.6</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.75</v>
-      </c>
-      <c r="R236">
-        <v>1.925</v>
-      </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U236">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z236">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,40 +21549,40 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L237">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O237">
+        <v>3.6</v>
+      </c>
+      <c r="P237">
         <v>3.4</v>
       </c>
-      <c r="P237">
-        <v>2.375</v>
-      </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
         <v>1.8</v>
@@ -21594,10 +21594,10 @@
         <v>2.75</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21606,7 +21606,7 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z237">
         <v>-1</v>
@@ -21615,10 +21615,10 @@
         <v>1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC237">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7723526</v>
+        <v>7723514</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21991,64 +21991,79 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45345.79166666666</v>
+        <v>45341.83333333334</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
+        <v>3</v>
+      </c>
+      <c r="J242" t="s">
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L242">
+        <v>3.4</v>
+      </c>
+      <c r="M242">
+        <v>3.5</v>
+      </c>
+      <c r="N242">
+        <v>2.05</v>
+      </c>
+      <c r="O242">
+        <v>3.4</v>
+      </c>
+      <c r="P242">
         <v>3.6</v>
       </c>
-      <c r="M242">
-        <v>4.333</v>
-      </c>
-      <c r="N242">
-        <v>2.1</v>
-      </c>
-      <c r="O242">
-        <v>3.5</v>
-      </c>
-      <c r="P242">
-        <v>3.5</v>
-      </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S242">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB242">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC242">
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22056,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7723521</v>
+        <v>7723526</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22065,49 +22080,49 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45345.89583333334</v>
+        <v>45345.79166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K243">
+        <v>1.8</v>
+      </c>
+      <c r="L243">
+        <v>3.6</v>
+      </c>
+      <c r="M243">
+        <v>4.333</v>
+      </c>
+      <c r="N243">
         <v>2.1</v>
       </c>
-      <c r="L243">
-        <v>3.4</v>
-      </c>
-      <c r="M243">
+      <c r="O243">
         <v>3.5</v>
       </c>
-      <c r="N243">
-        <v>1.95</v>
-      </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
       <c r="P243">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T243">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22130,7 +22145,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7723520</v>
+        <v>7723521</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22139,49 +22154,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45346.75</v>
+        <v>45345.89583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K244">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N244">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q244">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T244">
         <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22204,7 +22219,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22213,28 +22228,28 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45346.85416666666</v>
+        <v>45346.75</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N245">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
         <v>4.75</v>
@@ -22243,19 +22258,19 @@
         <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
+        <v>1.9</v>
+      </c>
+      <c r="V245">
         <v>1.95</v>
-      </c>
-      <c r="V245">
-        <v>1.9</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22278,7 +22293,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7723522</v>
+        <v>7723524</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22287,49 +22302,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45347.5</v>
+        <v>45346.85416666666</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K246">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O246">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
         <v>1.9</v>
-      </c>
-      <c r="V246">
-        <v>1.95</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22352,7 +22367,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22364,46 +22379,46 @@
         <v>45347.5</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K247">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M247">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N247">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O247">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P247">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22426,7 +22441,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7723351</v>
+        <v>7723523</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22435,49 +22450,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45347.75</v>
+        <v>45347.5</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K248">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="N248">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P248">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q248">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22500,7 +22515,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7723525</v>
+        <v>7723351</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22509,49 +22524,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45347.85416666666</v>
+        <v>45347.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K249">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L249">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M249">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N249">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O249">
         <v>3.6</v>
       </c>
       <c r="P249">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q249">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V249">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22566,6 +22581,80 @@
         <v>0</v>
       </c>
       <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7723525</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F250" t="s">
+        <v>32</v>
+      </c>
+      <c r="G250" t="s">
+        <v>30</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>3.5</v>
+      </c>
+      <c r="M250">
+        <v>3.5</v>
+      </c>
+      <c r="N250">
+        <v>1.833</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
+        <v>4</v>
+      </c>
+      <c r="Q250">
+        <v>-0.5</v>
+      </c>
+      <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
+        <v>1.975</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>1.825</v>
+      </c>
+      <c r="V250">
+        <v>2.025</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,73 +2770,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,73 +2859,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>44983.75</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.875</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>44983.75</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N43">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,13 +4817,13 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4832,43 +4832,43 @@
         <v>49</v>
       </c>
       <c r="K49">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4877,16 +4877,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N62">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.8</v>
       </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
+        <v>3.4</v>
+      </c>
+      <c r="N63">
+        <v>2.15</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
+        <v>3.6</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
         <v>2.25</v>
       </c>
-      <c r="N63">
-        <v>3.3</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>2.25</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,70 +7754,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N82">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,70 +7843,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K83">
+        <v>1.75</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>4.2</v>
+      </c>
+      <c r="N83">
+        <v>1.444</v>
+      </c>
+      <c r="O83">
+        <v>4.75</v>
+      </c>
+      <c r="P83">
+        <v>7</v>
+      </c>
+      <c r="Q83">
+        <v>-1.25</v>
+      </c>
+      <c r="R83">
         <v>1.95</v>
       </c>
-      <c r="L83">
-        <v>3.4</v>
-      </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>3.75</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>2.025</v>
-      </c>
       <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,40 +16387,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>48</v>
       </c>
       <c r="K179">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N179">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16429,34 +16429,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,40 +16476,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>48</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O180">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16518,34 +16518,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,46 +19769,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
+        <v>2.1</v>
+      </c>
+      <c r="O217">
+        <v>3.5</v>
+      </c>
+      <c r="P217">
+        <v>3.5</v>
+      </c>
+      <c r="Q217">
+        <v>-0.25</v>
+      </c>
+      <c r="R217">
         <v>1.8</v>
       </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>4.333</v>
-      </c>
-      <c r="Q217">
-        <v>-0.75</v>
-      </c>
-      <c r="R217">
-        <v>1.975</v>
-      </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19823,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,46 +19858,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19912,16 +19912,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M223">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N223">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q223">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
         <v>2.025</v>
       </c>
-      <c r="S223">
+      <c r="V223">
         <v>1.825</v>
       </c>
-      <c r="T223">
-        <v>3</v>
-      </c>
-      <c r="U223">
-        <v>1.9</v>
-      </c>
-      <c r="V223">
-        <v>1.95</v>
-      </c>
       <c r="W223">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
         <v>1.025</v>
-      </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
-      <c r="AB223">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H224">
+        <v>4</v>
+      </c>
+      <c r="I224">
         <v>0</v>
       </c>
-      <c r="I224">
-        <v>2</v>
-      </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N224">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R224">
+        <v>2.025</v>
+      </c>
+      <c r="S224">
+        <v>1.825</v>
+      </c>
+      <c r="T224">
+        <v>3</v>
+      </c>
+      <c r="U224">
+        <v>1.9</v>
+      </c>
+      <c r="V224">
         <v>1.95</v>
       </c>
-      <c r="S224">
-        <v>1.85</v>
-      </c>
-      <c r="T224">
-        <v>2.5</v>
-      </c>
-      <c r="U224">
-        <v>1.8</v>
-      </c>
-      <c r="V224">
-        <v>2</v>
-      </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N225">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
+        <v>1.95</v>
+      </c>
+      <c r="S225">
         <v>1.85</v>
       </c>
-      <c r="S225">
-        <v>2</v>
-      </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078996</v>
+        <v>6078263</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L227">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N227">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q227">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
         <v>1.9</v>
       </c>
-      <c r="S227">
-        <v>1.95</v>
-      </c>
-      <c r="T227">
-        <v>3</v>
-      </c>
-      <c r="U227">
-        <v>2</v>
-      </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,55 +20748,55 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>47</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M228">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P228">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20805,19 +20805,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,76 +20837,76 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
         <v>3.4</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N229">
+        <v>2.875</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>2.5</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
         <v>2.05</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>3.5</v>
-      </c>
-      <c r="Q229">
-        <v>-0.5</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
       </c>
       <c r="S229">
         <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>1.5</v>
+      </c>
+      <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
+        <v>0.8</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>1.05</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>1</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
-      </c>
-      <c r="AB229">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,13 +20926,13 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -20941,28 +20941,28 @@
         <v>49</v>
       </c>
       <c r="K230">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
         <v>1.825</v>
@@ -20971,13 +20971,13 @@
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
         <v>1.025</v>
-      </c>
-      <c r="AA230">
-        <v>-1</v>
-      </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
-      <c r="AC230">
-        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,13 +21015,13 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21030,28 +21030,28 @@
         <v>49</v>
       </c>
       <c r="K231">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P231">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
         <v>1.825</v>
@@ -21060,13 +21060,13 @@
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21075,7 +21075,7 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21084,7 +21084,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078268</v>
+        <v>6077499</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,28 +21193,28 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
         <v>0</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N233">
         <v>2.9</v>
@@ -21223,46 +21223,46 @@
         <v>3.4</v>
       </c>
       <c r="P233">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
         <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T233">
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21282,76 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H234">
         <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O234">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
         <v>1.85</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z234">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078998</v>
+        <v>6078268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,55 +21460,55 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>47</v>
       </c>
       <c r="K236">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O236">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21517,19 +21517,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -22110,19 +22110,19 @@
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22184,10 +22184,10 @@
         <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
         <v>2.5</v>
@@ -22258,10 +22258,10 @@
         <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
         <v>2.5</v>
@@ -22367,7 +22367,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7723522</v>
+        <v>7723523</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22379,46 +22379,46 @@
         <v>45347.5</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K247">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L247">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N247">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P247">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22441,7 +22441,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22453,46 +22453,46 @@
         <v>45347.5</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K248">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M248">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N248">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O248">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q248">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
         <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
         <v>0</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,73 +4461,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,73 +4550,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46">
+        <v>3.2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>2.2</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>3.25</v>
+      </c>
+      <c r="P46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46">
-        <v>1.95</v>
-      </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
         <v>1.75</v>
       </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>4.5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.75</v>
-      </c>
-      <c r="R46">
-        <v>1.95</v>
-      </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,13 +4817,13 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4832,43 +4832,43 @@
         <v>49</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4877,16 +4877,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,70 +6330,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
         <v>2.15</v>
-      </c>
-      <c r="N66">
-        <v>3.4</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,70 +6419,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6078876</v>
+        <v>6532619</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,58 +9089,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>49</v>
       </c>
       <c r="K97">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9149,16 +9149,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6532619</v>
+        <v>6078876</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
+        <v>3.75</v>
+      </c>
+      <c r="N98">
+        <v>1.909</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>4.2</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.5</v>
       </c>
-      <c r="N98">
-        <v>2.45</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2.05</v>
-      </c>
-      <c r="S98">
-        <v>1.75</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,16 +9238,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,19 +19324,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19348,52 +19348,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.45</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.775</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.95</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,19 +19413,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19437,52 +19437,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,46 +19769,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19823,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,46 +19858,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
+        <v>2.1</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
         <v>1.8</v>
       </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>4.333</v>
-      </c>
-      <c r="Q218">
-        <v>-0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19912,16 +19912,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,37 +20036,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>3.2</v>
+      </c>
+      <c r="N220">
+        <v>2.625</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
         <v>2.6</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>2.6</v>
-      </c>
-      <c r="N220">
-        <v>2.8</v>
-      </c>
-      <c r="O220">
-        <v>3.2</v>
-      </c>
-      <c r="P220">
-        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20078,34 +20078,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,37 +20125,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
+        <v>2.6</v>
+      </c>
+      <c r="N221">
+        <v>2.8</v>
+      </c>
+      <c r="O221">
         <v>3.2</v>
       </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20167,34 +20167,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y221">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45262.75</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X223">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O224">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N225">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
         <v>3.4</v>
       </c>
       <c r="M227">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N227">
+        <v>2.875</v>
+      </c>
+      <c r="O227">
+        <v>3.3</v>
+      </c>
+      <c r="P227">
+        <v>2.5</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
         <v>2.05</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>3.5</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>2</v>
       </c>
       <c r="S227">
         <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>1.5</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.8</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
         <v>1.05</v>
-      </c>
-      <c r="X227">
-        <v>-1</v>
-      </c>
-      <c r="Y227">
-        <v>-1</v>
-      </c>
-      <c r="Z227">
-        <v>1</v>
-      </c>
-      <c r="AA227">
-        <v>-1</v>
-      </c>
-      <c r="AB227">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC227">
-        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6078996</v>
+        <v>6078263</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,76 +20748,76 @@
         <v>45263.75</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K228">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L228">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.8</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
         <v>1.9</v>
       </c>
-      <c r="S228">
-        <v>1.95</v>
-      </c>
-      <c r="T228">
-        <v>3</v>
-      </c>
-      <c r="U228">
-        <v>2</v>
-      </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,55 +20837,55 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P229">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20894,19 +20894,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,13 +20926,13 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -20941,28 +20941,28 @@
         <v>49</v>
       </c>
       <c r="K230">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M230">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
         <v>1.825</v>
@@ -20971,13 +20971,13 @@
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,7 +20986,7 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20995,7 +20995,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,67 +21015,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M231">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N231">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O231">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P231">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z231">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21084,7 +21084,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,67 +21104,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N232">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O232">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21173,7 +21173,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6078998</v>
+        <v>6078268</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,55 +21282,55 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>47</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N234">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O234">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21339,19 +21339,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,40 +21460,40 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
         <v>47</v>
       </c>
       <c r="K236">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N236">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
         <v>3.4</v>
       </c>
-      <c r="P236">
-        <v>2.375</v>
-      </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
         <v>1.8</v>
@@ -21505,10 +21505,10 @@
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21517,7 +21517,7 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z236">
         <v>-1</v>
@@ -21526,10 +21526,10 @@
         <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,13 +21549,13 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>3</v>
@@ -21564,40 +21564,40 @@
         <v>47</v>
       </c>
       <c r="K237">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N237">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
         <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21606,19 +21606,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB237">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22110,19 +22110,19 @@
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V243">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22184,19 +22184,19 @@
         <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
         <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22219,7 +22219,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7723520</v>
+        <v>7723524</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22231,46 +22231,46 @@
         <v>45346.75</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G245" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K245">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O245">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q245">
         <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22293,7 +22293,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22302,49 +22302,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45346.85416666666</v>
+        <v>45346.75</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G246" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
+        <v>4.5</v>
+      </c>
+      <c r="N246">
+        <v>1.666</v>
+      </c>
+      <c r="O246">
         <v>4</v>
       </c>
-      <c r="N246">
-        <v>1.75</v>
-      </c>
-      <c r="O246">
-        <v>3.6</v>
-      </c>
       <c r="P246">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q246">
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22394,31 +22394,31 @@
         <v>2.2</v>
       </c>
       <c r="N247">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O247">
         <v>3.3</v>
       </c>
       <c r="P247">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S247">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V247">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22468,22 +22468,22 @@
         <v>3.5</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O248">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q248">
         <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
         <v>2.5</v>
@@ -22542,22 +22542,22 @@
         <v>1.727</v>
       </c>
       <c r="N249">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O249">
         <v>3.6</v>
       </c>
       <c r="P249">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q249">
         <v>0.5</v>
       </c>
       <c r="R249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T249">
         <v>2.25</v>
@@ -22616,22 +22616,22 @@
         <v>3.5</v>
       </c>
       <c r="N250">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O250">
         <v>3.6</v>
       </c>
       <c r="P250">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q250">
         <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T250">
         <v>2.5</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,73 +2770,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N26">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,73 +2859,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6078935</v>
+        <v>6073148</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,73 +4461,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45">
+        <v>3.2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>2.2</v>
+      </c>
+      <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45">
-        <v>1.95</v>
-      </c>
-      <c r="L45">
-        <v>3.5</v>
-      </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
         <v>1.75</v>
       </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>4.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.75</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6073148</v>
+        <v>6078935</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,73 +4550,73 @@
         <v>44984.85416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6078862</v>
+        <v>6078937</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>44988.75</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6078937</v>
+        <v>6078862</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,13 +4817,13 @@
         <v>44988.75</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4832,43 +4832,43 @@
         <v>49</v>
       </c>
       <c r="K49">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4877,16 +4877,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
+        <v>3.4</v>
+      </c>
+      <c r="N62">
+        <v>2.15</v>
+      </c>
+      <c r="O62">
+        <v>3.25</v>
+      </c>
+      <c r="P62">
+        <v>3.6</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
         <v>2.25</v>
       </c>
-      <c r="N62">
-        <v>3.3</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>2.25</v>
-      </c>
-      <c r="Q62">
-        <v>0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N63">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.8</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,70 +6330,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,70 +6419,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
+        <v>2.375</v>
+      </c>
+      <c r="N67">
+        <v>3.3</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
         <v>2.15</v>
-      </c>
-      <c r="N67">
-        <v>3.4</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6078878</v>
+        <v>6075792</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,58 +8822,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8882,16 +8882,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6075792</v>
+        <v>6078878</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,58 +8911,58 @@
         <v>45055.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8971,16 +8971,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,19 +19324,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19348,52 +19348,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,19 +19413,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19437,52 +19437,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.45</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>2.025</v>
-      </c>
-      <c r="S213">
-        <v>1.775</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.5</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.95</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,46 +19769,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
+        <v>2.1</v>
+      </c>
+      <c r="O217">
+        <v>3.5</v>
+      </c>
+      <c r="P217">
+        <v>3.5</v>
+      </c>
+      <c r="Q217">
+        <v>-0.25</v>
+      </c>
+      <c r="R217">
         <v>1.8</v>
       </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>4.333</v>
-      </c>
-      <c r="Q217">
-        <v>-0.75</v>
-      </c>
-      <c r="R217">
-        <v>1.975</v>
-      </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19823,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,46 +19858,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19912,16 +19912,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N224">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N225">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
+        <v>1.95</v>
+      </c>
+      <c r="S225">
         <v>1.85</v>
       </c>
-      <c r="S225">
-        <v>2</v>
-      </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,55 +20659,55 @@
         <v>45263.75</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
         <v>47</v>
       </c>
       <c r="K227">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M227">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N227">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P227">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20716,19 +20716,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,55 +20837,55 @@
         <v>45263.75</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N229">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q229">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20894,19 +20894,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,67 +20926,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M230">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P230">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z230">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20995,7 +20995,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,67 +21015,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
+        <v>4.333</v>
+      </c>
+      <c r="M231">
+        <v>6</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
         <v>4.75</v>
       </c>
-      <c r="M231">
-        <v>1.4</v>
-      </c>
-      <c r="N231">
-        <v>12</v>
-      </c>
-      <c r="O231">
-        <v>8.5</v>
-      </c>
       <c r="P231">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q231">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
         <v>1.8</v>
       </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.875</v>
-      </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21084,7 +21084,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6077499</v>
+        <v>6078268</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,28 +21193,28 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N233">
         <v>2.9</v>
@@ -21223,46 +21223,46 @@
         <v>3.4</v>
       </c>
       <c r="P233">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q233">
         <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T233">
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,40 +21282,40 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
         <v>47</v>
       </c>
       <c r="K234">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
         <v>3.4</v>
       </c>
-      <c r="P234">
-        <v>2.375</v>
-      </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
         <v>1.8</v>
@@ -21327,10 +21327,10 @@
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21339,7 +21339,7 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z234">
         <v>-1</v>
@@ -21348,10 +21348,10 @@
         <v>1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC234">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6078269</v>
+        <v>6077499</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,58 +21371,58 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>49</v>
       </c>
       <c r="K235">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N235">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W235">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21431,16 +21431,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,13 +21460,13 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>3</v>
@@ -21475,40 +21475,40 @@
         <v>47</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N236">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q236">
         <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21517,19 +21517,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>4.333</v>
+      </c>
+      <c r="N237">
+        <v>1.8</v>
+      </c>
+      <c r="O237">
         <v>3.6</v>
       </c>
-      <c r="M237">
-        <v>3.8</v>
-      </c>
-      <c r="N237">
-        <v>2.15</v>
-      </c>
-      <c r="O237">
-        <v>3.75</v>
-      </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -22088,6 +22088,15 @@
       <c r="G243" t="s">
         <v>37</v>
       </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
+        <v>47</v>
+      </c>
       <c r="K243">
         <v>1.8</v>
       </c>
@@ -22098,7 +22107,7 @@
         <v>4.333</v>
       </c>
       <c r="N243">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O243">
         <v>3.5</v>
@@ -22113,31 +22122,37 @@
         <v>1.8</v>
       </c>
       <c r="S243">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V243">
         <v>2.025</v>
       </c>
       <c r="W243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
+        <v>1.025</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22145,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7723521</v>
+        <v>7723520</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22154,49 +22169,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45345.89583333334</v>
+        <v>45346.75</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M244">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N244">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R244">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T244">
         <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22293,7 +22308,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7723520</v>
+        <v>7723523</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22302,49 +22317,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45346.75</v>
+        <v>45347.5</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K246">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L246">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N246">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P246">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22367,7 +22382,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22379,46 +22394,46 @@
         <v>45347.5</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K247">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M247">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N247">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O247">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22441,7 +22456,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7723522</v>
+        <v>7723351</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22450,49 +22465,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45347.5</v>
+        <v>45347.75</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K248">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L248">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N248">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="O248">
         <v>3.6</v>
       </c>
       <c r="P248">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22515,7 +22530,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7723351</v>
+        <v>7723525</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22524,49 +22539,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45347.75</v>
+        <v>45347.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K249">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L249">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M249">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N249">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O249">
         <v>3.6</v>
       </c>
       <c r="P249">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q249">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22581,80 +22596,6 @@
         <v>0</v>
       </c>
       <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>7723525</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45347.85416666666</v>
-      </c>
-      <c r="F250" t="s">
-        <v>32</v>
-      </c>
-      <c r="G250" t="s">
-        <v>30</v>
-      </c>
-      <c r="K250">
-        <v>2</v>
-      </c>
-      <c r="L250">
-        <v>3.5</v>
-      </c>
-      <c r="M250">
-        <v>3.5</v>
-      </c>
-      <c r="N250">
-        <v>1.85</v>
-      </c>
-      <c r="O250">
-        <v>3.6</v>
-      </c>
-      <c r="P250">
-        <v>4.2</v>
-      </c>
-      <c r="Q250">
-        <v>-0.5</v>
-      </c>
-      <c r="R250">
-        <v>1.9</v>
-      </c>
-      <c r="S250">
-        <v>1.95</v>
-      </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>1.825</v>
-      </c>
-      <c r="V250">
-        <v>2.025</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6078944</v>
+        <v>6078868</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45003.75</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N62">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.8</v>
       </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6078868</v>
+        <v>6078944</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45003.75</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3.25</v>
       </c>
       <c r="M63">
+        <v>3.4</v>
+      </c>
+      <c r="N63">
+        <v>2.15</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
+        <v>3.6</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
         <v>2.25</v>
       </c>
-      <c r="N63">
-        <v>3.3</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>2.25</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,40 +16387,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>48</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
         <v>1.925</v>
@@ -16429,34 +16429,34 @@
         <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,40 +16476,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>48</v>
       </c>
       <c r="K180">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P180">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.925</v>
@@ -16518,34 +16518,34 @@
         <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,37 +20036,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
+        <v>2.6</v>
+      </c>
+      <c r="N220">
+        <v>2.8</v>
+      </c>
+      <c r="O220">
         <v>3.2</v>
       </c>
-      <c r="N220">
-        <v>2.625</v>
-      </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
       <c r="P220">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20078,34 +20078,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y220">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,37 +20125,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K221">
+        <v>2.15</v>
+      </c>
+      <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>3.2</v>
+      </c>
+      <c r="N221">
+        <v>2.625</v>
+      </c>
+      <c r="O221">
+        <v>3.5</v>
+      </c>
+      <c r="P221">
         <v>2.6</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.6</v>
-      </c>
-      <c r="N221">
-        <v>2.8</v>
-      </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20167,34 +20167,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45262.75</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L224">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
+        <v>1.95</v>
+      </c>
+      <c r="S224">
         <v>1.85</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6078265</v>
+        <v>6077498</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45262.75</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N225">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,67 +20926,67 @@
         <v>45268.75</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
+        <v>4.333</v>
+      </c>
+      <c r="M230">
+        <v>6</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
         <v>4.75</v>
       </c>
-      <c r="M230">
-        <v>1.4</v>
-      </c>
-      <c r="N230">
-        <v>12</v>
-      </c>
-      <c r="O230">
-        <v>8.5</v>
-      </c>
       <c r="P230">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
+        <v>1.825</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
         <v>1.8</v>
       </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.875</v>
-      </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20995,7 +20995,7 @@
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,13 +21015,13 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21030,28 +21030,28 @@
         <v>49</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N231">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
         <v>1.825</v>
@@ -21060,13 +21060,13 @@
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21075,16 +21075,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>1.025</v>
-      </c>
-      <c r="AA231">
-        <v>-1</v>
-      </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
-      <c r="AC231">
-        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,67 +21104,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N232">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P232">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z232">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21173,7 +21173,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N233">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L237">
+        <v>3.3</v>
+      </c>
+      <c r="M237">
+        <v>2.3</v>
+      </c>
+      <c r="N237">
+        <v>2.9</v>
+      </c>
+      <c r="O237">
         <v>3.4</v>
       </c>
-      <c r="M237">
-        <v>4.333</v>
-      </c>
-      <c r="N237">
+      <c r="P237">
+        <v>2.375</v>
+      </c>
+      <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
         <v>1.8</v>
       </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.5</v>
-      </c>
-      <c r="Q237">
-        <v>-0.75</v>
-      </c>
-      <c r="R237">
-        <v>1.925</v>
-      </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>1.375</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
+        <v>1</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
         <v>0.8</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>0.925</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>1.025</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22187,31 +22187,31 @@
         <v>4.5</v>
       </c>
       <c r="N244">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O244">
         <v>4</v>
       </c>
       <c r="P244">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
         <v>-0.75</v>
       </c>
       <c r="R244">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
         <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22282,10 +22282,10 @@
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22308,7 +22308,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22320,46 +22320,46 @@
         <v>45347.5</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G246" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K246">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N246">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O246">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22382,7 +22382,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7723522</v>
+        <v>7723523</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22394,46 +22394,46 @@
         <v>45347.5</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K247">
+        <v>3.3</v>
+      </c>
+      <c r="L247">
+        <v>3.3</v>
+      </c>
+      <c r="M247">
+        <v>2.2</v>
+      </c>
+      <c r="N247">
+        <v>2.9</v>
+      </c>
+      <c r="O247">
+        <v>3.3</v>
+      </c>
+      <c r="P247">
+        <v>2.45</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
         <v>2.1</v>
       </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
-      <c r="M247">
-        <v>3.5</v>
-      </c>
-      <c r="N247">
-        <v>1.85</v>
-      </c>
-      <c r="O247">
-        <v>3.6</v>
-      </c>
-      <c r="P247">
-        <v>4.2</v>
-      </c>
-      <c r="Q247">
-        <v>-0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.9</v>
-      </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22495,10 +22495,10 @@
         <v>0.5</v>
       </c>
       <c r="R248">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T248">
         <v>2.25</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6078853</v>
+        <v>6073146</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,73 +2770,73 @@
         <v>44967.875</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6073146</v>
+        <v>6078853</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,73 +2859,73 @@
         <v>44967.875</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6078859</v>
+        <v>6074216</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>44983.75</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6074216</v>
+        <v>6078859</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>44983.75</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.875</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6075784</v>
+        <v>6078866</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,70 +6330,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
         <v>3.3</v>
       </c>
       <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
         <v>2.15</v>
-      </c>
-      <c r="N66">
-        <v>3.4</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>2.05</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6078866</v>
+        <v>6075784</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,70 +6419,70 @@
         <v>45004.85416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6075788</v>
+        <v>6078871</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,70 +7754,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K82">
+        <v>1.75</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>4.2</v>
+      </c>
+      <c r="N82">
+        <v>1.444</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>-1.25</v>
+      </c>
+      <c r="R82">
         <v>1.95</v>
       </c>
-      <c r="L82">
-        <v>3.4</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>3.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>2.025</v>
-      </c>
       <c r="S82">
+        <v>1.85</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
         <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
       </c>
       <c r="V82">
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6078871</v>
+        <v>6075788</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,70 +7843,70 @@
         <v>45039.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,19 +19324,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19348,52 +19348,52 @@
         <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.45</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.775</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.95</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,19 +19413,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19437,52 +19437,52 @@
         <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,46 +19769,46 @@
         <v>45255.75</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19823,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,46 +19858,46 @@
         <v>45255.75</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L218">
         <v>3.4</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
+        <v>2.1</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
         <v>1.8</v>
       </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>4.333</v>
-      </c>
-      <c r="Q218">
-        <v>-0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T218">
         <v>2.75</v>
@@ -19912,16 +19912,16 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,37 +20036,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>3.2</v>
+      </c>
+      <c r="N220">
+        <v>2.625</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
         <v>2.6</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>2.6</v>
-      </c>
-      <c r="N220">
-        <v>2.8</v>
-      </c>
-      <c r="O220">
-        <v>3.2</v>
-      </c>
-      <c r="P220">
-        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -20078,34 +20078,34 @@
         <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,37 +20125,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
+        <v>2.6</v>
+      </c>
+      <c r="N221">
+        <v>2.8</v>
+      </c>
+      <c r="O221">
         <v>3.2</v>
       </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20167,34 +20167,34 @@
         <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y221">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,67 +21015,67 @@
         <v>45268.75</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M231">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P231">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W231">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA231">
         <v>-1</v>
@@ -21084,7 +21084,7 @@
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,67 +21104,67 @@
         <v>45268.75</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N232">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O232">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -21173,7 +21173,7 @@
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L233">
+        <v>3.3</v>
+      </c>
+      <c r="M233">
+        <v>2.3</v>
+      </c>
+      <c r="N233">
+        <v>2.9</v>
+      </c>
+      <c r="O233">
         <v>3.4</v>
       </c>
-      <c r="M233">
-        <v>4.333</v>
-      </c>
-      <c r="N233">
+      <c r="P233">
+        <v>2.375</v>
+      </c>
+      <c r="Q233">
+        <v>0.25</v>
+      </c>
+      <c r="R233">
         <v>1.8</v>
       </c>
-      <c r="O233">
-        <v>3.6</v>
-      </c>
-      <c r="P233">
-        <v>4.5</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
-        <v>1.925</v>
-      </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>1.375</v>
+      </c>
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.8</v>
-      </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>0.925</v>
-      </c>
-      <c r="AA233">
-        <v>-1</v>
-      </c>
-      <c r="AB233">
-        <v>1.025</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6077768</v>
+        <v>6077499</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21282,76 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
         <v>0</v>
       </c>
-      <c r="I234">
-        <v>3</v>
-      </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
         <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,76 +21371,76 @@
         <v>45269.75</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N235">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P235">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U235">
         <v>1.85</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z235">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6078998</v>
+        <v>6077768</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,13 +21460,13 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>3</v>
@@ -21475,40 +21475,40 @@
         <v>47</v>
       </c>
       <c r="K236">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>3.4</v>
+      </c>
+      <c r="N236">
+        <v>2.05</v>
+      </c>
+      <c r="O236">
         <v>3.6</v>
       </c>
-      <c r="M236">
-        <v>3.8</v>
-      </c>
-      <c r="N236">
-        <v>2.15</v>
-      </c>
-      <c r="O236">
-        <v>3.75</v>
-      </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q236">
         <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21517,19 +21517,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N237">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC237">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7723520</v>
+        <v>7723521</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22169,40 +22169,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45346.75</v>
+        <v>45345.89583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N244">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O244">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q244">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
+        <v>1.85</v>
+      </c>
+      <c r="S244">
         <v>1.95</v>
-      </c>
-      <c r="S244">
-        <v>1.9</v>
       </c>
       <c r="T244">
         <v>2.5</v>
@@ -22211,22 +22220,28 @@
         <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC244">
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22234,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,61 +22261,76 @@
         <v>45346.75</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="H245">
+        <v>5</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>49</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N245">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC245">
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22308,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7723522</v>
+        <v>7723524</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22317,28 +22347,37 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45347.5</v>
+        <v>45346.75</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>49</v>
       </c>
       <c r="K246">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
+        <v>3.5</v>
+      </c>
+      <c r="M246">
+        <v>4</v>
+      </c>
+      <c r="N246">
+        <v>1.95</v>
+      </c>
+      <c r="O246">
         <v>3.4</v>
-      </c>
-      <c r="M246">
-        <v>3.5</v>
-      </c>
-      <c r="N246">
-        <v>1.85</v>
-      </c>
-      <c r="O246">
-        <v>3.6</v>
       </c>
       <c r="P246">
         <v>4.2</v>
@@ -22347,34 +22386,40 @@
         <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA246">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22382,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22394,46 +22439,46 @@
         <v>45347.5</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K247">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M247">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N247">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O247">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22456,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7723351</v>
+        <v>7723523</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22465,49 +22510,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45347.75</v>
+        <v>45347.5</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K248">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="N248">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P248">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q248">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R248">
+        <v>2.1</v>
+      </c>
+      <c r="S248">
+        <v>1.775</v>
+      </c>
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>2</v>
+      </c>
+      <c r="V248">
         <v>1.85</v>
-      </c>
-      <c r="S248">
-        <v>2</v>
-      </c>
-      <c r="T248">
-        <v>2.25</v>
-      </c>
-      <c r="U248">
-        <v>1.925</v>
-      </c>
-      <c r="V248">
-        <v>1.925</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22530,7 +22575,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7723525</v>
+        <v>7723351</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22539,49 +22584,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45347.85416666666</v>
+        <v>45347.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K249">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L249">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M249">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N249">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O249">
         <v>3.6</v>
       </c>
       <c r="P249">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q249">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R249">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S249">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U249">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22596,6 +22641,80 @@
         <v>0</v>
       </c>
       <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7723525</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F250" t="s">
+        <v>32</v>
+      </c>
+      <c r="G250" t="s">
+        <v>30</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>3.5</v>
+      </c>
+      <c r="M250">
+        <v>3.5</v>
+      </c>
+      <c r="N250">
+        <v>1.85</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
+        <v>4.2</v>
+      </c>
+      <c r="Q250">
+        <v>-0.5</v>
+      </c>
+      <c r="R250">
+        <v>1.85</v>
+      </c>
+      <c r="S250">
+        <v>2</v>
+      </c>
+      <c r="T250">
+        <v>2.75</v>
+      </c>
+      <c r="U250">
+        <v>2.025</v>
+      </c>
+      <c r="V250">
+        <v>1.825</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45269.75</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N233">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21282,76 @@
         <v>45269.75</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
         <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
         <v>3.4</v>
       </c>
-      <c r="P234">
-        <v>2.4</v>
-      </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z234">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6077768</v>
+        <v>6077499</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45269.75</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>3</v>
-      </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
         <v>3.4</v>
       </c>
       <c r="N236">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45269.75</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L237">
+        <v>3.3</v>
+      </c>
+      <c r="M237">
+        <v>2.3</v>
+      </c>
+      <c r="N237">
+        <v>2.9</v>
+      </c>
+      <c r="O237">
         <v>3.4</v>
       </c>
-      <c r="M237">
-        <v>4.333</v>
-      </c>
-      <c r="N237">
+      <c r="P237">
+        <v>2.375</v>
+      </c>
+      <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
         <v>1.8</v>
       </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.5</v>
-      </c>
-      <c r="Q237">
-        <v>-0.75</v>
-      </c>
-      <c r="R237">
-        <v>1.925</v>
-      </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>1.375</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
+        <v>1</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
         <v>0.8</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>0.925</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>1.025</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7723522</v>
+        <v>7723523</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,46 +22439,46 @@
         <v>45347.5</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K247">
+        <v>3.3</v>
+      </c>
+      <c r="L247">
+        <v>3.3</v>
+      </c>
+      <c r="M247">
+        <v>2.2</v>
+      </c>
+      <c r="N247">
+        <v>2.9</v>
+      </c>
+      <c r="O247">
+        <v>3.3</v>
+      </c>
+      <c r="P247">
+        <v>2.45</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
         <v>2.1</v>
       </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
-      <c r="M247">
-        <v>3.5</v>
-      </c>
-      <c r="N247">
-        <v>1.85</v>
-      </c>
-      <c r="O247">
-        <v>3.6</v>
-      </c>
-      <c r="P247">
-        <v>4.2</v>
-      </c>
-      <c r="Q247">
-        <v>-0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.925</v>
-      </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22513,46 +22513,46 @@
         <v>45347.5</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K248">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M248">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N248">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O248">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S248">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>2.5</v>
       </c>
       <c r="U248">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22614,10 +22614,10 @@
         <v>0.25</v>
       </c>
       <c r="R249">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T249">
         <v>2.25</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,52 +9113,52 @@
         <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.45</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.775</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.95</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.5</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.95</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,52 +9202,52 @@
         <v>3.5</v>
       </c>
       <c r="N98">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,46 +9534,46 @@
         <v>45255.75</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>2.75</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45255.75</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>3.5</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.6</v>
-      </c>
-      <c r="P103">
-        <v>4.333</v>
-      </c>
-      <c r="Q103">
-        <v>-0.75</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.75</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45262.75</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N108">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R108">
+        <v>2.025</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
         <v>1.95</v>
       </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
-      <c r="V108">
-        <v>2</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45262.75</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>1</v>
-      </c>
-      <c r="AB109">
-        <v>1.025</v>
-      </c>
-      <c r="AC109">
-        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45262.75</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
         <v>2.025</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.825</v>
       </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>1</v>
+      </c>
+      <c r="AB110">
         <v>1.025</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6078263</v>
+        <v>6078996</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45263.75</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>48</v>
+      </c>
+      <c r="K112">
+        <v>1.4</v>
+      </c>
+      <c r="L112">
+        <v>4.333</v>
+      </c>
+      <c r="M112">
+        <v>7</v>
+      </c>
+      <c r="N112">
+        <v>1.285</v>
+      </c>
+      <c r="O112">
+        <v>5.5</v>
+      </c>
+      <c r="P112">
+        <v>11</v>
+      </c>
+      <c r="Q112">
+        <v>-1.5</v>
+      </c>
+      <c r="R112">
+        <v>1.9</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="J112" t="s">
-        <v>49</v>
-      </c>
-      <c r="K112">
-        <v>2.05</v>
-      </c>
-      <c r="L112">
-        <v>3.4</v>
-      </c>
-      <c r="M112">
-        <v>3.5</v>
-      </c>
-      <c r="N112">
-        <v>2.05</v>
-      </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>3.5</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,55 +10513,55 @@
         <v>45263.75</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>48</v>
       </c>
       <c r="K113">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,19 +10570,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45263.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
         <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S114">
         <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,67 +10780,67 @@
         <v>45268.75</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10849,7 +10849,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,67 +10869,67 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,13 +11047,13 @@
         <v>45269.75</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>3</v>
@@ -11062,40 +11062,40 @@
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11104,19 +11104,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6078269</v>
+        <v>6078268</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
+        <v>3.3</v>
+      </c>
+      <c r="M120">
+        <v>2.3</v>
+      </c>
+      <c r="N120">
+        <v>2.9</v>
+      </c>
+      <c r="O120">
         <v>3.4</v>
       </c>
-      <c r="M120">
-        <v>4.333</v>
-      </c>
-      <c r="N120">
+      <c r="P120">
+        <v>2.375</v>
+      </c>
+      <c r="Q120">
+        <v>0.25</v>
+      </c>
+      <c r="R120">
         <v>1.8</v>
       </c>
-      <c r="O120">
-        <v>3.6</v>
-      </c>
-      <c r="P120">
-        <v>4.5</v>
-      </c>
-      <c r="Q120">
-        <v>-0.75</v>
-      </c>
-      <c r="R120">
-        <v>1.925</v>
-      </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>1.375</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>1</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>0.925</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>1.025</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6078998</v>
+        <v>6077768</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,13 +11225,13 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>3</v>
@@ -11240,40 +11240,40 @@
         <v>48</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
+        <v>3.5</v>
+      </c>
+      <c r="M121">
+        <v>3.4</v>
+      </c>
+      <c r="N121">
+        <v>2.05</v>
+      </c>
+      <c r="O121">
         <v>3.6</v>
       </c>
-      <c r="M121">
-        <v>3.8</v>
-      </c>
-      <c r="N121">
-        <v>2.15</v>
-      </c>
-      <c r="O121">
-        <v>3.75</v>
-      </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11282,19 +11282,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6078268</v>
+        <v>6078269</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45269.75</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45346.75</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,16 +12086,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7723520</v>
+        <v>7723524</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45346.75</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q131">
         <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7723522</v>
+        <v>7723523</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45347.5</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N132">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45347.5</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12452,6 +12452,687 @@
       </c>
       <c r="AC134">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7723525</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>43</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>3.5</v>
+      </c>
+      <c r="N135">
+        <v>1.909</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>4</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>2.6</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB135">
+        <v>0.95</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7723530</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45352.85416666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136">
+        <v>2.625</v>
+      </c>
+      <c r="L136">
+        <v>3.25</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>2.625</v>
+      </c>
+      <c r="O136">
+        <v>3.25</v>
+      </c>
+      <c r="P136">
+        <v>2.5</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7723528</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137">
+        <v>1.95</v>
+      </c>
+      <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
+        <v>1.95</v>
+      </c>
+      <c r="O137">
+        <v>3.6</v>
+      </c>
+      <c r="P137">
+        <v>3.4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>2.025</v>
+      </c>
+      <c r="S137">
+        <v>1.825</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>2.025</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7723531</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45353.85416666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K138">
+        <v>2.05</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>3.25</v>
+      </c>
+      <c r="N138">
+        <v>2.05</v>
+      </c>
+      <c r="O138">
+        <v>3.4</v>
+      </c>
+      <c r="P138">
+        <v>3.3</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>2.025</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7723532</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45353.85416666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>3.6</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>3.6</v>
+      </c>
+      <c r="Q139">
+        <v>-0.5</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>1.8</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.875</v>
+      </c>
+      <c r="V139">
+        <v>1.975</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7723533</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>3.6</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>3.6</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7723352</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F141" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" t="s">
+        <v>29</v>
+      </c>
+      <c r="K141">
+        <v>1.533</v>
+      </c>
+      <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
+        <v>6</v>
+      </c>
+      <c r="N141">
+        <v>1.6</v>
+      </c>
+      <c r="O141">
+        <v>3.6</v>
+      </c>
+      <c r="P141">
+        <v>5.5</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.8</v>
+      </c>
+      <c r="S141">
+        <v>2.05</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.925</v>
+      </c>
+      <c r="V141">
+        <v>1.925</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7723529</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45354.85416666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K142">
+        <v>2.1</v>
+      </c>
+      <c r="L142">
+        <v>3.25</v>
+      </c>
+      <c r="M142">
+        <v>3.4</v>
+      </c>
+      <c r="N142">
+        <v>1.909</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>3.8</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.9</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
+        <v>1.925</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7723527</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45355.79166666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="K143">
+        <v>2.8</v>
+      </c>
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>2.375</v>
+      </c>
+      <c r="N143">
+        <v>3.1</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>2.2</v>
+      </c>
+      <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
+        <v>1.925</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
+        <v>2.025</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,52 +9113,52 @@
         <v>3.5</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,52 +9202,52 @@
         <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.45</v>
+      </c>
+      <c r="AA98">
         <v>-0.5</v>
       </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>2.5</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.95</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,46 +9534,46 @@
         <v>45255.75</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
+        <v>2.1</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>3.5</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
         <v>1.8</v>
       </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>4.333</v>
-      </c>
-      <c r="Q102">
-        <v>-0.75</v>
-      </c>
-      <c r="R102">
-        <v>1.975</v>
-      </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.75</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45255.75</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>2.75</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45263.75</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L113">
         <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S113">
         <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45263.75</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L114">
         <v>3.4</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
+        <v>2.875</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
+        <v>2.5</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
         <v>2.05</v>
-      </c>
-      <c r="O114">
-        <v>3.6</v>
-      </c>
-      <c r="P114">
-        <v>3.5</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
       </c>
       <c r="S114">
         <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>1.5</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.8</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>1.05</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,13 +10691,13 @@
         <v>45268.75</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10706,28 +10706,28 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L115">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
         <v>1.825</v>
@@ -10736,13 +10736,13 @@
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10751,16 +10751,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
-      <c r="AC115">
-        <v>1.05</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,67 +10780,67 @@
         <v>45268.75</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N116">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10849,7 +10849,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,67 +10869,67 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
+        <v>4.333</v>
+      </c>
+      <c r="M117">
+        <v>6</v>
+      </c>
+      <c r="N117">
+        <v>1.444</v>
+      </c>
+      <c r="O117">
         <v>4.75</v>
       </c>
-      <c r="M117">
-        <v>1.4</v>
-      </c>
-      <c r="N117">
-        <v>12</v>
-      </c>
-      <c r="O117">
-        <v>8.5</v>
-      </c>
       <c r="P117">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
+        <v>1.825</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.8</v>
       </c>
-      <c r="T117">
-        <v>3.25</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45269.75</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
         <v>3.4</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
         <v>3.4</v>
       </c>
-      <c r="P118">
-        <v>2.4</v>
-      </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45269.75</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
         <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O121">
         <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V121">
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,73 +11314,73 @@
         <v>45269.75</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>3</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
+        <v>1.909</v>
+      </c>
+      <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
+        <v>3.8</v>
+      </c>
+      <c r="N122">
+        <v>2.15</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
+        <v>3.1</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
         <v>1.85</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>4.333</v>
-      </c>
-      <c r="N122">
-        <v>1.8</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
-      <c r="P122">
-        <v>4.5</v>
-      </c>
-      <c r="Q122">
-        <v>-0.75</v>
-      </c>
-      <c r="R122">
-        <v>1.925</v>
-      </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7723520</v>
+        <v>7723524</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45346.75</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,16 +12086,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45346.75</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
         <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12575,31 +12575,31 @@
         <v>2.5</v>
       </c>
       <c r="N136">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O136">
         <v>3.25</v>
       </c>
       <c r="P136">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q136">
         <v>0</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7723528</v>
+        <v>7723533</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,46 +12634,46 @@
         <v>45353.75</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12696,7 +12696,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7723531</v>
+        <v>7723528</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12705,40 +12705,40 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45353.85416666666</v>
+        <v>45353.75</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K138">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
         <v>3.4</v>
-      </c>
-      <c r="M138">
-        <v>3.25</v>
       </c>
       <c r="N138">
         <v>2.05</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
         <v>2.5</v>
@@ -12770,7 +12770,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7723532</v>
+        <v>7723531</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12782,46 +12782,46 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
         <v>3.25</v>
       </c>
-      <c r="M139">
-        <v>3.6</v>
-      </c>
       <c r="N139">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7723533</v>
+        <v>7723532</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12853,13 +12853,13 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45354.5</v>
+        <v>45353.85416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K140">
         <v>2</v>
@@ -12871,31 +12871,31 @@
         <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
         <v>3.25</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12945,10 +12945,10 @@
         <v>6</v>
       </c>
       <c r="N141">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
         <v>5.5</v>
@@ -12957,10 +12957,10 @@
         <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2.5</v>
@@ -13022,19 +13022,19 @@
         <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
         <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.5</v>
@@ -13093,7 +13093,7 @@
         <v>2.375</v>
       </c>
       <c r="N143">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O143">
         <v>3.4</v>
@@ -13105,10 +13105,10 @@
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
         <v>2.5</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,37 +9801,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
+        <v>2.6</v>
+      </c>
+      <c r="N105">
+        <v>2.8</v>
+      </c>
+      <c r="O105">
         <v>3.2</v>
       </c>
-      <c r="N105">
-        <v>2.625</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
       <c r="P105">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -9843,34 +9843,34 @@
         <v>1.9</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,37 +9890,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
+        <v>2.15</v>
+      </c>
+      <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>3.2</v>
+      </c>
+      <c r="N106">
+        <v>2.625</v>
+      </c>
+      <c r="O106">
+        <v>3.5</v>
+      </c>
+      <c r="P106">
         <v>2.6</v>
-      </c>
-      <c r="L106">
-        <v>3.4</v>
-      </c>
-      <c r="M106">
-        <v>2.6</v>
-      </c>
-      <c r="N106">
-        <v>2.8</v>
-      </c>
-      <c r="O106">
-        <v>3.2</v>
-      </c>
-      <c r="P106">
-        <v>2.7</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -9932,34 +9932,34 @@
         <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,67 +10780,67 @@
         <v>45268.75</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
+        <v>4.333</v>
+      </c>
+      <c r="M116">
+        <v>6</v>
+      </c>
+      <c r="N116">
+        <v>1.444</v>
+      </c>
+      <c r="O116">
         <v>4.75</v>
       </c>
-      <c r="M116">
-        <v>1.4</v>
-      </c>
-      <c r="N116">
-        <v>12</v>
-      </c>
-      <c r="O116">
-        <v>8.5</v>
-      </c>
       <c r="P116">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q116">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
+        <v>1.825</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
         <v>1.8</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.875</v>
-      </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10849,7 +10849,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,67 +10869,67 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N117">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P117">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z117">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,40 +10958,40 @@
         <v>45269.75</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
+        <v>2.3</v>
+      </c>
+      <c r="N118">
+        <v>2.9</v>
+      </c>
+      <c r="O118">
         <v>3.4</v>
       </c>
-      <c r="N118">
-        <v>2.05</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
       <c r="P118">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
         <v>1.8</v>
@@ -11003,10 +11003,10 @@
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11015,7 +11015,7 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
         <v>-1</v>
@@ -11024,10 +11024,10 @@
         <v>1</v>
       </c>
       <c r="AB118">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6077499</v>
+        <v>6077768</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45269.75</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
         <v>3.4</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
         <v>3.4</v>
       </c>
-      <c r="P119">
-        <v>2.4</v>
-      </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6078268</v>
+        <v>6077499</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,28 +11136,28 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
         <v>2.9</v>
@@ -11166,46 +11166,46 @@
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>1</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,73 +11225,73 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
         <v>3</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
+        <v>1.909</v>
+      </c>
+      <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
+        <v>3.8</v>
+      </c>
+      <c r="N121">
+        <v>2.15</v>
+      </c>
+      <c r="O121">
+        <v>3.75</v>
+      </c>
+      <c r="P121">
+        <v>3.1</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
         <v>1.85</v>
       </c>
-      <c r="L121">
-        <v>3.4</v>
-      </c>
-      <c r="M121">
-        <v>4.333</v>
-      </c>
-      <c r="N121">
-        <v>1.8</v>
-      </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
-        <v>4.5</v>
-      </c>
-      <c r="Q121">
-        <v>-0.75</v>
-      </c>
-      <c r="R121">
-        <v>1.925</v>
-      </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,73 +11314,73 @@
         <v>45269.75</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>4.333</v>
+      </c>
+      <c r="N122">
+        <v>1.8</v>
+      </c>
+      <c r="O122">
         <v>3.6</v>
       </c>
-      <c r="M122">
-        <v>3.8</v>
-      </c>
-      <c r="N122">
-        <v>2.15</v>
-      </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -12565,6 +12565,15 @@
       <c r="G136" t="s">
         <v>36</v>
       </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
       <c r="K136">
         <v>2.625</v>
       </c>
@@ -12575,46 +12584,52 @@
         <v>2.5</v>
       </c>
       <c r="N136">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O136">
+        <v>3.4</v>
+      </c>
+      <c r="P136">
         <v>3.25</v>
       </c>
-      <c r="P136">
-        <v>2.9</v>
-      </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7723533</v>
+        <v>7723528</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,46 +12649,46 @@
         <v>45353.75</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
+        <v>2.2</v>
+      </c>
+      <c r="O137">
+        <v>3.6</v>
+      </c>
+      <c r="P137">
         <v>3.2</v>
       </c>
-      <c r="M137">
-        <v>2.375</v>
-      </c>
-      <c r="N137">
-        <v>2.875</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>2.625</v>
-      </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12696,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7723528</v>
+        <v>7723533</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12708,46 +12723,46 @@
         <v>45353.75</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K138">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12797,22 +12812,22 @@
         <v>3.25</v>
       </c>
       <c r="N139">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O139">
+        <v>3.6</v>
+      </c>
+      <c r="P139">
         <v>3.8</v>
-      </c>
-      <c r="P139">
-        <v>4.2</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>2.75</v>
@@ -12871,22 +12886,22 @@
         <v>3.6</v>
       </c>
       <c r="N140">
+        <v>2.15</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
+        <v>3.75</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
         <v>2.05</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>4</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
-        <v>2.1</v>
-      </c>
-      <c r="S140">
-        <v>1.775</v>
       </c>
       <c r="T140">
         <v>2.25</v>
@@ -12951,16 +12966,16 @@
         <v>3.75</v>
       </c>
       <c r="P141">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q141">
         <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.5</v>
@@ -13093,22 +13108,22 @@
         <v>2.375</v>
       </c>
       <c r="N143">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
         <v>3.4</v>
       </c>
       <c r="P143">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.5</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,52 +9113,52 @@
         <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.45</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.775</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.95</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.5</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.95</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,52 +9202,52 @@
         <v>3.5</v>
       </c>
       <c r="N98">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,46 +9534,46 @@
         <v>45255.75</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>2.75</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45255.75</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>3.5</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.6</v>
-      </c>
-      <c r="P103">
-        <v>4.333</v>
-      </c>
-      <c r="Q103">
-        <v>-0.75</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.75</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,73 +10068,73 @@
         <v>45262.75</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M108">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N108">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
         <v>2.025</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>1.825</v>
       </c>
-      <c r="T108">
-        <v>3</v>
-      </c>
-      <c r="U108">
-        <v>1.9</v>
-      </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
       <c r="W108">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>1</v>
+      </c>
+      <c r="AB108">
         <v>1.025</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6077498</v>
+        <v>6078266</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45262.75</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L110">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N110">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P110">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6078996</v>
+        <v>6078263</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45263.75</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>3</v>
-      </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45263.75</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K113">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L113">
         <v>3.4</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
+        <v>2.875</v>
+      </c>
+      <c r="O113">
+        <v>3.3</v>
+      </c>
+      <c r="P113">
+        <v>2.5</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
         <v>2.05</v>
-      </c>
-      <c r="O113">
-        <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>3.5</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
       </c>
       <c r="S113">
         <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.5</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>0.8</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>1.05</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,55 +10602,55 @@
         <v>45263.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>48</v>
       </c>
       <c r="K114">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P114">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10659,19 +10659,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,67 +10691,67 @@
         <v>45268.75</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10760,7 +10760,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,67 +10869,67 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O117">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6077499</v>
+        <v>6078269</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,58 +11136,58 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>49</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6078998</v>
+        <v>6077499</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,73 +11314,73 @@
         <v>45269.75</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>3</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
+        <v>1.909</v>
+      </c>
+      <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
+        <v>3.8</v>
+      </c>
+      <c r="N122">
+        <v>2.15</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
+        <v>3.1</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
         <v>1.85</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>4.333</v>
-      </c>
-      <c r="N122">
-        <v>1.8</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
-      <c r="P122">
-        <v>4.5</v>
-      </c>
-      <c r="Q122">
-        <v>-0.75</v>
-      </c>
-      <c r="R122">
-        <v>1.925</v>
-      </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45346.75</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,16 +12086,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7723520</v>
+        <v>7723524</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45346.75</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q131">
         <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7723528</v>
+        <v>7723533</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,61 +12649,76 @@
         <v>45353.75</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>0.95</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7723533</v>
+        <v>7723352</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,49 +12735,49 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45353.75</v>
+        <v>45354.75</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N138">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P138">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
+        <v>1.875</v>
+      </c>
+      <c r="S138">
+        <v>1.975</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.925</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.925</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>2</v>
-      </c>
-      <c r="V138">
-        <v>1.85</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12785,7 +12800,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7723531</v>
+        <v>7723529</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12794,49 +12809,49 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45353.85416666666</v>
+        <v>45354.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
         <v>3.4</v>
       </c>
-      <c r="M139">
-        <v>3.25</v>
-      </c>
       <c r="N139">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12859,7 +12874,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7723532</v>
+        <v>7723527</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12868,34 +12883,34 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45353.85416666666</v>
+        <v>45355.79166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
+        <v>2.375</v>
+      </c>
+      <c r="N140">
         <v>3.6</v>
       </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
         <v>1.8</v>
@@ -12904,13 +12919,13 @@
         <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12925,228 +12940,6 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>7723352</v>
-      </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45354.75</v>
-      </c>
-      <c r="F141" t="s">
-        <v>37</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
-      <c r="K141">
-        <v>1.533</v>
-      </c>
-      <c r="L141">
-        <v>3.75</v>
-      </c>
-      <c r="M141">
-        <v>6</v>
-      </c>
-      <c r="N141">
-        <v>1.666</v>
-      </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
-      <c r="P141">
-        <v>5.25</v>
-      </c>
-      <c r="Q141">
-        <v>-0.75</v>
-      </c>
-      <c r="R141">
-        <v>1.875</v>
-      </c>
-      <c r="S141">
-        <v>1.975</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.925</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>7723529</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45354.85416666666</v>
-      </c>
-      <c r="F142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G142" t="s">
-        <v>46</v>
-      </c>
-      <c r="K142">
-        <v>2.1</v>
-      </c>
-      <c r="L142">
-        <v>3.25</v>
-      </c>
-      <c r="M142">
-        <v>3.4</v>
-      </c>
-      <c r="N142">
-        <v>1.909</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
-      <c r="P142">
-        <v>4.2</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.925</v>
-      </c>
-      <c r="S142">
-        <v>1.925</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.925</v>
-      </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>7723527</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="2">
-        <v>45355.79166666666</v>
-      </c>
-      <c r="F143" t="s">
-        <v>38</v>
-      </c>
-      <c r="G143" t="s">
-        <v>44</v>
-      </c>
-      <c r="K143">
-        <v>2.8</v>
-      </c>
-      <c r="L143">
-        <v>3.4</v>
-      </c>
-      <c r="M143">
-        <v>2.375</v>
-      </c>
-      <c r="N143">
-        <v>3.6</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>2.1</v>
-      </c>
-      <c r="Q143">
-        <v>0.5</v>
-      </c>
-      <c r="R143">
-        <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>2.025</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-      <c r="AA143">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,46 +9534,46 @@
         <v>45255.75</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
+        <v>2.1</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>3.5</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
         <v>1.8</v>
       </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>4.333</v>
-      </c>
-      <c r="Q102">
-        <v>-0.75</v>
-      </c>
-      <c r="R102">
-        <v>1.975</v>
-      </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.75</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45255.75</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>2.75</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,55 +10513,55 @@
         <v>45263.75</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>48</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N113">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P113">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,19 +10570,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6078996</v>
+        <v>6077767</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,55 +10602,55 @@
         <v>45263.75</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>48</v>
       </c>
       <c r="K114">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L114">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O114">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q114">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10659,19 +10659,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6143704</v>
+        <v>6078997</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,67 +10691,67 @@
         <v>45268.75</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10760,7 +10760,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6078267</v>
+        <v>6143704</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,67 +10780,67 @@
         <v>45268.75</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N116">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z116">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10849,7 +10849,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,13 +10869,13 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10884,28 +10884,28 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
         <v>1.825</v>
@@ -10914,13 +10914,13 @@
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10929,7 +10929,7 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6078268</v>
+        <v>6077499</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,28 +10958,28 @@
         <v>45269.75</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N118">
         <v>2.9</v>
@@ -10988,46 +10988,46 @@
         <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q118">
         <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>1</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
-      </c>
-      <c r="AC118">
-        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6077768</v>
+        <v>6078269</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45269.75</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
         <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
         <v>1.825</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6078269</v>
+        <v>6077768</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
         <v>3.4</v>
       </c>
-      <c r="M120">
-        <v>4.333</v>
-      </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O120">
         <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6077499</v>
+        <v>6078268</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,28 +11225,28 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
         <v>2.9</v>
@@ -11255,46 +11255,46 @@
         <v>3.4</v>
       </c>
       <c r="P121">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q121">
         <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7723523</v>
+        <v>7723522</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45347.5</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7723522</v>
+        <v>7723523</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45347.5</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7723533</v>
+        <v>7723528</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45353.75</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
         <v>2.375</v>
       </c>
-      <c r="N137">
-        <v>2.3</v>
-      </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W137">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7723352</v>
+        <v>7723533</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12735,64 +12735,79 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45354.75</v>
+        <v>45353.75</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N138">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.95</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12800,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7723529</v>
+        <v>7723532</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,64 +12824,79 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45354.85416666666</v>
+        <v>45353.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
         <v>3.5</v>
       </c>
-      <c r="P139">
-        <v>4.2</v>
-      </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
         <v>1.925</v>
       </c>
       <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.9</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>2.5</v>
       </c>
-      <c r="U139">
-        <v>1.925</v>
-      </c>
-      <c r="V139">
-        <v>1.925</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-      <c r="Y139">
-        <v>0</v>
-      </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB139">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC139">
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12874,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7723527</v>
+        <v>7723531</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12883,63 +12913,937 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45355.79166666666</v>
+        <v>45353.85416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
         <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
+        <v>2</v>
+      </c>
+      <c r="W140">
+        <v>1.05</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7723352</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F141" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>49</v>
+      </c>
+      <c r="K141">
+        <v>1.533</v>
+      </c>
+      <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
+        <v>6</v>
+      </c>
+      <c r="N141">
+        <v>1.666</v>
+      </c>
+      <c r="O141">
+        <v>3.75</v>
+      </c>
+      <c r="P141">
+        <v>5.25</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
-      <c r="W140">
+      <c r="W141">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7723529</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45354.85416666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" t="s">
+        <v>46</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142" t="s">
+        <v>48</v>
+      </c>
+      <c r="K142">
+        <v>2.1</v>
+      </c>
+      <c r="L142">
+        <v>3.25</v>
+      </c>
+      <c r="M142">
+        <v>3.4</v>
+      </c>
+      <c r="N142">
+        <v>2.05</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>3.75</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.875</v>
+      </c>
+      <c r="V142">
+        <v>1.925</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>2.75</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB142">
+        <v>0.875</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7723527</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45355.79166666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>48</v>
+      </c>
+      <c r="K143">
+        <v>2.8</v>
+      </c>
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>2.375</v>
+      </c>
+      <c r="N143">
+        <v>3.5</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>2.05</v>
+      </c>
+      <c r="Q143">
+        <v>0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>1.025</v>
+      </c>
+      <c r="AB143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7723535</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45360.75</v>
+      </c>
+      <c r="F144" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>29</v>
+      </c>
+      <c r="K144">
+        <v>2.2</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>2.9</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>3.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
         <v>0</v>
       </c>
-      <c r="X140">
+      <c r="X144">
         <v>0</v>
       </c>
-      <c r="Y140">
+      <c r="Y144">
         <v>0</v>
       </c>
-      <c r="Z140">
+      <c r="Z144">
         <v>0</v>
       </c>
-      <c r="AA140">
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7723536</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45360.85416666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>42</v>
+      </c>
+      <c r="K145">
+        <v>2.25</v>
+      </c>
+      <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3.1</v>
+      </c>
+      <c r="N145">
+        <v>2.1</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
+        <v>3.5</v>
+      </c>
+      <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.825</v>
+      </c>
+      <c r="S145">
+        <v>2.025</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.85</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7723537</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45360.85416666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146">
+        <v>2.45</v>
+      </c>
+      <c r="L146">
+        <v>3.25</v>
+      </c>
+      <c r="M146">
+        <v>2.875</v>
+      </c>
+      <c r="N146">
+        <v>2.3</v>
+      </c>
+      <c r="O146">
+        <v>3.25</v>
+      </c>
+      <c r="P146">
+        <v>3.1</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2.025</v>
+      </c>
+      <c r="S146">
+        <v>1.825</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
+        <v>1.9</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7916735</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>46</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="K147">
+        <v>2.25</v>
+      </c>
+      <c r="L147">
+        <v>3.25</v>
+      </c>
+      <c r="M147">
+        <v>3.1</v>
+      </c>
+      <c r="N147">
+        <v>2.15</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>3.2</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7723353</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45361.75</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>44</v>
+      </c>
+      <c r="K148">
+        <v>1.533</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>5.5</v>
+      </c>
+      <c r="N148">
+        <v>1.7</v>
+      </c>
+      <c r="O148">
+        <v>3.75</v>
+      </c>
+      <c r="P148">
+        <v>4.333</v>
+      </c>
+      <c r="Q148">
+        <v>-0.75</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.875</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.925</v>
+      </c>
+      <c r="V148">
+        <v>1.925</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7723539</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45361.875</v>
+      </c>
+      <c r="F149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>38</v>
+      </c>
+      <c r="K149">
+        <v>1.8</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>4.333</v>
+      </c>
+      <c r="N149">
+        <v>1.75</v>
+      </c>
+      <c r="O149">
+        <v>3.6</v>
+      </c>
+      <c r="P149">
+        <v>4.5</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>1.825</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7723540</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45362.79166666666</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>40</v>
+      </c>
+      <c r="K150">
+        <v>2.25</v>
+      </c>
+      <c r="L150">
+        <v>3.25</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>2.1</v>
+      </c>
+      <c r="O150">
+        <v>3.3</v>
+      </c>
+      <c r="P150">
+        <v>3.3</v>
+      </c>
+      <c r="Q150">
+        <v>-0.25</v>
+      </c>
+      <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>2.025</v>
+      </c>
+      <c r="V150">
+        <v>1.825</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7723534</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45362.89583333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" t="s">
+        <v>45</v>
+      </c>
+      <c r="K151">
+        <v>1.8</v>
+      </c>
+      <c r="L151">
+        <v>3.5</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
+        <v>3.5</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.825</v>
+      </c>
+      <c r="V151">
+        <v>2.025</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,40 +6152,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>1.925</v>
@@ -6194,34 +6194,34 @@
         <v>1.875</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,40 +6241,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
         <v>1.925</v>
@@ -6283,34 +6283,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,37 +9801,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
+        <v>2.15</v>
+      </c>
+      <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>3.2</v>
+      </c>
+      <c r="N105">
+        <v>2.625</v>
+      </c>
+      <c r="O105">
+        <v>3.5</v>
+      </c>
+      <c r="P105">
         <v>2.6</v>
-      </c>
-      <c r="L105">
-        <v>3.4</v>
-      </c>
-      <c r="M105">
-        <v>2.6</v>
-      </c>
-      <c r="N105">
-        <v>2.8</v>
-      </c>
-      <c r="O105">
-        <v>3.2</v>
-      </c>
-      <c r="P105">
-        <v>2.7</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -9843,34 +9843,34 @@
         <v>1.9</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,37 +9890,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
+        <v>2.6</v>
+      </c>
+      <c r="N106">
+        <v>2.8</v>
+      </c>
+      <c r="O106">
         <v>3.2</v>
       </c>
-      <c r="N106">
-        <v>2.625</v>
-      </c>
-      <c r="O106">
-        <v>3.5</v>
-      </c>
       <c r="P106">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -9932,34 +9932,34 @@
         <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y106">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45262.75</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>2</v>
-      </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N109">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P109">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
+        <v>2.025</v>
+      </c>
+      <c r="S109">
+        <v>1.825</v>
+      </c>
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
         <v>1.95</v>
       </c>
-      <c r="S109">
-        <v>1.85</v>
-      </c>
-      <c r="T109">
-        <v>2.5</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6078266</v>
+        <v>6078265</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45262.75</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z110">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6078997</v>
+        <v>6143704</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,67 +10691,67 @@
         <v>45268.75</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10760,7 +10760,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6143704</v>
+        <v>6078267</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,67 +10780,67 @@
         <v>45268.75</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
+        <v>4.333</v>
+      </c>
+      <c r="M116">
+        <v>6</v>
+      </c>
+      <c r="N116">
+        <v>1.444</v>
+      </c>
+      <c r="O116">
         <v>4.75</v>
       </c>
-      <c r="M116">
-        <v>1.4</v>
-      </c>
-      <c r="N116">
-        <v>12</v>
-      </c>
-      <c r="O116">
-        <v>8.5</v>
-      </c>
       <c r="P116">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q116">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
+        <v>1.825</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
         <v>1.8</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.875</v>
-      </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10849,7 +10849,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,13 +10869,13 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10884,28 +10884,28 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L117">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
         <v>1.825</v>
@@ -10914,13 +10914,13 @@
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10929,16 +10929,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>1.025</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>1.05</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6077768</v>
+        <v>6078998</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>3</v>
@@ -11151,40 +11151,40 @@
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
         <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11193,19 +11193,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6078998</v>
+        <v>6077768</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45269.75</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>3</v>
@@ -11329,40 +11329,40 @@
         <v>48</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
+        <v>3.5</v>
+      </c>
+      <c r="M122">
+        <v>3.4</v>
+      </c>
+      <c r="N122">
+        <v>2.05</v>
+      </c>
+      <c r="O122">
         <v>3.6</v>
       </c>
-      <c r="M122">
-        <v>3.8</v>
-      </c>
-      <c r="N122">
-        <v>2.15</v>
-      </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11371,19 +11371,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7723520</v>
+        <v>7723524</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45346.75</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,16 +12086,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45346.75</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
         <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7723528</v>
+        <v>7723533</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45353.75</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N137">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7723533</v>
+        <v>7723528</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45353.75</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
+        <v>3.4</v>
+      </c>
+      <c r="N138">
         <v>2.375</v>
       </c>
-      <c r="N138">
-        <v>2.3</v>
-      </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7723532</v>
+        <v>7723531</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,34 +12827,34 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
         <v>3.25</v>
       </c>
-      <c r="M139">
-        <v>3.6</v>
-      </c>
       <c r="N139">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
         <v>3.5</v>
@@ -12863,40 +12863,40 @@
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7723531</v>
+        <v>7723532</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,34 +12916,34 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
         <v>3.5</v>
@@ -12952,40 +12952,40 @@
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2.5</v>
       </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
-      <c r="W140">
-        <v>1.05</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
       <c r="Z140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13287,31 +13287,31 @@
         <v>2.9</v>
       </c>
       <c r="N144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O144">
         <v>3.75</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13364,28 +13364,28 @@
         <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>0</v>
@@ -13435,31 +13435,31 @@
         <v>2.875</v>
       </c>
       <c r="N146">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13509,13 +13509,13 @@
         <v>3.1</v>
       </c>
       <c r="N147">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
         <v>3.3</v>
       </c>
       <c r="P147">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q147">
         <v>-0.25</v>
@@ -13583,13 +13583,13 @@
         <v>5.5</v>
       </c>
       <c r="N148">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O148">
         <v>3.75</v>
       </c>
       <c r="P148">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
         <v>-0.75</v>
@@ -13604,10 +13604,10 @@
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>4.333</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
         <v>3.6</v>
@@ -13669,10 +13669,10 @@
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
@@ -13734,10 +13734,10 @@
         <v>2.1</v>
       </c>
       <c r="O150">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
         <v>-0.25</v>
@@ -13805,22 +13805,22 @@
         <v>4</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2.5</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,40 +6152,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
         <v>1.925</v>
@@ -6194,34 +6194,34 @@
         <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,40 +6241,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>1.925</v>
@@ -6283,34 +6283,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,52 +9113,52 @@
         <v>3.5</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,52 +9202,52 @@
         <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.45</v>
+      </c>
+      <c r="AA98">
         <v>-0.5</v>
       </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>2.5</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.95</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45262.75</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L108">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
         <v>1.85</v>
       </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>1</v>
-      </c>
-      <c r="AB108">
-        <v>1.025</v>
-      </c>
-      <c r="AC108">
-        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,73 +10157,73 @@
         <v>45262.75</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M109">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N109">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
         <v>2.025</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>1.825</v>
       </c>
-      <c r="T109">
-        <v>3</v>
-      </c>
-      <c r="U109">
-        <v>1.9</v>
-      </c>
-      <c r="V109">
-        <v>1.95</v>
-      </c>
       <c r="W109">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>1</v>
+      </c>
+      <c r="AB109">
         <v>1.025</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45262.75</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N110">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P110">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R110">
+        <v>2.025</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="S110">
-        <v>1.85</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45263.75</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
         <v>3.4</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N112">
+        <v>2.875</v>
+      </c>
+      <c r="O112">
+        <v>3.3</v>
+      </c>
+      <c r="P112">
+        <v>2.5</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
         <v>2.05</v>
-      </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>3.5</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
       </c>
       <c r="S112">
         <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.5</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
+        <v>0.8</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>1.05</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
-      <c r="AB112">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC112">
-        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6077767</v>
+        <v>6078263</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45263.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
         <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S114">
         <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6078267</v>
+        <v>6078997</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,13 +10780,13 @@
         <v>45268.75</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10795,28 +10795,28 @@
         <v>49</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
         <v>1.825</v>
@@ -10825,13 +10825,13 @@
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10840,16 +10840,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>1.025</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
-      <c r="AC116">
-        <v>1.05</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6078997</v>
+        <v>6078267</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,13 +10869,13 @@
         <v>45268.75</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10884,28 +10884,28 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
         <v>1.825</v>
@@ -10914,13 +10914,13 @@
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10929,7 +10929,7 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6077499</v>
+        <v>6078998</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45269.75</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
         <v>1.85</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6078269</v>
+        <v>6077499</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45269.75</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
         <v>3.4</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6078998</v>
+        <v>6078269</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,73 +11136,73 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>4.333</v>
+      </c>
+      <c r="N120">
+        <v>1.8</v>
+      </c>
+      <c r="O120">
         <v>3.6</v>
       </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
-      <c r="N120">
-        <v>2.15</v>
-      </c>
-      <c r="O120">
-        <v>3.75</v>
-      </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6078268</v>
+        <v>6077768</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,40 +11225,40 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O121">
+        <v>3.6</v>
+      </c>
+      <c r="P121">
         <v>3.4</v>
       </c>
-      <c r="P121">
-        <v>2.375</v>
-      </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
         <v>1.8</v>
@@ -11270,10 +11270,10 @@
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11282,7 +11282,7 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.375</v>
+        <v>2.4</v>
       </c>
       <c r="Z121">
         <v>-1</v>
@@ -11291,10 +11291,10 @@
         <v>1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6077768</v>
+        <v>6078268</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,40 +11314,40 @@
         <v>45269.75</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>48</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
+        <v>2.3</v>
+      </c>
+      <c r="N122">
+        <v>2.9</v>
+      </c>
+      <c r="O122">
         <v>3.4</v>
       </c>
-      <c r="N122">
-        <v>2.05</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
       <c r="P122">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
         <v>1.8</v>
@@ -11359,10 +11359,10 @@
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11371,7 +11371,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11380,10 +11380,10 @@
         <v>1</v>
       </c>
       <c r="AB122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7723531</v>
+        <v>7723532</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,34 +12827,34 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
         <v>3.5</v>
@@ -12863,40 +12863,40 @@
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.9</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>2.5</v>
       </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>1.05</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
       <c r="Z139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7723532</v>
+        <v>7723531</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,34 +12916,34 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
         <v>3.25</v>
       </c>
-      <c r="M140">
-        <v>3.6</v>
-      </c>
       <c r="N140">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
         <v>3.5</v>
@@ -12952,40 +12952,40 @@
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13277,6 +13277,15 @@
       <c r="G144" t="s">
         <v>29</v>
       </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>48</v>
+      </c>
       <c r="K144">
         <v>2.2</v>
       </c>
@@ -13290,19 +13299,19 @@
         <v>2.05</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
         <v>2.75</v>
@@ -13314,22 +13323,28 @@
         <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB144">
+        <v>0.4875</v>
+      </c>
+      <c r="AC144">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13343,7 +13358,7 @@
         <v>28</v>
       </c>
       <c r="E145" s="2">
-        <v>45360.85416666666</v>
+        <v>45360.85069444445</v>
       </c>
       <c r="F145" t="s">
         <v>34</v>
@@ -13351,6 +13366,15 @@
       <c r="G145" t="s">
         <v>42</v>
       </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>48</v>
+      </c>
       <c r="K145">
         <v>2.25</v>
       </c>
@@ -13364,10 +13388,10 @@
         <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
@@ -13376,39 +13400,45 @@
         <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>1.8</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>2.5</v>
       </c>
-      <c r="U145">
-        <v>2.025</v>
-      </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>1</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7723537</v>
+        <v>7916735</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13417,72 +13447,87 @@
         <v>28</v>
       </c>
       <c r="E146" s="2">
-        <v>45360.85416666666</v>
+        <v>45361.5</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
         <v>3.25</v>
       </c>
       <c r="M146">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
         <v>3.3</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7916735</v>
+        <v>7723353</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13491,40 +13536,49 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45361.5</v>
+        <v>45361.75</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
         <v>2.5</v>
@@ -13533,30 +13587,36 @@
         <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7723353</v>
+        <v>7723539</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13565,72 +13625,87 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45361.75</v>
+        <v>45361.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>1.615</v>
+      </c>
+      <c r="O148">
         <v>4</v>
       </c>
-      <c r="M148">
-        <v>5.5</v>
-      </c>
-      <c r="N148">
-        <v>1.75</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q148">
         <v>-0.75</v>
       </c>
       <c r="R148">
+        <v>1.775</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
         <v>1.975</v>
       </c>
-      <c r="S148">
-        <v>1.875</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7723539</v>
+        <v>7723354</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13639,49 +13714,49 @@
         <v>28</v>
       </c>
       <c r="E149" s="2">
-        <v>45361.875</v>
+        <v>45368.5</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K149">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13699,12 +13774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:29">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7723540</v>
+        <v>7723541</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13713,49 +13788,49 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45362.79166666666</v>
+        <v>45368.5</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K150">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N150">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13773,12 +13848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:29">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7723534</v>
+        <v>7723544</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13787,49 +13862,49 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45362.89583333334</v>
+        <v>45368.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K151">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
         <v>4</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>0</v>

--- a/Chile Primera Division/Chile Primera Division.xlsx
+++ b/Chile Primera Division/Chile Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7082624</v>
+        <v>7157967</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,40 +6152,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>1.925</v>
@@ -6194,34 +6194,34 @@
         <v>1.875</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7157967</v>
+        <v>7082624</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,40 +6241,40 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
         <v>1.925</v>
@@ -6283,34 +6283,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7323253</v>
+        <v>7323186</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,52 +9113,52 @@
         <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.45</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.775</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.95</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.5</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.95</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7323186</v>
+        <v>7323253</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,52 +9202,52 @@
         <v>3.5</v>
       </c>
       <c r="N98">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7494646</v>
+        <v>7494647</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,46 +9534,46 @@
         <v>45255.75</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>2.75</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7494647</v>
+        <v>7494646</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45255.75</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>3.5</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.6</v>
-      </c>
-      <c r="P103">
-        <v>4.333</v>
-      </c>
-      <c r="Q103">
-        <v>-0.75</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.75</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6077763</v>
+        <v>6077497</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,37 +9801,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
+        <v>2.6</v>
+      </c>
+      <c r="N105">
+        <v>2.8</v>
+      </c>
+      <c r="O105">
         <v>3.2</v>
       </c>
-      <c r="N105">
-        <v>2.625</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
       <c r="P105">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -9843,34 +9843,34 @@
         <v>1.9</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6077497</v>
+        <v>6077763</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,37 +9890,37 @@
         <v>45256.85416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
+        <v>2.15</v>
+      </c>
+      <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>3.2</v>
+      </c>
+      <c r="N106">
+        <v>2.625</v>
+      </c>
+      <c r="O106">
+        <v>3.5</v>
+      </c>
+      <c r="P106">
         <v>2.6</v>
-      </c>
-      <c r="L106">
-        <v>3.4</v>
-      </c>
-      <c r="M106">
-        <v>2.6</v>
-      </c>
-      <c r="N106">
-        <v>2.8</v>
-      </c>
-      <c r="O106">
-        <v>3.2</v>
-      </c>
-      <c r="P106">
-        <v>2.7</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -9932,34 +9932,34 @@
         <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6078265</v>
+        <v>6078266</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45262.75</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
         <v>0</v>
       </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N108">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R108">
+        <v>2.025</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
         <v>1.95</v>
       </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
-      <c r="V108">
-        <v>2</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6077498</v>
+        <v>6078265</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45262.75</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>1</v>
-      </c>
-      <c r="AB109">
-        <v>1.025</v>
-      </c>
-      <c r="AC109">
-        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6078266</v>
+        <v>6077498</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45262.75</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
         <v>2.025</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.825</v>
       </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>1</v>
+      </c>
+      <c r="AB110">
         <v>1.025</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6077767</v>
+        <v>6078996</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,55 +10424,55 @@
         <v>45263.75</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>48</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P112">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,19 +10481,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6078996</v>
+        <v>6078263</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45263.75</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.8</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>2</v>
-      </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6078263</v>
+        <v>6077767</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45263.75</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L114">
         <v>3.4</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
+        <v>2.875</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
+        <v>2.5</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
         <v>2.05</v>
-      </c>
-      <c r="O114">
-        <v>3.6</v>
-      </c>
-      <c r="P114">
-        <v>3.5</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
       </c>
       <c r="S114">
         <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>1.5</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.8</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>1.05</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6078998</v>
+        <v>6077768</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,13 +10958,13 @@
         <v>45269.75</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>3</v>
@@ -10973,40 +10973,40 @@
         <v>48</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>3.4</v>
+      </c>
+      <c r="N118">
+        <v>2.05</v>
+      </c>
+      <c r="O118">
         <v>3.6</v>
       </c>
-      <c r="M118">
-        <v>3.8</v>
-      </c>
-      <c r="N118">
-        <v>2.15</v>
-      </c>
-      <c r="O118">
-        <v>3.75</v>
-      </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11015,19 +11015,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6077499</v>
+        <v>6078269</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45269.75</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
         <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6078269</v>
+        <v>6078998</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,73 +11136,73 @@
         <v>45269.75</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
+        <v>1.909</v>
+      </c>
+      <c r="L120">
+        <v>3.6</v>
+      </c>
+      <c r="M120">
+        <v>3.8</v>
+      </c>
+      <c r="N120">
+        <v>2.15</v>
+      </c>
+      <c r="O120">
+        <v>3.75</v>
+      </c>
+      <c r="P120">
+        <v>3.1</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
         <v>1.85</v>
       </c>
-      <c r="L120">
-        <v>3.4</v>
-      </c>
-      <c r="M120">
-        <v>4.333</v>
-      </c>
-      <c r="N120">
-        <v>1.8</v>
-      </c>
-      <c r="O120">
-        <v>3.6</v>
-      </c>
-      <c r="P120">
-        <v>4.5</v>
-      </c>
-      <c r="Q120">
-        <v>-0.75</v>
-      </c>
-      <c r="R120">
-        <v>1.925</v>
-      </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6077768</v>
+        <v>6077499</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45269.75</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>3</v>
-      </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
         <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>1</v>
-      </c>
-      <c r="AB121">
-        <v>0.4875</v>
-      </c>
-      <c r="AC121">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7723524</v>
+        <v>7723520</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45346.75</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,16 +12086,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7723520</v>
+        <v>7723524</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45346.75</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q131">
         <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7723532</v>
+        <v>7723531</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,34 +12827,34 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
         <v>3.25</v>
       </c>
-      <c r="M139">
-        <v>3.6</v>
-      </c>
       <c r="N139">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
         <v>3.5</v>
@@ -12863,40 +12863,40 @@
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7723531</v>
+        <v>7723532</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,34 +12916,34 @@
         <v>45353.85416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
         <v>3.5</v>
@@ -12952,40 +12952,40 @@
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2.5</v>
       </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
-      <c r="W140">
-        <v>1.05</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
       <c r="Z140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7723354</v>
+        <v>7723540</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,64 +13714,79 @@
         <v>28</v>
       </c>
       <c r="E149" s="2">
-        <v>45368.5</v>
+        <v>45362.79166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149" t="s">
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N149">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB149">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7723541</v>
+        <v>7723534</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,64 +13803,79 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45368.5</v>
+        <v>45362.89583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>48</v>
       </c>
       <c r="K150">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
         <v>4</v>
       </c>
-      <c r="M150">
-        <v>5.5</v>
-      </c>
       <c r="N150">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
+        <v>1.95</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
         <v>1.925</v>
       </c>
-      <c r="S150">
-        <v>1.925</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>1.9</v>
-      </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13853,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7723544</v>
+        <v>7723542</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13862,63 +13892,552 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45368.85416666666</v>
+        <v>45366.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L151">
         <v>3.4</v>
       </c>
       <c r="M151">
+        <v>3.3</v>
+      </c>
+      <c r="N151">
+        <v>1.909</v>
+      </c>
+      <c r="O151">
+        <v>3.5</v>
+      </c>
+      <c r="P151">
   